--- a/Danh sách báo cáo e-report.xlsx
+++ b/Danh sách báo cáo e-report.xlsx
@@ -657,30 +657,36 @@
           <t>Tất cả</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>10000</v>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>24782b6955cfae5fd41ed002d9e470d3</t>
+          <t>c6cce148a9430cdd85729c4e29dcc589</t>
         </is>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>12394088303</v>
+        <v>12314067266</v>
       </c>
       <c r="Z2" t="n">
-        <v>149016</v>
+        <v>140363</v>
       </c>
       <c r="AA2" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB2" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -694,16 +700,16 @@
 [COMBO 2 ÁO] Áo thun Nam thể thao ALPHA MAN Basic Tee tay ngắn thể thao COOLMAX mát lạnh dày dặn co dãn thoải mái
 Set 3 Món Váy Áo + Áo Thun 3 Áo Vải Cotton lạnh Chân váy Vải Fo Thanh lịch bigsize nữ 40-95Kg
 [Tặng túi Tote khi mua 2 áo] Áo Thun Local Brand Sancool Unisex Premium Cotton Radio Music Tee - SC024 New item
-Miếng Vá Quần Áo / Áo Thun Họa Tiết Hoa Xinh Xắn Cách Nhiệt Độc Đáo Diy
 Áo phông nam nữ Premium in hình ngôi sao Dolce DG vàng đen quanh áo. Áo Thun Nam Nữ In Hình Ngôi Sao Siêu Hot
 Áo phông nam nữ tom my in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Rộng Siêu Hot Phiên Bản Mới
 Áo thun nam nữ Tom_my Hilfiger in vạch sọc đen trắng đỏ chữ ký quanh áo. Áo Thun Unisex Siêu Hot hiện nay
-Mxfashionestore Miếng Vá Quần Áo / Áo Thun Thêu Chữ Tiếng Anh Bằng Vải May Thủ Công Màu Đỏ
 [NEW] Áo Phông Nam GC Thêu Logo Phối Kẻ Tay Áo - Áo Thun Nam Nữ GC Phối Màu Tay Cực Đẹp [Sẵn]
 Nam Tay Ngắn Mùa Hè Thương Hiệu Thời Trang Mỹ Rời Áo Sơ Mi Nặng Ve Áo Áo Thun Thiết Kế Dây Kéo Áo Thun Tay Ngắn
 ( COMBO 2 ÁO ) Áo thun nam ngăn tay có cổ 2 áo màu đen + trắng
 Thú Cưng Dễ Thương Gấu In Quần áo Áo Thun Thu Đông Ấm áp Và Thoải Mái Quần áo Mèo Và Chó Thời Trang Và Đẹp
 Không Có Nhãn Hiệu Trên Quần Áo Áo Thun Tay Ngắn In Họa Tiết Dễ Thương Thời Trang Mùa Hè Cho Bé Trai Và Gái 1-14 Tuổi
+Áo phông nam nữ in hình lá DSQ2 nửa áo - Áo Thun đôi Nam Nữ cao cấp phong cách vintage sang chảnh 2023 [ KaKy
+(FullTag cổ - tay áo) Áo Thun Nam Nữ Tay Lỡ Form Rộng Freeship Ulzzang Kita Unisex - Sweeder [Fullsize - Ảnh/Video Thật]
 Áo phông nam nữ Tommy Hilfiger in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Unisex Siêu Hot 20
 Áo thun nữ ngắn tay Zhu Xia Slim vừa vặn dài vai ngọt ngào và cay áo ngắn nửa cổ cao cổ không tay áo áo thun
 Áo phông nam nữ in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Unisex Siêu Hot 2023 AT002
@@ -810,7 +816,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
         <v>5378211357338</v>
@@ -947,7 +953,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
         <v>6672144039555</v>
@@ -1089,19 +1095,19 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>673677083937</v>
+        <v>641173708998</v>
       </c>
       <c r="Z5" t="n">
-        <v>6748420</v>
+        <v>6230133</v>
       </c>
       <c r="AA5" t="n">
-        <v>139655</v>
+        <v>129264</v>
       </c>
       <c r="AB5" t="n">
-        <v>10176</v>
+        <v>8243</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1115,26 +1121,26 @@
 🔥Siêu Hot🔥Áo thun CAPYBARA unisex form rộng cổ tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Twinshop
 🔥Hot🔥Áo thun CAPYBARA Unisex Cổ Tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Lapstore
 [SUMMER 2024] Áo thun ngắn tay hoa cổ chữ V có ren trơn phong cách thời trang mùa hè dáng ôm siêu cute A83
-Áo Thun Thể Thao Màu Đen Nhanh Khô Thời Trang Cho Nam
-Áo thun tay dài cổ lọ bằng vải nhung phong cách Đức thời trang thu đông mới dành cho bạn nữ
-Lanlanlolo Áo Thun Lưới Tay Dài Cổ Tròn Màu Trơn Thời Trang 2024 Dành Cho Nữ
-Áo thun 100% cotton tay ngắn cổ tròn dáng rộng hình thời trang bé 2-14 tuổi
-Áo Thun NgắN Tay Cổ Cao PhốI Dây Dệt Kim 40% ThờI Trang Cho Nữ
-YOUSE áo phông áo thun nữ croptop baby tee Thời trang Hàn Phong Popular INS WTX2450L99 20Z240513
 Áo croptop thun nữ phối ren cổ tim tay ngắn, thời trang Hàn Quốc GAGO GA4612
 Áo thun croptop thời trang Mỹ vintage 2023 AU081211
 [ÁO THUN HÈ CHO BÉ 15kg-60kg] CLEVER KIDS ÁO THUN LƯỚI SỐ 10 JERSEY THIẾT KẾ THỜI TRANG CAO CẤP
 Sét váy thời trang nữ mặc đi chơi áo chất thun gân trễ vai phối voan bèo tay dài nút mix chân váy voan 2 lớp maxi
-Áo Thun Cotton Cổ Tròn Ngắn Tay Dáng Ôm Thời Trang Mùa Hè 62457
-Áo Thun Nam Siêu Cấp DSQ 172 Cổ Tròn Tay Cộc Chất Liệu Cotton 2 Chiều Co Giãn Thấm Hút Tốt Thời Trang Nam
-áo trễ vai tay bồng áo bẹt vai Áo Thun Tay Ngắn Thời Trang Mùa Hè Phong Cách Mới Cho Nữ
-Áo Thun Nam Siêu Cấp DSQ 079 Hai Màu Có Khóa Kéo Chất Liệu Cotton Thời Trang Nam Thấm Hút Mồ Hôi
-Áo thun Sát nách , áo thun 3 lỗ nữ phom lửng In hình thời trang ANHSTORE, áo thun 3 lỗ nữ phom croptop siêu xinh
-[bigsizemen] Áo thun cotton phối sọc thời trang cỡ đại bigsize nam &lt; 140kg
-Áo Thun Tay Dài Hở Vai Xuyên Thấu Màu Trơn Thời Trang Mới 2023 Dành Cho Bạn Nữ
-XIANG NIAN NI Áo Thun Ngắn Tay Cổ Chữ u Ôm Dáng Phong Cách Hàn Quốc Thời Trang Mùa Hè Cho Nữ
-Áo Thun Nữ, Borip Phối Tay BBR Mix Quần Đùi Phồng, Thoáng Mát, Thời Trang, Phong Cách Oppa, CNM672130
-Set bộ nữ áo thun rúm eo xẻ tà thời trang phối quần suông ống rộng vải đũi tơ thời trang A854 SUTANO</t>
+Áo thun HIIXIIVI tay ngắn cổ tròn chất liệu 100% cotton thời trang mùa hè Hàn Quốc 2024
+Áo Thun Tay Ngắn Cổ Vuông Dáng Ôm Thời Trang Mùa Hè Hàng Mới 2024 Dành Cho Bạn Nữ
+Áo thun polo clb arsenal áo thun có cổ nam nữ ngắn tay đội bóng ngoại hạng thời trang thanh lịch cao cấp nhà XUZI.
+Áo Thun Nam DSQ, Hai Màu Đen Trắng, Chất Liệu Cotton Mịn Co Dãn Hai Chiều, Thời Trang Nam.
+Áo Thun Tay Ngắn Chất Liệu Cotton In Chữ Thời Trang Mùa Hè Cho Nữ Trung Niên
+Áo Tập Gym Nữ Áo Thun Thể Thao Ngắn Tay Thoáng Khí Mau Khô Thời Trang Cho Nữ
+YOUSE áo phông áo thun nữ croptop baby tee Hàn Phong Phong cách Thể thao Thời trang WTX2450P1U 20Z240515
+Áo thun cotton SELVZE ngắn dáng rộng thời trang hè
+Thời Trang Bigsize  Set Bộ Áo Cổ Tròn Vạc Chéo và Chân Váy Dáng Dài Bigsize Thun Tăm Hot Hit Nữ Cao Cấp Xinh Đẹp 45-95kg
+Áo Thun Tay Ngắn Cổ Tròn Thêu Họa Tiết Thời Trang 2023 Cho Nữ
+Áo thun KRECOO ngắn tay cổ tròn đính đá thời trang cho nữ
+Klalien Áo Thun Croptop Tay Ngắn Hở Lưng Dáng Ôm Phong Cách Retro Mỹ Thời Trang Mùa Hè Quyến Rũ Cho Nữ
+Áo Thun Baby Tee Ngắn Tay Dáng Rộng In Họa Tiết Phong Cách Đường Phố Mỹ Thời Trang Mùa Hè Cho Nữ
+Ethelgirl 3 màu thời trang "nơ" in hình thon cổ tròn ngắn tay Áo thun nữ quần áo hàng đầu
+Áo thun nam cổ tròn tay lỡ fom rộng cotton phông nữ 250gsm local brand in số 10 cá tình thời trang [A238]
+Áo Thun Nữ Ngắn Tay Cổ Đứng Đính Nút Thắt Kiểu Trung Hoa Dáng Ôm Phong Cách Retro Thời Trang Sugal TOP NU 136</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1231,19 +1237,19 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4697455252829</v>
+        <v>4450537937886</v>
       </c>
       <c r="Z6" t="n">
-        <v>36297342</v>
+        <v>34467177</v>
       </c>
       <c r="AA6" t="n">
-        <v>204280</v>
+        <v>167772</v>
       </c>
       <c r="AB6" t="n">
-        <v>35352</v>
+        <v>27073</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1257,26 +1263,26 @@
 Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
 Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
 Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Áo sơ mi nam tay ngắn cổ trụ trơn chất liệu xô gân sọc mát cao cấp - JAATE A05
-[Mẫu Mới] Áo Chống Nắng Nữ Toàn Thân Vải Cotton Cao Cấp
-Đồ Bộ Nữ CARDINA Chất Đũi BamBoo Cao Cấp Áo Sát Nách Ly Vai Quần Lửng Siêu Mát 3DF07
-Áo Sơ Mi Nam Trơn Tay Ngắn cổ bẻ form đẹp, vải lụa chéo mềm mịn, hạn chế nhăn, thanh lịch Full hộp cao cấp As01
-Áo phông nữ ngắn tay form rộng đính nơ to cổ tròn màu trắng basic hottrend cotton mát hàng thiết kế cao cấp DELIZ
-Áo dạ tweed Hồng baby cao cấp pha lông thỏ
-Áo dài truyền thống gấm lụa cao cấp, áo dài hoạ tiết hoa cúc màu tím nhẹ nhàng, thướt tha
-Áo định hình ngực sau phẫu thuật Kajass (Hàng cao cấp giao hỏa tốc HN- SG)
-Áo Ngực Nữ A 977 Đúc Su Không Gọng Cao Cấp Thiết Kế Nâng Ngực Quyến Rũ Điệu Đà  CHILL HOUSE
 Đồ bơi nữ kín đáo áo tắm liền thân bikini đi biển cao cấp tay dài chống nắng kéo khóa trước che khuyết điểm có bigsize
-Áo mưa choàng K22 Sơn Thủy - áo mưa vải dù siêu cao cấp, trượt nước cực tốt K22
-Áo khoác hoodie zip form rộng thêu nơ hồng mũ siêu to, có túi trong, chất liệu nỉ ép Hàn cao cấp
-Áo Lót 2004 Ren Đệm Mỏng , Có Gọng Cao Cấp
-Áo Polo Nam UMA STORE Thêu Chữ U, Chất Liệu Vải Poly Dệt Kim Cao Cấp Thấm Hút Mồ Hôi, Áo Thun Nam Có Cổ Phối Màu  SPA05A
-Áo sơ mi Linen cao cấp, không nhăn và hình thêu sau lưng trẻ trung - dễ mang hằng ngày
-Áo Lót Ren Nữ Áo Lót Nữ Áo Bra Nâng Ngực Áo Ngực Cúp Ngang Ren Hoa Cao Cấp Có Gọng Avalingerie AL0002
-Áo lót định hình nâng ngực sau phẫu thuật ngưc, sau sinh Harita cao cấp xuất Nhật
-Áo sơ mi kẻ sọc nam Stripeshirt LILA thêu logo tên theo yêu cầu vải Oxford Premium cao cấp phong cách Hàn Quốc trẻ trung
-🔥BBR🔥 Áo Polo BBR Nam Chất Cotton Cổ Dệt Vàng Caro Cao Cấp - Áo Polo BBR Cho Nam Nữ Jeanstore
-Áo thun form rộng  hình PORSCHE MY DREAM nam nữ hottrend 2024 tay lỡ unisex chất cotton cao cấp đl 250gsm</t>
+Áo Polo Gucci Cao Cấp - Áo Polo GC Có Túi Logo Thêu Nổi Phong Cách Hiện Đại Nẵng Động Lịch Lãm
+Áo sơ mi nam dài tay Urano cổ bẻ, áo sơ mi vải lụa nến không nhăn không xù cao cấp
+Áo Bóng Đá CLB Bóng Đá CLB Real Madrid màu trắng họa tiết rồng 2023/2024 họa tiết rồng vải gai thái cao cấp phom 43-90kg
+Áo chống nắng nam 2 mặt thông hơi, thun lạnh thoáng mát chống tia UV cao cấp, độ che phủ cao
+ÁO ( LẺ )Ủ KEM GÂN TÀU CAO CẤP , ủ kem chống nắng , mềm mịn co giãn mạnh (40kg-65kg)
+Áo Chống Nắng Nam 2 Lớp - Áo Khoác Chống Nắng Nam Cao Cấp Chống Tia UV Tốt ( Mẫu Mới Nhất )
+Áo Thun Burberry BBR VINTAGE SERRA Kẻ Sọc Vải Cao Cấp Tay Lỡ Form Rộng - Mẫu 01 02
+Áo Sơ Mi Thom Nữ Dài Tay Màu Trắng 4 Sọc Đen, Vải Cotton Lụa Cao Cấp Hót Trend 2024
+Bộ Quần Áo Thể Thao Paris In Logo Họa Tiết Kẻ Sọc Đỏ Siêu Đẹp - Bộ Hè Nam Cao Cấp Siêu Hot 2024
+Áo thun Y.S.L thêu logo cực đẹp áo phông nam nữ kiểu dáng unisex form rộng chất liệu cotton cao cấp thoáng mát mềm mịn
+Áo Thun ADIDA.S DỌC Full Lưng Nam Nữ MCHOUSE Form Rộng Full Tag Mac Chất Vải Cotton 250gsm Cao Cấp
+Áo Sweater STUSSY basic dày dặn mùa đông cao cấp, áo nỉ mùa đông ấm áp
+Áo sơ mi nam ngắn tay mẫu mới vải đũi thời trang cao cấp phong cách nổi bật K_N LUXURY
+Áo dài trắng học sinh, tay bồng, tay lỡ, lụa Mỹ cao cấp
+Đồ Bộ Nữ CARDINA Chất Lụa Satin Cao Cấp Cổ V Áo Cộc Tay Quần Đùi Nhún Eo Nữ Tính 3SF02
+Áo sơ mi nam tay ngắn trơn basic chất liệu kaki cao cấp from regular KALOS SM01
+Áo Lót Cúp Ngực Ren Chống Tụt Không Dây Nâng Ngực Tạo Khe Đệm Bàn Tay Cao Cấp Lady 158
+Bộ bơi 2 mảnh quần shorts áo tay ngắn, bikini áo tắm nữ chất liệu cao cấp, kháng khuẩn, chống tia UV
+Áo thun Di.or Couture Kim Tuyến - Áo phông nam nữ Form rộng Tay lỡ Unisex Cotton Cao Cấp</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1369,7 +1375,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
         <v>7349949123548</v>
@@ -1511,7 +1517,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>2943843248815</v>
@@ -1649,7 +1655,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
         <v>3007723335650</v>
@@ -1790,7 +1796,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
         <v>28307732666</v>
@@ -1929,7 +1935,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
         <v>2369680684</v>
@@ -2070,7 +2076,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>444264323526</v>
@@ -2211,7 +2217,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>79399387737</v>
@@ -2350,7 +2356,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
         <v>761697578942</v>
@@ -2491,7 +2497,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
         <v>775014147962</v>
@@ -2631,7 +2637,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
         <v>7148971980462</v>
@@ -2771,7 +2777,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y17" t="n">
         <v>4021210207832</v>
@@ -2912,7 +2918,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y18" t="n">
         <v>4836250236295</v>
@@ -3052,7 +3058,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>2897300102138</v>
@@ -3188,7 +3194,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
         <v>3137989811237</v>
@@ -3323,7 +3329,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
         <v>836920125722</v>
@@ -3464,7 +3470,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
         <v>65102664563</v>
@@ -3605,7 +3611,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
         <v>2386211370913</v>

--- a/Danh sách báo cáo e-report.xlsx
+++ b/Danh sách báo cáo e-report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,60 +581,85 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Ngành hàng</t>
+          <t>Doanh số từng sàn</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng toàn sàn</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng Shopee</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng Lazada</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng Tiki</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng Tiktok</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>422184</v>
+        <v>242961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ao-ao-thun</t>
+          <t>ao-cao-cap</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-ao-thun</t>
+          <t>https://metric.vn/ao-cao-cap</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>áo áo thun</t>
+          <t>áo cao cấp</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c639748914</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1__100017</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Thời Trang Nữ</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4528685,5</t>
+          <t>2839341,5</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>áo áo thun</t>
+          <t>áo cao cấp</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -657,128 +682,164 @@
           <t>Tất cả</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>iphone</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>10000</v>
-      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>c6cce148a9430cdd85729c4e29dcc589</t>
+          <t>30a202315196142feb41da99863ef173</t>
         </is>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>12314067266</v>
+        <v>5053247560860</v>
       </c>
       <c r="Z2" t="n">
-        <v>140363</v>
+        <v>37299800</v>
       </c>
       <c r="AA2" t="n">
-        <v>350</v>
+        <v>200058</v>
       </c>
       <c r="AB2" t="n">
-        <v>277</v>
+        <v>39236</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Áo Polo Phối Kẻ Tay Áo, Áo Thun Nữ Form Vừa Siêu Xinh
-Áo Polo Phối Kẻ Tay Áo, Áo Thun Nữ Form Vừa Hot Trend
-[Tặng túi Tote khi mua 2 áo] Áo Thun Local Brand Sancool Unisex Premium Cotton Cừu Bebe Vô Tri - SC010 New iteam
-[Tặng túi Tote khi mua 2 áo] Áo Thun Local Brand Sancool Unisex Premium Cotton Happy Cats Ss.1 - SC018 New item
-Áo Phông Nam Nữ Dsq2 In Hình Item Sticker Chó Sao Nấm Chữ Quanh Áo . Áo Thun Cộc Tay Siêu Cấp Cho CÁc Boy Phố Hót 2024.
-[Tặng túi Tote khi mua 2 áo] Áo Thun Local Brand Sancool Unisex Premium Cotton Sancoolteamltd - SC032 New Item
-(Tặng Tất Cùng Màu Áo)Áo Thun Trơn Nhiều Màu Sắc Đồng Phục Đi Chơi, Teambuilding, Hội Nhóm Chất Đẹp
-[COMBO 2 ÁO] Áo thun Nam thể thao ALPHA MAN Basic Tee tay ngắn thể thao COOLMAX mát lạnh dày dặn co dãn thoải mái
-Set 3 Món Váy Áo + Áo Thun 3 Áo Vải Cotton lạnh Chân váy Vải Fo Thanh lịch bigsize nữ 40-95Kg
-[Tặng túi Tote khi mua 2 áo] Áo Thun Local Brand Sancool Unisex Premium Cotton Radio Music Tee - SC024 New item
-Áo phông nam nữ Premium in hình ngôi sao Dolce DG vàng đen quanh áo. Áo Thun Nam Nữ In Hình Ngôi Sao Siêu Hot
-Áo phông nam nữ tom my in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Rộng Siêu Hot Phiên Bản Mới
-Áo thun nam nữ Tom_my Hilfiger in vạch sọc đen trắng đỏ chữ ký quanh áo. Áo Thun Unisex Siêu Hot hiện nay
-[NEW] Áo Phông Nam GC Thêu Logo Phối Kẻ Tay Áo - Áo Thun Nam Nữ GC Phối Màu Tay Cực Đẹp [Sẵn]
-Nam Tay Ngắn Mùa Hè Thương Hiệu Thời Trang Mỹ Rời Áo Sơ Mi Nặng Ve Áo Áo Thun Thiết Kế Dây Kéo Áo Thun Tay Ngắn
-( COMBO 2 ÁO ) Áo thun nam ngăn tay có cổ 2 áo màu đen + trắng
-Thú Cưng Dễ Thương Gấu In Quần áo Áo Thun Thu Đông Ấm áp Và Thoải Mái Quần áo Mèo Và Chó Thời Trang Và Đẹp
-Không Có Nhãn Hiệu Trên Quần Áo Áo Thun Tay Ngắn In Họa Tiết Dễ Thương Thời Trang Mùa Hè Cho Bé Trai Và Gái 1-14 Tuổi
-Áo phông nam nữ in hình lá DSQ2 nửa áo - Áo Thun đôi Nam Nữ cao cấp phong cách vintage sang chảnh 2023 [ KaKy
-(FullTag cổ - tay áo) Áo Thun Nam Nữ Tay Lỡ Form Rộng Freeship Ulzzang Kita Unisex - Sweeder [Fullsize - Ảnh/Video Thật]
-Áo phông nam nữ Tommy Hilfiger in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Unisex Siêu Hot 20
-Áo thun nữ ngắn tay Zhu Xia Slim vừa vặn dài vai ngọt ngào và cay áo ngắn nửa cổ cao cổ không tay áo áo thun
-Áo phông nam nữ in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Unisex Siêu Hot 2023 AT002
-Áo phông nam nữ Tommy Hilfiger in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Unisex Siêu Hot 20
-ihkke áo trễ vai tay phồng cropto áo adlv chính hãng black pink áo áo thun unisex Blackpink Áo Croptop In Hình Trái Tim Thời Trang 2023 Dành Cho Nữ crop top
-(Giá Rẻ+Tặng Quà) [COMBO 2 ÁO] Áo Thun Ngắn Tay Trơn Cho Bé Trai Bé Gái Siêu Rẻ-Áo Phông Cộc Tay Basic Cho Bé COCA@HOUSE
-[Áo] Áo thun nhiều kiểu dáng (MT30,MT32)
-Áo phông nam nữ Tommy Hilfiger in vạch sọc đen trắng đỏ chữ kí quanh áo. Áo Thun Unisex Form Rộng Siêu Hot Phiên Bản Mới
-Yuewen Pháp Ngọt Ngào Giảm Tuổi Cổ Búp Bê Ngắn Tay Băng Lụa Áo Len Nữ Mùa Hè Phong Cách Mới Ve Áo Áo Thun Trắng Top
-Áo Phông Dio Thêu Họa Tiết Hình Nộm Thêu Logo Tay Áo - Áo Thun Nam Nữ Cao Cấp</t>
+          <t>Áo Mangto dáng cao hàng QC có đai, Mangto nữ chất Chéo Ý cao cấp, Áo mangto dáng dài nữ sang chảnh Cemos Store
+Áo Thun Trơn Godmother Blank T-shirt 100% Cotton 250gsm Cao Cấp
+Bộ đồ ngủ nữ lụa latin cao cấp cổ Y áo có 2 túi
+Áo Sweater Len Stus Sy Nam In Chữ Siêu Đẹp - Áo Len Stus Sy Nam Nữ Chất Liệu Cao Cấp
+Bộ Quần áo Nam,  Bộ Retro Cao Cấp Vải Đẹp
+Set áo sơ mi nữ croptop màu trắng dài tay kèm cavat phối chân váy ngắn cạp cao 2 lớp form xòe viền ren DELIZ cao cấp
+Bộ Quần Áo Hè Nam Vân Nổi Cao Cấp LV Đen.Bộ Thể Thao Nam Ngắn Tay XỐP
+YUUMI Cửa nam châm Trong suốt cao cấp Dung tích lớn 49cm Tủ Nhựa tủ quần áo hộp đựng đồ tủ bếp tủ đựng đồ
+Áo Hoodie Stussy Nón Thêu Form Rộng Nam Nữ Unisex Vải Nỉ Cotton Cao Cấp Mẫu Hot 2023 mặc cực đẹp HD.016
+Áo Polo nam TORANO trơn basic, cổ bẻ, logo in ngực, nhiều màu, thoáng mát TP038 Menswear - Polo Shirt cao cấp Có Cổ Lưng Cao Trắng
+Áo ngực không gọng nữ mút mỏng 0.6cm chất cotton kháng khuẩn thoáng khí cao cấp VINGO S211 VNGO
+Áo Thun PORSCHE , Áo Phông Nam Nữ Tay Lỡ chất Vải Cotton Cao Cấp
+Áo sơ mi nam xanh navy cổ đức bẻ dài tay vải LINEN cao cấp đũi hàn quốc oxford trụ tàu trắng Premium
+Áo polo nam Có Cổ Owen màu trắng APV231350 chất vải cotton cao cấp, co giãn 4 chiều, form bodyfit Menswear Top Ngắn Tay áopolo nam
+Bộ quần áo bóng đá BỈ ĐỎ 2024/25 vải THUN LẠNH cao cấp cao cấp Top Sport
+Áo Thun Nam Ds Que Thêu Chữ Vai Đơn Giản - Áo Phông Nam Ds Que Cotton Cao Cấp
+Áo Sơ Mi Sọc Xanh Ngắn Tay In Hình Teelab Studio since 2020 , Sơ Mi Nam Nữ Chất Cotton Lụa Cao Cấp
+Áo thun form rộng LIMERENCE Studio xám tiêu  unisex vải cotton cao cấp co giãn, dày dặn Local Brand
+Áo Chống Nắng Toàn Thân ECOCHIC Nữ Chất Liệu Cao Cấp Siêu Nhẹ Chống Tia UV UPF50+ Co Giãn Thoáng Mát B042 F977
+Áo Khoác Thể Thao Paris Chất Thun Poly 2 Da Cao Cấp Chống Nắng Chất Vải Mịn Thoáng Khí Không Xù Lông Áo Khoác Thu Đông
+Áo Pitch Bib Lưới Tập Bóng Đá Chia Đội Team Building Tổ Chức Sự Kiện Ngoài Trời Cao Cấp JSD37
+Áo Polo  Gucci  Cổ Vai Đỏ Chất Poly Cá Sấu Mẫu Mới Cao Cấp - Áo Polo Gucci   Nam Nữ Mẫu Mới Hottrend 2024
+Áo Khoác Gió lót nỉ nam nữ cao cấp 2 lớp, Mặc được 2 mặt - Áo khoác dù form rộng có mũ rộng chùm đầu
+Áo thun Polo nam phối vai LEEVUS, CVC cá sấu cao cấp, LEEVUS APL319 Menswear Top Shirt Nhung
+ÁO HODDIES ZIP UNIEMU NỈ BÔNG CAO CẤP NAM NỮ MẶC CỰC ĐẸP
+Áo Thun Nam Nữ Unisex, Áo Hè Cổ Tròn Siêu Đẹp Chất Liệu Vải Cotton Cao Cấp
+Áo thun nam POLO KENB vải cá sấu phối viền cổ trụ ngắn tay đường may tinh tế chất vải cao cấp
+Quần Jeans Nữ CARDINA Cao Cấp Dáng Baggy Cài Khuy Có Khóa Kéo Dễ Mix Đồ 2QF13 (Không Kèm Áo)
+(lõi đồng)Dc Dây kết nối quạt áo điều hoà.kết nối 2 quạt vào pin cao cấp dây to
+Combo 2 áo gối nằm,1 áo gối ôm lẻ thun lạnh hàn quốc [ 3 Gối ] cao cấp</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Áo nam
-Áo nữ</t>
+          <t>Shopee - 73.8%
+Tiktok - 22.25%
+Lazada - 3.88%
+Tiki - 0.06%</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Áo nam - 18.44%
+Áo nữ - 7.84%
+Áo khoác nam - 7.05%
+Áo khoác nữ - 6.99%
+Đồ lót nữ - 4.84%
+Hoodie &amp; Áo nỉ nam - 3.09%</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam - 43.65%
+Thời Trang Nữ - 40.44%
+Thể Thao &amp; Dã Ngoại - 5.54%
+Nhà cửa &amp; Đời sống - 3.59%
+Thời trang trẻ em &amp; trẻ sơ sinh - 3.12%</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 29.3%
+Giày dép &amp; Quần áo nữ - 25.92%
+Nội thất &amp; Sắp xếp - 10.97%
+Ôtô, Xe máy &amp; Thiết bị định vị - 9.51%
+Đồ gia dụng nhỏ - 6.09%</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Trang phục nam &amp; Đồ lót - 44.11%
+Trang phục nữ &amp; Đồ lót - 37.94%
+Thể thao &amp; Ngoài trời - 9.17%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>497813</v>
+        <v>4012</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nu-trang-nu</t>
+          <t>nuoc-hoa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://metric.vn/nu-trang-nu</t>
+          <t>https://metric.vn/nuoc-hoa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nữ trang nữ</t>
+          <t>nước hoa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c639748914</t>
+          <t>c2091884612</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1__100017</t>
+          <t>1__100630</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Thời Trang Nữ</t>
+          <t>Sắc Đẹp</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>119</v>
+        <v>1116156</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3918084,2</t>
+          <t>2507254,5</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nữ trang nữ</t>
+          <t>nước hoa</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -803,119 +864,152 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>27295a82f593e8c1d584011eec02d818</t>
+          <t>266c7b84f2854369ed823b79d1cbac46</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>5378211357338</v>
+        <v>6865523106309</v>
       </c>
       <c r="Z3" t="n">
-        <v>69987855</v>
+        <v>41216804</v>
       </c>
       <c r="AA3" t="n">
-        <v>784941</v>
+        <v>218992</v>
       </c>
       <c r="AB3" t="n">
-        <v>36438</v>
+        <v>35680</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Balo da nam nữ đi học NMC balo ulzzang thời trang có ngăn bí mật đựng laptop 15,6 inch mã 02
-Balo Ulzzang Hàn Quốc Nam Nữ Chống Nước, Balo Thời Trang Đi Học Giá Rẻ MÃ 04
-Khẩu trang chống tia UV, khẩu trang chống nắng cho cả nam và nữ tặng kèm găng tay chống uv
-Balo Da Pu Thời Trang NMC balo đi học nam nữ có ngăn bí mật phong cách Hàn Quốc mã 03
-Áo ngực Bảng To Nữ  DUTE Đúc Su Không Gọng Đệm Dày Bàn Tay Nâng Ngực Chống Xệ Thời Trang Quyến Rũ Cho Nữ  DUTE010
-Dép HER.MES HM Nam Nữ Da màu Hường Thời Trang , Dép Chứ H màu hường Cao Cấp Full Bill Box ( 2 Màu HOt )
-Khẩu trang chống tia uv chống nắng chất lụa băng mềm mịn mát thông thoáng - Khẩu trang thời trang nam nữ chống tia UV
-Sét đồ nữ, Bộ đồ nữ thời trang mặc đi chơi Hè chất Tăm lạnh mặc mát cổ v in hình fom rộng mix chân vân váy xếp ly S25
-Sét đồ nữ, Bộ đồ nữ thời trang mặc đi chơi Hè chất Tăm lạnh mặc mát cổ v in hình fom rộng mix chân vân váy xếp ly S25
-Sét đồ nữ, Bộ đồ nữ thời trang mặc đi chơi Hè chất Tăm lạnh mặc mát cổ v in hình fom rộng mix chân vân váy xếp ly S25
-Quần Ống Suông Rộng Nữ Cạp Chun Sau Dáng Đứng Lưng Cao Chất Ruby Cao Cấp Thời Trang Sugal QUAN NU 046
-Balo trơn basic đi học HAZIN chống thấm nước đựng vừa laptop 16 inch phong cách Hàn Quốc thời trang dành cho cả nam nữ
-Balo nam nữ thời trang LAZA Madrid Backpack 596 - Chất liệu trượt nước cao cấp - Thương hiệu LAZA
-Miya Studio  áo phông áo thun nữ croptop baby tee Thời trang hàn quốc  Thời trang Beautiful High quality fashion A99J7MX 36Z230909
-LEARNEVER Dây Cột Tóc Ren Trắng Ngọt Ngào Thời Trang Cho Nữ S6U4
-LIAOYUE Giày Cao Gót Mũi Nhọn GIÀY SANDAL Thời Trang Mới 2024 Cho Nữ Độc đáo Độ bền cao Tự tin Thời trang FGL2460C6W 24Z240613
-Áo thun tay lỡ Tee Mặt Vui kẻ sọc vàng kem thời trang nam nữ cá tính chất liệu cotton 2 chiều
-Gọng kính cận nữ siêu nhẹ chất liệu nhựa khung kim loại kiểu dáng thời trang MS14
-Túi Xách Nữ Đeo Chéo thời trang Hàn Quốc Dự Tiệc Đi Làm sang chảnh_ TDC047
-Bộ Cộc Hè Nam Nữ DSQ icon In Cây Dừa Hai Màu Đen Trắng Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang boy phố
-Bộ Cộc Thể Thao D.reww Nam Nữ Họa Tiết Vân Dệt GC Toàn Thân chất cotton khô thoáng mát thời trang
-FEIJIANU  dép sandal nữ giày sandal nữ dép đế cao đi biển Thoải Mái Thời Trang Mùa Hè Cho Nữ Lót êm ái Đệm êm Năng động Thời thượng FDL2440SPC 16Z240418
-AB HOUSE - Nón mũ lưỡi trai KEEPITAB thời trang nam nữ
-Balo đi học thời trang unisex nam nữ ulzzang học sinh sinh viên thiết kế nhiều màu cá tính 9375
-🎉7.25🎉🥰Saror Shoes🥰Giày sandal nữ đế dày phong cách mùa hè đế dày thời trang mùa hè đế mềm vải canvas kiểu Đông Nam Á
-Túi xách nữ thời trang NQD88 túi đeo chéo cầm tay thiết kế khoá hoa phong cách trẻ trung K184
-Guốc nữ cao gót thiết kế bít mũi mũi nhọn, gót cao 8cm, quai đính đá thời trang Trendy | ALEX &amp; SARA - AL429
-Gọng kính kim loại VIENDO đổi màu chống ánh sáng xanh thời trang cao cấp nam nữ (cắt kính cận có độ theo yêu cầu)
-Túi Xách Đeo Chéo Cỡ Lớn Họa Tiết Kim Cương Thời Trang Thanh Lịch Cho Nữ
-Mắt kính Chrome.Heart Black Kính thời trang nam nữ A17 - LIKI</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+          <t>[MUA 2 GIẢM 30% - MUA 3 GIẢM 50%] Body Mist Unisex Phù Hợp Hẹn Hò, Đi Chơi - Xịt Thơm Toàn Thân Nam &amp; Nước Hoa Nữ Thơm Lâu BODYMISS Perfume Cosmetic Có hoa Women 105ml (Chai) bodymistshiney
+[MUA 2 GIẢM 30% MUA 3 GIẢM 50%] Body Mist Unisex - Xịt Thơm Toàn Thân Nước Hoa Cho Nam &amp; Nữ Phù Hợp Đi Học, Đi Chơi Hẹn Hò BODYMISS Perfume Cosmetic Women Mỹ Phẩm 30ml - 105ml (Chai) hella bodymist
+[MUA 2 FULLSIZE GIẢM 50%] Body mist Lưu Hương Lâu Chính Hãng Cho Nam Nữ Unisex, Bodymist Thơm Lâu Body Cho Học Sinh Sinh Viên Chai Lớn &amp; Nhỏ - BODYMISS Perfume Cosmetic Nước Hoa Xịt Thơm
+[MUA 1 TẶNG 2] Combo Nam Tính dành cho nam giới RHYS MAN - Sữa tắm gội nam 3 in 1 350ml &amp; Gel rửa mặt nam 100ml &amp; Dung dịch vệ sinh nam 120ml &amp; Nước hoa nam 10ml Tặng 1 set Hộp &amp; Túi
+[Nhập COSDK4 giảm 20K đơn 199K] Nước hoa hồng Dear, Klairs Supple Preparation Unscented Toner 180ml
+Combo Simple Tẩy trang Micellar 400ml hoặc 200ml/Sữa dưỡng ẩm 125ml + Sữa rửa mặt 150ml + Nước hoa hồng 200ml ngừa mụn hiệu quả [CHÍNH HÃNG ĐỘC QUYỀN]
+[MUA 3 FULLSIZE GIẢM 50%] Body mist Cho Học Sinh Sinh Viên Unisex Nam Nữ Chính Hãng Lưu Hương Lâu, Bodymist Thơm Lâu Body Hương Nước Hoa Chai Lớn &amp; Nhỏ - BODYMISS Perfume Cosmetic Xịt Thơm
+[MUA 2 GIẢM 50%] Body Mist Unisex - Xịt Thơm Toàn Thân Hương Nước Hoa Nam &amp; Nữ Nước Hoa Mùa Hè BODYMISS EHERB Cosmetic Perfume Women 105ml (Chai) bodymistshiney
+Nước hoa nam Ocean Duro 50ml - LUA
+Nước hoa nam cao cấp chính hãng DIOR SAU.VAGE EDT, dầu thơm lâu nam tính mạnh mẽ cuốn hút 100ml - DuyPerfume24
+Nước Hoa Nữ Carolina Herrera Good Girl Dazzling Garden Guốc Tím EDP 90ml - Ngọt ngào sexy - iu.cosmetic
+SCD15 - Tinh dầu nước hoa Kha Dubai oil perfume 15ml công tím mùi SCD ngọt đậm quyến rũ Phụ nữ
+kem body mềm nước hoa A cosmetics, kem body mềm phương anh hỗ trợ dưỡng trắng da, body mềm kem face pháp a cosmetic phương anh hỗ trợ dưỡng da
+[ 3 món] set dung dịch vệ sinh sexy girl kèm nước hoa mini 5ml tặng chai nước hoa body 10ml hương nước hoa hồng pháp
+[DEAL TO Tháng 8 10ml 59K/50ml 185K] Nước Hoa Nữ Good Girl EDP Aroma Story Ngọt Ngào, Gợi Cảm, Thu Hút, Lưu Hương 6H-8H
+Xịt Thơm Tóc Và Cơ Thể MUMCHIT Hương Nước Hoa - Mumchit Hair &amp; Body Mist 105ml (7 Mùi Hương)
+BST Nước Hoa Nữ Hương Thơm Quyến Rũ, Gợi Cảm, Ngọt Ngào, Cá Tính, Nguyên Liệu Từ Pháp, Dạng Xịt 10ML [BY NASORA]
+Nước hoa Unisex Ck One EDT 100ml 200ml
+[ĐƠN TỪ 249K TẶNG 1 QUÀ-CHỈ TRONG LIVESTREAM] Combo 3 Skincare Simple Nước Tẩy Trang 200ml Sạch Sâu Ẩm Mịn + Sữa Rửa Mặt Cấp Ẩm Sâu 150ml + Nước Hoa Hồng Làm Dịu &amp; Cân Bằng Da 200ml - Dành Cho Da Thường [1]
+Nước Hoa nữ Creed Love in Black EDP 75ml  - Quyến rũ, Sang trọng, Bí ẩn - lia.perfume
+【BEST SELLER】 NƯỚC HOA NAM 3 CHAI 10ml  STRONG MEN - ACITIVE MEN - SEXY MEN.
+Nước hoa nam chính hãng Nerman-hương thơm nhẹ nhàng, tinh tế thu hút nữ giới, phù hợp đi hẹn hò, đi chơi, đi làm lưu hương tới 8h 10ml Cosmetic Perfume Xịt Thơm
+[TẶNG QUÀ VIP]_KTQL802_1 OLLIE KEM TẨY LÔNG Body Nam Nữ, Hỗ Trợ Tẩy Lông Nhanh Chóng + 1 OLLIE Gel Dưỡng Giúp Da Mềm Mịn, Giảm Thiểu Lông Mọc Lại Tặng 1 FEMMES Nước Hoa Nữ + 1 Que Gạt
+GOOD GIRL  100ML - NƯỚC HOA NỮ - CHARME PERFUME ( TẶNG  Nước Hoa 10ML ) [Women -Cosmetic -Perfume- Xịt Thơm )
+Sữa tắm trắng da thơm lâu chính hãng Tesori d'Oriente 250ml-500ml sữa tắm nước hoa, dưỡng ẩm, mềm mịn da lưu hương lâu
+(Auth - 10ml) Nước hoa nam DI0R Sauvage EDP chính hãng chai chiết 10ml, 20ml - Manme Perfume
+Tinh dầu nước hoa khuyếch tán thơm phòng cao cấp khử mùi nhà vệ sinh nến thơm enjoy everyday MINA
+Combo Serum Hỗ Trợ Da Mụn Thâm SEIMY - Skin 7 Days Kèm Nước hoa hồng Toner Rosa Damascena
+[Tặng 1 Hộp Cà Phê] Nước hoa Nam Laura Sunshine #05 Quentin 100ml - Nam tính, Lịch lãm
+[HÀNG CHÍNH HÃNG] Nước hoa nam СΗAΝEL Bleu De СΗAΝEL chính hãng chai chiết 10ml, 20ml - YOMOSU Perfume</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Shopee - 73.42%
+Tiktok - 21.12%
+Lazada - 5.4%
+Tiki - 0.06%</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Nước hoa - 58.66%
+Chăm sóc da mặt - 6.66%</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Sắc Đẹp - 92.78%
+Nhà cửa &amp; Đời sống - 3.39%</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Làm đẹp - 78.73%
+Chăm sóc nhà cửa - 12.69%
+Ôtô, Xe máy &amp; Thiết bị định vị - 3.82%</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Làm Đẹp - Sức Khỏe - 77.74%</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Chăm sóc sắc đẹp &amp; Chăm sóc cá nhân - 92.05%
+Đồ gia dụng - 4.13%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>545320</v>
+        <v>4232</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nam-cao-cap</t>
+          <t>ao-tay-dai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://metric.vn/nam-cao-cap</t>
+          <t>https://metric.vn/ao-tay-dai</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nam cao cấp</t>
+          <t>áo tay dài</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>97</v>
+        <v>331944</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3397573,2</t>
+          <t>2421297,8</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nam cao cấp</t>
+          <t>áo tay dài</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -949,89 +1043,112 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>8e334ee96996e7b90195f53af2ecc3b8</t>
+          <t>645789a5cc943b0f3619dc1d26d626a3</t>
         </is>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6672144039555</v>
+        <v>4371457351173</v>
       </c>
       <c r="Z4" t="n">
-        <v>44985492</v>
+        <v>34186757</v>
       </c>
       <c r="AA4" t="n">
-        <v>163129</v>
+        <v>279652</v>
       </c>
       <c r="AB4" t="n">
-        <v>25717</v>
+        <v>36977</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Giày_Nike air force 1 canvas navy nam nữ, Giày thể thao af1 vải canvas đế air bản cao cấp full box bill
-Giày Lười Nam Nữ - Giày Thể Thao Slip On Vans Caro kẻ sọc đen trắng cá tính, đế êm lót da Cao Cấp D18 HOT
-Giày Vans Old Skool - Giày Sneaker Vans Đen kẻ trắng nhung nỉ cao cấp nam nữ, đế đúc chắc chắn, cá tính
-Giày Sneaker - Giày thể thao nam nữ Xvessel cao cấp full box đế gỗ đúc đẹp siêu nhẹ, vải rách cổ thấp cá tính D10
-Nước hoa nam cao cấp AC.QUA DI GIO, dầu thơm 100ml lưu hương dài lâu nam tính lịch lãm H78
-Giày thể thao Adidas Forum 84 , giầy  Adidas Forum 3 Sọc Full Trắng giày nam nữ cao cấp đầy đủ phụ kiện full size 36-43
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Giày Thể Thao Sneaker Nam Nữ Nike_AF1 Trắng, Thời Trang Cao Cấp 2022 C295 Corki Sneaker
-Quần tây nam SIDETAB cao cấp chuẩn form xuất xịn, sang trọng, tôn dáng - POLOMANOR
-Áo sơ mi nam dài tay sọc vải oxford cao cấp LADOS-8126 thời trang trẻ trung, có túi
-[Video_Ảnh Chụp Thật] Giày Thể Thao Vanss OF nam nữ cao cấp veera sneaker
-Dép HM Nam  Da , Dép H Quai Ngang da  Cao Cấp
-Balo da PU nam nữ cao cấp balo ulzzang chống nước trơn đi học đi chơi basic thời trang Hàn Quốc BL13
-Quần Lót Nam Boxer Thun Lạnh Combo 4 Cái Cao Cấp Chiếc Chất Liệu Cotton Mềm Mại Mát Mẻ Với Kiểu Dáng Hiện Đại Đàn Hồi Tốt ,Quần Sịp Đùi Nam Su Thun Lụa Ép Lạnh Siêu Mát TTL380
-dvdv Bộ Cotton A.dÌ.das Phối 3 Màu Logo Thêu Chất Cotton Cao Cấp Thoáng Siêu Hot- Bộ Thun Nam Nữ Dáng Rộng Hot Trend 202
-Quần Lót Boxer Nam Boxx Vải Lụa Băng Tự Nhiên 100% Thun Lạnh Cao Cấp Màu Đen Xám Trơn Mát Thoáng Co Giãn Xì Lip Sì NATO
-Áo sơ mi POLO nam mới Magee, phiên bản Hàn Quốc, cổ điển, giản dị, cao cấp, thiết kế rỗng nút, phong cách trưởng thành, vừa vặn, áo thun dệt kim nửa tay thời trang dành cho cặp đôi trẻ trung
-Áo khoác gió nam nữ Beleader hai lớp cao cấp,chống bụi,chống nước,chống nắng
-Cờ Vua Nam Châm SATO LOẠI LỚN/ Mini - Bộ Cờ Vua Cao Cấp Tiêu Chuẩn Quốc Tế Gấp Gọn To - Đồ Chơi Trẻ Em Bé Trai/ Gái BFUN
-Bộ Cộc Rap Lau Rừn Thêu logo cao bồi cổ bẻ chất vải thoáng mát cao cấp-Bộ quần áo polo hè nam nữ new 2024
-Quần boxer nam PROFIT cao cấp, combo 3 quần xì co giãn thoáng khí kháng khuẩn BOXERMAN
-Áo Sơ Mi Cộc Tay Nam GIOVANNI SARTORIA Chất Liệu 100% Cotton Pima Cao Cấp SSS01-004
-Manocanh Nam, Nữ Không Tay Có Đùi Ma Nơ Canh Chân Gỗ, Vàng, Bạc Loại 1 Cao Cấp - LV13
-Ví Da Nam Signature Dập Chìm Cao Cấp Chính Hãng Underthinker
-🔥Dép Xỏ Ngón🔥Dép Xỏ Ngón Đi Biển Chống Trượt Chống Mài Mòn Cao Cấp Thời Trang Cho Nam HZFMS0227
-Đồ Bộ Nam ORICANO Cổ Bẻ Chất Vải Kaki Cotton Cao Cấp Oversize Lịch Sự Mặc Mùa Xuân Hạ Có Kèm Hộp Và Túi Qùa
-Giày lười Loafer LV, giày lười da nam, giày công sở lv  Phiên Bản Da Bóng Cao Cấp Full Box</t>
+          <t>[TAY  LỠ] Áo dài trắng học sinh đồng phục cấp 3  Nữ Dress Women
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo sơ mi nam dài tay LADOS - 779 chất lụa mềm mịn lịch sự phong cách công sở
+Áo Khoác Jacket Hoodie Zip RATEL Nỉ Bông (Ảnh thật) Menswear Dài Tay Cotton
+Set áo sơ mi nữ croptop màu trắng dài tay kèm cavat phối chân váy ngắn cạp cao 2 lớp form xòe viền ren DELIZ cao cấp
+Áo Sơ Mi Kẻ Sọc Tay Dài Nam Nữ Hàn Quốc Local Brand KATHOLIC Chất Liệu Oxford Form Rộng 3 Màu Xám, Hồng, Xanh KAT012
+Áo kiểu nữ, áo sơ mi nữ dài tay chất lụa cát full 5 màu pastel mùa hè Hàn Quốc Kozoda Women SM159
+Áo Dài Cách Tân Nữ DUTE Tay Bồng Hoa Nhí In Nổi Lụa Mềm Mại - Bền Đẹp Cho Phụ Nữ Hiện Đại - DUTE023
+Set Đồ Thiết Kế Cho Nữ, Áo Tay Lỡ Quần Dài, Vải Lụa Mango Mịn Mát Nhiều Hoạ Tiết Phong Cách dễ thương cho Women (Top Nhung Kem)
+Áo khoác nỉ hoodie zip nam nữ local brand unisex bigsize bông dầy dặn dây kéo có mũ to mặc cặp đôi Pandax Polime Race Menswear Tay Dài Có Túi Xám Dài Tay
+Bộ Mặc Nhà Nữ LYSILK Đồ Ngủ Lụa Cao Cấp Thiết Kế Áo Dài Tay Quần Dài Nữ Tính Thanh Lịch TET01
+Áo thể thao dài tay nam thu đông Essentials thoáng khí thoải mái vận động Coolmate
+Set đồ nữ sang chảnh tiểu thư áo sơ mi kẻ xanh trắng đính hoa 3D dài tay phối chân váy xếp ly xòe trắng trẻ trung LEVAN
+[Tiểu Yến KID] - S176 Set 3 chi tiết áo gile, áo dài tay, quần dài nhung mèo hồng cho bé gái (8-17kg)
+Đồ bơi giữ nhiệt nữ bigsize kín đáo tay dài quần dài Áo tắm học sinh che nắng Bikini SG đi bơi biển
+Áo Thun DÁNG DÀI CỔ TRÒN REN NƠ Chất Thun Gân Đẹp, Áo Tay Ngắn Babytee Kiểu Trơn Nữ Nhiều Màu IOWA
+Áo Sơ Mi Nữ Trắng Cao Cấp Hàng Thiết Kế Dài tay + Ngắn tay
+NALIA NELLY - Áo sơ mi có đệm cầu vai giấu cúc lụa vạt cổ dài, măng sét tay cao hottrend 2024
+Áo sơ mi nữ dài tay áo somi nữ form rộng kẻ sọc dọc kiểu dáng Hàn QuốcPANOSI - MÃ A46
+Áo Tay Dài Cổ Tròn Viên Ren, Form Babytee Rosa
+Áo sơ mi nam dài tay ZENTOMAN cotton mềm mịn, thoáng mát ít nhăn, kẻ tím
+Áo sơ mi nam trơn dài tay công sở dáng sinh viên phong cách hàn quốc HZFMC3543
+Áo lót body dài tay thể thao Pan RIKI giữ nhiệt, chống nắng thun co giãn, thoải mái đá bóng, tập Gym
+Áo sơ mi trắng nam dài tay vải lụa nến trắng trơn tag logo chữ DG bạc hai bên cổ đơn giản SM127P
+BARE_Áo Trễ Vai Nữ Phối Bèo Tay Ngắn ,Tay Dài ,  Áo Sơ mi Kiểu Nữ Trễ Vai Chất Đũi Gân Sóng Phong Cách Tiểu Thư - A208
+Áo Sơ mi trắng dài tay ngắn tay đồng phục cho bé trai ARDILLA chất liệu cotton, size đại kiểu dáng basic 1805/1804
+Áo Khoác Da Croptop From Rộng Nữ Dài Tay MiSoul, Áo Khoác Da Cúc Bấm 204 Jean Jacket Women Bò Đen
+NALIA KILA - Áo sơ mi voan tơ dài tay phối ghile hai dây, áo hai dây chất liệu chéo Ý có ép mùng hai lớp
+Áo sơ mi nữ dài tay dáng oversized nhiều màu_MAIIMER T25102OFT
+Áo sơ mi nam dài tay kẻ sọc nhí vải oxford cao cấp LADOS-18126 phong cách hàn quốc, có túi, nhiều màu</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Giày sneaker - thể thao nam
-Áo nam</t>
+          <t>Shopee - 62.43%
+Tiktok - 34.65%
+Lazada - 2.89%
+Tiki - 0.02%</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ - 63.21%
+Thời Trang Nam - 23.5%
+Thời trang trẻ em &amp; trẻ sơ sinh - 9.59%</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nữ - 45.52%
+Giày dép &amp; Quần áo nam - 36.71%
+Trang Phục &amp; Giày Dép Thể Thao - 6.65%
+Quần Áo và Giày Dép Trẻ Em  - 5.76%
+Trẻ sơ sinh &amp; Trẻ nhỏ - 4.19%</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Trang phục nữ &amp; Đồ lót - 60.31%
+Trang phục nam &amp; Đồ lót - 29.04%
+Trẻ sơ sinh &amp; thai sản - 6.42%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>152240</v>
+        <v>22578</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ao-thun-thoi-trang</t>
+          <t>phong-cach-han-quoc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-thun-thoi-trang</t>
+          <t>https://metric.vn/phong-cach-han-quoc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>áo thun thời trang</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>c639748914</t>
-        </is>
-      </c>
+          <t>phong cách hàn quốc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>1__100017</t>
@@ -1047,17 +1164,17 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>744</v>
+        <v>7589</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3195199,8</t>
+          <t>2358514,2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>áo thun thời trang</t>
+          <t>phong cách hàn quốc</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1091,115 +1208,148 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>6fa80c652d422838672eb2b5286eaae5</t>
+          <t>a50d2ea91b7f53d1538c4a21915bb4b1</t>
         </is>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>641173708998</v>
+        <v>3202744210951</v>
       </c>
       <c r="Z5" t="n">
-        <v>6230133</v>
+        <v>52905641</v>
       </c>
       <c r="AA5" t="n">
-        <v>129264</v>
+        <v>361848</v>
       </c>
       <c r="AB5" t="n">
-        <v>8243</v>
+        <v>46949</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Bộ Áo Thể Thao Cộc Hè Nam Nữ GC,Thom - Chất liệu Thun Lạnh Mát Mẻ Đủ Size Box Kẻ Sọc Vai Bộ thể thao thời trang Nam Nữ
-AB HOUSE - Áo thun nữ gắn nơ BUNNY thời trang nữ
-Áo thun ngắn tay hoa cổ chữ V có ren trơn phong cách thời trang mùa hè SIÊU XINH A83
-Áo Thun Nữ Tay Ngắn, Áo cộc nữa tay ngắn Ren Dáng Ôm Hở Vai In Họa Tiết Hoa Thời Trang Xinh Xắn (freeship)
-Áo thun THÊU BALE.N... 5 màu cotton cao cấp dày dặn form rộng nam nữ thời trang
-[SUMMER 2024] Áo thun ngắn tay hoa cổ chữ V có ren trơn phong cách thời trang mùa hè SIÊU CUTE A83
-[SUMMER 2024] Áo thun nữ gắn nơ BUNNY thời trang nữ kèm nơ trước ngực A49
-🔥Siêu Hot🔥Áo thun CAPYBARA unisex form rộng cổ tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Twinshop
-🔥Hot🔥Áo thun CAPYBARA Unisex Cổ Tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Lapstore
-[SUMMER 2024] Áo thun ngắn tay hoa cổ chữ V có ren trơn phong cách thời trang mùa hè dáng ôm siêu cute A83
-Áo croptop thun nữ phối ren cổ tim tay ngắn, thời trang Hàn Quốc GAGO GA4612
-Áo thun croptop thời trang Mỹ vintage 2023 AU081211
-[ÁO THUN HÈ CHO BÉ 15kg-60kg] CLEVER KIDS ÁO THUN LƯỚI SỐ 10 JERSEY THIẾT KẾ THỜI TRANG CAO CẤP
-Sét váy thời trang nữ mặc đi chơi áo chất thun gân trễ vai phối voan bèo tay dài nút mix chân váy voan 2 lớp maxi
-Áo thun HIIXIIVI tay ngắn cổ tròn chất liệu 100% cotton thời trang mùa hè Hàn Quốc 2024
-Áo Thun Tay Ngắn Cổ Vuông Dáng Ôm Thời Trang Mùa Hè Hàng Mới 2024 Dành Cho Bạn Nữ
-Áo thun polo clb arsenal áo thun có cổ nam nữ ngắn tay đội bóng ngoại hạng thời trang thanh lịch cao cấp nhà XUZI.
-Áo Thun Nam DSQ, Hai Màu Đen Trắng, Chất Liệu Cotton Mịn Co Dãn Hai Chiều, Thời Trang Nam.
-Áo Thun Tay Ngắn Chất Liệu Cotton In Chữ Thời Trang Mùa Hè Cho Nữ Trung Niên
-Áo Tập Gym Nữ Áo Thun Thể Thao Ngắn Tay Thoáng Khí Mau Khô Thời Trang Cho Nữ
-YOUSE áo phông áo thun nữ croptop baby tee Hàn Phong Phong cách Thể thao Thời trang WTX2450P1U 20Z240515
-Áo thun cotton SELVZE ngắn dáng rộng thời trang hè
-Thời Trang Bigsize  Set Bộ Áo Cổ Tròn Vạc Chéo và Chân Váy Dáng Dài Bigsize Thun Tăm Hot Hit Nữ Cao Cấp Xinh Đẹp 45-95kg
-Áo Thun Tay Ngắn Cổ Tròn Thêu Họa Tiết Thời Trang 2023 Cho Nữ
-Áo thun KRECOO ngắn tay cổ tròn đính đá thời trang cho nữ
-Klalien Áo Thun Croptop Tay Ngắn Hở Lưng Dáng Ôm Phong Cách Retro Mỹ Thời Trang Mùa Hè Quyến Rũ Cho Nữ
-Áo Thun Baby Tee Ngắn Tay Dáng Rộng In Họa Tiết Phong Cách Đường Phố Mỹ Thời Trang Mùa Hè Cho Nữ
-Ethelgirl 3 màu thời trang "nơ" in hình thon cổ tròn ngắn tay Áo thun nữ quần áo hàng đầu
-Áo thun nam cổ tròn tay lỡ fom rộng cotton phông nữ 250gsm local brand in số 10 cá tình thời trang [A238]
-Áo Thun Nữ Ngắn Tay Cổ Đứng Đính Nút Thắt Kiểu Trung Hoa Dáng Ôm Phong Cách Retro Thời Trang Sugal TOP NU 136</t>
+          <t>Quần Jean Nữ Ống Đứng , Quần Bò Nữ Ống Đứng Phong Cách Hàn Quốc siêu hack dáng KT31
+Áo da blazer nữ OGRINAL thiết kế khoá cài phong cách thanh lịch Hàn Quốc màu đen 9971
+Áo da nữ dáng rộng OGRINAL khoá kéo chéo thời trang phong cách Hàn Quốc màu đen 2026
+Quần bò ống loe xanh than siêu xinh , Quần jean ống loe cạp cao phong cách Hàn Quốc S44
+Quần Short Denim Chauzi Lưng Cao Phối Túi Trước Cho Nữ Cao Cấp Phong Cách Thời Trang Hàn Quốc
+Quần Âu Sidetab Điều Chỉnh Độ Rộng Vòng Eo, Form Dáng Baggy Phong Cách Hàn Quốc
+Quần Jean Nữ Ống Đứng Xanh Nhạt , Quần Bò Nữ Ống Đứng 2 Cúc Phong Cách Hàn Quốc 2023 KT04
+Balo Thời Trang Phong Cách Hàn Quốc Unisex KAKAPO BL041 Backpack Đeo Vai
+Quần âu nam, Quần tây nam phong cách Hàn Quốc, From Slimfit chuẩn đẹp cùng chất vải Tuyết mưa
+Quần nữ BIGSIZE quần kaki ống rộng túi hộp bo gấu phối dây rút eo phong cách Hàn Quốc 985
+BALO M.C.M THỜI TRANG NAM NỮ PHONG CÁCH HÀN QUỐC NEW - Size 40 đựng vừa sách vở A4, Atlat địa lý, laptop 14in
+Balo HARAS Thời Trang Phong Cách Hàn Quốc HR244 Backpack Nhung Đeo Vai Da
+Quần sooc ngố bò jean nữ ống suông rộng short jean cạp cao phong cách Hàn Quốc MS02
+Áo Thun Kẻ Ngang Form Rộng Nam Nữ Unisex Cộc Tay Cotton Phong Cách Hàn Quốc Godmother
+UrbanChic Bàn trang điểm Gương Led cảm ứng sang trọng chất lượng cao phong cách Hàn Quốc thiết kế sơn phủ chống thấm
+Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
+Túi xách nữ công sở deo chéo đi chơi phong cách hàn quốc cao cấp - TDC216
+Áo khoác blazer nam form rộng hàn quốc màu đen , áo vest nam màu nâu thời trang trẻ trung phong cách màu trắng , màu xám
+🔥SALE LỚN -túi Xách Nữ Đeo Chéo Thời Trang ce.lin.e  Hình Vuông Nút Kim Loại Có Thể Điều Chỉnh Phong Cách hàn quốc
+Balo Đi Học Nữ Tudu, Ba Lô Học Sinh Phong Cách Hàn Quốc, Vải Chống Nước Cao Cấp, Đựng A4 CN186
+Dép nữ, dép ulzzang 2 quai đế dày 3 màu phong cách Hàn Quốc hot 2022 (SẴN HÀNG)
+Giày Thể Thao Tăng Chiều Cao Thiết Kế Mới Thời Trang Theo Phong Cách Hàn Quốc Dành Cho Nữ
+Howe. Áo thun nam tay ngắn thời trang phong cách hàn quốc bộ đồ thể thao hai mảnh in núi
+Quần Short KaKi Chauzi Cạp Cao BigSize Gập Gấu MiSoul, Quần Đùi Sắn Gấu Phong Cách Hàn Quốc QD253
+Áo Croptop Áo Trễ Vai Ngắn Tay Phối Lưới Phong Cách Hàn Quốc Dành Cho Nữ Women Dáng Ngắn Cổ Tròn Đen
+[120-170 size] Quần Áo mùa hè cho bé trai, bộ đồ mỏng phong cách Hàn Quốc mảnh dẻ có thể giặt máy
+Áo Voan Chắp Vá Cổ Chữ V Phong Cách Hàn Quốc Cho Nữ, Áo Dệt Kim Ngắn Có Cúc Dài Tay, Áo Tay Bong Bóng Dệt Kim Thời Trang Women Khuy
+Giày Sandal Đế Dày Hở Ngón Quai Nhún Bèo Phong Cách Hàn Quốc Thời Trang Mùa Hè  2023 Nữ DéP Shoes Quai Hậu Đế Bằng Nhung Jean
+Váy Sọc Cho Em Bé Gái, Phong Cách Hàn Quốc, Thích Hợp Cho Bé 2-7 Tuổi
+BST áo thun unisex form rộng mùa hè in chữ Im Music  thời trang phong cách Hàn Quốc Nam Menswear Top Cổ Tròn Đen</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Áo nữ
-Áo nam</t>
+          <t>Shopee - 82.32%
+Tiktok - 14.2%
+Lazada - 3.45%
+Tiki - 0.03%</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ - 44.36%
+Thời Trang Nam - 12.28%
+Phụ Kiện Thời Trang - 10.55%
+Túi Ví Nữ - 8.61%
+Thời trang trẻ em &amp; trẻ sơ sinh - 8.58%
+Giày Dép Nữ - 4.91%
+Nhà cửa &amp; Đời sống - 3.99%</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nữ - 37.66%
+Giày dép &amp; Quần áo nam - 21.64%
+Túi xách và Vali túi du lịch - 13.37%</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Trang phục nữ &amp; Đồ lót - 30.03%
+Trang phục nam &amp; Đồ lót - 21.3%
+Hành lý &amp; Túi xách - 13.91%
+Phụ kiện thời trang - 9.05%
+Giày - 8.92%
+Trẻ sơ sinh &amp; thai sản - 6.31%
+Thời trang trẻ em - 5.64%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>242961</v>
+        <v>4523</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ao-cao-cap</t>
+          <t>chan-ga-goi-dem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-cao-cap</t>
+          <t>https://metric.vn/chan-ga-goi-dem</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>áo cao cấp</t>
+          <t>chăn ga gối đệm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c1323859803</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100636</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Nhà cửa &amp; Đời sống</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>181265</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2839341,5</t>
+          <t>2342185,2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>áo cao cấp</t>
+          <t>chăn ga gối đệm</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1233,115 +1383,138 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>30a202315196142feb41da99863ef173</t>
+          <t>577167d26ef30be26c6c7fe33a669983</t>
         </is>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4450537937886</v>
+        <v>33904199281</v>
       </c>
       <c r="Z6" t="n">
-        <v>34467177</v>
+        <v>138813</v>
       </c>
       <c r="AA6" t="n">
-        <v>167772</v>
+        <v>1201</v>
       </c>
       <c r="AB6" t="n">
-        <v>27073</v>
+        <v>436</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Máy Hút Bụi Giường Nệm Sofa Quần Áo Đa Năng Lực Hút 10000PA cao cấp chính hãng - VD.STORE
-Áo điều hòa Nhật Bản  CAO CẤP TẶNG KÈM ĐÁ KHÔ Áo chống nắng có gắn quạt làm mát pin 32000 quạt 12v dùng 10h-14h
-⛔ XẢ LỖ ⛔Áo điều hòa nhật bản hàng cao cấp pin 32000mah chạy 10-14h quạt 12v không chôi than chống nước chạy rất êm
-Áo Điều Hòa Cao Cấp Chính Hãng KAW, Công Suất Lớn Pin 12 - 17 giờ, Pin 50.000 MAh Bảo Hành đổi 1-1
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Áo Lót Nữ Có Gọng, Đệm Mỏng, Siêu Mềm Cao Cấp Mã: AFM06_Hồng_Combo5
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Đồ bơi nữ kín đáo áo tắm liền thân bikini đi biển cao cấp tay dài chống nắng kéo khóa trước che khuyết điểm có bigsize
-Áo Polo Gucci Cao Cấp - Áo Polo GC Có Túi Logo Thêu Nổi Phong Cách Hiện Đại Nẵng Động Lịch Lãm
-Áo sơ mi nam dài tay Urano cổ bẻ, áo sơ mi vải lụa nến không nhăn không xù cao cấp
-Áo Bóng Đá CLB Bóng Đá CLB Real Madrid màu trắng họa tiết rồng 2023/2024 họa tiết rồng vải gai thái cao cấp phom 43-90kg
-Áo chống nắng nam 2 mặt thông hơi, thun lạnh thoáng mát chống tia UV cao cấp, độ che phủ cao
-ÁO ( LẺ )Ủ KEM GÂN TÀU CAO CẤP , ủ kem chống nắng , mềm mịn co giãn mạnh (40kg-65kg)
-Áo Chống Nắng Nam 2 Lớp - Áo Khoác Chống Nắng Nam Cao Cấp Chống Tia UV Tốt ( Mẫu Mới Nhất )
-Áo Thun Burberry BBR VINTAGE SERRA Kẻ Sọc Vải Cao Cấp Tay Lỡ Form Rộng - Mẫu 01 02
-Áo Sơ Mi Thom Nữ Dài Tay Màu Trắng 4 Sọc Đen, Vải Cotton Lụa Cao Cấp Hót Trend 2024
-Bộ Quần Áo Thể Thao Paris In Logo Họa Tiết Kẻ Sọc Đỏ Siêu Đẹp - Bộ Hè Nam Cao Cấp Siêu Hot 2024
-Áo thun Y.S.L thêu logo cực đẹp áo phông nam nữ kiểu dáng unisex form rộng chất liệu cotton cao cấp thoáng mát mềm mịn
-Áo Thun ADIDA.S DỌC Full Lưng Nam Nữ MCHOUSE Form Rộng Full Tag Mac Chất Vải Cotton 250gsm Cao Cấp
-Áo Sweater STUSSY basic dày dặn mùa đông cao cấp, áo nỉ mùa đông ấm áp
-Áo sơ mi nam ngắn tay mẫu mới vải đũi thời trang cao cấp phong cách nổi bật K_N LUXURY
-Áo dài trắng học sinh, tay bồng, tay lỡ, lụa Mỹ cao cấp
-Đồ Bộ Nữ CARDINA Chất Lụa Satin Cao Cấp Cổ V Áo Cộc Tay Quần Đùi Nhún Eo Nữ Tính 3SF02
-Áo sơ mi nam tay ngắn trơn basic chất liệu kaki cao cấp from regular KALOS SM01
-Áo Lót Cúp Ngực Ren Chống Tụt Không Dây Nâng Ngực Tạo Khe Đệm Bàn Tay Cao Cấp Lady 158
-Bộ bơi 2 mảnh quần shorts áo tay ngắn, bikini áo tắm nữ chất liệu cao cấp, kháng khuẩn, chống tia UV
-Áo thun Di.or Couture Kim Tuyến - Áo phông nam nữ Form rộng Tay lỡ Unisex Cotton Cao Cấp</t>
+          <t>Bộ 4 món vỏ chăn vỏ gối ga trải đệm cotton tici Otama Bedding ra nệm bo chun hoặc may phủ đủ size màu pastel Hàn Quốc
+[Tặng gối định hình] Đệm ngủ Hàn quốc cao cấp cho bé SUNVENO, đệm ngủ cho bé sơ sinh, nệm cho bé sơ sinh, đệm cho bé sơ sinh Nhộng Chũn ởcữ chomẹsausinh gốiôm chốnggiậtmình nôinhún chobé cái gối pvc miễn phí đệm &amp; bộ chăn ga gối đệm vịt vàng
+Bộ Chăn Ga Gối Lụa Tencel 60s Trơn màu 5 Món Cao Cấp AOICONCEPT Concept Kích Thước 1m2-2m2 - bộ chăn ga gối đệm gồm Ga Giường Bo Chun, Vỏ Mền, 2 Vỏ Gối Nằm &amp; 1 Vỏ Gối Ôm
+Bộ Chăn Ga Gối đơn màu 5 Món AOICONCEPT Lụa Tencel 60s Fullset Phối Dệt Kim dệt phẳng , Hoạ Tiết Kẻ Sọc Mềm, Size 1m6 - 2m2, Cỡ Lớn - bộ chăn ga gối đệm gồm Ga Giường Bo Chun, Vỏ Mền, 2 Vỏ Gối Nằm &amp; 1 Vỏ Gối Ôm
+Bộ chăn ga gối Cotton Tici Lidaco màu trắng chuyên dùng khách sạn homestay miễn phí may chun đệm chân cao
+Bộ Chăn Ga Gối Đệm Phi Lụa Tencel Silk Chenel Home Drap Giường Bo Chun Drap - Anna Nguyen Bedding
+Chai Khử Mùi Khử Khuẩn Xịt Thơm Chăn Ga Gối Đệm VINA TƯƠI 100ml-500ml Vệ Sinh Giặt Khô Nệm Giường
+Bộ Ga Giường Lụa Cao Cấp SERENA MATTRESS Set Chăn Ga Ra Drap Gối Nệm Đệm 5 Món Trải Giường Lụa Thái Mát Lạnh Cao Cấp
+Bộ 4 món chăn ga gối đệm poly cotton ga giường họa tiết hoa nhí vintage, bộ ga gối drap giường bo chun - Otama Bedding
+Bộ 4 món chăn ga gối đệm cotton tici trơn cao cấp Otama Bedding drap nệm trải giường bo chun kích thước 1m6 1m8 2m
+Máy hút bụi giường nệm diệt khuẩn UV, máy hút bụi cầm tay mini không dây, hút sạch bụi chăn, ga, gối, đệm, ghế sofa loại bỏ 99% vi khuẩn - Máy hút bụi gia đình, máy hút bụi lông chó mèo, may hut bui
+(Giá tại xưởng) Bộ 3 món Ga gối, ga bọc nệm mẫu Tam Giác Ghi, drap giường giá rẻ kích thước m2/m6/m8/2m2 chất Poly cotton - Ga bo chun bảo vệ đệm, Chăn ga gối Moon Shop
+XINLANYASHE Chăn, chăn mỏng bộ chăn ga gối đệm bộ ga trải giường Bộ nệm 5/6 feet (2 * áo gối + 1 * chăn) Cảm giác mát mẻ và thân thiện với làn da vào mùa hè, bộ chăn ga gối lụa băng mùa hè.
+bộ chăn ga gối đệm 5 món chiếu điều hòa mát lạnh chiếu cao su non kèm chăn hè trần bông siêu mềm mịn mát.
+Bộ ga giường 4 món cotton SERENA cao cấp - bộ chăn ga ra drap gối mền nệm đệm giường đẹp cotton 5 món khách sạn cao cấp 1m2 1m4 1m6 1m8 2m 2m2x2m
+BST Bộ Chăn Ga Gối Đệm Phi Lụa Charming MD.Decor - Bedding Cao Cấp chăn hè trần bông drap ga trải giường nhiều kích thước M4/M6/M8
+Bộ vỏ chăn ga gối đệm 5 món cotton tici SERENA chính hãng chuẩn khách sạn 5 sao bộ set vỏ chăn ga drap ra gối nệm đệm 5 món cotton tici dễ thương trơn phủ trải bọc giường chần trần bông thun lạnh cao cấp
+Nệm, Ga Trải Giường Chống Trượt, Chăn Ga Gối Đệm, Bộ Cố Định Tatami, Đệm Sofa Giường Ký Túc Xá, Đệm Silicon Mỏng Chống Di Chuyển
+Máy hút bụi diệt khuẩn UV chăn ga gối đệm giường Deerma CM800 - Bảo hành 6 tháng (Tặng lõi lọc)
+BỘ DRAP CHĂN GA GỐI (BỘ VỎ) 100% COTTON  GỒM 1 GA CHUN, 2 VỎ GỐI ĐẦU, 1 VỎ CHĂN (Bo chun Theo Kích Thước Đệm))
+Bộ chăn ga gối hè gấu xo chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối phao gấu mây chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối phao hướng dương nhật chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối phao kẻ ô love chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối hè gấu cầm gậy chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối hè gấu nấm chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối phao bơ xanh hello chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ 5 món chăn ga gối lụa Thái 6D cao cấp, nhập khẩu chính hãng(1 chăn trần hè, 1 ga chun bọc đệm, 2 vỏ gối nằm, 1 vỏ gối ôm cùng màu ga giường) nhiều mẫu để chọn, cam kết hàng y hình, lỗi 1 đổi 1, giá rẻ, chất lượng, lụa Thái mềm mịn, mát
+Bộ chăn ga gối phao gấu nấm  chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối hè hướng dương nhật chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Áo nam
-Áo nữ</t>
-        </is>
-      </c>
+          <t>Shopee - 70.69%
+None - 16.84%
+Lazada - 10.48%
+Tiki - 2.0%</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Đồ dùng phòng ngủ</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Nhà cửa &amp; Đời sống - 98.47%</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Giường ngủ &amp; Nhà tắm - 67.62%
+Đồ gia dụng nhỏ - 23.64%
+Dụng cụ sửa chữa nhà cửa - 7.29%</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Nhà Cửa - Đời Sống - 100.0%</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4012</v>
+        <v>40544</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nuoc-hoa</t>
+          <t>do-dien-gia-dung</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://metric.vn/nuoc-hoa</t>
+          <t>https://metric.vn/do-dien-gia-dung</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nước hoa</t>
+          <t>đồ điện gia dụng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>c2091884612</t>
+          <t>c641426678</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1__100630</t>
+          <t>1__100010</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sắc Đẹp</t>
+          <t>Thiết Bị Điện Gia Dụng</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1116156</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2507254,5</t>
-        </is>
+        <v>3668</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12269710</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>nước hoa</t>
+          <t>đồ điện gia dụng</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1366,120 +1539,148 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>266c7b84f2854369ed823b79d1cbac46</t>
+          <t>640ac3723543678b3fc1dd2eff23e80d</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>7349949123548</v>
+        <v>4716926862</v>
       </c>
       <c r="Z7" t="n">
-        <v>40414742</v>
+        <v>54403</v>
       </c>
       <c r="AA7" t="n">
-        <v>192829</v>
+        <v>651</v>
       </c>
       <c r="AB7" t="n">
-        <v>25605</v>
+        <v>524</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Nước hoa nam cao cấp AC.QUA DI GIO, dầu thơm 100ml lưu hương dài lâu nam tính lịch lãm H78
-Nước Hoa Nữ Chiết Parfums De Marley Delina Exclusif 10ml
-10ml My Way chính hãng EDP - Nước hoa nữ thơm lâu dịu dàng nữ tính quyến rũ
-Nước hoa Montblanc Signature chiết 10ml chính hãng - Nước hoa nữ thơm lâu nhẹ nhàng nữ tính cuốn hút
-Nước hoa nữ cao cấp CO.CO CHA.NEL, dầu thơm 100ml mùi hương ngọt ngào quý phái T99
-Dung Dich Vệ Sinh Tía Tô Nano Bạc Cân Bằng PH Khử Mùi Lưu Hương Lâu 120ml Tặng Kèm Nước Hoa
-Nước giặt Paris hương nước hoa can 5 lít .
-10ml Montblanc Signature chính hãng - Nước hoa nữ thơm lâu nhẹ nhàng nữ tính quyến rũ gợi cảm
-Nước Hoa Nữ Rắn Trắng Kilian Good Girl Gone Bad mùi hương quyền lực sang trọng - D U Y Perfume
-[ Chính Hãng ] 10ml Nước hoa nữ Delina Exclusif | HA Perfume
-[ Fullseal ] Nước Hoa Nữ Authentic Cassili Royal Essence 75ml
-Nước hoa Unisex Creed Silver Mountain Water EDP 100ml trẻ trung cuốn hút - lia.perfume
-Nước hoa nam Creed Aventus nồng độ EDP dung tích 100ml mạnh mẽ đầy cuốn hút , Dầu thơm nam lưu hương lâu
-Nước hoa nữ Narciso hồng EDP 100ml - Hương thơm phấn quyến rũ kiêu kỳ  - Lia Perfume
-Viên giặt xả 4in1 Veemill ,gói 30 viên, lưu hương lâu , hương nước hoa
-Nước Hoa Hồng Rau Má Skin1004 Madagascar Centella Toning Toner 210ML Giúp Cân Bằng, Dưỡng Trắng Da
-Tinh Dầu Nước Hoa LA'VIE PARFAITE 100ml - Khuếch Tán Thơm Phòng 5 Mùi Hương Full Box, Kèm Que và Túi Quà Kalyx
-Nước Hoa Hồng Giúp Cân Bằng, Dưỡng Trắng Da Chiết Xuất Rau Má Skin1004 Madagascar Centella Toning Toner 210ml
-Nước Hoa Nữ chính hãng Lost Cherry W-PARFUM thơm sang trọng, thu hút
-Nước hoa nữ Y.S.L Libre EDP - INTENSE 90ml - Dầu thơm nữ tính thơm lâu sang trọng - iu.cosmetics
-bộ dầu gội xả miuzin hương nước hoa 760ml
-Nước hoa dùng thử Moschino Toy Boy 5ml/10ml/20ml
-Sữa Tắm Gội 2in1 &amp; 4in1 cho Nam Sundays giảm mụn lưng, dưỡng ẩm hương nước hoa Sauvage 450ml
-Nước hoa INFERNO TADA PARFUMEUR EDP mới về - Mùi Hương Của Sự Trưởng Thành Chính Chắn 10ml - #NO.I
-Nước Hoa Unisex Creed Millesime Imperial Eau De Parfum 100ml
-Hộp Viên Giặt Xả MaxKleen Hương Nước Hoa Huyền Diệu 300g (20 Viên)
-[ Fullseal ] Nước Hoa Nữ Authentic Dior Hypnotic Poison EDT Spray 100ML
-[AUTH] Nước Hoa Nữ  CHANEL COCO MADEMOISELLE L’EAU PRIVÉE 100ML | PXH Authentic
-Nước hoa nam Charme Enternity 60ml Nam tính Mạnh mẽ Cá tính
-Nước Hoa Nam Nữ Unisex Maison Margiela Replica Sailing Day EDT 100ml - Hương Biển Tươi Mát Và Thanh Lịch.</t>
+          <t>Bộ 4 pin sạc AA 3300mAh Doublepow công suất lớn chuyên karaoke gia đình là một sản phẩm vô cùng hữu ích và tiện dụng cho những đồ dùng điện tử gia đình như pin micro karaoke...(TrắngCam))
+combo 10 Khay nhựa A6 ( dài 24 cm * rộng 15 cm * cao 12,5 cm ) đựng linh kiện kèm chân nối đựng bulong ốc tán , thuốc , đồ gia dụng , kim khí điện nước   ! Nhựa Điều chỉnh được
+[Sỉ] Bếp chiên đôi - Bếp điện - Đồ gia dụng nhà bếp - Thiết bị máy móc pha chế
+FREESHIP MAX-Bếp nướng điện không khói ZODAN-Bảo hành 1 năm-bếp nướng không khói, bếp nướng điện, lò nướng điện đa năng, bếp nướng điện đa năng, vỉ nướng điện, máy nướng thịt, đồ gia dụng trong nhà- ZODAN Corporation
+Bàn chải điện sonic X7, Bàn chải rung sóng âm đánh tan mảng bám thế hệ mới nhất 2024 Đồ Gia Dụng Thế Hệ Mới
+Kệ Thép Cao Cấp Sơn Tĩnh Điện Hadochi - Kệ Lò Vi Sóng- Giá Đồ Gia Dụng Nhà Bếp Thông Minh 3-4-5 Tầng
+Bộ Pin Tiểu Sạc AA AAA Doublepow UK93 3300 Dung Lượng Cao dành cho micro, đồng hồ, đồ chơi điện tử, remote điều khiển, máy ảnh, đèn pin, máy đo huyết áp, máy vắt sữa, thiết bị gia dụng, đồ dùng tiện ích gia đình
+Nồi Áp Suất Bear Đa Năng, Nồi Điện Dung Tích 4 Lít YLB-C40W5 - Hàng Chính Hãng, Bảo Hành 12 Tháng - Đồ Gia Dụng Gia Đình
+Combo 50 móc Mạ xi sáng bóng, tay cài lưới sắt treo đồ, treo phụ kiện điện thoại, treo đồ thời trang, đồ gia dụng đủ cỡ
+Pin sạc AA USB Type-C Doublepow 2750mWh Dùng Cho Micro, Đồng Hồ, Khóa Cửa, Đồ Chơi Trẻ Em, Điện Gia Dụng, Chuột máy tính, Đèn Pin, Máy đo huyết áp
+Bộ Giấy Vệ Sinh Màn Hình Điện Thoại - 02 Miếng Khô Ướt Lau Kính - Đồ Dùng Gia Dụng - Đồ Dùng Cá Nhân
+Nicoleu | Nhà Chơi Đồ Chơi Lò Vi Sóng Điện Chiếu Sáng Trẻ Em Mô Phỏng Thiết Bị Gia Dụng
+Combo 10 Móc cài lưới treo đồ, tay cài lưới sắt Mạ kẽm sáng bóng, treo phụ kiện điện thoại, đồ gia dụng, đồ thời trang
+Ốp Điện Thoại pc Cứng Cho samsung a02 m02 a02s a03s a04 a13 a23 a20 a30 a50 a50s a30s a51 a52 a53 a71 a73 s20 s21 s22 S23E plus | Cuộn Dây Bọc Bảo Vệ Đồ Dùng Tiện Dụng Cho Gia Đình
+Bộ điều chỉnh điện áp đồ gia dụng SCR 2000W 220V
+Bộ Tua Vít 31 Đầu Sửa Chữa Đồ Gia Dụng, Điện Thoại Cực Hiệu Quả Tholeshop 241
+Máy xay mini gia vị tỏi ớt, đồ ăn dặm cho bé dung tích 250ml, sạc điện cổng usb tiện dụng, bảo hành 12 tháng lỗi đổi mới
+GIÁ ÚP CỐC SƠN TĨNH ĐIỆN chống trơn trượt CÓ KHAY HỨNG NƯỚC HOME LUXURY DECOR | ÚP CỐC NÂU , đồ gia dụng thông minh, tiệ
+Kệ Gia Vị Cao Cấp Sơn Tĩnh Điện Không Han Gỉ, 2-3 Tầng, Kệ Đựng Đồ Nhà Bếp Tặng Kèm Khay Để Thớt, Cắm Dao Tiện Dụng
+Dụng Cụ Quấn Dây Điện Tiện Dụng Cho Đồ Điện Trong Nhà - QDD01 -Gia Dụng Tý Tẹo
+Móc Dán Tường Gài Phích Điện, Móc Treo Đồ Đa Năng, Tiện Dụng Cho Gia Đình, Móc Nhựa, Có Nhiều Màu Sắc. TakyHome 2235
+Tay cài lưới sắt treo đồ mạ Xi dài 5,10,15,20,25,30cm treo phụ kiện điện thoại, móc treo đồ thời trang, gia dụng đẹp
+Bộ Tua Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng - Tô Vít Đa Năng Nhiều Đầu Đa Năng- Vặn Ốc Vít Đủ Loại KHSPT
+Bộ Tua Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng - Tô Vít Đa Năng Nhiều Đầu kapusi
+[FREESHIP🎁] Lưới Sắt Thép Lắp Ghép Đa Năng Làm Giá Để Sách, Đồ Gia Dụng, Chuồng Sơn Tĩnh Điện Chống Gỉ Sét-Tặng Kèm Chốt
+[Ảnh thật] Đồ chơi xếp hình mô hình lắp ráp THIẾT BỊ CỔ ĐIỂN JAKI JK8210-16 Retro Điện Gia Dụng Khối xây dựng cho bé
+Bộ Tua Vít Mini Đa Năng 31 Đầu Các Size Vặn Tháo Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng
+Kệ Dán Tường Để Remote, Đồ Dùng/ Giá Đỡ Sạc Điện Thoại - Có Móc Treo Giữ Dây Điện - Gia Dụng Đức Bảo - Shop Bảo Bảo
+Bộ tua vít đa năng 25 đầu, dùng để sửa chữa điện thoại, máy tính, đồ gia dụng, tiện lợi, kèm bao da đựng
+Phòng Có Móc Cho Điện Thoại, Hộp Đựng Tạp Chí, Đồ Lặt Vặt, Túi Đựng Đồ Treo, Túi Đầu Giường, Đựng Đồ Gia Dụng, 1 Cái</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Nước hoa
-Chăm sóc da mặt</t>
-        </is>
-      </c>
+          <t>Lazada - 63.47%
+Shopee - 29.77%
+None - 6.67%
+Tiki - 0.09%</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Đồ gia dụng nhà bếp
+Nội thất
+Dụng cụ nhà bếp
+Phụ kiện console</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Nhà cửa &amp; Đời sống - 56.25%
+Thiết Bị Điện Gia Dụng - 36.73%</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Dụng cụ sửa chữa nhà cửa - 35.27%
+Đồ gia dụng nhỏ - 32.86%
+Electronics Accessories - 16.52%
+Bếp &amp; Phòng ăn - 7.17%</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4232</v>
+        <v>14657</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ao-tay-dai</t>
+          <t>cham-soc-da</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-tay-dai</t>
+          <t>https://metric.vn/cham-soc-da</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>áo tay dài</t>
+          <t>chăm sóc da</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>c639748914</t>
+          <t>c157614325</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1__100017</t>
+          <t>1__100630</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Thời Trang Nữ</t>
+          <t>Sắc Đẹp</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>331944</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2421297,8</t>
-        </is>
+        <v>12578</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9552389</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>áo tay dài</t>
+          <t>chăm sóc da</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1513,111 +1714,128 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>645789a5cc943b0f3619dc1d26d626a3</t>
+          <t>e7e59d6eb6e07b77136a5efec1332ff4</t>
         </is>
       </c>
       <c r="X8" t="n">
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>2943843248815</v>
+        <v>983618612865</v>
       </c>
       <c r="Z8" t="n">
-        <v>22549679</v>
+        <v>7605090</v>
       </c>
       <c r="AA8" t="n">
-        <v>258350</v>
+        <v>26031</v>
       </c>
       <c r="AB8" t="n">
-        <v>23860</v>
+        <v>11134</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Áo sơ mi The YVIEN YVSM11 dài tay regular fit Hàn Quốc casual menwears
-Áo sơ mi The YVIEN YVSMSP04 dài tay Hàn Quốc casual menwears
-Áo dài trắng học sinh, sinh viên Nữ DUTE 2 tà, 4 tà tay bồng và tay Lỡ đính kết phần cổ chất voan tơ - DUTE027 -DUTE028
-Áo Dài Nữ DUTE Cách Tân Áo Dài Pháp Phục Hà Nội Tay Lỡ Chất Liệu Tơ Gân Thêu Hoa Nơ Tay Bồng Cổ Điệu Đà - DUTE023
-Áo Dài Cách Tân Nữ DUTE Họa Tiết Hoa Nhí In Nổi Trong Trẻo Siêu xinh, Tay Bồng Dễ Thương - DUTE023
-Áo Dài Hình Duyệt Dáng Suông 4 Tà Tay Lỡ DUTE-024 Đường May Chắc Chắn - Chất Lụa Thoáng Mát, Kích Cỡ Từ 35-70kg
-Áo Dài Tơ Nữ DUTE Cách Tân 4 Tà Nhã Kỳ Chất Tơ Hoạ Tiết Thêu Hoa Xanh Tay Lỡ Đính Cúc Đính NơDUTE022
-Áo Dài Cách Tân Nữ DUTE Dáng Suông Cổ Và Tay Phối Cách Điệu Vải Gấm Đẹp Màu Trẻ Trung Tươi Sáng - DUTE025
-Áo Dài Cách Tân Nữ  DUTE Sự Kết Hợp Hoàn Hảo Của Tay Bồng - Vải Lụa Mát Mẻ, Kích Cỡ Đa Dạng - DUTE023
-Áo dài trắng học sinh sinh viên 2 tà, 4 tà tay bồng ,tay lỡ đính kết phần cổ chất voan tơ nhẹ nhàng - DUTE027-DUTE028
-ÁO SƠMI NAM,NỮ VẢI OXFORD 100%  COTTON, TAY DÀI, DÁNG PHONG CÁCH CHÂU ÂU, MÀU XANH ĐEN
-Áo Sơ Mi Dài Tay Nam RLX Vải Lụa Nến Trơn Mịn Thêu Logo Hình Ngựa Chiến Binh Ngực Dáng Basic Cho Các Boy Phố 2024
-Áo liền quần dài tay cho bé trai và bé gái sơ sinh từ 3-14kg, họa tiết chú gấu - BD95
-Áo Trễ Vai Tay Dài Nữ PRADIES - Off Shoulder
-Áo sơ mi nữ tay dài thêu sọc TH vải oxford URATV
-Áo dài cách tân 4 tà in nổi hoa Cúc Chi, tay lỡ cổ vuông 2cm trẻ trung, thanh lịch ADCT001
-Bộ quần áo tập gym, yoga, aerobic,  áo croptop ngắn tay có mút đệm và quần dài ôm body, tôn dáng
-Áo Dài Khả Diệp Lụa Gấm Hoa Tay Lỡ Cây Leo Design Cách Tân Duyên Dáng - Min684
-set áo bí ngô phồng tay dài hở vai xoè tà kèm quần xinh hottrend đính bướm
-Áo sơ mi nữ RUZA chất liệu lụa màu trắng tay dài kiểu basic công sở mềm mại thoáng mát ADE007
-Áo Sơ Mi Tay Dài Dáng Rộng Mỏng Cài Nút Họa Tiết Kẻ Sọc Màu Sắc Phong Cách Nhật Bản Thời Trang Mùa Thu Cho Nữ
-Áo đũi nam BIGSIZE (tới 120kg) dài tay cổ trụ (KHÔNG KÈM QUẦN)
-Áo Khoác Cardigan Thể Thao Tay Dài Dáng Rộng Thiết Kế Thắt Dây Phong Cách Mới Chất Lượng Cao tập GYM, YOGA, ZUMBA Cho Nữ Cho Nữ
-Áo sơ mi trắng nữ thắt nơ dài tay thiết kế form rộng vai phồng cực HOT
-Áo Sơ Mi Kẻ Nam Nữ Dài Tay Mặc Đôi Unisex Form Rộng Đẹp Thêu Logo S  Hot Trend 2023
-Áo sơ mi nữ tay dài công sở
-Đồ bộ mặc nhà nữ, đồ ngủ nữ chất Lanh  thời trang Việt Thắng, quần dài, áo dài tay - B10.2302
-Áo sơ mi bigsize nữ bánh bèo phối caro và trơn tay dài cách điệu viền - SM141
-Áo Thun Len Dệt Kim Tay Dài Màu Trơn Phong Cách Mùa Xuân Thu Mới Cho Nữ Vận Chuyển Từ Hà Nội V068
-Cazi - Marine Set - Áo cổ trụ dài tay</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Áo nữ
-Áo nam</t>
-        </is>
-      </c>
+          <t>Gel chấm mụn mờ thâm Cafuné 15ml Không chứa paraben Kiểm soát lỗ chân lông Acne Treatments Skincare Chăm Sóc Da
+JT01 - Hũ kem hỗ trợ giảm mụn Nhã Lê - Skin care Acne Cream - Chăm Sóc Da Làm Đẹp Da
+Kem Face Hanako X3 Hỗ Trợ Chăm Sóc Da 12g/hộp
+(MUA 1 TẶNG 1) Cặp Kem Face Demejine Kem Ngày Màu Vàng (20g), Kem Đêm Màu Trắng (20g)  Tặng Kem Chống Nắng Sunscreen Hanacom 30g Skincare Chăm Sóc Da Làm Đẹp Da Nữ
+Kem Rau Má Hỗ Trợ Da Mụn | Thanh Tô Cosmetic Skincare Chăm Sóc Da Làm Đẹp Da
+KEM CHỐNG NẮNG PHỔ RỘNG "SUNSCREEN HIGH-STRENGTH" SPF 50+/PA++++ - Dung tích: 32g - Thương Hiệu: Beskin Việt Nam Skincare Sun Cream Chăm Sóc Da
+Serum B5 Phục Hồi Da Hằng Du Mục PrettySkin, Dưỡng Ẩm Da Và Làm Dịu Da Hàn Quốc 50ml Chăm Sóc Da Làm Đẹp Da Skincare
+Dầu Gội Hỗ Trợ Chống Gàu Nấm Ngứa Da Đầu Antisol iCare Pharma - Chiết Xuất Dược Liệu Tự Nhiên Từ Ấn Độ Dưỡng Tóc Chăm Sóc Tóc
+Sữa Rửa Mặt Trà Xanh Rau Má - Hỗ Trợ Chăm Sóc Da Dầu Mụn (100ml) Skincare
+FOCALSKIN Tinh chất Serum Bright Balance Niacinamide α-Arbutin VitaminC hỗ trợ dưỡng da tươi tắn phù hợp cho da nhạy cảm 15ml/30ml | Làm Đẹp Da Skincare Dưỡng Ẩm Da Cấp Ẩm Chăm Sóc Da
+[COMBO] Xịt kháng khuẩn DIZIGONE Baby 300ml &amp; Dung dịch kháng khuẩn DIZIGONE: Phòng bệnh &amp; chăm sóc tổn thương da cho bé
+Kem Face Nám Đêm Ncolagen dưỡng ẩm mờ nám 25 gam Tất cả các loại da Skincare Nữ Làm Đẹp Da Dưỡng Ẩm Da Chăm Sóc Da
+Sữa tắm Lifebuoy xanh chăm sóc da 800g / 1kg
+Dầu mát xa SIBERIAN Extra Rich Massage Balsam, Chăm sóc và dưỡng da toàn thân - chai 250 ml
+Mặt Nạ Foodaholic Premium Chăm Sóc Da Chuyên Sâu 23ml
+Bộ ngày và đêm kem Demejine hàn quốc chinh hang - kincare Làm Đẹp Da Dưỡng Ẩm Da Nữ Chăm Sóc Da Skincare Kem Face
+Suôn | Dầu Gội - Dầu Xả Chăm Sóc, Dưỡng Tóc và Da Đầu SKINLOSOPHY - 300ml (mỗi chai)
+Dầu gội peptide Some By Mi chứa Cica Peptide chống rụng tóc chăm sóc da đầu 285ml
+A02e [Duy nhất trong Livestream ] Combo 3 hộp-TPBVSK Sâm Ngọc Nữ BEAUTY QUEEN SPA và 2 hộp TPBVSK Vitamin C -Hỗ trợ chăm sóc da -Hộp 60 viên
+Gel rửa mặt Isis Pharma Teen Derm chăm sóc da mặt kiềm dầu làm sạch sâu cho da thường 40ml và 150ml
+Khăn ướt chăm sóc da Pharmacity (20 tờ/gói)
+[MQ SKIN ]1 Kem Exfoliant Cream -Không đỏ sưng -peel Nội Mô MQ Skin  Tặng[ 1 Serum Tế Bào Gốc HA 10gr và Kem HA Mini 5gr] hỗ trợ sáng mịn da cải thiện khuyết điểm - Tất cả các loại da Nữ Làm Đẹp Da Chăm Sóc Da Women Skincare
+Nước Tẩy Trang Bí Đao COCOON Chăm Sóc Da Mụn 140ml/500ml
+Máy Aqua Super H2O2 6in1 Máy Chăm Sóc Da | Đa Năng Dùng Cho Spa Chuyên Sâu, Chính Hãng Bảo Hành 12Tháng]
+Kem Ủ tê Chính Hãng 29.9 % Ủ Lăn Kim Phi Kim Phun Xăm Thẩm Mỹ chăm sóc da mặt
+Thạch Bí Đao dưỡng ẩm 30ml Cocoon Skincare Dưỡng Ẩm Da Chăm Sóc Da
+[Inhouse] Bộ 2 Kem dưỡng giúp cấp ẩm Neutrogena Hydro Boost Hyaluronic Acid Water Gel 15g x 2 - Skincare Nữ | Chăm sóc da | Làm đẹp da
+Bộ chăm sóc da Dr. Lacir 4 sản phẩm dành cho da dầu mụn LM32
+Chất tẩy rửa giày trắng, Giày dép Foam Cleaner, Công cụ làm sạch giày thể thao,Sofa PU da làm sạch chăm sóc
+Tẩy da chết da đầu JIORNIEE kiểm soát dầu nhờn giảm bết tóc làm sạch chăm sóc tóc tại nhà phulieutochcm</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Dụng cụ làm đẹp</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Sắc Đẹp - 86.8%
+Sức Khỏe - 4.63%
+Mẹ &amp; Bé - 3.21%</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Làm đẹp - 84.42%
+Đồ gia dụng nhỏ - 6.1%</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22578</v>
+        <v>76384</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>phong-cach-han-quoc</t>
+          <t>quan-ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://metric.vn/phong-cach-han-quoc</t>
+          <t>https://metric.vn/quan-ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>phong cách hàn quốc</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>quần áo thời trang nam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c1556485950</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1__100017</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Thời Trang Nữ</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>7589</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2358514,2</t>
-        </is>
+        <v>1723</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8600996</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>phong cách hàn quốc</t>
+          <t>quần áo thời trang nam</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1651,114 +1869,129 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>a50d2ea91b7f53d1538c4a21915bb4b1</t>
+          <t>ba8ee112ac7635cd1826e343600afb1d</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>3007723335650</v>
+        <v>91392948036</v>
       </c>
       <c r="Z9" t="n">
-        <v>49031858</v>
+        <v>694506</v>
       </c>
       <c r="AA9" t="n">
-        <v>369736</v>
+        <v>5948</v>
       </c>
       <c r="AB9" t="n">
-        <v>34126</v>
+        <v>2077</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
-Balo Da Pu Thời Trang NMC balo đi học nam nữ có ngăn bí mật phong cách Hàn Quốc mã 03
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Áo Bra Nữ DUTE Hai Dây Dáng Dài Màu Trơn Phong Cách Hàn Quốc Thời Trang Siêu Hot Dễ Phối Đồ Dành Cho Nữ - DUTE002
-Quần Short Denim Chauzi Lưng Cao Phối Túi Trước Cho Nữ Cao Cấp Phong Cách Thời Trang Hàn Quốc
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Quần bò ống loe xanh than siêu xinh , Quần jean ống loe cạp cao phong cách Hàn Quốc S44
-Balo nữ, cặp đi học nữ thời trang giá rẻ đựng laptop đi chơi đẹp nhiều ngăn phong cách Hàn Quốc BL35
-Balo nữ cao cấp đẹp đi học giá rẻ thời trang chống thấm nước phong cách Hàn Quốc ulzzang Mẫu mới nhất 2024 BL28
-Áo Thun lạnh TN08 Unisex Tay Lỡ NOMERCY Form Rộng Nam Nữ HALEY phong cách Hàn Quốc Basic vải cotton
-BOSTANT Túi xách nữ sức chứa lớn thời trang phong cách Hàn Quốc
-Micley Áo Mưa Hai Vành Có Khóa Kéo Phong Cách Hàn Quốc Dành Cho Trẻ Mẫu Giáo Tiểu Học / Tiểu Học
-[Giao hàng trong 2 ngày] Xiaozhainv Áo thun tay ngắn cổ tròn phong cách Hàn Quốc hợp thời trang 15 màu tùy chọn cho nữ
-QUẦN SHORT LINEN LƯNG CAO FORM ĐẸP PHONG CÁCH BASIC HÀN QUỐC SIÊU XINH HÀNG SẴN ĐỦ SIZE
-Băng đô rửa mặt tai thỏ tai mèo dể thương tiện dụng phong cách hàn quốc
-Áo Thun 100% Cotton Tay Ngắn Dáng Rộng Cổ Tròn Phong Cách Hàn Quốc Thời Trang Mùa Hè Mới Cho Cặp Đôi Size 4XL
-Quần ống loe xẻ gấu chất liệu tuyết mưa, quần tây ống loe cạp trẻ phong cách hàn quốc
-Quần dài coquette nơ hồng dáng xuông chất đũi nhăn, Quần Ống Rộng Túi Hộp Đính Nơ 2 Bên Phong Cách Retro y2k hàn quốc
-Áo khoác len nữ , áo khoác nữ cardigan dệt kim mỏng 4 cúc xinh xắn phong cách Hàn quốc màu đen trắng đỏ kem hồng - RUBY
-Somi nữ tay ngắn phong cách Hàn Quốc mùa thu
-Hũ sứ ăn dặm cho bé Cocobear có vạch chia ml phong cách Hàn Quốc, Hũ trữ đông ăn dặm cho bé Cocobear chất liệu sứ 200ml
-Áo thun polo nam tay ngắn màu trơn phong cách Hàn Quốc thời trang hè
-HANXINH.CLOTHING | Quần jeans nữ dáng xuông thêu chữ đỏ hàng QC phong cách Hàn Quốc
-Mũ cói đi biển Mũ cói vành rộng phong cách Hàn Quốc Nón cói che nắng đi chơi đi du lịch cho nữ
-Túi Cói Đi Biển, Đi Làm, Đi Chơi Phong Cách Hàn Quốc
-Áo thun nữ tay lỡ chất cotton khô 3158  ÁO MẶT NHỎ DEWWW siêu cute  phong cách Hàn Quốc CAMASTORE M1246
-Set Đồ Mùa Hè 2 Món Gồm Áo Thun Trơn + Quần Ngắn Thoáng Khí Phong Cách Hàn Quốc Cho Bé Trai / Gái
-Áo Croptop Dệt Kim Trễ Vai Tay Ngắn Hoạ Tiết Kẻ Sọc Phong Cách Hàn Quốc
-Túi handmade tự đan phối màu, túi đeo chéo phong cách Hàn Quốc - Bộ phụ kiện đầy đủ LX102</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Áo nữ</t>
-        </is>
-      </c>
+          <t>Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
+Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
+Áo mưa bộ người lớn thời trang cao cấp,bộ quần áo mưa nam nữ 2 lớp,siêu chống thấm LEZIDA
+Bộ quần áo thể thao nam thêu thời trang tay ngắn thêu Có thể giặt bằng máy Menswear
+Quần baggy cạp cao NAM TẶNG KÈM ÁO SƠ MI  thời trang BAGGY  chất liệu co giãn cao cấp phong cách Hàn Quốc.
+Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
+Bộ Quần Áo Nam Chất Đũi Gân Mềm Cao Cấp Mịn Mát Thời Trang Vesca J24
+Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
+Balo nam nữ thời trang cỡ lớn đựng laptop 17 inch balo du lịch đi học đi chơi form rộng để quần áo BL16
+🔥Hot🔥 Bộ Quần Áo Ngắn Tay In Chữ PARIS Thời Trang Chất Lượng Cao Cho Nam Bộ quần áo nam mùa hè bộ đồ thể thao thoáng mát
+Mcbb 49-71 kg 100% cotton bộ quần áo nam áo thun nam tay ngắn quần shorts nam set bộ cộc tay nam áo phông nam thời trang
+Bộ Đồ Mùa Hè Áo Thun Tay Ngắn Hai Mảnh Quần Short Hợp Thời Trang Phù Hợp Với Phong Cách Mới Hàn Quốc Nam Năm Điểm Quần Ice S
+Mcbb 49-71kg 100% cotton bộ quần áo nam áo thun nam quần đùi short bộ cộc tay nam set đồ nam áo phông thời trang bé trai
+Bộ đồ nam giản dị, Phong cách Hàn Quốc, Slim-Fit, hợp thời trang, cà vạt cưới, trang phục công sở trang trọng, Xanh Biển , bộ đồ công sở nhỏ, áo khoác Menswear Quần Sơ Mi
+Áo len Thương Hiệu Thời Trang nam, áo dài tay có in chữ, quần áo ôm vừa vặn, cơ thể cổ tròn linh hoạt năng
+Magee Quần short denim nam mới, phiên bản Hàn Quốc, cổ điển, giản dị, cảm giác cao cấp, giặt có lỗ, dây rút rộng, hơi co giãn, áo choàng chân thẳng thời trang dành cho cặp đôi
+Bộ Quần Áo Trẻ Trung Năng Động Cho BéQuần Dài Ống Rộng Lót Nhung Dày Dặn Giữ Ấm Thời Trang Mùa Đông Cho Nam
+Bộ Đũi Đen Gu Việt Thời Trang Người Việt - Set Đồ Nam Chữ "Thiền Định" Quần Dài Áo Cộc Cổ Tàu Có Size Nữ
+Bộ Quần Áo Thể Thao Nam Cao Cấp Vải Poly Dày Dặn Thời Trang Siêu Đẹp VESCA J19
+Bộ Đũi Nam Gu Việt Thời Trang Người Việt - Đồ Bộ Nam, Nữ Màu Trắng Quần Dài Bụng Thun, Áo Cộc Tay Mát Mẻ Lịch Sự
+Tay ngắn thời trang nam thương hiệu xu hướng t-shirt thiết kế thích hợp kết cấu lỏng lẻo cảm giác nửa tay áo mùa hè quần áo quần yếm cao cấp
+Set 3 món áo khoác quần dài vải nhung dày cho nam trẻ trung thời trang hàn quốc chủ đề thể thao
+Bộ Đồ Nam Mùa Hè Áo Thun Tay Lỡ Unisex Quần Short Kẻ 3 Sọc Ngang Thời Trang 2024
+Set Áo Thun Ngắn Tay Và Quần short Thể Thao In Họa Tiết Hoạt Hình Phong Cách Hàn Quốc Thời Trang Mùa Hè Cho Nam
+Bộ Quần Áo Paris  Nam Nữ Cộc Tay Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam Nữ - Bộ quần áo cộc thể thao nam PSG
+Set Áo Thun Ba Lỗ Sọc Ngang + Quần Dài Ống Rộng Thời Trang Dành Cho Nam
+Sét bộ áo nỉ Gấu sofa + quần bo gấu đen (sét 2 món), Sét bộ mặc ở nhà, Áo thun nam nữ thiết kế thời trang DVGIT
+Combo set 3 món Balo đựng laptop &amp; quần áo du lịch nam nữ Thời Trang Cao Cấp, túi ba lô học sinh sinh viên
+Set Áo Thun Ngắn Tay Và Quần Short Thời Trang Xu Hướng Mùa Hè Cho Nam
+Bộ nỉ nam cao cấp, bộ quần áo thể thao thu đông thời trang, sét nỉ nam  có mũ đủ size từ 45-90kg</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Bộ nam</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam - 74.9%
+Thể Thao &amp; Dã Ngoại - 15.13%
+Thời Trang Nữ - 4.37%</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 85.81%
+Trang Phục &amp; Giày Dép Thể Thao - 5.2%
+Giày dép &amp; Quần áo nữ - 3.5%</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4523</v>
+        <v>26759</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chan-ga-goi-dem</t>
+          <t>ao-cho-nam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://metric.vn/chan-ga-goi-dem</t>
+          <t>https://metric.vn/ao-cho-nam</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>chăn ga gối đệm</t>
+          <t>áo cho nam</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c1323859803</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1__100636</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nhà cửa &amp; Đời sống</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>181265</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2342185,2</t>
-        </is>
+        <v>6137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5133018</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>chăn ga gối đệm</t>
+          <t>áo cho nam</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1792,112 +2025,133 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>577167d26ef30be26c6c7fe33a669983</t>
+          <t>43188eedf20bbe31f5c280f94b58eccc</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>28307732666</v>
+        <v>832755699135</v>
       </c>
       <c r="Z10" t="n">
-        <v>74641</v>
+        <v>6533048</v>
       </c>
       <c r="AA10" t="n">
-        <v>799</v>
+        <v>82845</v>
       </c>
       <c r="AB10" t="n">
-        <v>319</v>
+        <v>12488</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Combo chăn ga gối 5 món SERENA cao cấp Set bộ vỏ chăn ga ra drap tencel trải phủ giường gối nệm đệm 5 món cao cấp
-Ga tencel cao cấp SERENA Set bộ vỏ chăn ga ra drap tencel trải phủ giường gối nệm đệm 5 món cao cấp
-Bộ ga giường cao cấp SERENA Set bộ vỏ chăn ga ra drap tencel trải phủ giường gối nệm đệm 5 món lụa tencel cao cấp
-Set 5 món chăn ga gối SERENA cao cấp Set bộ vỏ chăn ga ra drap tencel trải phủ giường gối nệm đệm 5 món cao cấp
-Bộ 4 món vỏ chăn vỏ gối ga trải đệm cotton tici Otama Bedding ra nệm bo chun hoặc may phủ đủ size màu pastel Hàn Quốc
-Bộ ga giường tencel 60s SERENA cao cấp Set bộ vỏ chăn ga ra drap trải phủ giường gối nệm đệm 5 món chăn hè cao cấp
-Bộ ga giường 5 món SERENA cao cấp Set bộ vỏ chăn ga ra drap tencel cotton trải phủ giường gối nệm đệm 5 món lụa cao cấp
-Bộ ga giường cute dễ thương SERENA cao cấp Bộ set chăn ga drap grap phủ trải giường gối nệm đệm 5 món mát lạnh mùa hè
-Set chăn ga gối 5 món SERENA cao cấp Bộ vỏ chăn ga ra drap grap gối nệm đệm 5 món phủ giường vải cotton 100% cao cấp
-Bộ chăn ga gối đệm 5 món SERENA Bộ set chăn ga drap grap phủ trải giường gối nệm đệm 5 món lụa thái mùa hè cao cấp
-Bộ chăn ga gối phao gấu nâu béo cotton poly  T2T đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ chăn ga gối cotton đũi 5 món beo ren quanh đệm, set chăn trần bông mỏng kèm ga trần viên bèo bọc đệm cao đến 32cm
-Bộ chăn ga gối hè tim kẻ ô cotton poly T2T đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ chăn ga gối nhập khẩu cotton Tici cao cấp sang trọng nhiều màu sắc và kích thước đệm
-BỘ DRAP CHĂN GA GỐI (BỘ VỎ) 100% COTTON  GỒM 1 GA CHUN, 2 VỎ GỐI ĐẦU, 1 VỎ CHĂN (Bo chun Theo Kích Thước Đệm))
-Bộ 3 Vỏ Chăn Ga Gối Đệm Họa Tiết Ngôi Sao Bóng Đá 228x228cm Paris Saint-Germain FC Phong Cách Thể Thao Cho Bé Trai
-[CISWGE] 1 Bộ Chăn Ga Gối Đệm Cho Nhà Búp Bê Thu Nhỏ [Hàng Mới] [1: 12
-Bộ chăn ga gối hè khủng long du lịch cotton poly  T2T đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-ga giường lụa chăn ga tencel ga giường tencel ga lụa tencel vỏ gối tencel drap giường tencel bộ chăn ga gối lụa Ga Trải Giường Vải Lụa Thêu chăn ga lụa chăn ga gối đệm lụa ga gối lụa
-Bộ chăn ga gối phao gấu xo cotton poly T2T đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ chăn ga gối Cotton Poly CHAGAMO drap giường Hàn Quốc miễn phí bo chun ga giường bọc đệm
-Đệm Ngồi Bệt Nệm Tròn Họa Tiết Nhiều Màu Tựa Lưng Tiện Lợi MINH AN CHĂN GA GỐI ĐỆM THẢM
-Bộ Chăn Ga Gối Cotton 100% Mẫu Minion Hariey Mềm Mịn Thoáng Mát Thấm Hút Tốt Cho Đệm 1m2 m4 m6 m8 2m 2m2
-Máy Hút Bụi Giường Đệm Chăn Ga Gối Đệm - Máy Hút Bụi Cầm Tay Không Dây Diệt Khuẩn Có Bảo Hành
-Bộ ga giường 5 món SERENA Bộ vỏ chăn ga ra drap grap gối nệm đệm 5 món phủ giường vải cotton 100% cao cấp
-Bộ chăn ga gối Cotton Poly Hàn Quốc miễn phí bo chun ga giường bọc đệm
-Bộ chăn ga cotton đũi 5 món chần bông, ga bọc đệm, chăn hè chần bông, 2 vỏ gối đầu kèm vỏ ôm thoáng mát
-Bộ chăn ga gối hè bò đen cotton poly T2T đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ chăn ga gối đệm 5 món SERENA cao cấp Bộ set vỏ chăn ga ra  phủ trải giường gối nệm đệm 5 món nỉ nhung mịn trần bông
-Bộ 5 Món Chăn Phao Ga Gối Dành Cho Đệm Cao Từ Trên 10cm, 15cm Đến Dưới 25cm Chất Liệu Cotton Poly</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Đồ dùng phòng ngủ</t>
-        </is>
-      </c>
+          <t>Áo Phông Nam Nữ  Dsq2 University Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+Áo Phông Nam Nữ Louis Vuitton Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+Áo phông nam nữ in chữ DSQUARED2 màu Hồng trước ngực .Áo thun Cộc tay Unisex Form Rộng Dành Cho Các boy phố - PandT34
+Áo Phông Nam Nữ DSQ Icon Mix Khoá Kéo Siêu Hot. Áo Thun cộc tay Unisex Form Rộng Siêu Hot Cho Các Boy Phố 2024 - PandT34
+Áo Khoác Gió DSQ 376 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Khoác Gió DSQ 338 Họa Tiết 2 Khóa Trước Ngực Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Khoác Gió DSQ 386 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Khoác Gió DSQ 353 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Khoác Gió DSQ 377 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Khoác Gió DSQ 371 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Thời Trang Nam Cao Cấp Phù Hợp Cho Nam
+Áo Thun DSQ 172 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 171 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 165 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 066 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 071 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 157 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 162 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 167 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 131 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+Áo Thun DSQ 006 hình in nhiệt cao cấp vải cotton co dãn 4 chiều phù hợp cho nam
+【TRONG KHO】GIANT Phong cách mới Thoải mái Thoải mái Quần áo Đi xe đạp dành cho Đội chuyên nghiệp Nam Màu trắng Tay ngắn Tay áo Bộ Áo khoác Đi xe đạp
+Áo Sơ Mi Tay Ngắn Dáng Rộng In Hình Vịt Dễ Thương Thời Trang Mùa Xuân Cho Nam Và Nữ
+Đồ Lam Đi Chùa # MẪU NHẬTT  VIỀN  - VẢI KATE - TAY LỬNG - DÀNH CHO NAM Áo Menswear Sơ Mi Có Cổ
+RALPH LAUREN Áo polo Tay Ngắn Cổ Bẻ Chất Liệu Cotton Thời Trang Mùa Hè Cho Nam
+Áo thun nam trung niên cổ tròn vải TC 2 chiều form rộng rãi thoải mái cho người lớn tuổi ATHUN30
+Áo thun cotton 100% Jinmi in họa tiết Chú hề form rộng dành cho nam nữ JM56
+Tianlesiwei Áo Khoác denim In Họa Tiết Thời Trang Xuân Thu Cho Nam Và Nữ
+Áo khoác phao OutPro A1W2PN144 có mũ trùm đầu giữ ấm thời trang cho nam
+Túi xách đeo vai, túi du lịch cỡ lớn 2 lớp đa năng cho nam và nữ, tiện lợi đựng quần áo và mỹ phẩm, túi đựng dung tích lớn, túi đựng đồ du lịch nhẹ có thể gập lại Bag
+【New Arrival】Áo Đạp Xe Ngắn Tay Mềm Mại Thoáng Khí Thấm Hút Mồ Hôi Nhanh Khô Cho Nam</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Áo nam
+Áo khoác nam
+Áo nữ</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam - 70.17%
+Thời Trang Nữ - 19.73%
+Thể Thao &amp; Dã Ngoại - 4.43%</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 64.77%
+Trang Phục &amp; Giày Dép Thể Thao - 9.57%
+Nội thất &amp; Sắp xếp - 7.37%
+Giày dép &amp; Quần áo nữ - 5.65%
+Trẻ sơ sinh &amp; Trẻ nhỏ - 3.82%</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40544</v>
+        <v>24851</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>do-dien-gia-dung</t>
+          <t>ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://metric.vn/do-dien-gia-dung</t>
+          <t>https://metric.vn/ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>đồ điện gia dụng</t>
+          <t>áo thời trang nam</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>c641426678</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1__100010</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Thiết Bị Điện Gia Dụng</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3668</v>
+        <v>6738</v>
       </c>
       <c r="K11" t="n">
-        <v>12269710</v>
+        <v>5019422</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>đồ điện gia dụng</t>
+          <t>áo thời trang nam</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1931,114 +2185,129 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>640ac3723543678b3fc1dd2eff23e80d</t>
+          <t>b50242ea84906a69e41a2a33b161041e</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>2369680684</v>
+        <v>878560662534</v>
       </c>
       <c r="Z11" t="n">
-        <v>49793</v>
+        <v>6765089</v>
       </c>
       <c r="AA11" t="n">
-        <v>378</v>
+        <v>78900</v>
       </c>
       <c r="AB11" t="n">
-        <v>313</v>
+        <v>9735</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Kệ Lò Vi Sóng- Giá Đồ Gia Dụng Nhà Bếp Thông Minh 3-4-5 Tầng ( NNV.store) thép cáp bon sơn tĩnh điện
-Lò Nướng Điện Ukoeo 120L Chính Hãng (HBD-1201) 2024 - Top Đồ Gia Dụng
-[Sỉ] Bếp chiên đôi - Bếp điện - Đồ gia dụng nhà bếp - Thiết bị máy móc pha chế
-Nồi Cơm Điện Đôi 2 Ngăn Đa Năng YIDPU YD-611D Cảm Ứng- Bảo Hành 12 Tháng - Top đồ gia dụng
-Kệ Thép Cao Cấp Sơn Tĩnh Điện Hadochi - Kệ Lò Vi Sóng- Giá Đồ Gia Dụng Nhà Bếp Thông Minh 3-4-5 Tầng
-Pin sạc AA USB Type-C Doublepow 2750mWh Dùng Cho Micro, Đồng Hồ, Khóa Cửa, Đồ Chơi Trẻ Em, Điện Gia Dụng
-Máy Mài Dao Kéo Bằng Điện 220V Chính Hãng Nhập Khẩu - Dụng Cụ Nhà Bếp - Đồ Gia Dụng
-Nồi Áp Suất Bear Đa Năng, Nồi Điện Dung Tích 4 Lít YLB-C40W5 - Hàng Chính Hãng, Bảo Hành 12 Tháng - Đồ Gia Dụng Gia Đình
-Kệ Nhựa - Taky, Dán Tường Để Đồ Đa Năng, Để Điện Thoại, Điều Khiển, Tiện Dụng, Gọn Gàng, Tiện Dụng Trong Gia Đình. 4004
-Kệ Đựng Dụng Cụ,Khay Đựng Ốc Vít, Linh Kiện Điện Tử, Đồ Sửa Xe Duy Tân Loại Lớn- Cứng Cáp, Gọn Gàng- Đồ Gia Dụng Hoacosa
-💖FREESHIP💖 COMBO 5 nút che bịt ổ cắm điện 2 chân an toàn cho trẻ nhỏ - Đồ dùng, dụng cụ nhà bếp, kệ hũ gia vị
-Dụng Cụ Tuốc Nơ Vặn Ốc Vít Đủ Loại 31 Đầu, Bộ Tua Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng - Tô Vít Đa Năng Nhiều Đầu
-Bộ 10 bàn chải làm sạch lỗ vòi hoa sen, đồ điện tử, gia dụng
-[ Giá Hủy Diệt ] Nồi Cơm Điện Giá Rẻ-Thiết Bị Điện Gia Dụng - Đồ Gia Dụng Nhà Bếp
-Bộ tua vít sửa chữa điện thoại, sửa đồ gia dụng - tô vít đa năng nhiều đầu đa năng- vặn ốc vít đủ loại 31
-Cân điện tử mini tiểu li cầm tay🍉Cân tiểu ly điện tử mini (0,01g-500g) chính xác 0,01g tiện lợi, đồ gia dụng tiện ích ch
-BỘ TUA VÍT SỬA ĐA NĂNG - BỘ VÍT SỬA ĐIỆN THOẠI LAPTOP ĐỒNG HỒ MÁY TÍNH ĐỒ GIA DỤNG
-GuesMi 1.6L Mini đồ gia dụng nhà bếp nồi cơm điện đa năng mini nồi hấp điện Nồi cơm điện nồi cơm điện 1-4 người ăn
-Cây lăn bụi quần áo lông chó mèo sợi vải sofa chăn ga đồ gia dụng thông minh cây làm sạch bụi đa năng tĩnh điện
-Móc Nhựa -Kingler, Cao Cấp Gắn Tường Treo Phích Cắm Điện, Treo Đồ Đa Năng, Tiện Dụng Cho Gia Đình, Nhiều Màu Sắc, 2236
-Diode Cầu Các Loại (dẹt, vuông, tròn, 3A, 5A, 20A, 30A, 50A, ...) Sửa Chữa Bếp Từ, Đồ Điện Gia Dụng
-Bộ Tua Vít Mini Đa Năng 31 Đầu Các Size Vặn Tháo Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng
-[FREESHIP🎁] Lưới Sắt Thép Lắp Ghép Đa Năng Làm Giá Để Sách, Đồ Gia Dụng, Chuồng Sơn Tĩnh Điện Chống Gỉ Sét-Tặng Kèm Chốt
-💖FREESHIP💖 COMBO 5 nút che bịt ổ cắm điện 2 chân an toàn cho trẻ nhỏ - Đồ dùng, dụng cụ nhà bếp, kệ hũ gia vị
-Bộ tua vít đa năng 31 đầu sửa chữa điện thoại, máy tính, đồng hồ, đồ gia dụng, tuốc nơ tô vít nhỏ tiện dụng-AENEA
-100 Ml Chống Tĩnh Điện Xịt Xịt Tĩnh Điện Chống Tóc Tĩnh Điện Xịt Đồ Gia Dụng Đồ Nội Thất Xịt Quần Áo Nước Xả Nước Xả Thú Cưng Xịt Y
-Bộ Tua Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng - Tô Vít Đa Năng Nhiều Đầu Đa Năng- Vặn Ốc Vít Đủ Loại KHSPT
-Bộ Tua Vít Sửa Chữa Điện Thoại, Sửa Đồ Gia Dụng - Tô Vít Đa Năng Nhiều Đầu kapusi
-Nồi Lẩu Đa Năng 2 Tầng Công Suất 1000W, Nồi Lẩu Điện Mini Kèm Giá Hấp ( Đồ Gia Dụng Q- C)
-Kệ Dán Tường Để Remote, Đồ Dùng/ Giá Đỡ Sạc Điện Thoại - Có Móc Treo Giữ Dây Điện - Gia Dụng Đức Bảo - Shop Bảo Bảo</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>Đồ gia dụng nhà bếp
-Dụng cụ nhà bếp
-Chăm sóc sức khỏe</t>
-        </is>
-      </c>
+          <t>Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
+Áo mưa bộ người lớn trùm toàn thân thời trang người lớn gấp gọn nam măng tô nữ eva
+Áo Gió Nam Chống Nắng DSQ AG 366 Chất Liệu Gió 2 Lớp Thời Trang Nam Màu Đen Kiểu Dáng Khoác Ngoài
+Áo Gió Nam DSQ AG 373 Chất Liệu Gió 2 Lớp Thời Trang Nam Màu Đen Kiểu Dáng Khoác Ngoài
+⭐Hot New⭐Áo Thun FIDE TEEDY Cotton Full Size Nam Nữ Thời Trang, Áo Phông Đính Gấu Phong Cách Kut3 (TẶNG KÈM GẤU)
+Áo thun polo nam phối màu trắng đen thời trang, chất vải cá sấu thoáng mát Menswear Có Cổ Ngắn Tay
+Áo Thun SOAT TIHIK Nam Nữ Unisex Form Rộng Tay Lỡ AT136 trending xu hướng Men Lì Fashion Thời Trang Hàn Quốc Độc Đẹp Vải Dày Mịn Thoáng Mát Thiết Kế Thời Trang Kiểu Dáng Năng Động Trẻ Trung
+Áo Gió Nam DSQ AG 375 Thời Trang Nam Màu Đen Kiểu Dáng Khoác Ngoài Chất Liệu Gió 2 Lớp
+Áo Khoác Gió Nam DSQ  AG 365 Màu Đen Hai Lớp Thời Trang Nam Kiểu Dáng Khoác Ngoài
+Áo khoác hoodie zip nam nữ Dsq2 nỉ bông in chữ ICON trắng ngang ngực bo ống dày dặn thời trang
+Áo polo nam form rộng màu trắng, đen phong cách trẻ trung cao cấp đẹp thời trang MURADFASHION APL11
+Áo Khoác Jeans Nam Nữ Denim Jacket 1 Túi Hàn Quốc Màu Xanh Xám và Đen, From Rộng Thời Trang Unisex Phong Cách Hàn Quốc
+Áo Phông Nam Nữ In Hình Đôi Cánh Đại bàng Trắng Tràn Cổ Hai Mặt, Áo Cánh Chim trắng in chuyển nhiệt thời trang mùa hè 2023 Menswear Top Cổ Tròn Áo Thun
+🔥Hot🔥Áo thun CAPYBARA Unisex Cổ Tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Lapstore
+Áo thun Burberry thời trang Unisex nam nữ Form rộng Oversize chất liệu Cotton
+Áo Khoác Da Biker nam tính mạnh mẽ LADOS-2104 form đẹp, thời trang, chống  xướt cao, bảo hành da 3 năm
+Áo thun Make Money Odin Club, Áo thun cộc tay thời trang nam nữ unisex, Local Brand ODIN CLUB
+Áo sơ mi TOPGU hoạ tiết Aloha, áo sơ mi cuban nam tay ngắn vải lụa thoáng mát thời trang nam
+Áo sơ mi nam tay ngắn màu trơn phong cách retro thời trang
+Áo khoác vải jean nam thời trang  thiết kế dày dặn nam tính - Chất jean cao cấp Có Túi Có Cổ Jacket Menswear
+Áo sơ mi nam mới của Magee, phong cách cổ điển Nhật Bản, giản dị, cao cấp, hoa nhuộm cà vạt, thiết kế nhiều màu, hip-hop, vừa vặn, áo dài tay có ve áo thời trang dành cho cặp đôi trẻ trung
+Áo Jersey 91 Odin Club, Áo thun cộc tay thời trang nam nữ unisex, Local Brand ODIN CLUB
+Áo Ba Lỗ Tập Thể Thao In Hình Thời Trang Cho Nam
+[bigsizemen] Áo sơ mi tay dài vải caro thời trang phối túi cỡ đại bigsize nam &lt; 140kg - mẫu 2
+Áo Sơ Mi Nam Dài Tay in Hoạ Tiết Hoa, Lá. Áo Sơ Mi 4 Màu Chất Lượng Cao Thời Trang Cho Nam
+40-105kg Áo Nam Nữ ba lỗ/sát nách/tanktop thời trang Bigsize Sói Store Women Cổ Tròn
+Áo thun Henry MADEN màu xanh lá quân đội/ kaki ngắn tay kiểu Mỹ thời trang retro cho nam
+Áo thun nam vô hạn thời trang đường phố in hình dáng rộng giản dị phù hợp với cổ tròn ngắn tay
+Áo sơ mi nam cộc tay in họa tiết form rộng thương hiệu thời trang 360 Boutique chất liệu cotton thoáng mát - SHNTK511
+Đồ cặp với người yêu mùa hè HAPPYLOVE áo phông nam đầm nữ dáng dài họa tiết buộc nơ thời trang M181</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Áo nam
+Áo khoác nam</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam - 83.48%
+Thời Trang Nữ - 11.5%
+Thể Thao &amp; Dã Ngoại - 3.01%</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 77.6%
+Giày dép &amp; Quần áo nữ - 17.8%</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14657</v>
+        <v>565085</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cham-soc-da</t>
+          <t>ao-thun-thun</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://metric.vn/cham-soc-da</t>
+          <t>https://metric.vn/ao-thun-thun</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>chăm sóc da</t>
+          <t>áo thun thun</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>c157614325</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1__100630</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sắc Đẹp</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>12578</v>
+        <v>90</v>
       </c>
       <c r="K12" t="n">
-        <v>9552389</v>
+        <v>3903330</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>chăm sóc da</t>
+          <t>áo thun thun</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2072,114 +2341,137 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>e7e59d6eb6e07b77136a5efec1332ff4</t>
+          <t>ae40154f3eb195117fb262bb02c33a02</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>444264323526</v>
+        <v>8896936826273</v>
       </c>
       <c r="Z12" t="n">
-        <v>3199970</v>
+        <v>96870786</v>
       </c>
       <c r="AA12" t="n">
-        <v>18601</v>
+        <v>598587</v>
       </c>
       <c r="AB12" t="n">
-        <v>7544</v>
+        <v>48790</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Máy triệt lông cao cấp IPL 9 cấp độ Hàn Quốc trẻ hóa da, giảm mụn, trắng da, tăng cường độ ẩm chăm sóc BH 12 tháng
-Máy triệt lông cao cấp IPL 9 cấp độ Hàn Quốc trẻ hóa da, giảm mụn, trắng da, tăng cường độ ẩm chăm sóc BH 2 năm - visen
-Máy Chăm Sóc Da 5in1 M-2897, Có 5 Chức Năng Chăm Sóc Da Bảo Hành 12 Tháng
-[Hàng Cao Cấp] Giường Tiêm Filler Luxury, Giường Phun Xăm Thẩm Mỹ Chăm Sóc Da, Chỉnh Nâng Hạ Cao Thấp
-Giường Tiêm Filler Luxury, Giường Tiêm Phun Xăm Thẩm Mỹ Chăm Sóc Da, Chỉnh Nâng Hạ Cao Thấp
-Máy Chăm Sóc Da H2O2, Aqua 6in1 Có 6 Chăm Sóc Da (Màu Xanh, Trắng)
-Máy Chăm Sóc Da 6in1, Máy Aqua 6in1 H2O2 Hàng Chính Hãng Dùng Chăm Sóc Da Chuyên Sâu
-Máy Chăm Sóc Da 6in1 | Máy H2O2 AQua 6 Chức Năng Chính Hãng Chăm Sóc Da Mặt Bảo Hành 12 Tháng
-Máy Đẩy Tinh Chất Nâng Cơ, Chăm Sóc Da Công Nghệ Mới Massage Mặt 7 Chế Độ, Máy Di Tinh Chất ION Nóng Lạnh nâng cơ mặt
-Máy Chăm Sóc Da 5in1, Máy 5in1 Cao Cấp Cho Spa, Bảo Hành 12 Tháng
-(G03) Mặt Nạ Ngủ Be'Balance G.CLASSIC VITAMIN A MASK Chăm Sóc và Dưỡng Ẩm cho Da Phiên Bản Nâng Cấp 120ml
-Máy Chăm Sóc Da AQUA 6 IN 1
-Bộ 2 Sản Phẩm Chăm Sóc Da Ốc Sên Vàng 24K TONYMOLY
-Set sản phẩm chăm sóc da WIS 4 món dưỡng ẩm cho mọi loại da
-[COMBO QUÀ TẶNG CHO NAM] Bộ Chăm Sóc Da Mặt Fanmen Sữa Rửa Mặt Và Toner Sạch Sâu Dưỡng Ẩm Combo Đẹp Trai Quà Tặng Nam
-Bộ Chăm Sóc Da Chuyên Nghiệp Lindsay Hàn quốc | Cam Kết Sản Phẩm Chính Hãng 100% Chăm Sóc Da Cơ Bản
-[Hộp May Mắn] 4 Loại Mỹ Phẩm Chăm Sóc Da (Trang Điểm, Chăm Sóc Cơ Thể, Chăm S
-Dầu dưỡng hoa hồng dùng chăm sóc da Karose Oil
-Máy chăm sóc da Halio Ion Cleansing &amp; Moissturizing Beauty Device
-Đánh thức làn da mới với tế bào gốc Désembre Seven Pepta Serum [hộp 15 ống 7ml/ống] - Giải pháp chăm sóc da hiệu quả
-Kem Dưỡng Da Cổ 100ML Chăm Sóc Làm Săn Chắc Da
-👍🏻Chính Hãng👍🏻 Kem xóa tàn nhang kem xóa nám làm trắng da tinh chất mặt và loại bỏ nám làm sáng da chăm sóc 50g
-[ Hàng Cao Cấp ] Bông Mút Bọt Biển Rửa Mặt Chuyên Dụng Spa &amp; Chăm Sóc Da Tại Nhà Siêu Mềm Mịt Có Dây Treo Tiện Dụng
-Tẩy da chết da đầu JIORNIEE kiểm soát dầu nhờn giảm bết tóc làm sạch chăm sóc tóc tại nhà
-Giấy Cây Lau Mặt Spa - Khăn Lau Mặt Trong Thẩm Mỹ, Spa - Khăn Giấy Chăm Sóc Da [Bịch 200 Miếng]
-🍋HÀNG CÓ SẴN💧Hộp đựng đồ trang điểm, đựng nước hoa và sản phẩm chăm sóc da, bàn trang điểm mỹ phẩm, máy tính để bàn ch
-Dầu Kangaroo Dưỡng Ẩm Chăm Sóc Da Đặc Biệt Cho Phụ Nữ Mang Thai
-SPIRIT Bathroom Hộp tổ chức ngăn kéo trang điểm Acrylic lưu trữ chăm sóc da để bàn dung lượng lớn đựng mỹ phẩm
-Bộ Sản Phẩm Chăm Sóc Da Cho Mẹ Bầu, Da Nhạy Cảm Gồm: Tẩy Trang, Sữa Rửa Mặt, Toner, Kem Chống Nắng
-Set đồ du lịch 4 món Orgabebe travel kit Hàn quốc chăm sóc da cho bé</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Chăm sóc da mặt
-Dụng cụ làm đẹp
-Bộ sản phẩm làm đẹp</t>
-        </is>
-      </c>
+          <t>SET 3 Áo Polo Nam HayaN "BEST SELLER" - Ngắn Tay Có Cổ Menswear Thun Shirt
+Áo Thun Trơn Cotton 250gsm Premium Full Color Godmother Cổ Tròn Nam Nữ
+[Form Nhỏ - Tăng size] [36-70 kg] Áo Khoác Nữ Tập Gym, Yoga. Áo Khoác Ko Nón Thun Lạnh [TT21-Ko Nón]. Vải Mỏng, Nhẹ, Mát, Ôm Sát Body [Đồng Sport Chạy Bộ]
+Áo phông nam nữ Cotton in chữ Dsq2 .Áo Thun Nam Nữ Unisex 2 màu đen trắng dáng đơn giản basic  2024
+Áo Phông Nam Nữ  Dsq2 University Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+[ Siêu rẻ + hình thật] Áo thun trơn form ÔM babytee đủ màu basic chất liệu thun con giãn 4 chiều fit dáng siêu đẹp
+Áo thun trơn form ÔM babytee đủ màu basic ôm gọn nhiều chất vải
+Áo Thun Trơn Godmother Blank T-shirt 100% Cotton 250gsm Cao Cấp
+Áo thun polo nam vải cá sấu phối sọc viền tay viền cổ Everest 12 mẫu phối màu Menswear Shirt Có Cổ  Cộc Tay  màu hot 2024
+Áo Phông Nam Nữ Louis Vuitton Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+AILINH.STORE | Áo thun phối ren nơ
+Áo thun cổ tim, tay ngắn nhiều màu chất cotton thoáng mát
+🔥Hot🔥Áo Thun Cặp Đôi Nam Nữ Chất COTTON In 5D Chữ Anh và Em Mặc Cùng Người Yêu, Set Đồ Bộ Xinh Xắn Jolie
+Áo Thun Polo Nam BL Fashion
+Set trang phục thể thao OutPro quần đùi và áo thun tay ngắn tập yoga gym dành cho nữ
+Combo B14 - Áo polo phối quần kaki cao cấp co dãn hiện đại Menswear Nam Top Pants Lưng Cao Có Cổ Thun
+Áo thun Lovito khóa kéo màu trơn thường ngày cho nữ LNA27136 (Nhiều màu)
+Áo thun nam trung niên Thái Khang loại áo polo cho bố vải cotton tự dệt form classic ATHUN16
+Áo Thun MLB New Era Tổng Hợp Nhiều Mẫu Hottrend 2024 Unisex Nam Nữ - Áo Phông MLB Tổng Hợp 100% cotton Đầy Đủ Tem Tag
+Áo thun FIDE TEEDY phông cotton unisex nam nữ form rộng cổ tròn  áo đính gấu - AT45(TẶNG KÈM 2 GẤU)
+Áo Thun Phông 3158 Nữ In Chữ BETATE Form Rộng Unisex Chất Cotton Khô Loại 1, Thoáng Mát, Thấm Hút Mồ Hôi - GUNN
+Áo thun nam nữ cổ chữ V ver 3 vải cotton bông co giãn, form tôn dáng- BELAIRMAN Menswear Top Cổ V có thể giặt máy khỏe mạnh
+Áo croptop nữ , áo 2 dây bản to croptop vạt bầu màu trắng màu đen đen chất thun gân dày dặn co giãn thể thao sexy A789
+Áo thun Lovito cơ bản màu trơn thường ngày cho nữ LNE16186 (Nhiều màu)
+Lovito Áo thun trơn họa tiết tinh tế mềm mại và thoải mái cho nữ L86ED112
+Áo Thun BabyTee In Hình Miêu 23 Quý Tộc Thun CHOICE.SG Cotton 100% Chiều BabyTee-TOP X
+[Đồ trẻ em - Kiki Sport ] Real madid trắng Quần áo bóng đá trẻ em Chất thun lạnh Siêu đáng yêu
+Áo thun baby tee Bé nơ hồng Kill System chất thun co giãn màu trắng
+Áo thun gia đình labubu nông trang cho bé , áo phông trẻ em unisex bé trai , gái , kid_genz
+[HỘP QUÀ ÁO HOA] Áo thun unisex cao cấp chính hãng IDEVERRAY x Trần Lập Nông, RACING form oversize chất liệu cotton 260gsm</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Áo nữ
+Áo nam</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ - 51.42%
+Thời Trang Nam - 38.2%
+Thời trang trẻ em &amp; trẻ sơ sinh - 5.44%
+Thể Thao &amp; Dã Ngoại - 2.98%
+Chưa phân loại - 1.26%
+Nhà cửa &amp; Đời sống - 0.4%
+Chăm Sóc Thú Cưng - 0.12%</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 40.05%
+Giày dép &amp; Quần áo nữ - 37.99%
+Trang Phục &amp; Giày Dép Thể Thao - 11.07%
+Quần Áo và Giày Dép Trẻ Em  - 4.98%
+Trẻ sơ sinh &amp; Trẻ nhỏ - 3.32%
+Giường ngủ &amp; Nhà tắm - 1.92%</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76384</v>
+        <v>63669</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>quan-ao-thoi-trang-nam</t>
+          <t>ao-ao-khoac</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://metric.vn/quan-ao-thoi-trang-nam</t>
+          <t>https://metric.vn/ao-ao-khoac</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>quần áo thời trang nam</t>
+          <t>áo áo khoác</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c2103002918</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1723</v>
+        <v>2143</v>
       </c>
       <c r="K13" t="n">
-        <v>8600996</v>
+        <v>3509231</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>quần áo thời trang nam</t>
+          <t>áo áo khoác</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2213,81 +2505,105 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>ba8ee112ac7635cd1826e343600afb1d</t>
+          <t>4e06e306d824335df48db8791c43175b</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>79399387737</v>
+        <v>5529520035443</v>
       </c>
       <c r="Z13" t="n">
-        <v>814716</v>
+        <v>31729829</v>
       </c>
       <c r="AA13" t="n">
-        <v>4651</v>
+        <v>264451</v>
       </c>
       <c r="AB13" t="n">
-        <v>1445</v>
+        <v>40250</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>🔥Hot🔥 Bộ Quần Áo Ngắn Tay In Chữ Thời Trang Chất Lượng Cao Cho Nam Bộ quần áo nam mùa hè bộ đồ thể thao Cực Hot
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Quần Áo Cộc Mùa Hè Nam Nữ Chữ B-Bộ Hè Chất Xốp Mềm Co Giãn nhẹ Vân Nổi Chữ Thêu Đủ Size,  Bộ Thể Thao hè thời trang
-Bộ Quần Áo Paris 295 Cộc Tay Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam Nữ
-Bộ Paris, Bộ Quần Áo Paris Nam Saint German Cách Điệu Họa Tiết Vân Áo In Chìm,Thời Trang Nam Nữ Phong Cách Thể Thao 2024
-Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
-Đồ bộ đũi nam ,set bộ đũi linen Quần Áo Nam Chất Đũi Gân Mềm Cao Cấp Mịn Mát Thời Trang [SET01]
-Quần áo Thun Nam - bộ quần áo nam 3 sọc kẻ thời trang mùa hè
-Bộ Quần Áo Thun Nam GC Monogram Mùa Hè, Bộ thể thao cổ tròn bo gấu thời trang giới trẻ đễ phối đồ in họa tiết sắc nét
-Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
-Bộ quần áo thể thao nam bộ đồ thời trang mùa hè xuất khẩu chất lượng cao
-Bộ Đồ Nam Mùa Hè Tay Ngắn Cổ Bẻ Áo Khuy Cài Quần Short Có Túi Kiểu Dáng Trẻ Trung Thời Trang Zenkonu QA NAM 071
-Mega live kiện hàng bom 2tr nay chỉ còn 299k kiệ hàng boom thời trang hot trend nam nữ quần áo phụ kiện thời trang
-Quần áo thể thao bóng rổ trẻ trung nam giả hai mảnh áo thun mùa hè mỏng thương hiệu hợp thời trang thể thao rộng rãi
-Áo Sơ Mi Polo Mùa Hè Plus Kích Thước Ve Áo Quần Áo Thời Trang Phù Hợp Với Đẹp Trai Nam Phong Cách Mới Áo Thun Tay Ngắn
-áo sweater nỉ nam+quần âu nam,hoodie xám,quần ống suông,quần nam,Set Áo Len Dài Tay + Quần Dài Phong Cách Năng Động Trẻ Trung Dành Cho Nam,áo đông nam,style hàn quốc,quần ống suông,thời trang nam,áo thun unisex,áo sơ mi tay dài,áo tay dài,đenxám,kak
-【luckin men's】bộ đồ,thời trang nam,áo thun form rộng,áo sơ mi nam,áo polo nam,đồ bộ nam,quần short nam,quần đùi nam,đồng phục nhật bản,Set Áo Thun Polo Ngắn Tay Màu Sắc Tương Phản Và Quần short Thể Thao Thời Trang Cao Cấp Phong Cách Hàn Quốc Cho Nam
-Bộ Quần Áo Nam Paris Nam Phối Vân Siêu Đẹp-Bộ Cộc Nam Thời Trang Form Dáng Cực Chất
-INCERUN Bộ Áo Ba Lỗ + Quần Dài Có Khóa Kéo Phong Cách Vintage Thời Trang Cho Nam
-Bộ áo sơ mi dài tay và quần dài lưng thun INCERUN thời trang nam tính
-Quần Short Nam à?Áo Thun Dáng Dài Thời Trang Mùa Hè 2023 Hàng Mới 2023
-Thời Trang Mới Cổ Điển Màu Xanh Quần Áo Lười Cáo Thêu Cổ Tròn Chất Lượng Cao Cotton Nguyên Chất Rời Áo Thun Tay Ngắn Nam Nữ Cùng Phong Cách
-Bộ Đồ Nam Mùa Hè Áo Thun Tay Lỡ Quần Short Caro In Hình N_Y Thời Trang Mixxmen TOP NAM 266 + SHORT NAM 052
-Set Áo Thun Ngắn Tay In Chữ + Quần short Thời Trang Nam Nữ
-Áo thun nam tay ngắn mùa hè Rinnegan in hình thời trang Áo cổ tròn quá khổ Đồ họa Tee Đen trắng Quần áo
-Combo Bộ Đũi Nam 2STOREGLE Quần Dài Áo Cộc Phong Cách Thời Trang Cao Cấp Trẻ Trung Hiện Đại
-TIDE BEAR Áo Thun Tay Ngắn Dáng Rộng In Chữ Phong Cách Đường Phố Nhật Bản Thời Trang Mùa Hè Cho Nam + Quần Short Ống Rộng Thời Trang Nam Tính
-Đồng phục bóng đá trước và sau thể thao ngôi sao in hình Ronaldo ngắn tay nam nữ quần áo hợp thời trang rộng rãi
-Bộ đồ thể thao 2 món áo tay ngắn + quần short màu trơn phong cách Hàn Quốc thời trang mùa hè cho nam MS027
-Bộ Quần Áo Thể Thao Tay Ngắn YONEX Năng Động Hợp Thời Trang Cho Nam Và Nữ</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Bộ nam</t>
-        </is>
-      </c>
+          <t>Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
+[Form Nhỏ - Tăng size] [36-70 kg] Áo Khoác Nữ Tập Gym, Yoga. Áo Khoác Ko Nón Thun Lạnh [TT21-Ko Nón]. Vải Mỏng, Nhẹ, Mát, Ôm Sát Body [Đồng Sport Chạy Bộ]
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo Khoác jean nam nữ Unisex, áo khoác bò form rộng màu Xanh Đen xám trắng size - Avocado
+Váy Hai Dây Hoa dáng Ngắn Kèm Áo Khoác Cara, Đầm 2 dây đi biển Kèm Cardigan ( Có Bigsize)( Có Sẵn-Giao ngay)
+Áo Khoác Jacket Hoodie Zip RATEL Nỉ Bông (Ảnh thật) Menswear Dài Tay Cotton
+Áo Gió Nam Chống Nắng DSQ AG 366 Chất Liệu Gió 2 Lớp Thời Trang Nam Màu Đen Kiểu Dáng Khoác Ngoài
+Áo Gió Nam DSQ AG 373 Chất Liệu Gió 2 Lớp Thời Trang Nam Màu Đen Kiểu Dáng Khoác Ngoài
+ÁO VEST 2 LỚP NỮ, 2 túi thật 2 bên, có lót mềm mịn, form suông rộng size SM Women Jacket Top Voi Áo Khoác
+Áo Khoác Nỉ Hoodie Zip Thêu NQ30 AM Form Rộng Nam Nữ Unisex
+AB HOUSE - Áo Khoác Nỉ Bông Hoodie Zip thêu Caro AB nam nữ UNISEX thời trang
+Áo khoác lưới cardigan thắt nơ xixeoshop - v470
+Áo khoác gió thể thao 2 viên sọc cá tính năng động chất dù 2 lớp dày dặn form nam nữ , hàng quảng châu 2023
+Áo Khoác Hoodie CHÚ BÁO HỒNG Nam Nữ Chất Nỉ Bông Dày Dặn Unisex.
+Váy hoa nhí xòe thiết kế hai dây công chúa kèm áo khoác gân ngoài cho các tình yêu
+Áo khoác cardigan mỏng, Khoác len mỏng chất len dệt kim nhẹ nhàng, Áo khoác len choàng ngoài
+Áo Khoác Gió Hoạ Tiết Cổ Đứng Nhiều Mầu Nam Nữ 2 lớp GOAT | tráng bạc, chống nước, chống gió, ngăn tia UV, đi phượt Menswear Baggy Jacket Cổ Cao Nón
+Áo khoác nữ tập gym, yoga chống nắng, chống UV chất dệt kim lạnh thoáng khí co dãn 4 chiều
+Áo khoác nam phong cách thời trang phối họa tiết cá tính năng động trẻ trung H85
+Áo khoác bo túi viền vải xốp nhật nhẹ có túi trong bigsize 50-95kg Top Thun Nữ Jacket Women Bò
+Áo khoác sơ mi có nón 2 lớp from rộng unisex sọc caro đi nắng cách nhiệt tốt mẫu 2024 Bảo Đăng.
+Áo hoodie Garfic studio Local Brand unisex nỉ ngoại basic 6 màu - Áo khoác nỉ ullzang nam nữ unisex basic - GARFIC.CLUB
+Áo Khoác JEAN tai thỏ bé trai bé gái HOTTREN 2024 - Size cho bé từ 7kg - 32kg Thời Trang Trẻ Em  Cao Cấp Bon Store
+Ucnl Áo Khoác Dáng Rộng Thêu Hình Nhện Phong Cách retro Mỹ Thời Trang Xuân Thu Cao Cấp Cho Nam
+Áo khoác cho bé. áo khoác gió tai thỏ dễ thương cho bé từ 6 -15kg
+[ order] Áo khoác măng tô dáng dài Quảng Châu cao cấp hàng loại 1 vải kaki lụa không nhăn
+Áo khoác bóng chày nam nữ vải dù 2 lớp thêu Chaopai Bomber varsity unisex form rộng LCH
+Áo Vest dây đeo, Áo khoác ngoài không tay gợi cảm, 2024 Áo khoác ngoài mỏng dệt kim cổ Crop Top Lady
+Áo Khoác hoodie zip nam nữ Phillip Plein nỉ chân cua in đầu lâu xương chéo hai mặt zip ống tay, BBR in 2 cánh tay
+Áo Khoác Nữ Thêu Chữ Aero Chất Liệu Thun Gân 4 Túi Freesize Dưới 60kg Bubble Gum</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Áo khoác nữ
+Áo khoác nam</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ - 60.69%
+Thời Trang Nam - 31.54%
+Thời trang trẻ em &amp; trẻ sơ sinh - 5.23%
+Thể Thao &amp; Dã Ngoại - 1.43%
+Chưa phân loại - 0.32%
+Phụ Kiện Thời Trang - 0.31%
+Thiết Bị Điện Gia Dụng - 0.19%
+Nhà cửa &amp; Đời sống - 0.11%</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 43.39%
+Giày dép &amp; Quần áo nữ - 39.92%
+Trang Phục &amp; Giày Dép Thể Thao - 6.62%
+Quần Áo và Giày Dép Trẻ Em  - 5.49%</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26759</v>
+        <v>27334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ao-cho-nam</t>
+          <t>ao-nam-nu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-cho-nam</t>
+          <t>https://metric.vn/ao-nam-nu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>áo cho nam</t>
+          <t>áo nam nữ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2310,15 +2626,15 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>6137</v>
+        <v>5985</v>
       </c>
       <c r="K14" t="n">
-        <v>5133018</v>
+        <v>2838558</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>áo cho nam</t>
+          <t>áo nam nữ</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2352,114 +2668,137 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>43188eedf20bbe31f5c280f94b58eccc</t>
+          <t>687fd7366b8ba27304693808fc753659</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>761697578942</v>
+        <v>5153683441296</v>
       </c>
       <c r="Z14" t="n">
-        <v>6347973</v>
+        <v>44763976</v>
       </c>
       <c r="AA14" t="n">
-        <v>86092</v>
+        <v>184890</v>
       </c>
       <c r="AB14" t="n">
-        <v>8672</v>
+        <v>22175</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-Tủ quần áo gấp gọn cho bé, tủ nhựa có bánh xe 360, cửa nhựa trong suốt khóa nam châm hàng cao cấp dày dặn dễ tháo lắp
-🔥Hot🔥 Bộ Quần Áo Ngắn Tay In Chữ Thời Trang Chất Lượng Cao Cho Nam Bộ quần áo nam mùa hè bộ đồ thể thao Cực Hot
-[HOT TREND] Áo giữ nhiệt nam dài tay SUNDY, áo thu đông cho nam cổ 3 phân lót bông mỏng
-Áo phông nam nữ in chữ DSQUARED2 màu Hồng trước ngực .Áo thun Cộc tay Unisex Form Rộng Dành Cho Các boy phố - PandT34
-Áo Phông Nam Nữ DSQ Icon Mix Khoá Kéo Siêu Hot. Áo Thun cộc tay Unisex Form Rộng Siêu Hot Cho Các Boy Phố 2024 - PandT34
-Áo Khoác Gió DSQ AG 528 Chất Liệu Gió Màu Đen Thời Trang Nam Phù Hợp Cho Nam
-Áo Khoác Gió DSQ AG 523 Chất Liệu Gió Màu Đen Thời Trang Nam Phù Hợp Cho Nam
-Áo Khoác Gió DSQ AG 524 Chất Liệu Gió Màu Đen Thời Trang Nam Phù Hợp Cho Nam
-Áo Khoác Gió DSQ AG 527 Chất Liệu Gió Màu Đen Thời Trang Nam Phù Hợp Cho Nam
-Áo Thun Nữ, Áo Phông Unisex By PEABOO Mã TN DARK Chất Cotton Thoáng Mát Form Rộng Tay Lỡ Cho Nam Nữ
-Áo khoác bò Demin không tay túi vuông, áo bò túi hộp thời trang loại 1 cho nam nữ
-Áo Thun Kaki Tay Ngắn Cổ Tròn Phong Cách Harajuku Nhật Bản Thời Trang Mùa Hè Cho Nam
-Áo mưa KOETSU dài một mảnh dày pin điện đơn ô tô nam nữ chống mưa toàn thân dành cho người lớn poncho
-Bộ Đồ Thể Thao Nam Cộc Tay JD Áo Loang Bò Sữa In Logo Tròn Siêu Cấp Cho Các Boy Phố Đi Chơi Đi Biển Hót Trend 2024
-Áo mưa nam nữ đi học có khóa kéo tiện lợi cho học sinh sinh viên, áo mưa 1 người AM09 - BaloGigo
-Áo sơ mi dành cho nam giới trung niên, chất liệu vải xô cao cấp, kiểu dáng rộng rãi bigsize | THỜI TRANG HT
-Áo Thun nam DSQ 219 Họa Tiết Hình In Nhiệt Cao Cấp Chất Liệu Cotton Co Dãn 2 Chiều Có 2 Mầu Đen Trắng Phù Hợp Cho Nam
-Áo Sơ Mi Tay Ngắn Màu Trơn Thoáng Khí Thời Trang Cho Nam
-Lebi Áo Mưa Siêu Nhẹ Thời Trang Nhật Bản Cho Nam Nữ
-Áo Thun nam DSQ 164 Họa Tiết Hình In Nhiệt Cao Cấp Chất Liệu Cotton Co Dãn 2 Chiều Có 2 Mầu Đen Trắng Phù Hợp Cho Nam
-Sét Áo phông Gấu Don' care+ quần kẻ Karo nhiều màu, Áo thun from rộng, mặc cho Nam và nữ chất đẹp, Sét bộ mặc ở nhà - AD
-Tommy Áo Thun Tay Ngắn Cổ Tròn Vải cotton Thoáng Khí In logo Cỡ Lớn Thoải Mái Cho Nam
-Áo Thun, Áo Phông Unisex Tay Lỡ CARADLA Mã RABIT TN06 Chất Cotton Mềm Mịn Co Dãn Thoáng Mát Form Rộng Cho Nam Nữ
-Áo Khoác Len Cao Cấp Dáng Rộng Màu Trơn Phong Cách Đức Thời Trang Mùa Đông Cho Nam
-Áo Thun Tay Ngắn Màu Sắc Thời Trang Dành Cho Nam</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
+          <t>Áo Thun Trơn Cotton 250gsm Premium Full Color Godmother Cổ Tròn Nam Nữ
+Bộ quần áo xốp nam nữ ngắn tay thêu hình Tay ngắn dây rút bản to  Menswear đen l thường
+Áo Len Sweater Stussy Nam Nữ In Chữ Siêu Đẹp - Áo Len StusSSy Hàng Quảng Châu Chất Len Dày Dặn Hàng Loại 1
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo phông nam nữ Cotton in chữ Dsq2 .Áo Thun Nam Nữ Unisex 2 màu đen trắng dáng đơn giản basic  2024
+Áo Phông Nam Nữ  Dsq2 University Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+Áo Khoác jean nam nữ Unisex, áo khoác bò form rộng màu Xanh Đen xám trắng size - Avocado
+Áo Phông Nam Nữ Louis Vuitton Phối Ngang Ngực Siêu Hot. Áo Thun Unisex Form Rộng Siêu Hot Dành Cho Các Boy Phố
+Áo Phao Béo Nam Nữ-Logo CN Hót 2024 L1 Mùa đông
+Áo chống nắng nam nữ 2 lớp phối màu độc đáo, hiệu quả gấp 2 lần
+Áo Mưa Thời Trang Gấu Nice Nam Nữ
+(Logo Thêu) Áo thun tay lỡ unisex nam nữ trơn KOOKIE Cal.K LOGO Thêu mini basic cotton cao cấp form rộng oversize VNXK
+Áo Thun Đen Trắng Nam Nữ In Theo Yêu Cầu Custom Chất Vải Mịn Mát Co Giãn Đủ Size Áo Lớp Áo Nhóm Đồng Phục | LẠ STORE
+Áo Khoác Thể Thao 1 lớp Chống Nắng Có Mũ Trùm thoáng Khí  Cho Nam Và Nữ DEGO D03
+Đồ Bộ Đùi Nam Nữ In Chữ BREAK Chất Thun Mè Co Giãn Thoải Mái Có 2 Màu Đen Và Trắng Quần Lưng Thun Có Dây Rút Size Từ 30-75kg Áo Menswear
+Áo Thun Adi.das Form Rộng Tay Lỡ Vải , Áo Phông Local Brand Unisex Nam Nữ Cotton 100%
+Áo Hoodie Nam Nữ Teelab Local Brand Form Oversize Unisex Morning Star Bunny HD062
+Áo Polo Nam Nữ Teelab Local Brand Form Oversize Essentials Line AP001
+[1969STUDIO] Áo Thun Nam Nữ Phối Hot Trend Form Rộng Tay Lỡ Unisex BST 1969 Top Cổ Tròn
+Áo chống nắng Bigsize cho nam nữ vải kim cương siêu thấm hút mồ hôi, thoáng mát, chống tia UV - BS COUTURE
+Bộ thể thao nam nữ áo tay ngắn quần short dáng rộng thời trang JULIDODây Rút Thời Trang Unisex chữ thập
+Áo Thun CHROME HEARTS Nam Nữ Unisex Form Rộng Nhiều Mẫu In Nổi Cực Chất, Áo Thun Thời Trang Phối Đồ Cực Chất
+áo polo jody cho cả nam và nữ 40_75kg
+Áo so mi dài tay Nam ,Nữ  AT-116 (Quân còi 1988)  chất cotton woat rách Menswear Sơ Mi Shirt Ghi
+Áo Thun Nam Nữ Mặt Cười Drew Basic Kiểu Dáng Unisex Form Rộng. Áo Phông Smile Phối Mặt Cười Hình Vàng Siêu Hot 2024
+Áo thun Unisex HUROUANES Áo phông nam nữ tay lỡ oversize form rộng chất liệu tăm lạnh mát mẻ
+Áo Khoác Dù 2 Lớp PSALMIST WZS CAMPING WHAT WHATEVER 2023 Nam Nữ Form Rộng Nhiều Mẫu, Áo Gió Chống Nắng Kiểu Bomber
+Áo thun polo tay lỡ nam nữ cotton phông CLOUDZY localbrand unisex đen trắng oversiz POLO GOOD THINGS
+Áo Thun Lạnh Nam Nữ Form Rộng Tay Lỡ TN08 HALEY, áo phông cá tính hiện đại cotton dày dặn oversize
+Áo Polo Cổ Bẻ Li Ning Vải Cotton Cao Cấp , Áo Polo Nam Nữ Phong Cách Hàn Quốc</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Áo nam
-Áo nữ
-Áo khoác nam</t>
-        </is>
-      </c>
+Áo nữ</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam - 55.8%
+Thời Trang Nữ - 40.48%
+Thể Thao &amp; Dã Ngoại - 1.6%
+Chưa phân loại - 1.37%
+Du lịch &amp; Hành lý - 0.2%
+Thời trang trẻ em &amp; trẻ sơ sinh - 0.12%
+Nhà cửa &amp; Đời sống - 0.12%
+Phụ Kiện Thời Trang - 0.12%
+Giày Dép Nam - 0.06%
+Túi Ví Nam - 0.05%</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam - 54.07%
+Giày dép &amp; Quần áo nữ - 33.75%
+Trang Phục &amp; Giày Dép Thể Thao - 5.75%</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24851</v>
+        <v>5137</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ao-thoi-trang-nam</t>
+          <t>dien-thoai-iphone</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-thoi-trang-nam</t>
+          <t>https://metric.vn/dien-thoai-iphone</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>áo thời trang nam</t>
+          <t>điện thoại iphone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c2079129999</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100013</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Điện Thoại &amp; Phụ Kiện</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>6738</v>
+        <v>99884</v>
       </c>
       <c r="K15" t="n">
-        <v>5019422</v>
+        <v>2621667</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>áo thời trang nam</t>
+          <t>điện thoại iphone</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2493,1177 +2832,761 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>b50242ea84906a69e41a2a33b161041e</t>
+          <t>4b5926aee4dd5bd41b4d28b7112b3374</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>775014147962</v>
+        <v>3354708115036</v>
       </c>
       <c r="Z15" t="n">
-        <v>5983078</v>
+        <v>20183483</v>
       </c>
       <c r="AA15" t="n">
-        <v>79583</v>
+        <v>189747</v>
       </c>
       <c r="AB15" t="n">
-        <v>6777</v>
+        <v>8013</v>
       </c>
       <c r="AC15" t="inlineStr">
-        <is>
-          <t>🔥Hot🔥 Bộ Quần Áo Ngắn Tay In Chữ Thời Trang Chất Lượng Cao Cho Nam Bộ quần áo nam mùa hè bộ đồ thể thao Cực Hot
-Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
-Bộ Áo Thể Thao Cộc Hè Nam Nữ GC,Thom - Chất liệu Thun Lạnh Mát Mẻ Đủ Size Box Kẻ Sọc Vai Bộ thể thao thời trang Nam Nữ
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Áo Phao Bạc,Đen Nam Thời Trang Nam Cao Cấp Chất Liệu Lông Vũ Họa Tiết Dập Vân Phù Hợp Cho Mùa Đông Có Full Size
-Quần Áo Cộc Mùa Hè Nam Nữ Chữ B-Bộ Hè Chất Xốp Mềm Co Giãn nhẹ Vân Nổi Chữ Thêu Đủ Size,  Bộ Thể Thao hè thời trang
-Bộ Quần Áo Paris 295 Cộc Tay Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam Nữ
-Bộ Paris, Bộ Quần Áo Paris Nam Saint German Cách Điệu Họa Tiết Vân Áo In Chìm,Thời Trang Nam Nữ Phong Cách Thể Thao 2024
-Áo polo nam 🔥 Giá Sốc 🔥 nhiều màu cao cấp vải cotton dệt kim, áo phông cổ bẻ ngắn tay thời trang
-🔥Hot🔥Áo Đôi Nam Nữ Thời Trang, Áo Sơ Mi Nam Và Áo Nhún 3 Tầng Nữ Đi Biển, Đi Du Lịch Thời Trang Lady Store
-Áo Khoác Da Croptop Dáng Bomber Cao Cấp Thời Trang Nam Nữ
-Áo sơ mi nam ESEA Thời trang và phổ biến phong cách mùa hè mới phong cách Trung Quốc vải lanh phong cách Trung Hoa Dân Quốc chất lượng cao Áo sơ mi dài phong cách unisex áo sơ mi ngắn tay
-Áo Khoác bomber Dáng Rộng Màu Trơn Phong Cách Đường Phố Mỹ Thời Trang Thu Đông Cho Nam
-Magee Mới Áo Thun Nam Phiên Bản Hàn Quốc Retro Casual Sang Trọng Vách Ngăn Nửa Nút Đá Chắc Chắn Thiết Kế Thoáng Khí Trọng Lượng Nặng Rời Thanh Niên Cặp Đôi Thời Trang Raglan Nửa Tay Áo
-Áo vest nam UCNL Xu hướng thể thao thời trang mùa hè Áo thun không tay cỡ lớn
-Big size - Áo sơ mi tay ngắn vải lụa QC form big size phối dây tay thời trang 85-130kg bigsize nam cỡ đại
-BLANKESPACE Áo Sơ Mi Tay Ngắn Trap Shirt Vải Cotton Thời Trang Nam Nữ Unisex
-✅ Áo mưa Bít Bông\, Bít 2 bên không xẻ tà, thời trang giành cho Nam -Nữ
-Áo sơ mi nam LANSBOTER mùa hè thời trang Hàn Quốc tương phản khâu màu thiết kế hoạt hình đẹp trai trẻ trung dáng rộng giản dị áo sơ mi ngắn tay
-Đồ bộ nam cao cấp chất umi, bộ quần áo nam ngắn tay TTV nam thêu logo đẹp, thời trang MANKUDA
-Áo Đạp Xe Tay Ngắn Nhanh Khô Thời Trang Mùa Hè Cho Nam
-Áo Thun DSQ 229 Hai Màu Đen Trắng Họa Tiết Chữ In Nửa Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam
-áo thun nam,áo phông nam,thời trang nam, áo thun unisex,áo polo nam,áo sơ mi,quần tây nam,quần baggy nam,quần âu nam,quần nam,Quần ống rộng,bộ đồ,hàn quốc,Set Áo Thun Ngắn Tay Form Rộng Và Quần ống rộng Phong Cách Hàn Quốc Dành Cho Nam#thoitrangnam
-BIGSIZE Áo Khoác JEAN 40-105KG Nam Nữ 3 Mẫu Thời Trang Jean Co Dãn
-Áo Thun Nam 3 Lỗ Cổ Tròn Cotton 2 Chiều Thấm Hút Thời Trang Thương Hiệu Y2010 No Style M22 23356 |YaMe|
-Esea Áo Khoác Dày Dặn Dáng Rộng Giả Hai Mảnh Có Mũ Trùm Đầu Phong Cách retro Mỹ Giản Dị Ấm Áp Mùa Đông Thời Trang Thường Ngày Dành Cho Nam Và Nữ
-áo thun sọc 2024 Mới áo phông nam nữ thời trang hàn quốc
-Semir Nam Áo Chải Mùa Đông Rời Hoạt Hình Phản Quang Quần Áo Nam 2022 Xuân Thu Thời Trang Chui Đầu
-Áo sơ mi nam tay dài màu trắng thiết kế phối dây nơ cổ thời trang 91 - MAMOSTUDIO
-Áo polo nam nữ đơn giản thanh lịch tay ngắn mùa hè thương hiệu ECOLLECT thời trang cao cấp mỏng thoải mái Áo thun basic</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>Áo nam
-Áo khoác nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>565085</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ao-thun-thun</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://metric.vn/ao-thun-thun</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>áo thun thun</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>c639748914</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1__100017</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Thời Trang Nữ</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>90</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3903330</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>áo thun thun</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>ae40154f3eb195117fb262bb02c33a02</t>
-        </is>
-      </c>
-      <c r="X16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>7148971980462</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>76020310</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>556332</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>31861</v>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Áo thun The YVIEN YVSM09 ngắn tay regular fit Hàn Quốc menwears
-Áo Thun Althought Thêu chữ phối viền chất cotton khô 3158 Form Rộng Tay Lỡ Unisex | ZenCj.Shop
-Áo Thun Nam Nữ Số 09 Chất Liệu Cổ Tym Cotton 100% Form Rộng OverSize Áo Thun Phối Bóng Rổ Karants Local Brand
-[HOT] Áo polo nữ siêu hothit, áo thun len tăm mịn siêu sbassic dễ phối đồ qcl1 14
-[HOT] ÁO THUN THÊU LOGO ngua , ÁO THUN THÊU NGỰA KÈM KHĂN CỰC XINH QC03
-Set Bộ Áo Thun Nữ Form Rộng Tay Lỡ + Quần Short Ống Rộng Ulzzang
-Áo Thun Nam Nữ Bóng Đá Số 7 EMBROIDER SEVEN Jersey form thể thao
-[HOT] Áo polo len bbr siêu hothit, áo thun nữ bbr siêu hothit phong cách girl phố Qc01
-Áo Thun Phối Bóng Đá Karants Vải Cotton Cao Cấp Local Brand Hot Trend Phiên Bản Đặc Biệt
-[HOT] Áo polo len bbr siêu hothit, áo thun nữ bbr siêu hothit phong cách girl phố Qc01 y
-Quần Áo Bóng Đá, Đồ Đá Banh Đội Tuyển Anh Trắng 2024 Thun Mè Cao Cấp Không Nhăn Không Xù Lông Thể Thao Đương Đại
-[BẢN MỚI] Áo thun cúp cổ vuông ôm gọn chất tăm mịn mát Samsu.clothing_saigon
-Áo Phông Balenciaga Chữ Thêu Chất Liệu Cotton Cao Cấp - Áo Thun Balenciaga Chất Cotton Chữ Thêu Nổi 2 Mặt Hottrend 2024
-Áo Thun Thỏ BUN-NY FIDE Unisex Áo Phông In Hình Thỏ 5D Sắc Nét Chất Liệu Cotton Thoáng Mát Thời Trang Trẻ 2024
-Áo Thun NY Thêu Chữ In Tràn Form Rộng Unisex Chất Cotton Dày Dặn Mẫu Hot 2024 , Áo Phông MLB Full Tag Mac
-Áo thun cổ tim 12 cho bé,áo thun chất tráng bạc siêu mát cho cả gia đình,TPKIDS,[M672]
-Áo Thun DIC-KIES Logo đỏ Thun 100% Cotton 2 chiều - Hàng Full Tem Tag DK1
-Áo thun polo nam sport Yody kiểu dáng thể thao áo phông thoáng mát mềm mại năng động phối màu SAM7138
-Áo Thun Novita Nam Nữ Local Brand/The most famous
-Áo thun nam nữ mặc cặp , nhóm áo thun in nổi HOW DO YOU 2024 mùa hè phong cách ulzzang fom rộng
-Áo Hai Dây Viền Ren Phối Nơ Chất Thun Gân Co Gĩan YUMI BÁN SỈ
-Áo Phông NY MLB Chính Hãng - Áo Thun Cổ Đỏ Logo Thêu Xù Cao Cấp Chất Cotton Lạnh Co Giãn 4 Chiều
-Áo 2 Dây CÓ LÓT ĐỆM NGỰC, Áo Len Tăm, Áo Thun Chất Co Giãn Phối Cổ Tròn 8 Màu Trơn Ôm Body Hot 2024 Nanganhchuyensi
-Set áo thun tăm 3 màu đen nấu trắng thêu hình ngựa co giãn 4 chiều áo thun nữ thêu hottrend A189 SUTANO
-Áo Thun Boxy Nam Nữ Pealo Daily cotton 250 gsm
-Áo thun Real Love Crystal AMM
-Set đồ nữ 2 món áo 3 lỗ quần đùi thun len co giãn MONÁ - GARIN SET
-Áo Thun Local Brand Sancool Unisex Premium Cotton Cừu Bebe Vô Tri - SC010
-PIXEL BIG LOGO WHOSE - Áo thun logo form Big Boxy
-áo thun nam nữ form rộng Unisex in chữ Dolce Lever đậm chất boy phố Hot trend 2024</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>Áo nữ
-Áo nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>63669</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ao-ao-khoac</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://metric.vn/ao-ao-khoac</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>áo áo khoác</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>c2103002918</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1__100017</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Thời Trang Nữ</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2143</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3509231</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>áo áo khoác</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>4e06e306d824335df48db8791c43175b</t>
-        </is>
-      </c>
-      <c r="X17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4021210207832</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23635094</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>231997</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26562</v>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
-Áo khoác lót lông nữ ,Áo gió NỮ LÓT LÔNG CỪU cao cấp, cản mưa, cản gió chống bám bụi
-Áo Khoác Gió Nữ 2 lớp mềm mịn, chống gió, cản bụi bẩn, cản nước SUNDY
-Áo khoác gió nam, nữ lót lông cừu, vải tráng bạc cao cấp chống nước có mũ tháo rời (3k)
-Áo khoác Chống Nắng , Áo Chống Nắng Nữ Toàn Thân dáng dài Cao Cấp chất liệu umi dày dặn chống nắng tốt
-Váy Hai Dây Hoa dáng Ngắn Kèm Áo Khoác Cara, Đầm 2 dây đi biển Kèm Cardigan ( Có Bigsize)( Có Sẵn-Giao ngay)
-Áo khoác chống nắng nữ dáng ngắn morriss chất cool air thoáng mát, cản tia UV
-Áo khoác chống nắng nam , áo chống nắng nam thun lạnh siêu mát chống nắng cực tốt dáng thể thao hot 2024
-Áo khoác chống nắng nam 2 lớp , áo chống nắng nam vải kim cương thoáng mát ( kèm túi cuộn)
-ZIP HOODIE BOXY - Áo khoác ZIP dây kéo dập nổi
-Jumpsuit hai dây nữ sexy SISTERS tặng kèm áo khoác ôm dáng màu đen, trắng Esther SIS-CLUB | SS2-J7
-Áo Khoác Chống Nắng Tia Cực Tím UPF50 + Bằng Lụa Lạnh Phong Cách Thời Trang Mới 2023 Vải mát và thoáng khí
-Áo Khoác Nam RURUMEN Dù Trơn Cổ Đứng Có Nút Bấm Trẻ Trung
-Áo Khoác Nữ Chống Nắng Kaki nón Basic CP-01 | Có Mũ, Túi Trong | Đơn Giản Phù Hợp Đi Chơi Đi Học | Ginhouse
-Áo khoác bò unisex Shynstores form rộng vải đẹp freeship
-Áo Khoác Len Nhẹ Cadigan Trơn Phối Gân Dọc Đơn Giản  Phong Cách Hàn Quốc Phù Hợp Mọi Lứa Tuổi Tongkhominhanh
-Áo khoác len mỏng , áo khoác cardigan dáng ngắn len lưới màu đen màu trắng hàng QCCC loại 1 mềm mịn không xù không ngứa
-Áo khoác chống Nắng thun lạnh áo đi nắng chống tia UV kèm mũ rộng vành chất vải mát freesize dáng lửng 2TUNISEX P67
-Áo Khoác Nam UV Vải Tricot Chống Nắng Couple TX MOK 1020
-Áo Khoác Dù Nam RURUMEN Có Nón Viền Sọc Hai Bên Trẻ Trung Năng Động
-Áo khoác hoodie nam nữ Chonmua 365 vải nỉ bông dày có mũ trùm đầu dành cho mùa xuân thu
-Sét Váy Hoa Nhí, hai dây, dáng dài kèm áo khoác sang chảnh,thích hợp đi chơi
-Áo khoác ostin chữ đơn giản size to bé
-Áo khoác cổ đức trung niên 3 lớp cao cấp DGCs - Vải gió với tính năng chống thấm nước, chống bụi bẩn - WAJKBC09M
-Áo Khoác Nam Trung Niên Hàng Lót Lông Siêu Dày Dặn CAMAVINGA
-Áo khoác nữ hoodie zip kéo khóa mùa đông màu bé xám đen, áo hoodie nữ ZIP khoác ngoài nỉ bông có mũ rộng hàn quốc  EXOZE
-Áo Khoác Dù Nữ Cổ Bomber 2 Lớp Form Croptop Phối Tay Nhún Mẫu Mới - CLITUS
-Áo khoác sơmi linen đi biển (SOMI) DINSSWIMWEAR
-[sẵn]Áo khoác da biker nâu bạc dáng ngắn croptop jacket da cổ điển Âu Mỹ Chaiko Studio
-Áo Khoác Parka Wii Basic Angel Chống Tia UV Túi Ẩn Tiện Dụng - What it isNt</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>Áo khoác nữ
-Áo khoác nam
-Hoodie và Áo nỉ nữ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>27334</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ao-nam-nu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://metric.vn/ao-nam-nu</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>áo nam nữ</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>c1556485950</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1__100011</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Thời Trang Nam</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5985</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2838558</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>áo nam nữ</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>687fd7366b8ba27304693808fc753659</t>
-        </is>
-      </c>
-      <c r="X18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>4836250236295</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>43180614</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>155896</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14660</v>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Bộ Quần Áo Nam Nữ Jor Đan In Chữ Paris Siêu Đẹp Chất Liệu Loly Cá Sấu Thoáng Mát Xu Hướng Hè
-Áo Thun Nam Nữ Số 09 Chất Liệu Cổ Tym Cotton 100% Form Rộng OverSize Áo Thun Phối Bóng Rổ Karants Local Brand
-Áo Hoodie N!ke Just Do It From Rộng Cao Cấp, Áo Nỉ Bông Unisex Nam nữ Chất Dày Hàn Quốc Xuất Xịn Dày Dặn Siêu Ấm 2023
-Áo khoác gió nam, nữ lót lông cừu, vải tráng bạc cao cấp chống nước có mũ tháo rời (3k)
-Áo Thun Nam Nữ Bóng Đá Số 7 EMBROIDER SEVEN Jersey form thể thao
-Bộ Cộc Nam GC-Gấu Misa Cực Mát- Bộ Áo Thể Thao Chất Cotton Thông Thoáng Đủ 3 Màu Form Đứng, Bộ Hè Nam Nữ Full box
-Áo phông nam nữ Premium Cotton DSQ xanh than xước chấm sơn in chữ ngực phong cách vintage - PandT34
-Áo Thun Nam Nữ Số 09 Chất Liệu Cổ Tym Cotton 100% Form Rộng OverSize
-Áo Sơ Mi Thom Nam Nữ Trắng Xám - Áo Lô gô Thom Phối 4 Vạch Tay Thêu - Áo Sơ Mi Nam của năm 2024
-Áo phông nam nữ Premium Cotton DSQ xanh than in chữ Dsq2 vàng đỏ chảy ngực cổ bo dày dặn co dãn 4 chiều
-Áo mưa choàng 2 mũ vải nhựa PVC nhập khẩu chính hãng Sơn Thủy freesize nhiều màu lựa chọn cả nam nữ
-Áo Phông Nam M.L.B Thêu Hình Siêu Đẹp - Áo Thun Nam Nữ Thêu Hình Chữ NY Cao Cấp
-Áo Phông Nam Nữ New York, Áo Thun Nam Nữ MLB Form Rộng
-Áo Nỉ Sweater NQ30 FORUM Nam Nữ Form Rộng Unisex
-Áo lót lá dáng dài 2 dây Việt Nam cotton xinh học sinh nữ sinh mặc trong vest Sam Sam
-Áo thun nữ nam unisex in chữ LA , áo phông local brand form rộng cổ tròn chất cotton cao cấp
-Bộ Quần Áo Nam Jor Đừn In Chữ Paris Tròn Siêu Nét - Bộ Quần Áo Nam Nữ Jóc Đan In Hoạ Tiết Sau Áo Siêu Đẹp
-Áo Thun 8YO JELLY BEAR Tee Cotton Mềm Mịn Mát - Áo Phông Local Brand Unisex Nam Nữ Form Rộng
-🔥Hot🔥 Bộ Cộc Sơ Mi Nam Nữ Di-Or Chất Vải Cotton Dày Mát, Bộ Quần Áo Cộc Tay Phối Họa Tiết Phong Cách Boy Phố
-Áo Thun Bo Viền Tay, Áo phông Unisex By PEABOO Mã BST01 In Hình Chất Cotton Thoáng Mát Form Rộng Tay Lỡ Cho Nam Nữ
-[ Salim &amp; Hoàng Ku ] Áo thun nữ nam unisex tay lỡ phông localbrand form rộng teen cổ tròn oversize CLOUDZY AT BUNNY
-Áo nắng nam nữ 2 lớp logo cao su JULIDO, mặc được 2 mặt, chất vải thun cotton dệt lỗ kim thoáng khí chống tia UV
-Áo Stussy Basic Phong Cách Street Wear Áo Thun Stussy Basic Nam Nữ Phong Cách Casual Siêu Hot Hit 2024
-⭐Trend⭐Áo Thun FIDE TEEDY Cotton Full Size Nam Nữ, Áo Phông Đính Gấu Phong Cách Kut3 (TẶNG KÈM GẤU) Hanshop
-Áo thun MLB NY 2024 ,Áo phông trơn nam nữ cổ tròn unisex, Áo thun nam nữ cao cấp
-Áo Sơ Mi Flannel Tay Dài Caro Có Mũ Form Nam Nữ Unisex
-Áo Phông Nam Nữ In Hoạ Tiết Chữ BLACK Cực Chất
-Áo thun tay lỡ unisex nam nữ áo thun DU LỊCH  cotton form rộng oversize 250gsm
-Áo thun bóng chày EERSHENSHI tay ngắn cổ chữ V in chữ kỹ thuật số phong cách harajuku cho nam nữ
-Áo Cộc Tay Nam Nữ BBR Bản Basic Chất Liệu Cotton. Áo Cộc Burberry Hotrend Hè 2024. 89</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>Áo nam
-Áo nữ</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5137</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>dien-thoai-iphone</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://metric.vn/dien-thoai-iphone</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>điện thoại iphone</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>c2079129999</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1__100013</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Điện Thoại &amp; Phụ Kiện</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>99884</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2621667</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>điện thoại iphone</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>4b5926aee4dd5bd41b4d28b7112b3374</t>
-        </is>
-      </c>
-      <c r="X19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2897300102138</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>18044107</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>212835</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>5085</v>
-      </c>
-      <c r="AC19" t="inlineStr">
         <is>
           <t>Điện thoại Apple iPhone 15 Pro Max 256GB
 Điện thoại  iPhone 15 Pro Max 256GB - Hàng Chính Hãng
 Điện thoại Apple iPhone 13 128GB
 Điện thoại Apple iPhone 15 128GB
+Điện thoại Apple iPhone 15 Plus 128GB
 Điện thoại Apple iPhone 15 Pro 128GB
-Điện thoại Apple iPhone 15 Plus 128GB
-Củ sạc nhanh + PD30W 2 cổng cắm usb type-c dùng cho điện thoại iphone samsung oppo, DMDD 6886
 Điện Thoại iPhone 15 Pro 128GB - Hàng Chính Hãng
-Điện thoại Apple iPhone 15 Pro Max 512GB
 Điện thoại Apple iPhone 15 Plus 256GB
-Ốp điện thoại iPhone 15 14 13 12 11 Pro Max X Xr Xs Max 7 8 Plus Phim hoạt hình Sliver Kwas + Stand Vỏ điện thoại mềm
-Ốp Điện Thoại TPU Mềm Chống Sốc Màu Hồng Cho IPhone 14 11 12 13 Pro Max X XR XS Max 7 8 Plus SE 2020
-Ôp Điện Thoại Sang trọng trong suốt mạ được xây dựng trong ống kính bảo vệ phim sạc không dây hút từ Chống Sốc ốp Cho iphone 15 14 13 12 11 pro max 14 15 plus
-Ốp Lưng Điện Thoại Iphone Hở Táo Viền Vuông Mạ Màu Kính Bảo Vệ Camera cho ip 7plus 8plus X Xsmax 11 12 13 14 15 pro max
-Tay Cầm GameSir G8 Galileo cho iPhone 15, Điện Thoại Android, GameSir G8 Galileo Type-C Gamepad
-Ốp Điện Thoại Màu Trơn Chống Sốc Cho iphone 7plus 11 15 14 12 13 pro max 7 8 plus xr xs max x
-Ốp điện thoại mềm chống sốc trong suốt kim cương phù hợp cho iPhone 15 14 13 12 11 Pro Max Plus XR XS 7 8 Plus
-Mic không dây cài áo Comica Vimo C3 micro thu âm cho điện thoại iphone, Android, máy ảnh, máy quay, laptop, máy tính bàn
-Ốp Điện Thoại Silicon Dày Chống Sốc 3 Trong 1 Cho iPhone 13 Pro Max 12 11 Pro Max X XS Max XR 6 6s 7 8 Plus SE2020
-Ốp lưng điện thoại Iphone mềm chất liệu Lúa Mì Big Heart Loopy 6/6plus/7/8/plus/x/xs/11/12/13/14/15/pro/max/plus/promax
-Sang Trọng Ốp Điện Thoại Dẻo Trong Suốt Tráng Gương Từ Tính Chống Sốc Cho iphone 15 14 13 12 11 pro max plus
-Ốp Điện Thoại Mềm In Hình Gấu Kèm Dây Đeo Cho iphone 15 14 13 12 11 pro max x xr xs max 7 8 plus se2020
-Ốp Điện Thoại Da Litchi Sang Trọng Cho iPhone 15 14 13 12 Pro Max 11 14pro 15pro Mới Bạc Kim Loại Khung Bảo Vệ Vỏ Cứng Chống Sốc
-ốp lưng ví cao cấp có [4 khe cắm thẻ] iPhone 15 pro max / 14 plus / 13 pro max / 12 pro max / 11 pro max / 15 plus Ốp Điện Thoại lật bằng nhựa cứng lai
-Ôp Điện Thoại Silicon Dẻo Họa Tiết Đôi Mắt Thiên Thần Cho iphone 11 12 13 14 15pro max x xr xs 8 7 6 plus se 2020 Ốp
-ốp lưng điện thoại iphone chất liệu lúa mì scan cho iphone 6/6plus/7/8/plus/x/xs/11/12/13/14/15/pro/max/plus/promax
-ốp lưng điện thoại iphone nice heart mềm chống sốc cho 7plus xr 11 13 14 15 12 promax 7 x 8 6s 6 plus xsmax
-Ốp điện thoại 3D hình bướm phối kim tuyến thích hợp cho iPhone 11 Pro Max X Xs Max XR 6 6s 7 8 Plus Se 2020
-Ốp Điện Thoại Màu Trong Suốt Mặt Nhám Chống Sốc Thời Trang Cho iPhone 11 Pro X Xs Max 7 8 6 6s XR SE Plus 2020 2022 SE2 SE3 5G 4G
-Ốp Điện Thoại Silicon Dẻo Mềm Chống Sốc Cho iPhone 12 12 Pro Max13 14 Pro Max 15 Plus15 Pro Max</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
+Điện thoại Apple iPhone 11 128GB
+Điện thoại Apple iPhone 15 Pro 256GB
+Ốp Điện Thoại Chống Rơi Bốn Góc Cho iPhone 13 14 15 Pro Max Giá Đỡ Từ Tính Bảo Vệ Trọn Gói 14 / 15 Plus Vỏ Siêu Chống Rơi
+Ốp Điện Thoại Silicon Mềm Có Dây Đeo Chéo Cho iPhone 13 12 11 Pro XS Max MiNi XR X 8 7 Plus SE 2022
+Ốp điện thoại iPhone 15 14 13 12 11 Pro Max X Xr Xs Max 7 8 Plus SE2020 3D DIY Phim hoạt hình dễ thương SpongeBob Soft Cover
+Ốp điện thoại iPhone 15 14 13 12 11 Pro Max X Xr Xs Max 7 8 Plus SE2020 Phim hoạt hình vui nhộn Cân cô gái mềm
+Ốp Lưng Nhám Chống Bẩn Hỗ Trợ Sạc Không Dây Màu Pastel Cho Điện Thoại iPhone 11 12 13 14 15 Pro Max
+Ốp Điện Thoại Silicon Dẻo Màu Kẹo Chống Sốc Sang Trọng Cho iPhone 14 13 12 11 Pro MAX IX XS MAX XR
+Bao Da Điện Thoại 100% Thật Có Ngăn Đựng Thẻ Cho iphone 15 14 13 12 11 pro max mini x xs xr plus Ốp
+Máy in dPos XP420B in đơn hàng TMĐT tem nhãn vận chuyển bằng điện thoại iphone Adroid và máy tính PC qua LAN WIFI
+Halo Nhuộm Tranh Sơn Dầu Bướm Ánh Sáng Xanh Ốp Lưng Điện Thoại iPhone 15 Pro Max 15 Pro 15 14 13 12 11 Bảo Vệ Toàn Diện Phim Chống Sốc Với Ống Kính Lấp Lánh Bảo Vệ
+Ốp Điện Thoại Nhãn Độc Đáo Thích Hợp Cho iPhone 15 15promax 14 14promax 13promax 13pro 14pro 13 12 11 Pro Max XR X XS Max 7 8Plus Vỏ Bảo Vệ Ống Kính Chống Rơi Chống Bụi
+Phù Hợp Ốp Lưng Hoạt Hình Xinh Xắn Cho Điện Thoại iphone 6 / 7 / 8 6splus 7plus 8plus
+Ốp điện thoại di động chống va chạm bằng kim loại không đều cho iPhone 15 14 13 12 Pro Max 15 Plus Vỏ chống sốc bằng hợp kim nhôm trần có bảo vệ màng ống kính
+Ốp Điện Thoại TPU Mềm Chống Rơi Hình Gấu Hoạt Hình Đơn Giản Cho iPhone 14 13 12 11 Pro Max X XR 8 7 Plus SE
+Bao Da Điện Thoại Nắp Lật Nam Châm Kiêm Ví Đựng Thẻ Cho iphone 13 12 mini 15 14 11 pro xs max xr x 7 8 6 6s plus Ốp
+Vàng Hồng Xanh Đen Xanh Móc Khóa Túi Mặt Dây Chuyền Dây Treo Dây Đeo Cổ Tay Vòng Tay Cho IPhone Thương Hiệu Khác Vỏ Điện Thoại Chống Rơi Chống Mất Dây Ngắn SS
+Ốp Điện Thoại Mềm Chống Sốc In Chữ 1211 7 13 14Promax Cho Iphone 8p
+Ốp Điện Thoại Hình 3d Cho iphone 7plus 11 15 12 13 14 pro max xr x xs max 7 6 6s 8 15 plus se
+Ốp Điện Thoại Màu Laser In Chữ H Chống Sốc Cho iPhone 7 8Plus 14Plus 15ProMax Xs XR XsMax 11 12Pro 13
+Ốp Điện Thoại Dạng Túi Xách Đựng Thẻ Cho iPhone 14 Promax 13Pro 14 13 12 11 Pro MAX XS MAX XR X 7 + 7 / 8 Plus 7 / 8 se2020 2
+Ốp Điện Thoại TPU Mềm Có Ngăn Đựng Thẻ Cao Cấp Cho iPhone 15 14 13 12 11 Pro Max Plus X XS Max XR 6 6S 7 8 Plus SE</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Điện Thoại - Máy Tính Bảng
 Phụ Kiện Điện Thoại và Máy Tính Bảng</t>
         </is>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện - 99.73%
+Thiết Bị Âm Thanh - 0.08%
+Ô tô - 0.07%
+Chưa phân loại - 0.04%
+Máy tính &amp; Laptop - 0.02%
+Thiết Bị Điện Gia Dụng - 0.01%
+Nhà cửa &amp; Đời sống - 0.01%
+Túi Ví Nữ - 0.01%
+Sắc Đẹp - 0.01%
+Gaming &amp; Console - 0.0%
+Túi Ví Nam - 0.0%</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Electronics Accessories - 83.67%
+Âm thanh - 8.29%
+Điện thoại &amp; Máy tính bảng - 4.6%
+Dụng cụ sửa chữa nhà cửa - 1.94%
+Ôtô, Xe máy &amp; Thiết bị định vị - 0.42%
+Thiết bị thông minh - 0.28%
+Túi xách và Vali túi du lịch - 0.23%</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Thiết Bị Số - Phụ Kiện Số - 93.78%</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>238588</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>phong-cach-han</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://metric.vn/phong-cach-han</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>phong cách hàn</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>1__100017</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Thời Trang Nữ</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J16" t="n">
         <v>412</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K16" t="n">
         <v>2443162</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>phong cách hàn</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
         <is>
           <t>Tìm thông minh</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
         <is>
           <t>19f0c8489aa8ae99abe3a92d9b642c80</t>
         </is>
       </c>
-      <c r="X20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3137989811237</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>52309046</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>381716</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35013</v>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
-Balo Da Pu Thời Trang NMC balo đi học nam nữ có ngăn bí mật phong cách Hàn Quốc mã 03
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Áo Bra Nữ DUTE Hai Dây Dáng Dài Màu Trơn Phong Cách Hàn Quốc Thời Trang Siêu Hot Dễ Phối Đồ Dành Cho Nữ - DUTE002
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3354896267728</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>56684648</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>374862</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>48289</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Quần Jean Nữ Ống Đứng , Quần Bò Nữ Ống Đứng Phong Cách Hàn Quốc siêu hack dáng KT31
+Áo da blazer nữ OGRINAL thiết kế khoá cài phong cách thanh lịch Hàn Quốc màu đen 9971
+Áo da nữ dáng rộng OGRINAL khoá kéo chéo thời trang phong cách Hàn Quốc màu đen 2026
+Quần bò ống loe xanh than siêu xinh , Quần jean ống loe cạp cao phong cách Hàn Quốc S44
 Quần Short Denim Chauzi Lưng Cao Phối Túi Trước Cho Nữ Cao Cấp Phong Cách Thời Trang Hàn Quốc
-Quần jean short nữ lưng cao phối túi trước phong cách hàn quốc Tuhavu Room Q45
-Quần bò ống loe xanh than siêu xinh , Quần jean ống loe cạp cao phong cách Hàn Quốc S44
-Balo nữ, cặp đi học nữ thời trang giá rẻ đựng laptop đi chơi đẹp nhiều ngăn phong cách Hàn Quốc BL35
-Balo nữ cao cấp đẹp đi học giá rẻ thời trang chống thấm nước phong cách Hàn Quốc ulzzang Mẫu mới nhất 2024 BL28
-Ngocanh6959 V539 Loại 1 Váy cổ bẻ dáng dài Quảng Châu phong cách tiểu thư sang trọng Hàn Quốc Đầm cổ bẻ dáng dài
-Mắt kính cận thị kính cận có độ sẵn - 0.50 ~ - 6.00 độ Kính Cận Gọng Trong Suốt Chống Ánh Sáng Xanh Phong Cách Hàn Quốc Thời Trang kính JS1002
-Set Yếm - Set Phong Cách Hàn Cho Bé Trai BB06 (Ảnh chính chủ)
-Dép đế mềm phong cách Hàn Quốc thời trang dành cho nữ
-Ví Ngắn Nhỏ 30% Thiết Kế Hình Thỏ Dễ Thương Phong Cách Hàn Quốc
-Khăn Choàng Cổ Len Dệt Giả Thắt Nút Phối Gân Trơn Phong Cách Hàn Quốc Phù Hợp Đi Chơi Dạo Phố Hottrend 2024 Nanganhchuye
-Gương Trang Điểm Để Bàn Khung Gỗ Cao Cấp Có Thể Gấp Gọn Phong Cách Hàn Quốc [ Hỏa Tốc HCM ]
-Ghế gấp chống trầy trong suốt phong cách Hàn Quốc,ghế gấp đơn giản ghế nhựa trong suốt ghế cafe
-🔥 Giày Thể Thao con trai🔥 Giày trẻ em Cho Bé Trai 3 đến 12 tuổi Quai Dán êm Mềm Chống Trơn đi Học, đi Chơi Phong Cách Hàn Quốc Giày Học Sinh TTC076
-Tất nữ cổ cao 3 màu đen trắng kem phong cách hàn quốc T121
-Áo khoác,áo khoác nam cổ đứng dáng ôm phong cách Hàn quốc sang trọng 2 lớp dày dặn - N56
-Gương để bàn phong cách Hàn Quốc màu bạc sang trọng
-Ốp Điện Thoại Cứng Màu gradient Phong Cách Hàn Quốc Cho iphone 11 14 pro max 13 12 15 pro max xr xs max 7 8plus se
-Chân váy đuôi cá dáng dài loại 1 phong cách ulzzang hàn quốc
-Mũ Len Beanie Nón len Nam nữ Unisex Giữ Ấm Retro Phong cách Hàn Quốc Thu Đông Checkin Đà Lạt
-Áo 3 Lỗ Nữ, Áo Len Dệt Kim Phối Họa Tiết Vệt Xước Đính Nơ Dáng Dài Tương Phản Phong Cách Hàn Quốc Hottrend 2024 Orangecl
-Giày Cao Gót Bít Mũi Đính Ngọc Trai Hở Lưng Phong Cách Mary Jane Hàn Quốc NC45
+Quần Âu Sidetab Điều Chỉnh Độ Rộng Vòng Eo, Form Dáng Baggy Phong Cách Hàn Quốc
+Quần Jean Nữ Ống Đứng Xanh Nhạt , Quần Bò Nữ Ống Đứng 2 Cúc Phong Cách Hàn Quốc 2023 KT04
+Balo Thời Trang Phong Cách Hàn Quốc Unisex KAKAPO BL041 Backpack Đeo Vai
+Quần âu nam, Quần tây nam phong cách Hàn Quốc, From Slimfit chuẩn đẹp cùng chất vải Tuyết mưa
+Quần nữ BIGSIZE quần kaki ống rộng túi hộp bo gấu phối dây rút eo phong cách Hàn Quốc 985
+[ Hoả Tốc ] Hoa cưới hoa tươi cầm tay cô dâu hoa Hồng phong cách Hàn Quốc
+Túi mini đeo chéo nữ giá rẻ đẹp đi chơi phong cách thời trang hàn quốc dễ thương cute DC97
+Tất Chân Basic Hàn Quốc Trơn Màu Vớ Cao Cổ Phong Cách Năng Động Y2K lemona.vn
+650# Váy ngắn chiết eo tôn dáng phong cách Hàn Quốc
+Áo thun nữ tay lỡ chất cotton su phong cách Hàn Quốc CAMASTORE M1565
+Bộ chăn ga cotton Tici cao cấp phong cách Hàn Quốc đủ size đủ màu hàng đẹp loại 1 (không kèm ruột)
+( GƯƠNG THẬT) Gương Trang Điểm Để Bàn VUADECOR Phong Cách Hàn QUốc Khung Gỗ nhiều mẫu đáng yêu - Mini Mirror
+Sét áo sơ mi trơn dài tay + chân váy xoè tầng rúm eo chất thô Hàn mềm, set bộ đồ nữ công sở phong cách HQ HB738
+SUNNYCOLOR áo sơ mi nữ áo kiểu hàn quốc trendy phong cách Phong cách rực rỡ WCS2450PEB 20Z240515
+Quần Jean Nam Cạp Chun Ống Rộng, Quần Jean Ống Suông Phối Dây Rút Phong Cách Hàn Quốc -By Zonef Official [JC]
 Quần leging loe cạp chun cao co dãn thoải mái chất vải umi phong cách Hàn Quốc HALUSA QL09
-MORSELA chính hãng - Áo croptop nữ tay dài trễ vai AEDOS kiểu form ôm vạt chéo phong cách cá tính Hàn Quốc
-Quần Legging Len Tăm , Quần tất dáng ôm trơn cho bé gái phong cách Hàn Quốc cho bé từ 1 đến 8 tuổi</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr"/>
+Giày boot phong cách hàn quốc trẻ trung cá tính thời trang dành cho cả nam và nữ
+[HÌNH THẬT] Bộ chăn ga Cotton đũi gân NAA HOUSE mềm mại phong cách Hàn Quốc nhiều mẫu đủ size
+[SẴN +CHUẨN HÀNG QC] Sandal xỏ ngón đế nâu phong cách ulzzang hàn quốc chất da Pu cao cấp phù hợp đi học đi chơi
+Áo babydoll tay bồng BÈO TẦNG phong cách Hàn Quốc vạt cánh tiên chất đũi gân Samsu.clothing_saigon
+(HCM) Dép Sandal Nữ Quai Hậu Quai Chéo Đính Khuy Tam Giác Phong Cách Hàn quốc
+Áo blazer nữ hàng quảng châu cao cấp màu be sữa phong cách hàn quốc có đệm vai (hàng sẵn)
+Bộ Quần Áo Nam ZF.CLUB Kiểu Sơ Mi Tay Ngắn Quần Short Có Túi,  Vải Thô Kaki Thoáng Mát Phong Cách Hàn Quốc (BD)
+Ngocanh6959 V631 Váy dáng dài xoắn ngực không tay Quảng Châu phong cách tiểu thư sang trọng Hàn Quốc đầm dáng dài
+[SẴN+CHUẨN HÀNG QC]Dép sandal nữ - Giày chiến binh đế xuồng dây đan cao 7cm phong cách hàn quốc chất da PU cao cấp</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ - 44.5%
+Thời Trang Nam - 12.39%
+Phụ Kiện Thời Trang - 10.53%
+Túi Ví Nữ - 8.63%
+Thời trang trẻ em &amp; trẻ sơ sinh - 8.53%
+Giày Dép Nữ - 4.78%
+Nhà cửa &amp; Đời sống - 3.98%
+Giày Dép Nam - 1.58%
+Mẹ &amp; Bé - 1.07%
+Túi Ví Nam - 1.01%
+Sắc Đẹp - 0.78%
+Thể Thao &amp; Dã Ngoại - 0.61%</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nữ - 37.64%
+Giày dép &amp; Quần áo nam - 21.81%
+Túi xách và Vali túi du lịch - 13.38%</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>4226</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>do-choi-cho-be</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://metric.vn/do-choi-cho-be</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>đồ chơi cho bé</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>c894437317</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1__100632</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mẹ &amp; Bé</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J17" t="n">
         <v>334702</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K17" t="n">
         <v>2400638</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>đồ chơi cho bé</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
         <is>
           <t>Tìm thông minh</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
         <is>
           <t>ab5983d024b4f7ccb4ce7662b8c2bd19</t>
         </is>
       </c>
-      <c r="X21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>836920125722</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13359251</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>109022</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>14407</v>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Đồ Chơi Lắp Ráp Động Cơ Bánh Răng Chuyển Động Cho Bé Yêu Tùy Ý Sáng Tạo Theo Ý Thích HGHOME
-Bộ Đồ Chơi Lắp Ráp Động Cơ Bánh Răng Có Thể Chuyển Động Cho Bé Tùy Ý Sáng Tạo Theo Ý Thích HGHOME
-Gặm nướu cao cấp cho bé BABYSUN ,10 món đồ chơi xúc xắc bằng silicon hình động vật, hộp đựng vali kéo dễ thương cho bé
-Bể bơi khung kim loại kích thước: 3.05m x 76 cm, bể bơi cho bé đồ chơi vận động cho trẻ
-Gặm Nướu Cho Bé Silicon Cao Cấp Chính Hãng Delias 9 Món Vui Nhộn Làm Từ Nhựa ABS Tiệt Trùng An Toàn Làm Đồ Chơi Cho Bé
-Đồ Chơi Balo Máy Phun Nước Dễ Thương Vui Nhộn Cho Bé
-Xe Tập Đi Cho Bé Cocobe' LS-3 Chữ U,3 Trong 1,Ngồi Tập Đi,Đẩy Tay Tập Đi,Có Bàn Ăn Dặm,Khay Đồ Chơi
-Thảm nhạc cho bé sơ sinh kiêm xe tập đi có nhạc đàn piano 3IN1, đồ chơi cho bé sơ sinh 06 tháng, 1 tuổi, nằm chơi
-🦢 Gấu Bông Con Vịt🦢 Thú Nhồi Bông  Gấu Bông To Gối Con Vịt Nằm Sấp Cho Bé Má Hồng Trầm đồ Chơi Búp Bê Dễ Thương Con Ngỗng Gấu Bông Ngỗng Nhồi Bông  Gấu Bông Vịt Bông Gấu Bông Rẻ Gối Con Vịt  đồ Chơi  Nhồi Bông BORAMMY
-Bình sữa đồ chơi cầm tay cho bé gặm nướu xúc xắc,phát nhạc và đèn, chất liệu nhựa ABS Babysun, núm ti silicon cho bé
-nanoblock bearbrick ronaldo messi 55cm 45cm ô chữ bóng rổ TAIDX Đồ chơi Xếp hình lắp ráp mô hình cỡ lớn dành cho bé
-Đồ chơi xếp hình rồng châu á trung quốc 50CM năm mới bính thìn 2024 cỡ lớn đồ chơi xếp hình nano 3d cho bé 49CM
-Đồ chơi cho bé bóng banh nhựa ❤️100 trái màu trộn lẫn❤️ cho nhà bóng lều chơi trẻ em mã 50060
-Đồ chơi bảng nổi ghép bằng gỗ kích thước 20x20 Cm cho bé làm quen với chữ và số BN22
-ĐIỆN THOẠI ĐỒ CHƠI HAAVEBRICKS TAI THỎ HÀN QUỐC CHO BÉ
-Bộ Đồ Chơi Lắp Ráp Mô Hình Xe Đua Xây Dựng Độc Đáo Cho Bé
-Bảng vẽ xếp hình nam châm thế hệ mới cho bé, đồ chơi giáo dục phát triển trí tuệ thông minh trẻ em 2 3 4 5 tuổi TOYLIFE
-Đồ Chơi Xe Ô Tô Địa Hình Điều Khiển Từ Xa, Di Chuyển 4 Chiều Động Cơ Mạnh Mẽ, An Toàn Cho Bé , Pin Sạc - Chính Hãng
-Túi Xách Bỉm Sữa Cho Mẹ Và Bé, Balo Đi Học Mầm Non Đi Chơi Đựng Tã Lót Đồ Dùng,Túi Xách Tay Giữ Nhiệt Nhiều Ngăn Đa Năng
-[ GIẢM 50% TOÀN SHOP ] Bộ đồ chơi lego Cutis láp ráp 243 mảnh, đồ chơi giáo dục và phát triển trí thông minh cho bé
-Bộ xe ô tô đồ chơi mini cho bé có dây cót chạy nhỏ nhắn xinh xắn tổng hợp rất nhiều loại xe khác nhau
-Set nguyên liệu làm kẹp tóc kem keo cho bé, bộ đồ chơi trang trí kẹp tóc
-Xe đồ chơi cho bé cỡ lớn cho bé trai mô hình cứu hỏa, cần cẩu, trộn bê tông chở rác cứu hộ anhdochoi
-Combo 2 Chiếc Bộ Đàm Đồ Chơi Cho Bé Bộ Đàm Đa Chiều 2 Kênh Phạm Vi 300m
-(sỉ rẻ) ĐỒ CHƠI VÔ LĂNG Ô TÔ CHO BÉ có đèn nhạc xoay 360 độ, quà tặng sinh nhật, noel, tết cho trẻ
-[ĐƯỢC CHỌN 30 MẪU] Đồ chơi tranh ghép 60 mảnh gô Puzzle hộp đựng sắt cao cấp cho bé
-Máy bắt hạt đậu size to mẫu mới nhất 2024 nhiều chức năng, Đồ Chơi Máy Hứng Hạt Đậu Kèm Vô Lăng có nhạc cho bé
-Vỏ ghế LON SỮA MAY SẴN - ghế Hươu từ vỏ lon sữa bột SunnyThanh tái chế đồ chơi cho bé xe đồ chơi
-Đồ chơi xếp hình gỗ cho bé, ghép hình logic, đồ chơi giáo dục phát triển trí tuệ giáo dục sớm cho bé 1 2 3 4 5 tuổi
-Combo Cung Tên Bắn Bóng Dính Tặng Kèm Bảng Phi Tiêu Ném Bóng Dính, Đồ Chơi Vận Động Thể Thao Cho Bé</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>840041783514</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13023777</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>109718</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18338</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Quây bóng Vuông có ném bóng rổ, tặng 10 bóng , khung inox (kt 1m28x1m28) to rộng thoải mái cho 4 bé chơi cùng) Đồ Chơi
+Đồ Chơi Bàn Ghế Lắp Ráp 110 Chi Tiết Kết Bàn Học Kèm Ghế Cao Cấp Cho Bé Lắp Ráp GVQ Store 08
+Đồ Chơi Lắp Ráp Robot Biến Hình Từ Các Con Số 0 - 9 Cho Bé Vui Chơi Phát Triển Tư Duy Sáng Tạo GVQ Smart 46
+Đồ Chơi Ô Tô Đường Đua Xe Có Màn Hình Chuyển Động Điều Khiển Vô Lăng Cho Bé Vui Chơi GVQ Smart 04
+Đồ Chơi Trứng Khủng Long Nhiều Chi Về Thế Giới Động Vật Cho Bé Khám Phá Thiên Nhiên GVQ Store 11
+Đồ Chơi Trang Điểm 3 Tầng Cho Bé Gái Làm Đẹp Màu Hồng Cao Cấp An Toàn Dễ Làm Sạch GVQ Smart 69
+Đồ Chơi Tiệc Trà Bánh Đáng Yêu Cho Bé Xinh Xắn Bằng Nhôm Siêu Bền Cho Bé Vui Chơi GVQ Store 10
+Bộ Đồ Chơi Hộp Mô Hình Động Vật 58 Chi Tiết Cho Bé Làm Quen Với Thế Giới Xung Quanh GVQ Store 53
+Đồ Chơi Ô Tô Xe Tải 3 Tầng BIến Hình Đường Đua Dài 1.65m Kèm 6 Xe Đua Cho Bé GVQ Smart
+(Kèm 2 quà ) combo 100 Bỉm quần hoặc bỉm dán Hipgig kèm gấu bông và đồ chơi cho bé
+Thảm nằm dành cho trẻ sơ sinh cao cấp, chân đạp piano giúp bé phát triển thính giác, đệm thoáng khí không toát mồ hôi. Đồ Chơi
+Máy bay điều khiển từ xa V18 - Đồ chơi điều khiển từ xa cho bé - Pin sạc, 4 động cơ bền bỉ, có đèn led ban đêm Toy
+[Kèm Chuông] Đồ Chơi Xếp Hình Khối 3D Bằng Gỗ Màu Trắng Đen Đấu Kháng IQ Nhanh Tay Trí Óc Tư Duy Phát Triển Cho Bé
+[FreeShip] Xe thăng bằng Aocong dùng cho bé từ 2 -6 tuổi ( Loại Đẹp ) Đồ Chơi
+Bộ đồ chơi bể phao nước câu cá 40 chi tiết gồm bể phao, vợt, cần câu, bơm và các món kèm theo cho bé thỏa sức vui đùa
+BẬP BÊNH HÌNH HƯƠU CAO CỔ CHO BÉ -Đồ Chơi
+HOẢ TỐC - Đồ chơi diều cần câu, Diều Cần Câu Mini Cho Bé 3D, diều cần câu, diều vẫy cánh, diều cần câu cho bé, diều chim
+Set 100 bóng 5.5cm nhựa nguyên sinh cao cấp an toàn cho bé, bóng mềm 5.5cm Đồ Chơi
+Ngựa bập bênh cho bé Pakey 6in1 đa chức năng, đồ chơi cao cấp sẵn 3 màu
+Đồ chơi xâu hạt gỗ 64/75 chi tiết có hộp đựng cho bé phát triển kỹ năng cơ bản
+Bộ Đồ Chơi Nấu Ăn 48 Chi Tiết Cỡ Lớn Có Hơi Nước, Hiệu Ứng Cho Bé Baostore
+Lục lạc, gặm nướu, xúc xắc đồ chơi tập cầm cho bé - nhựa mềm kết hợp tập cầm cho bé ToysHouse 822-86
+Bộ tranh treo tường 14 chủ đề cho bé tìm hiểu về xung quanh Đồ Chơi
+Súng Nước Mini Dễ Thương Khủng Long, Gà Siêu Nhân, Hươu, Vịt, Cá Mập, Cá Nóc, Cá Sấu, Sâu Larva Đồ Chơi Mùa Hè Cho Bé
+Đồ chơi nhà  bằng gỗ 92cm cho bé (2 cách lắp)
+Đồ chơi xúc cát nhiều chi tiết kèm xô, đồ chơi đi biển cho bé trai, bé gái
+Đồ Chơi Lắp Ráp Ngôi Nhà Búp Bê - Biệt Thự Công Chúa Barbie nhiều tầng Kích thước Lớn Dễ Thương cho bé gái
+Máy Bay Điều Khiển Từ Xa Siêu Cao Cấp Siêu Bền, Đồ Chơi Trẻ Em Cho Bé Gái, Bé Trai
+Cầu Trượt Xích Đu Cho Bé 2024 PAKEY - Cầu Trượt Lâu Đài Kèm Bóng Rổ, Bảo Hành 1 Năm, Đồ Chơi Vận Động Hottrend
+Balo Súng Nước Đồ Chơi Trẻ Em, Súng Bắn Nước Hình Hoạt Hình Dễ Thương Cho Bé</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Đồ chơi giáo dục
-Đồ chơi vận động &amp; Ngoài trời
-Đồ chơi trẻ em khác</t>
-        </is>
-      </c>
+Đồ chơi vận động &amp; Ngoài trời</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Mẹ &amp; Bé - 90.22%
+Sở thích &amp; Sưu tầm - 3.34%
+Nhà cửa &amp; Đời sống - 2.75%
+Thời trang trẻ em &amp; trẻ sơ sinh - 2.04%
+Chưa phân loại - 0.5%
+Thể Thao &amp; Dã Ngoại - 0.24%
+Sức Khỏe - 0.23%
+Văn Phòng Phẩm - 0.19%</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Đồ chơi - 83.78%
+Trẻ sơ sinh &amp; Trẻ nhỏ - 9.82%
+Nội thất &amp; Sắp xếp - 3.63%</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Đồ Chơi - Mẹ &amp; Bé - 91.44%</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>5438</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>van-phong-pham</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://metric.vn/van-phong-pham</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>văn phòng phẩm</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>c2091778261</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1__100638</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Văn Phòng Phẩm</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J18" t="n">
         <v>82007</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K18" t="n">
         <v>2285603</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>văn phòng phẩm</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
         <is>
           <t>Tìm thông minh</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
         <is>
           <t>4470091514d7b3cfccececb8aaa61814</t>
         </is>
       </c>
-      <c r="X22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>65102664563</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6892113</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>25316</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>4469</v>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Chuột Logitech Signature M650, Siêu Phẩm Chuột Không Dây Văn Phòng Cao Cấp, Độ Chính Xác Cao
-Chăn Gối Văn Phòng Trái Cây Tròn (Hình, Video Thật Sản Phẩm)
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>71847404867</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6082435</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>25655</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>5682</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Chăn Gối Văn Phòng Trái Cây Tròn (Hình, Video Thật Sản Phẩm)
 UUMIR Hộp đựng bút chì Bút in hoạt hình đa chức năng Dễ thương Công suất lớn Văn phòng phẩm Đồ dùng học tập văn phòng
-Hộp cơm inox giữ nhiệt văn phòng Elmich EL-8030 2.2 lít, Sản phẩm gồm ba hộp đựng, kèm bộ muỗng dĩa - JoyMall
+File lá đựng tài liệu a4 30 60 túi đựng tài liệu -bìa kẹp đựng tài liệu văn phòng phẩm - sổ lưu hình siêu âm - MIYABI
+Lưu trữ văn phòng phẩm Túi đựng bút đa chức năng in hình dung lượng lớn
 [XUẤT NHẬT] Hộp cơm giữ nhiệt, thực phẩm văn phòng lúa mạch NATAHI FS1 2 tầng Inox, chống gỉ, sang trọng
-Bìa đựng tài liệu văn phòng phẩm giá sỉ A4 my clear bag  trong suốt - Túi đựng tài liệu giấy a4 - MIYABI
-Túi đựng cơm giữ nhiệt văn phòng Black NATAHI MQ01 vải Oxford, đựng đồ ăn, thực phẩm, chống thấm, làm quà tặng
-File lá đựng tài liệu a4 30 60 túi đựng tài liệu -bìa kẹp đựng tài liệu văn phòng phẩm - sổ lưu hình siêu âm - MIYABI
+Hộp đựng bút chì lăng kính nhiều màu tối giản dành cho sinh viên Hộp đựng bút chì có thể gập lại Dung tích lớn Túi đựng văn phòng phẩm đa chức năng
 Máy tính khoa học Học sinh đa chức năng Máy tính cầm tay đơn giản Văn phòng phẩm Đồ dùng văn phòng trường học
-Hộp thủy tinh đựng thực phẩm chia ngăn nắp chống tràn Lock&amp;Lock - Màu Mint - 2 ngăn/3 ngăn hộp cơm văn phòng chịu nhiệt
-Set 4 Thước Eke, Thước Kẻ, Thước Đo Độ, Thước Tam Giác Tiện Dụng Dành Cho Học Sinh - MEKI Văn Phòng Phẩm
-Bìa Túi Sơmi Đựng Hồ Sơ A4 Trơn Dày Dặn Cao Cấp Thanh Lịch - Văn Phòng Phẩm Sáng Tạo
-100 que tính gỗ nhiều màu sắc giúp bé làm phép toán, que tính cộng trừ cho bé, văn phòng phẩm kho sỉ 1688 E1789
-Bút bi nước văn phòng 0.5mm, mực đều nét chữ đẹp đủ màu xanh đen đỏ đồ dùng học tập văn phòng phẩm B35
-Trtop 4 Cái / bộ Hoạt Hình Đáng Yêu Capybara Bút Gel Kawaii Mực Đen Bút Gel Học Sinh Văn Phòng Phẩm Trường Học Đồ Dùng Văn Phòng Trẻ Em Quà Tặng Sinh Nhật VN
-[HÀNG LOẠI 1] Set 11 sản phẩm - Full bộ văn phòng tứ bảo luyện viết thư pháp viết chữ Hán
-Hộc Dán Ngăn Bàn, Ngăn Kéo Bàn Mini Để Văn Phòng Phẩm, Lưu Trữ Đồ Tiện Ích
-Bút Chì BOOCEAN, Túi Đựng Bút Đa Năng Capybara Panda, Thiết Kế Đặc Biệt Họa Tiết Có Thể Tháo Rời Dung Tích Lớn Văn Phòng Phẩm Túi Bảo Quản Đồ Dùng Học Tập Văn Phòng
-4 Chiếc Hoạt Hình Dễ Thương Gấu Trúc Sinh Viên Bút Gel 0.5MM Mực Đen Bút Sáng Tạo Văn Phòng Phẩm
-[Sản Phẩm Mới] Bộ Muỗng Đũa Nĩa Cao Cấp Inox 304, Bộ Đồ Ăn Văn Phòng Có Hộp Đựng Màu Pastel Sang Trọng Tiện Lợi
-szxbogs lưu trữ lưới vuông SZXBOGS, Ví đựng tiền xu có dây kéo Mini công suất lớn di động, Văn phòng phẩm thoáng khí nhẹ
-File lá đựng hồ sơ 20-30-40-60 lá - File đựng tài liệu A4 siêu rẻ , tiện lợi - văn phòng phẩm - HOKAMI STORE
-Kệ ngăn sách vở để bàn bằng nhựa có ngăn đựng bút đựng để văn phòng phẩm dùng cho học sinh
-Hoạt Hình Hai Lớp A4 Túi Tập Tin Di Động Dây Kéo Thông Tin Túi Bảo Quản Sinh Viên Văn Phòng Phẩm WJ316
-Phim hoạt hình Sanrio Hộp đựng bút chì hai lớp dễ thương Pachacco HelloKitty Hộp bút chì dung lượng lớn Hộp đựng văn phòng phẩm đa chức năng dành cho học sinh
-Túi Đựng Dễ Thương Con Chó Con Dung Tích Lớn Sinh Viên Nhiều Lớp Túi Vải Dây Kéo Văn Phòng Phẩm Túi Trẻ Em Quà Tặng
-Hộp 12 bút chì gỗ 2B Deli văn phòng phẩm Leng Keng có đầu tẩy dành cho học sinh S936
-Bút kaco DecorMe set 5 bút gel pen kaco bản dupe kaco pure kacogreen bút gel nhiều màu phụ kiện văn phòng phẩm
-M &amp; G 32 nút khối trường học Lõi có thể thay thế và có thể xếp chồng lên nhau Dụng cụ viết bút chì quà tặng trẻ em văn phòng phẩm bút nối văn phòng nhựa màu sắc ngẫu nhiên
-Ohaya ins Pacha Chó Viết Bút 0.5mm Đen Gel Bút Mịn Nhanh Khô Đạn Báo Chí Bút Sinh Viên Văn Phòng Phẩm D346</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
+Xô đựng mỹ phẩm xoay có ngăn và nắp, hộp đựng đồ sang trọng nhẹ nhàng, son môi, cọ trang điểm, hộp đựng bút văn phòng phẩm, có thể tháo rời
+Bút gel đen xanh đỏ ngòi 0.5mm mực đều nét chữ đẹp - Bút mực gel viết trơn văn phòng phẩm Hikoma
+Bàn làm việc hộp bảo quản ngăn kéo bàn học sinh văn phòng phẩm sổ tay mỹ phẩm văn phòng tổ chức hộp đựng bút có giá
+✨[Enn]✨Loại bút Kéo Văn phòng phẩm sáng tạo Gấp nhỏ cho sinh viên Kéo nghệ thuật Nắp kéo giấy
+🎀 yakult 🎀Loại bút Kéo Văn phòng phẩm sáng tạo Gấp nhỏ cho sinh viên Kéo nghệ thuật Nắp kéo giấy
+Túi đựng tài liệu giấy tờ A4 trong suốt nhiều ngăn, túi đựng hồ sơ A4 phụ kiện văn phòng phẩm
+Sanrio Hello Kitty A4 Túi Bảo Quản Kuromi Pochacco Túi Giấy Kiểm Tra Hoạt Hình Chụp Lưu Trữ Tập Tin Học Sinh Văn Phòng Phẩm Tiếp Liệu
+4 Cái / bộ Hai Đầu Highlighter Bộ Bút INS Nhiều Màu Bút Đánh Dấu Bút Vẽ Cho DIY Tạp Chí Trang Trí Văn Phòng Sinh Viên Văn Phòng Phẩm
+50 tờ Giấy Dán Mèo Dễ Thương, Giấy Dán Phong Cách Hoạt Hình Truyện Tranh, Sách Nhật Ký DIY, Giấy Chất Liệu Tạp Chí, Notepad Để Ghi Chú Và Tin Nhắn, Đồ Dùng Văn Phòng, Văn Phòng Phẩm
+Leota DIY Móc Khóa Làm Bộ, Nhãn Dán DIY Bộ Nhãn Dán Thẻ Goo, Bộ Dụng Cụ Làm Móc Khóa Chất Liệu Trọn Bộ Thẻ Goo Goo Thẻ Trọn Bộ Nhãn Dán Đồ Chơi Văn Phòng Phẩm
+Clip Viết Pad Đa Năng Cứng Văn Phòng Phẩm A4 A5 A6 Thư Mục Tập Tin Giá Đỡ Tài Liệu Cho Học Sinh
+Hộp cơm hâm nóng văn phòng YOICE nhỏ gọn, chất liệu nhựa cao cấp không bị chảy nhựa, an toàn vệ sinh thực phẩm - FH13A
+Móc y cà sa phật giáo văn phòng phẩm Nhơn Phát
+Journamm 50mm * 2m Hàng Rào Dòng Cây Trang Trí Băng Cho Rác Tạp Chí Chống Thấm Nước PET DIY Thêu Sò Cắt Dán Ảnh Album Văn Phòng Phẩm
+Màu Ghi chú dính Ghi nhớ Pad Nhãn Nhãn dán Dấu trang Notepad Văn phòng trường học Văn phòng phẩm
+Bút Chì Sang Trọng BOOCEAN, Túi Văn Phòng Phẩm Mèo Con Hoạt Hình Dễ Thương, Túi Đi Học Màu Hồng Dung Tích Lớn Hộp Bút Trẻ Em
+Crayon Shin Chan Túi đựng bút Capybara Túi đựng bút chì dung tích lớn Túi đựng bút chì trong suốt Túi đựng văn phòng phẩm
+Rổ treo khung lưới - đựng bút viết, văn phòng phẩm - Đường kính 9cm, cao 10cm - LUOIKEMOC
+Gối văn phòng, gối cho học sinh(1 sản phẩm) giá rẻ được chọn màu, giao hàng toàn quốc.
+Chuột DAREU LM103 có dây (USB) - Sản phẩm lý tưởng cho văn phòng
+Kẹp giấy bằng nhựa đầy màu sắc trong suốt Kẹp giấy tài liệu Kẹp sách Nhiều màu Kẹp đẩy văn phòng phẩm sáng tạo Đồ dùng học tập
+Hộp đựng bút chì đơn giản Túi đựng văn phòng phẩm dành cho sinh viên Hộp đựng bút chì hình trụ
+Kệ nhựa đa năng xếp chồng nhiều tầng đựng văn phòng phẩm, đựng vật dụng nhà bếp tiện lợi</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Thiết Bị Trường Học &amp; Văn Phòng
 Bút Các Loại
 Sắp xếp nhà cửa</t>
         </is>
       </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Văn Phòng Phẩm - 63.29%
+Nhà cửa &amp; Đời sống - 31.83%
+Sắc Đẹp - 1.26%
+Sở thích &amp; Sưu tầm - 1.11%
+Túi Ví Nữ - 0.6%
+Máy tính &amp; Laptop - 0.44%
+Chưa phân loại - 0.31%</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Văn phòng phẩm và nghề thủ công - 61.2%
+Nội thất &amp; Sắp xếp - 10.53%
+Bách hóa - 8.44%
+Bếp &amp; Phòng ăn - 6.3%
+Đèn &amp; Trang trí - 3.66%
+Làm đẹp - 2.5%
+Máy vi tính &amp; Laptop - 1.92%
+Giường ngủ &amp; Nhà tắm - 1.5%</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="19">
+      <c r="A19" t="n">
         <v>156638</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>dien-thoai-apple</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://metric.vn/dien-thoai-apple</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>điện thoại apple</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>c2079129999</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1__100013</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Điện Thoại &amp; Phụ Kiện</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J19" t="n">
         <v>719</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K19" t="n">
         <v>2201870</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>điện thoại apple</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Tất cả</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
         <is>
           <t>Tìm thông minh</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
         <is>
           <t>5195d4cd386d0d86acb60b2f8b790e3f</t>
         </is>
       </c>
-      <c r="X23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>2386211370913</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>683090</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12899</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1013</v>
-      </c>
-      <c r="AC23" t="inlineStr">
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2441061417586</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>873038</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11493</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1517</v>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>Điện thoại Apple iPhone 15 Pro Max 256GB
 Điện thoại Apple iPhone 13 128GB
 Điện thoại Apple iPhone 15 128GB
+Điện thoại Apple iPhone 15 Plus 128GB
 Điện thoại Apple iPhone 15 Pro 128GB
-Điện thoại Apple iPhone 15 Plus 128GB
+Điện thoại Apple iPhone 15 Plus 256GB
+Điện thoại Apple iPhone 11 128GB
+Điện thoại Apple iPhone 15 Pro 256GB
 Điện thoại Apple iPhone 15 Pro Max 512GB
-Điện thoại Apple iPhone 15 Plus 256GB
-Điện thoại Apple iPhone 15 Pro 256GB
 Điện thoại Apple iPhone 14 128GB
-Điện thoại Apple iPhone 11 128GB
-Ốp lưng liên doanh màu điêu khắc nghệ thuật cho ốp điện thoại di động iphone15 / 14 Apple 13 / 11promax Vỏ bảo vệ mùa thu trọn gói
-Phong cách Ins bạc đầy màu sắc cho Apple 14 / 13 / 12 Vỏ điện thoại chống rơi X Frosted Xsmax 15Promax Họa tiết cổ điển hợp thời trang
-Trong Suốt Trong Suốt Hoạt Hình Dễ Thương Nơ Gấu Đựng Thẻ Dây Di Động Thích Hợp Cho iPhone15promax Vỏ Điện Thoại Apple 14 13 12 11 XSmax XR 8plus 7 Niche Vỏ Bảo Vệ Silicon Chống Sốc
-Ốp điện thoại khóa treo màu tương phản cho Apple iPhone 15promax 14promax 13 / 11 / 12 Xsmax bao gồm tất cả
-Ốp Điện Thoại Nắp Gập Chống Rơi Có Giá Đỡ Cho Apple 15promax Iphone14 New 13 / 12 11 15pro 14pro
-Ốp Điện Thoại Cao Cấp Có Ngăn Đựng Thẻ Chống Rơi Cho apple Iphone 15promax 14 13 / 12 11 15pro 14pro
-Mật Ong Winnie the Pooh E Simple Space Case Thích Hợp Cho Apple 15 / iphone14promax Ốp Điện Thoại 13 Chống Sốc 12 Hợp Thời Trang 11 Bộ xs / xr SHSW
-Yq Vịt Tắm Shin-Chan Vỏ Không Gian Đơn Giản Thích Hợp Cho Apple 15 / iphone14promax Vỏ Điện Thoại 13 Chống Sốc 12 Hợp Thời Trang 11 Bộ xs / xr MFUQ
-Ốp Điện Thoại Viền Kim Loại Chống Sốc Cho iPhone 15promax / 14 / 1311 / xs / xriPhone1 Apple 12 11 xs / xr 8plus 7HLJ
-Ins Hàn Quốc Toàn Màn Hình Mặt Cười Cho Apple 15promax Vỏ Điện Thoại Iphone14 Mới 13 / 12 Internet Người Nổi Tiếng 11 Nữ 15pro Chống Rơi 14pro Vỏ Bảo Vệ Điện Thoại Di Động
-Dép Pha Lê iPhone 15/15ProMax/14/14ProMax/13ProMax/13/12ProMax/12Pro/11ProMax/11Pro/XsMax/X/XR/8Plus/6 Apple Sandals Dép Đi Trong Nhà Vỏ Điện Thoại Di Động Vỏ Xấu xí Ngộ nghĩnh Kỳ quặc
-Ốp Điện Thoại Vải Lông Hình Thỏ Hồng Cho apple 15 / 14 / 13 / 12 / 11 Dễ Thương
-Smudge Pink Butterfly 15promax 11 12 13 14plus x Hộp đựng xà phòng phong cách mới Thích hợp cho vỏ điện thoại Apple 13Promax iPhone14 Vỏ mềm silicon trọn gói cộng với Vỏ chống va chạm mini dễ thương xs Vỏ bảo vệ chống sốc FZ
-Kẻ Sọc Graffiti Thẻ Chó Thích Hợp Cho Apple 15promax Vỏ Điện Thoại Iphone14 Mới 13 / 12 Internet Người Nổi Tiếng 11 Nữ 15pro Chống Rơi 14pro Vỏ Bảo Vệ
-Ốp điện thoại hình gấu bông và tráng miệng năm hoạt hình Thích hợp cho IPhone 11 1213 Pro MAX X XR XS MAX Vỏ mềm Apple 7 Plus 8 Plus IPhone 14 15 Pro Ống kính chống rơi Động vật đáng yêu
-💕Ốp Điện Thoại Cứng Họa Tiết Mặt Gấu / Thỏ Dễ Thương Cho Iphone 11iphone13pro 8 714pro12xr Apple xs / QR0T
-Ốp Điện Thoại tpu silicone Mặt Gương In Hình Mèo Chống Rơi Vỡ Cho apple iphone 11 12 13 14 15 pro max plus x xr xs max
-Ốp điện thoại ngủ Crayon Shin-Chan Space Case Apple 15 iPhone14 Space 12 Soft 1311 Space 12 Soft 11promax / xsmax / xs / xr ILUA
-Lưng Ốp Điện Thoại Kính Dạ Quang In Hình Thỏ Cho apple 15pro 14promax ip14pro
-Ins Mùa Hè Tươi Bé Gái Lông Vũ 3D Cherry Thích Hợp 11 Apple 15 Promax Ốp Điện Thoại IPhone 13 Trọn Gói 15 Dây Treo Mới 12 Pro Chống Rơi 14 Promax Vỏ Bảo Vệ</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
+Ốp Lưng Điện Thoại Hình Hoạt Hình Dành Cho 14pro11 / iphone13pro12 tinkerbell cat 7p apple hdu5
+Ốp điện thoại dạng kính râm sang trọng dễ thương Thích hợp cho IPhone 11 1213 Pro MAX X XR XS MAX SE Apple 7 Plus 8 Plus IPhone 14 15 Pro Soft Case Cá tính sáng tạo
+Dễ Thương Ốp Điện Thoại Họa Tiết Gấu / Thỏ Cho iphone 11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15 pro
+Ốp Điện Thoại Họa Tiết Chú Cá / Gỗ Độc Đáo Cho iphone 11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15pro
+Thích hợp cho Apple XSMAX / 12 Cặp đôi 13 Pro Ốp điện thoại mềm thời trang 11 / 15 14 Promax / 8plus Nữ XR Cao cấp 7 / 8 Silicone Hoa đẹp đầy màu sắc
+Apple Ốp Điện Thoại Silicon Chống Sốc Họa Tiết Cỏ / Hoa Hồng / Tím / Trắng Cho Iphone 15 14 12
+Ốp Điện Thoại Mềm Hình Mèo Ma Có Cửa Sổ Cho apple Iphone 14promax 13Pro12 / 11 7p Axp
+Vòng tay hoa mùa xuân tươi mát Thích hợp cho IPhone 15 Pro Vỏ điện thoại đeo chéo Apple 14 Promax Vỏ IPhone 13 / 12 đẹp
+Kb147 Dành Cho Apple iPhone 15 14 13 12 11 Pro Max Mini XS Max XR X 7 8 6 6S Plus SE2 SE3 Vỏ Điện Thoại Túi Khí Chống Rơi
+Mèo má hồng dễ thương Thích hợp cho Apple iPhone11 14ProMax 7Plus 8Plus 12ProMax XSMax X XS 13ProMax Ốp điện thoại RC4L
+Ốp Điện Thoại Chống Nước Nhiều Màu Sắc Cho apple air Tager [Wmp] Vỏ bảo vệ đế nhẹ dành cho người định vị Giá đỡ cổ chó bằng chống nước chống mất cho Airtag Bảo vệ thú cưng theo phong cách
+Ốp Điện Thoại Họa Tiết Động Vật Hoạt Hình Cho IPhone 11 1213 Pro MAX X XR XS MAX SE Apple 7 Plus 8 Plus IPhone 14 15 Pro
+Ốp Điện Thoại Chống Rơi Màu Bạc / Trắng Dành Cho Apple 14 / 13 / 12 xsmax THTX
+Vỏ điện thoại Apple iPhone 12 mini, vỏ silicon mềm chống sốc, mạ điện, lá phong, nắp lưng iPhone 12mini
+Line Tương thích với Ốp điện thoại IPhone 15 Promax, Apple 14 Plus Mới 13 / 12 / 11 IPhone 7 / 8 Plus Niche Art, Vỏ bảo vệ Xsmax cao cấp dành cho nữ
+Ốp lưng chống sốc cho Apple iPhone X, ốp điện thoại mạ silicon mềm, ốp lưng iPhoneX
+Dễ Thương Ốp Điện Thoại Hình Chó Mèo Cho iphone11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15pro
+Lenuo Ốp Điện Thoại TPU Mềm Mạ Màu Siêu Mỏng Trong Suốt Cho Apple iPhone 13 13 Pro 13 Pro Max 13 Mini
+Dễ Thương Ốp Điện Thoại Họa Tiết Cá Vàng Cho iphone 11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15pro
+iPhone mèo hoạt hình, dễ thương, 14 Ốp Điện Thoại , Apple 12Promax / 11, chân mèo 13Promax / Xr / Xs Phụ Kiện</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Điện Thoại - Máy Tính Bảng</t>
         </is>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện - 99.97%
+Máy tính &amp; Laptop - 0.01%
+Thiết Bị Âm Thanh - 0.01%
+Nhà cửa &amp; Đời sống - 0.0%
+Chưa phân loại - 0.0%
+Thiết Bị Điện Gia Dụng - 0.0%
+Du lịch &amp; Hành lý - 0.0%
+Thể Thao &amp; Dã Ngoại - 0.0%
+Văn Phòng Phẩm - 0.0%
+Ô tô - 0.0%
+Gaming &amp; Console - 0.0%
+Phụ Kiện Thời Trang - 0.0%</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Electronics Accessories - 50.9%
+Điện thoại &amp; Máy tính bảng - 39.7%
+Âm thanh - 4.1%
+TV &amp; Video - 2.33%
+Thiết bị thông minh - 2.31%
+Ôtô, Xe máy &amp; Thiết bị định vị - 0.21%
+Dụng cụ sửa chữa nhà cửa - 0.15%
+Đèn &amp; Trang trí - 0.14%</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Thiết Bị Số - Phụ Kiện Số - 97.68%</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Danh sách báo cáo e-report.xlsx
+++ b/Danh sách báo cáo e-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tienbm/metric/Clean_report_E-report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CAD1EC-E92F-144A-8DFA-E1AAF02A3258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF26F36-0612-A049-99D5-A25E92B212D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="233">
   <si>
     <t>id</t>
   </si>
@@ -211,6 +211,11 @@
 Ôtô, Xe máy &amp; Thiết bị định vị/Xe máy - 6.74%</t>
   </si>
   <si>
+    <t>Trang phục nam &amp; Đồ lót - 44.11%
+Trang phục nữ &amp; Đồ lót - 37.94%
+Thể thao &amp; Ngoài trời - 9.17%</t>
+  </si>
+  <si>
     <t>nuoc-hoa</t>
   </si>
   <si>
@@ -286,6 +291,10 @@
 Ôtô, Xe máy &amp; Thiết bị định vị/Ô tô - 3.82%</t>
   </si>
   <si>
+    <t>Chăm sóc sắc đẹp &amp; Chăm sóc cá nhân - 92.05%
+Đồ gia dụng - 4.13%</t>
+  </si>
+  <si>
     <t>ao-tay-dai</t>
   </si>
   <si>
@@ -348,16 +357,20 @@
 Tiki - 0.02%</t>
   </si>
   <si>
-    <t>Thời Trang Nữ - 63.21%
-Thời Trang Nam - 23.5%
-Thời trang trẻ em &amp; trẻ sơ sinh - 9.59%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nữ - 45.52%
-Giày dép &amp; Quần áo nam - 36.71%
-Trang Phục &amp; Giày Dép Thể Thao - 6.65%
-Quần Áo và Giày Dép Trẻ Em  - 5.76%
-Trẻ sơ sinh &amp; Trẻ nhỏ - 4.19%</t>
+    <t>Thời Trang Nữ/Áo - 25.92%
+Thời Trang Nam/Áo - 16.08%
+Thời Trang Nữ/Áo len - 10.4%
+Thời Trang Nữ/Bộ - 7.95%
+Thời Trang Nữ/Áo khoác - 7.46%
+Thời Trang Nữ/Đồ truyền thống - 6.64%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 4.84%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 45.52%
+Giày dép &amp; Quần áo nam/Quần áo nam - 36.71%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 4.07%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 3.53%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 3.01%</t>
   </si>
   <si>
     <t>Trang phục nữ &amp; Đồ lót - 60.31%
@@ -418,18 +431,18 @@
 Tiki - 0.03%</t>
   </si>
   <si>
-    <t>Thời Trang Nữ - 44.36%
-Thời Trang Nam - 12.28%
-Phụ Kiện Thời Trang - 10.55%
-Túi Ví Nữ - 8.61%
-Thời trang trẻ em &amp; trẻ sơ sinh - 8.58%
-Giày Dép Nữ - 4.91%
-Nhà cửa &amp; Đời sống - 3.99%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nữ - 37.66%
-Giày dép &amp; Quần áo nam - 21.64%
-Túi xách và Vali túi du lịch - 13.37%</t>
+    <t>Thời Trang Nữ/Áo - 10.16%
+Thời Trang Nữ/Áo len - 6.71%
+Thời Trang Nữ/Áo khoác - 6.27%
+Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 4.61%
+Thời Trang Nữ/Quần jeans - 3.82%
+Thời Trang Nữ/Váy - 3.75%
+Phụ Kiện Thời Trang/Phụ kiện tóc - 3.73%
+Thời Trang Nam/Áo - 3.04%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 31.63%
+Giày dép &amp; Quần áo nam/Quần áo nam - 16.61%</t>
   </si>
   <si>
     <t>Trang phục nữ &amp; Đồ lót - 30.03%
@@ -498,20 +511,24 @@
   </si>
   <si>
     <t>Shopee - 70.69%
-None - 16.84%
+Tiktok - 16.84%
 Lazada - 10.48%
 Tiki - 2.0%</t>
   </si>
   <si>
-    <t>Nhà cửa &amp; Đời sống - 98.47%</t>
-  </si>
-  <si>
-    <t>Giường ngủ &amp; Nhà tắm - 67.62%
-Đồ gia dụng nhỏ - 23.64%
-Dụng cụ sửa chữa nhà cửa - 7.29%</t>
-  </si>
-  <si>
-    <t>Nhà Cửa - Đời Sống - 100.0%</t>
+    <t>Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 95.52%</t>
+  </si>
+  <si>
+    <t>Giường ngủ &amp; Nhà tắm/Đồ dùng phòng ngủ - 67.57%
+Đồ gia dụng nhỏ/Đồ gia dụng nhỏ - 23.2%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ điện - 7.28%</t>
+  </si>
+  <si>
+    <t>Nhà Cửa - Đời Sống/Đồ dùng phòng ngủ - 100.0%</t>
+  </si>
+  <si>
+    <t>Hàng dệt &amp; Đồ nội thất mềm - 93.65%
+Trẻ sơ sinh &amp; thai sản - 5.51%</t>
   </si>
   <si>
     <t>do-dien-gia-dung</t>
@@ -569,18 +586,29 @@
   <si>
     <t>Lazada - 63.47%
 Shopee - 29.77%
-None - 6.67%
+Tiktok - 6.67%
 Tiki - 0.09%</t>
   </si>
   <si>
-    <t>Nhà cửa &amp; Đời sống - 56.25%
-Thiết Bị Điện Gia Dụng - 36.73%</t>
-  </si>
-  <si>
-    <t>Dụng cụ sửa chữa nhà cửa - 35.27%
-Đồ gia dụng nhỏ - 32.86%
-Electronics Accessories - 16.52%
-Bếp &amp; Phòng ăn - 7.17%</t>
+    <t>Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 33.13%
+Thiết Bị Điện Gia Dụng/Đồ gia dụng nhà bếp - 26.52%
+Nhà cửa &amp; Đời sống/Dụng cụ &amp; Thiết bị tiện ích - 13.51%
+Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 8.29%
+Thiết Bị Điện Gia Dụng/Pin - 6.07%</t>
+  </si>
+  <si>
+    <t>Đồ gia dụng nhỏ/Đồ gia dụng nhà bếp - 29.43%
+Dụng cụ sửa chữa nhà cửa/Tủ - 25.79%
+Electronics Accessories/Phụ kiện - 16.51%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ điện - 5.22%
+Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 3.37%</t>
+  </si>
+  <si>
+    <t>Ô tô &amp; xe máy - 59.05%
+Điện thoại &amp; Đồ điện tử - 11.12%
+Đồ gia dụng - 10.05%
+Công cụ &amp; Phần cứng - 6.34%
+Sửa chữa nhà cửa - 6.08%</t>
   </si>
   <si>
     <t>cham-soc-da</t>
@@ -630,13 +658,29 @@
 Tẩy da chết da đầu JIORNIEE kiểm soát dầu nhờn giảm bết tóc làm sạch chăm sóc tóc tại nhà phulieutochcm</t>
   </si>
   <si>
-    <t>Sắc Đẹp - 86.8%
-Sức Khỏe - 4.63%
-Mẹ &amp; Bé - 3.21%</t>
-  </si>
-  <si>
-    <t>Làm đẹp - 84.42%
-Đồ gia dụng nhỏ - 6.1%</t>
+    <t>Tiktok - 63.27%
+Shopee - 32.34%
+Lazada - 4.28%
+Tiki - 0.11%</t>
+  </si>
+  <si>
+    <t>Sắc Đẹp/Dụng cụ làm đẹp - 29.18%
+Sắc Đẹp/Chăm sóc da mặt - 26.78%
+Sắc Đẹp/Bộ sản phẩm làm đẹp - 14.13%
+Sắc Đẹp/Tắm &amp; chăm sóc cơ thể - 8.43%
+Sắc Đẹp/Chăm sóc tóc - 3.85%</t>
+  </si>
+  <si>
+    <t>Làm đẹp/Chăm sóc cá nhân - 34.04%
+Làm đẹp/Chăm sóc da mặt - 23.93%
+Làm đẹp/Dụng cụ chăm sóc Sắc đẹp - 21.0%
+Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 5.96%
+Làm đẹp/Trang điểm - 4.34%</t>
+  </si>
+  <si>
+    <t>Chăm sóc sắc đẹp &amp; Chăm sóc cá nhân - 88.51%
+Sức khỏe - 7.21%
+Trẻ sơ sinh &amp; thai sản - 3.73%</t>
   </si>
   <si>
     <t>quan-ao-thoi-trang-nam</t>
@@ -683,14 +727,24 @@
 Bộ nỉ nam cao cấp, bộ quần áo thể thao thu đông thời trang, sét nỉ nam  có mũ đủ size từ 45-90kg</t>
   </si>
   <si>
-    <t>Thời Trang Nam - 74.9%
-Thể Thao &amp; Dã Ngoại - 15.13%
-Thời Trang Nữ - 4.37%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 85.81%
-Trang Phục &amp; Giày Dép Thể Thao - 5.2%
-Giày dép &amp; Quần áo nữ - 3.5%</t>
+    <t>Shopee - 73.0%
+Tiktok - 19.61%
+Lazada - 7.36%
+Tiki - 0.04%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nam/Bộ - 69.55%
+Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 11.89%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 3.15%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 85.55%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 4.67%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 3.5%</t>
+  </si>
+  <si>
+    <t>Trang phục nam &amp; Đồ lót - 77.28%
+Thể thao &amp; Ngoài trời - 16.7%</t>
   </si>
   <si>
     <t>ao-cho-nam</t>
@@ -737,16 +791,29 @@
 【New Arrival】Áo Đạp Xe Ngắn Tay Mềm Mại Thoáng Khí Thấm Hút Mồ Hôi Nhanh Khô Cho Nam</t>
   </si>
   <si>
-    <t>Thời Trang Nam - 70.17%
-Thời Trang Nữ - 19.73%
-Thể Thao &amp; Dã Ngoại - 4.43%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 64.77%
-Trang Phục &amp; Giày Dép Thể Thao - 9.57%
-Nội thất &amp; Sắp xếp - 7.37%
-Giày dép &amp; Quần áo nữ - 5.65%
-Trẻ sơ sinh &amp; Trẻ nhỏ - 3.82%</t>
+    <t>Shopee - 79.4%
+Tiktok - 14.51%
+Lazada - 6.04%
+Tiki - 0.05%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nam/Áo - 41.8%
+Thời Trang Nam/Áo khoác - 12.58%
+Thời Trang Nữ/Áo - 12.36%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 6.2%
+Thời Trang Nam/Áo len - 4.96%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 64.74%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 8.69%
+Nội thất &amp; Sắp xếp/Đồ nội thất - 7.09%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 5.65%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 3.79%</t>
+  </si>
+  <si>
+    <t>Trang phục nam &amp; Đồ lót - 58.01%
+Trang phục nữ &amp; Đồ lót - 24.22%
+Thể thao &amp; Ngoài trời - 9.05%</t>
   </si>
   <si>
     <t>ao-thoi-trang-nam</t>
@@ -793,13 +860,27 @@
 Đồ cặp với người yêu mùa hè HAPPYLOVE áo phông nam đầm nữ dáng dài họa tiết buộc nơ thời trang M181</t>
   </si>
   <si>
-    <t>Thời Trang Nam - 83.48%
-Thời Trang Nữ - 11.5%
-Thể Thao &amp; Dã Ngoại - 3.01%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 77.6%
-Giày dép &amp; Quần áo nữ - 17.8%</t>
+    <t>Shopee - 78.86%
+Tiktok - 16.23%
+Lazada - 4.87%
+Tiki - 0.04%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nam/Áo - 43.23%
+Thời Trang Nam/Áo khoác - 16.77%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 10.19%
+Thời Trang Nam/Bộ - 6.96%
+Thời Trang Nữ/Áo - 6.06%
+Thời Trang Nam/Áo len - 4.65%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 77.54%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 17.8%</t>
+  </si>
+  <si>
+    <t>Trang phục nam &amp; Đồ lót - 85.1%
+Trang phục nữ &amp; Đồ lót - 8.45%
+Thể thao &amp; Ngoài trời - 3.07%</t>
   </si>
   <si>
     <t>ao-thun-thun</t>
@@ -846,21 +927,28 @@
 [HỘP QUÀ ÁO HOA] Áo thun unisex cao cấp chính hãng IDEVERRAY x Trần Lập Nông, RACING form oversize chất liệu cotton 260gsm</t>
   </si>
   <si>
-    <t>Thời Trang Nữ - 51.42%
-Thời Trang Nam - 38.2%
-Thời trang trẻ em &amp; trẻ sơ sinh - 5.44%
-Thể Thao &amp; Dã Ngoại - 2.98%
-Chưa phân loại - 1.26%
-Nhà cửa &amp; Đời sống - 0.4%
-Chăm Sóc Thú Cưng - 0.12%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 40.05%
-Giày dép &amp; Quần áo nữ - 37.99%
-Trang Phục &amp; Giày Dép Thể Thao - 11.07%
-Quần Áo và Giày Dép Trẻ Em  - 4.98%
-Trẻ sơ sinh &amp; Trẻ nhỏ - 3.32%
-Giường ngủ &amp; Nhà tắm - 1.92%</t>
+    <t>Shopee - 67.8%
+Tiktok - 29.42%
+Lazada - 2.75%
+Tiki - 0.02%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nữ/Áo - 45.53%
+Thời Trang Nam/Áo - 35.67%
+Thời Trang Nữ/Bộ - 3.64%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 40.05%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 37.99%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 7.86%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 3.26%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 3.16%</t>
+  </si>
+  <si>
+    <t>Trang phục nữ &amp; Đồ lót - 48.47%
+Trang phục nam &amp; Đồ lót - 39.33%
+Thể thao &amp; Ngoài trời - 6.32%
+Trẻ sơ sinh &amp; thai sản - 3.2%</t>
   </si>
   <si>
     <t>ao-ao-khoac</t>
@@ -910,20 +998,28 @@
 Áo Khoác Nữ Thêu Chữ Aero Chất Liệu Thun Gân 4 Túi Freesize Dưới 60kg Bubble Gum</t>
   </si>
   <si>
-    <t>Thời Trang Nữ - 60.69%
-Thời Trang Nam - 31.54%
-Thời trang trẻ em &amp; trẻ sơ sinh - 5.23%
-Thể Thao &amp; Dã Ngoại - 1.43%
-Chưa phân loại - 0.32%
-Phụ Kiện Thời Trang - 0.31%
-Thiết Bị Điện Gia Dụng - 0.19%
-Nhà cửa &amp; Đời sống - 0.11%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 43.39%
-Giày dép &amp; Quần áo nữ - 39.92%
-Trang Phục &amp; Giày Dép Thể Thao - 6.62%
-Quần Áo và Giày Dép Trẻ Em  - 5.49%</t>
+    <t>Shopee - 65.54%
+Tiktok - 31.59%
+Lazada - 2.84%
+Tiki - 0.03%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nữ/Áo khoác - 35.18%
+Thời Trang Nam/Áo khoác - 24.18%
+Thời Trang Nữ/Hoodie và Áo nỉ - 9.78%
+Thời Trang Nữ/Áo len - 9.61%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 4.92%
+Thời Trang Nữ/Bộ - 3.27%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 43.38%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 39.05%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 4.94%</t>
+  </si>
+  <si>
+    <t>Trang phục nữ &amp; Đồ lót - 52.04%
+Trang phục nam &amp; Đồ lót - 38.07%
+Trẻ sơ sinh &amp; thai sản - 3.67%</t>
   </si>
   <si>
     <t>ao-nam-nu</t>
@@ -970,21 +1066,29 @@
 Áo Polo Cổ Bẻ Li Ning Vải Cotton Cao Cấp , Áo Polo Nam Nữ Phong Cách Hàn Quốc</t>
   </si>
   <si>
-    <t>Thời Trang Nam - 55.8%
-Thời Trang Nữ - 40.48%
-Thể Thao &amp; Dã Ngoại - 1.6%
-Chưa phân loại - 1.37%
-Du lịch &amp; Hành lý - 0.2%
-Thời trang trẻ em &amp; trẻ sơ sinh - 0.12%
-Nhà cửa &amp; Đời sống - 0.12%
-Phụ Kiện Thời Trang - 0.12%
-Giày Dép Nam - 0.06%
-Túi Ví Nam - 0.05%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nam - 54.07%
-Giày dép &amp; Quần áo nữ - 33.75%
-Trang Phục &amp; Giày Dép Thể Thao - 5.75%</t>
+    <t>Shopee - 75.89%
+Tiktok - 22.45%
+Lazada - 1.64%
+Tiki - 0.01%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nam/Áo - 30.67%
+Thời Trang Nữ/Áo - 20.91%
+Thời Trang Nữ/Hoodie và Áo nỉ - 10.38%
+Thời Trang Nam/Áo khoác - 9.66%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 9.64%
+Thời Trang Nữ/Áo khoác - 5.49%
+Thời Trang Nam/Bộ - 4.06%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nam/Quần áo nam - 54.06%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 33.74%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 5.01%</t>
+  </si>
+  <si>
+    <t>Trang phục nam &amp; Đồ lót - 66.38%
+Trang phục nữ &amp; Đồ lót - 26.05%
+Thể thao &amp; Ngoài trời - 5.19%</t>
   </si>
   <si>
     <t>dien-thoai-iphone</t>
@@ -1040,29 +1144,25 @@
 Ốp Điện Thoại TPU Mềm Có Ngăn Đựng Thẻ Cao Cấp Cho iPhone 15 14 13 12 11 Pro Max Plus X XS Max XR 6 6S 7 8 Plus SE</t>
   </si>
   <si>
-    <t>Điện Thoại &amp; Phụ Kiện - 99.73%
-Thiết Bị Âm Thanh - 0.08%
-Ô tô - 0.07%
-Chưa phân loại - 0.04%
-Máy tính &amp; Laptop - 0.02%
-Thiết Bị Điện Gia Dụng - 0.01%
-Nhà cửa &amp; Đời sống - 0.01%
-Túi Ví Nữ - 0.01%
-Sắc Đẹp - 0.01%
-Gaming &amp; Console - 0.0%
-Túi Ví Nam - 0.0%</t>
-  </si>
-  <si>
-    <t>Electronics Accessories - 83.67%
-Âm thanh - 8.29%
-Điện thoại &amp; Máy tính bảng - 4.6%
-Dụng cụ sửa chữa nhà cửa - 1.94%
-Ôtô, Xe máy &amp; Thiết bị định vị - 0.42%
-Thiết bị thông minh - 0.28%
-Túi xách và Vali túi du lịch - 0.23%</t>
-  </si>
-  <si>
-    <t>Thiết Bị Số - Phụ Kiện Số - 93.78%</t>
+    <t>Shopee - 85.65%
+Tiktok - 13.35%
+Lazada - 0.99%
+Tiki - 0.01%</t>
+  </si>
+  <si>
+    <t>Điện Thoại &amp; Phụ Kiện/Điện thoại - 85.64%
+Điện Thoại &amp; Phụ Kiện/Phụ kiện - 14.08%</t>
+  </si>
+  <si>
+    <t>Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 81.14%
+Âm thanh/Thiết bị Audio chuyên nghiệp - 6.23%
+Điện thoại &amp; Máy tính bảng/Smartphones  - 4.33%</t>
+  </si>
+  <si>
+    <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 67.13%</t>
+  </si>
+  <si>
+    <t>Điện thoại &amp; Đồ điện tử - 99.83%</t>
   </si>
   <si>
     <t>phong-cach-han</t>
@@ -1109,23 +1209,33 @@
 [SẴN+CHUẨN HÀNG QC]Dép sandal nữ - Giày chiến binh đế xuồng dây đan cao 7cm phong cách hàn quốc chất da PU cao cấp</t>
   </si>
   <si>
-    <t>Thời Trang Nữ - 44.5%
-Thời Trang Nam - 12.39%
-Phụ Kiện Thời Trang - 10.53%
-Túi Ví Nữ - 8.63%
-Thời trang trẻ em &amp; trẻ sơ sinh - 8.53%
-Giày Dép Nữ - 4.78%
-Nhà cửa &amp; Đời sống - 3.98%
-Giày Dép Nam - 1.58%
-Mẹ &amp; Bé - 1.07%
-Túi Ví Nam - 1.01%
-Sắc Đẹp - 0.78%
-Thể Thao &amp; Dã Ngoại - 0.61%</t>
-  </si>
-  <si>
-    <t>Giày dép &amp; Quần áo nữ - 37.64%
-Giày dép &amp; Quần áo nam - 21.81%
-Túi xách và Vali túi du lịch - 13.38%</t>
+    <t>Shopee - 81.74%
+Tiktok - 14.81%
+Lazada - 3.42%
+Tiki - 0.03%</t>
+  </si>
+  <si>
+    <t>Thời Trang Nữ/Áo - 10.04%
+Thời Trang Nữ/Áo len - 6.57%
+Thời Trang Nữ/Áo khoác - 6.09%
+Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 4.59%
+Thời Trang Nữ/Quần jeans - 3.89%
+Thời Trang Nữ/Váy - 3.8%
+Phụ Kiện Thời Trang/Phụ kiện tóc - 3.72%
+Thời Trang Nam/Áo - 3.03%</t>
+  </si>
+  <si>
+    <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 31.69%
+Giày dép &amp; Quần áo nam/Quần áo nam - 16.78%</t>
+  </si>
+  <si>
+    <t>Trang phục nữ &amp; Đồ lót - 30.39%
+Trang phục nam &amp; Đồ lót - 22.06%
+Hành lý &amp; Túi xách - 13.03%
+Phụ kiện thời trang - 8.79%
+Giày - 8.38%
+Trẻ sơ sinh &amp; thai sản - 7.09%
+Thời trang trẻ em - 5.6%</t>
   </si>
   <si>
     <t>do-choi-cho-be</t>
@@ -1181,22 +1291,33 @@
 Balo Súng Nước Đồ Chơi Trẻ Em, Súng Bắn Nước Hình Hoạt Hình Dễ Thương Cho Bé</t>
   </si>
   <si>
-    <t>Mẹ &amp; Bé - 90.22%
-Sở thích &amp; Sưu tầm - 3.34%
-Nhà cửa &amp; Đời sống - 2.75%
-Thời trang trẻ em &amp; trẻ sơ sinh - 2.04%
-Chưa phân loại - 0.5%
-Thể Thao &amp; Dã Ngoại - 0.24%
-Sức Khỏe - 0.23%
-Văn Phòng Phẩm - 0.19%</t>
-  </si>
-  <si>
-    <t>Đồ chơi - 83.78%
-Trẻ sơ sinh &amp; Trẻ nhỏ - 9.82%
-Nội thất &amp; Sắp xếp - 3.63%</t>
-  </si>
-  <si>
-    <t>Đồ Chơi - Mẹ &amp; Bé - 91.44%</t>
+    <t>Shopee - 64.16%
+Tiktok - 29.68%
+Lazada - 5.97%
+Tiki - 0.19%</t>
+  </si>
+  <si>
+    <t>Mẹ &amp; Bé/Đồ chơi - 81.37%
+Mẹ &amp; Bé/Đồ dùng phòng ngủ cho bé - 7.0%</t>
+  </si>
+  <si>
+    <t>Đồ chơi/Đồ chơi cho trẻ sơ sinh &amp; trẻ nhỏ - 15.99%
+Đồ chơi/Đồ chơi điện tử &amp; Điều khiển từ xa - 13.19%
+Đồ chơi/Đồ chơi giáo dục - 12.45%
+Đồ chơi/Trò chơi truyền thống - 9.82%
+Đồ chơi/Đồ chơi thể thao &amp; ngoài trời - 8.05%
+Đồ chơi/Nhập vai Phục trang &amp; Dạ tiệc - 8.03%
+Đồ chơi/Lắp ráp tòa nhà - 8.01%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Chăm sóc sức khỏe cho trẻ - 5.32%
+Đồ chơi/Nghệ thuật &amp; Thủ công - 4.29%</t>
+  </si>
+  <si>
+    <t>Đồ Chơi - Mẹ &amp; Bé/Đồ chơi - 66.42%</t>
+  </si>
+  <si>
+    <t>Trẻ sơ sinh &amp; thai sản - 58.52%
+Đồ chơi &amp; sở thích - 34.26%
+Thể thao &amp; Ngoài trời - 4.3%</t>
   </si>
   <si>
     <t>van-phong-pham</t>
@@ -1252,23 +1373,32 @@
 Kệ nhựa đa năng xếp chồng nhiều tầng đựng văn phòng phẩm, đựng vật dụng nhà bếp tiện lợi</t>
   </si>
   <si>
-    <t>Văn Phòng Phẩm - 63.29%
-Nhà cửa &amp; Đời sống - 31.83%
-Sắc Đẹp - 1.26%
-Sở thích &amp; Sưu tầm - 1.11%
-Túi Ví Nữ - 0.6%
-Máy tính &amp; Laptop - 0.44%
-Chưa phân loại - 0.31%</t>
-  </si>
-  <si>
-    <t>Văn phòng phẩm và nghề thủ công - 61.2%
-Nội thất &amp; Sắp xếp - 10.53%
-Bách hóa - 8.44%
-Bếp &amp; Phòng ăn - 6.3%
-Đèn &amp; Trang trí - 3.66%
-Làm đẹp - 2.5%
-Máy vi tính &amp; Laptop - 1.92%
-Giường ngủ &amp; Nhà tắm - 1.5%</t>
+    <t>Shopee - 78.77%
+Lazada - 12.52%
+Tiktok - 8.45%
+Tiki - 0.25%</t>
+  </si>
+  <si>
+    <t>Văn Phòng Phẩm/Thiết Bị Trường Học - 32.47%
+Văn Phòng Phẩm/Bút Các Loại - 21.82%
+Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 15.63%
+Văn Phòng Phẩm/Sổ &amp; Giấy Các Loại - 7.6%
+Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 7.09%
+Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 3.9%
+Nhà cửa &amp; Đời sống/Nội thất - 3.72%</t>
+  </si>
+  <si>
+    <t>Văn phòng phẩm và nghề thủ công/Phụ kiện cho trường học và văn phòng - 28.74%
+Văn phòng phẩm và nghề thủ công/Dụng cụ viết lách - 21.85%
+Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 8.46%
+Bách hóa/Sô cô la, Snack &amp; Kẹo - 8.44%
+Văn phòng phẩm và nghề thủ công/Sản phẩm từ giấy - 6.26%
+Bếp &amp; Phòng ăn/Chứa đồ Nhà bếp &amp; phụ kiện - 6.14%
+Đèn &amp; Trang trí/Trang trí nhà cửa - 3.66%</t>
+  </si>
+  <si>
+    <t>Máy tính &amp; Thiết bị Văn phòng - 84.87%
+Đồ gia dụng - 4.79%</t>
   </si>
   <si>
     <t>dien-thoai-apple</t>
@@ -1315,31 +1445,24 @@
 iPhone mèo hoạt hình, dễ thương, 14 Ốp Điện Thoại , Apple 12Promax / 11, chân mèo 13Promax / Xr / Xs Phụ Kiện</t>
   </si>
   <si>
-    <t>Điện Thoại &amp; Phụ Kiện - 99.97%
-Máy tính &amp; Laptop - 0.01%
-Thiết Bị Âm Thanh - 0.01%
-Nhà cửa &amp; Đời sống - 0.0%
-Chưa phân loại - 0.0%
-Thiết Bị Điện Gia Dụng - 0.0%
-Du lịch &amp; Hành lý - 0.0%
-Thể Thao &amp; Dã Ngoại - 0.0%
-Văn Phòng Phẩm - 0.0%
-Ô tô - 0.0%
-Gaming &amp; Console - 0.0%
-Phụ Kiện Thời Trang - 0.0%</t>
-  </si>
-  <si>
-    <t>Electronics Accessories - 50.9%
-Điện thoại &amp; Máy tính bảng - 39.7%
-Âm thanh - 4.1%
-TV &amp; Video - 2.33%
-Thiết bị thông minh - 2.31%
-Ôtô, Xe máy &amp; Thiết bị định vị - 0.21%
-Dụng cụ sửa chữa nhà cửa - 0.15%
-Đèn &amp; Trang trí - 0.14%</t>
-  </si>
-  <si>
-    <t>Thiết Bị Số - Phụ Kiện Số - 97.68%</t>
+    <t>Shopee - 97.61%
+Tiktok - 2.24%
+Lazada - 0.15%
+Tiki - 0.0%</t>
+  </si>
+  <si>
+    <t>Điện Thoại &amp; Phụ Kiện/Điện thoại - 99.54%</t>
+  </si>
+  <si>
+    <t>Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 50.06%
+Điện thoại &amp; Máy tính bảng/Smartphones  - 39.7%
+Âm thanh/Các loại tai nghe - 3.97%</t>
+  </si>
+  <si>
+    <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 97.68%</t>
+  </si>
+  <si>
+    <t>Điện thoại &amp; Đồ điện tử - 99.84%</t>
   </si>
 </sst>
 </file>
@@ -1707,14 +1830,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="31" max="31" width="75" customWidth="1"/>
-    <col min="32" max="32" width="36.1640625" customWidth="1"/>
+    <col min="30" max="30" width="26.83203125" customWidth="1"/>
+    <col min="31" max="31" width="32.83203125" customWidth="1"/>
+    <col min="32" max="34" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
@@ -1821,7 +1945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="176" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="192" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>242961</v>
       </c>
@@ -1874,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="X2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2">
         <v>5053247560860</v>
@@ -1891,7 +2015,7 @@
       <c r="AC2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -1900,28 +2024,31 @@
       <c r="AF2" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="176" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4012</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1930,10 +2057,10 @@
         <v>1116156</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -1948,10 +2075,10 @@
         <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>6865523106309</v>
@@ -1966,39 +2093,42 @@
         <v>35680</v>
       </c>
       <c r="AC3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="128" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4232</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2007,10 +2137,10 @@
         <v>331944</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
         <v>41</v>
@@ -2028,10 +2158,10 @@
         <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y4">
         <v>4371457351173</v>
@@ -2046,39 +2176,39 @@
         <v>36977</v>
       </c>
       <c r="AC4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="AE4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22578</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2087,10 +2217,10 @@
         <v>7589</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>41</v>
@@ -2108,10 +2238,10 @@
         <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y5">
         <v>3202744210951</v>
@@ -2126,42 +2256,42 @@
         <v>46949</v>
       </c>
       <c r="AC5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>83</v>
       </c>
       <c r="AH5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4523</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2170,10 +2300,10 @@
         <v>181265</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
@@ -2191,10 +2321,10 @@
         <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>33904199281</v>
@@ -2209,19 +2339,22 @@
         <v>436</v>
       </c>
       <c r="AC6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -2229,22 +2362,22 @@
         <v>40544</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2256,7 +2389,7 @@
         <v>12269710</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -2274,10 +2407,10 @@
         <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>4716926862</v>
@@ -2292,16 +2425,19 @@
         <v>524</v>
       </c>
       <c r="AC7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AE7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -2309,22 +2445,22 @@
         <v>14657</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2336,7 +2472,7 @@
         <v>9552389</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
@@ -2354,10 +2490,10 @@
         <v>42</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>983618612865</v>
@@ -2372,13 +2508,19 @@
         <v>11134</v>
       </c>
       <c r="AC8" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>117</v>
       </c>
       <c r="AE8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -2386,13 +2528,13 @@
         <v>76384</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -2413,7 +2555,7 @@
         <v>8600996</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -2431,10 +2573,10 @@
         <v>42</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>91392948036</v>
@@ -2449,13 +2591,19 @@
         <v>2077</v>
       </c>
       <c r="AC9" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -2463,13 +2611,13 @@
         <v>26759</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -2490,7 +2638,7 @@
         <v>5133018</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -2508,10 +2656,10 @@
         <v>42</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>832755699135</v>
@@ -2526,13 +2674,19 @@
         <v>12488</v>
       </c>
       <c r="AC10" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>135</v>
       </c>
       <c r="AE10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s">
-        <v>128</v>
+        <v>137</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -2540,13 +2694,13 @@
         <v>24851</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -2567,7 +2721,7 @@
         <v>5019422</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
@@ -2585,10 +2739,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y11">
         <v>878560662534</v>
@@ -2603,13 +2757,19 @@
         <v>9735</v>
       </c>
       <c r="AC11" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>144</v>
       </c>
       <c r="AE11" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -2617,22 +2777,22 @@
         <v>565085</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2644,7 +2804,7 @@
         <v>3903330</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -2662,10 +2822,10 @@
         <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>8896936826273</v>
@@ -2680,13 +2840,19 @@
         <v>48790</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>152</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>153</v>
       </c>
       <c r="AE12" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s">
-        <v>142</v>
+        <v>155</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -2694,22 +2860,22 @@
         <v>63669</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2721,7 +2887,7 @@
         <v>3509231</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
@@ -2739,10 +2905,10 @@
         <v>42</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
         <v>5529520035443</v>
@@ -2757,13 +2923,19 @@
         <v>40250</v>
       </c>
       <c r="AC13" t="s">
-        <v>148</v>
+        <v>162</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>163</v>
       </c>
       <c r="AE13" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2771,13 +2943,13 @@
         <v>27334</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -2798,7 +2970,7 @@
         <v>2838558</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s">
         <v>41</v>
@@ -2816,10 +2988,10 @@
         <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>5153683441296</v>
@@ -2834,13 +3006,19 @@
         <v>22175</v>
       </c>
       <c r="AC14" t="s">
-        <v>155</v>
+        <v>171</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>172</v>
       </c>
       <c r="AE14" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>174</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2848,22 +3026,22 @@
         <v>5137</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2875,7 +3053,7 @@
         <v>2621667</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s">
         <v>41</v>
@@ -2893,10 +3071,10 @@
         <v>42</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15">
         <v>3354708115036</v>
@@ -2911,16 +3089,22 @@
         <v>8013</v>
       </c>
       <c r="AC15" t="s">
-        <v>165</v>
+        <v>183</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>184</v>
       </c>
       <c r="AE15" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2928,19 +3112,19 @@
         <v>238588</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2952,7 +3136,7 @@
         <v>2443162</v>
       </c>
       <c r="M16" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
         <v>41</v>
@@ -2970,10 +3154,10 @@
         <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>3354896267728</v>
@@ -2988,36 +3172,42 @@
         <v>48289</v>
       </c>
       <c r="AC16" t="s">
-        <v>173</v>
+        <v>193</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>194</v>
       </c>
       <c r="AE16" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s">
-        <v>175</v>
+        <v>196</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4226</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3029,7 +3219,7 @@
         <v>2400638</v>
       </c>
       <c r="M17" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
         <v>41</v>
@@ -3047,10 +3237,10 @@
         <v>42</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y17">
         <v>840041783514</v>
@@ -3065,39 +3255,45 @@
         <v>18338</v>
       </c>
       <c r="AC17" t="s">
-        <v>183</v>
+        <v>205</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>206</v>
       </c>
       <c r="AE17" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AF17" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s">
-        <v>186</v>
+        <v>209</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5438</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3109,7 +3305,7 @@
         <v>2285603</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
@@ -3127,10 +3323,10 @@
         <v>42</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y18">
         <v>71847404867</v>
@@ -3145,36 +3341,42 @@
         <v>5682</v>
       </c>
       <c r="AC18" t="s">
-        <v>194</v>
+        <v>218</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>219</v>
       </c>
       <c r="AE18" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s">
-        <v>196</v>
+        <v>221</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>156638</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3186,7 +3388,7 @@
         <v>2201870</v>
       </c>
       <c r="M19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
@@ -3204,10 +3406,10 @@
         <v>42</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>2441061417586</v>
@@ -3222,16 +3424,22 @@
         <v>1517</v>
       </c>
       <c r="AC19" t="s">
-        <v>201</v>
+        <v>227</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>228</v>
       </c>
       <c r="AE19" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s">
-        <v>204</v>
+        <v>231</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Danh sách báo cáo e-report.xlsx
+++ b/Danh sách báo cáo e-report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,30 +576,35 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Doanh số từng sàn</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>Product name</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Doanh số từng sàn</t>
-        </is>
-      </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Ngành hàng</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Ngành hàng Shopee</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Ngành hàng Lazada</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ngành hàng Tiki</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Ngành hàng Tiktok</t>
         </is>
@@ -607,54 +612,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4523</v>
+        <v>422184</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chan-ga-goi-dem</t>
+          <t>ao-ao-thun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://metric.vn/chan-ga-goi-dem</t>
+          <t>https://metric.vn/ao-ao-thun</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>chăn ga gối đệm</t>
+          <t>áo áo thun</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c1323859803</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1__100636</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nhà cửa &amp; Đời sống</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>181265</v>
+        <v>168</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2342185,2</t>
+          <t>4528685,5</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>chăn ga gối đệm</t>
+          <t>áo áo thun</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -679,148 +684,148 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>577167d26ef30be26c6c7fe33a669983</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16705139033</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>53063</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1167</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>319</v>
+          <t>24782b6955cfae5fd41ed002d9e470d3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>6 tỷ</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>57 nghìn</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Bộ 4 món vỏ chăn vỏ gối ga trải đệm cotton tici Otama Bedding ra nệm bo chun hoặc may phủ đủ size màu pastel Hàn Quốc
-Bộ ga giường tencel 60s SERENA cao cấp Set bộ vỏ chăn ga ra drap trải phủ giường gối nệm đệm 5 món chăn hè cao cấp
-[Chăn to hơn đệm] Bộ Chăn gối gấp gọn 5 trong 1 cho bé đi học mầm non tiểu học Mangata Bedding nhiều hoạ tiết mềm mịn
-Bộ ga giường cute dễ thương SERENA cao cấp Bộ set chăn ga drap grap phủ trải giường gối nệm đệm 5 món mát lạnh mùa hè
-[BST 2024] Chăn ga gối đệm tencel 60s cao cấp HERENA hoạ tiết thời trang chất vải mềm mại mát mẻ
-Bộ ra giường phi lụa SERENA cao cấp Bộ set chăn ga drap grap phủ trải giường gối nệm đệm 5 món lụa thái mát lạnh mùa hè
-Bộ chăn ga gối đệm 5 món Nỉ lông cáo SERENA Cao Cấp Drap nệm trải phủ giường mùa đông ấm áp, mềm mịn
-Bộ chăn ga gối đệm 5 món Phi lụa Thái Chần bông cao cấp chính hãng SERENA Set 5 món Drap Grap Grab trải phủ giường cưới
-Bộ chăn ga giường 5 món SERENA cao cấp Set bộ vỏ chăn ra ga dra grap drap trải giường cotton living gối nệm đệm 5 món
-Bộ ga giường 5 món SERENA cao cấp Bộ set vỏ chăn ga ra  phủ trải giường gối nệm đệm 5 món nỉ nhung mịn trần bông
-Bộ chăn ga gối hè gấu mây chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Vỏ Chăn Ga Gối Đệm 5 Món Lụa Thái SERENA MATTRESS Chính Hãng Bộ Ra Drap Grap Trải Bọc Gas Giường Trần Bông Combo Cao Cấp
-Bộ Chăn Ga Gối Đệm 5 Món SERENA MATTRESS MATTRESS Chính Hãng Chuẩn Khách Sạn 5 Sao Cao Cấp
-Chăn ga gối nệm đệm 4 món lụa tencel chữ H phong cách hàn quốc Empire cao cấp - Bình Châu Bedding &amp; Decor
-Bộ chăn ga gối phao micky loang chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ 4 món Chăn ga gối Cotton tc màu siêu xinh, chất vải mát - Nhiều màu đủ size đệm.
-Bộ chăn ga gối hè micky xám chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ chăn ga gối phi lụa Chất liệu mềm mại với chăn trần micro cực êm ái sẵn nhiều cỡ đệm
-Bộ Chăn Ga Gối Đệm Lụa Thái Chữ H Luxyry Drap Giường Cao Cấp Bo Chun Drap - Anna Nguyen Bedding
-Chăn Ga Gối 5 Món Cotton Lụa  3F  Combo Set Bộ Chăn Drap Ra Ga Gối Nệm Đệm Trải Giường Cotton Lụa 5 Món
-Bộ Vỏ Chăn Ga Gối 5 Món Cotton Tici Viền SERENA MATTRESS Chính Hãng Set Chăn Grap Ra Gối Nệm Đệm Trần Bông Cao Cấp
-Bộ ga nệm 5 món SERENA cao cấp Bộ set chăn ga drap grap phủ trải giường gối nệm đệm 5 món lụa thái mùa hè cao cấp
-Bộ chăn ga gối nỉ nhung 3D phong cách Hàn Quốc EB14 drap giường đủ kích thước bọc đệm, chất liệu mềm mại - ELI BEDDING
-Bộ chăn ga gối phao chó cheffull mới chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
-Bộ 4 món chăn ga gối lụa Tencel chữ H cao cấp, sang trọng, chất liệu lụa mềm, mịn, mát lạnh, không nhăn, thoải mái giặt máy, 1 chăn đã được trần bông hè, 2 vỏ gối nằm, 1 ga giường(nếu giường 1m6 đệm 15cm và 1m8 đệm 10cm đổ xuống tặng 1 vỏ gối ôm).
-2kg Bông gòn nhồi chăn, ga, gối, đệm cao cấp chuẩn như hình
-Thêm chiều cao chân đệm ga chống thấm, LEE CORNER chăn ga gối thiết kế cao cấp
-Bộ chăn ga gối đệm 7 món cotton lụa kháng khuẩn Alyda nhập khẩu cao cấp
-Xịt Thơm Quần Áo, Chăn Ga Gối Đệm Hương Hoa Cỏ Thanh Mát 100ml
-Chai Xịt Thơm Khử Mùi Chăn Ga Gối Đệm Vệ Sinh Nệm Giường VINA TƯƠI 100ml/500ml Tinh Dầu Oải Hương, Cam Sả, Bạc Hà</t>
+          <t>tiktok - 5 tỷ - 86.04%
+lazada - 465 triệu - 7.34%
+shopee - 420 triệu - 6.63%</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>shopee - 14 tỷ - 81.4%
-tiktok - 2 tỷ - 11.38%
-tiki - 719 triệu - 4.3%
-lazada - 486 triệu - 2.91%</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 12 tỷ - 91.6%
-Nhà cửa &amp; Đời sống/Dụng cụ chăm sóc nhà cửa - 238 triệu - 1.75%
-Thiết Bị Điện Gia Dụng/Thiết bị điện gia dụng nhỏ - 219 triệu - 1.61%
-Nhà cửa &amp; Đời sống/Chất khử mùi, làm thơm nhà - 170 triệu - 1.25%</t>
-        </is>
-      </c>
+          <t>Combo 5 Quần Đùi Nam Thun Giao Ngẫu Nhiên Mặc Nhà Tắm Biển Đi Dạo Menswear Cotton Áo Áo Thun Top
+COMBO 5 Quần Đùi Nam Thun Nhiều Họa Tiết Mặc Ngủ Mặc Nhà Đi Dạo Thoáng Mát Menswear Cotton Áo Áo Thun Top
+XẢ KHO - COMBO 100K/3 ÁO Áo Thun Nam Thun Lạnh Cao Cấp Mẫu Mới Độc Lạ 2024
+MOLAN Áo Sơ Mi Nam Mới Áo Sơ Mi Kẻ Sọc Ngắn Tay Có Ve Áo Áo Thun Công Sở Dài Tay Thường Ngày Cho Nam
+CATIMINI Áo áo thun bé gái Áo Thun Ngắn Tay Đính Nơ Dễ Thương Thời Trang Cho Bé Gái áo thun cho bé gái
+Áo thun nữ ngắn tay áo áo thun nữ cổ vuông dáng ôm ngắn tay chất thun tăm co giãn A484 PANOSI
+Áo Thun Gân Tăm Bigsize Cổ Tròn Nữ Xinh Đẹp Dễ Thương Giá Rẻ Freesize 50-95kg Women Top áo Áo Thun Nữ Màu Nâu Trắng
+YIPINYOUYOU丨Áo Thun Có Cổ Tay Áo Áo Thun Nam Tay Lỡ Dáng Rộng Thương Hiệu Thời Trang Retro Mới Phong Cách Mỹ Áo Thun Xu Hướng Cho Nam
+Hanlu Áo Thun Nam Áo Polo Nam Áo Thun Ngắn Tay Cho Nam Áo Thun Nam Mới Áo Ngắn Tay Kẻ Sọc Ve Áo Áo Thun Dài Tay Thường Ngày Công Sở Áo Thun Nam
+Áo Áo Thun Cổ Tròn Áo Thun Tay Ngắn Nữ Cỡ Lớn Ôm Dáng Tay Lỡ 2023 Dễ Phối Cổ Tim Cotton Mẫu Mới V Mùa Hè
+Không Có Nhãn Hiệu Trên Quần Áo Áo Thun Tay Ngắn In Họa Tiết Dễ Thương Thời Trang Mùa Hè Cho Bé Trai Và Gái 1-14 Tuổi T 2023
+{Belerga} miếng dán tự dính cho áo khoác xuống quần áo Áo Thun miếng vá có thể giặt sửa chữa quần áo mới
+Asrv Mùa hè siêu mỏng thoáng khí nam băng lụa nhanh khô quần áo áo áo thun ngắn tay thể thao mùa hè chạy bộ thể dục Áo thun xu hướng quốc gia
+Celmia ZANZEA Áo Có Ve Áo Áo Thun Tay Dài Đèn Lồng Màu Trơn Đa Năng Cho Nữ Áo Thun Tiệc Tùng Lễ Hội #20
+Mùa Hè Nữ Nhẹ Dài Tay Chống Nắng Quần Áo Áo Áo Thun Top 2024 Mùa Hè Phong Cách Mới Áo Thun Tình Yêu
+Áo Thun Nữ duohanzi Áo Thun cắt hở lưng cổ yếm có tay áo Áo Thun Phong Cách Y2K Áo Thun Châu Âu và phong cách Mỹ
+[7 Màu] Áo POLO Nam Mùa Hè Áo POLO Ngắn Tay Thêu Ve Áo Áo Thun Nam Màu Trơn Công Sở Thường Ngày
+Medussa incerun Áo Áo thun nam thời trang ôm cơ bắp cổ tròn áo thun áo thun dự tiệc thường ngày (phong cách phương Tây)
+Xiang Nian ni Áo thun nữ áo thun cắt hở lưng cổ yếm có tay áo Áo Thun Phong Cách Y2K Áo Thun Châu Âu và phong cách Mỹ
+Polo polo Hepburn Phong Cách 2023 Cổ Nữ Ngắn Nửa Tay Phù Hợp Với Cổ Áo Áo Thun Cổ Phong Cách Thoáng Mát Tay Ngắn AX3N
+Áo áo thun trơn BASIC nam nữ CAO CẤP nhiều màu vải mịn không xù lông- GIÁ TẠI XƯỞNG QTORE - QSTORE
+Hươu Cao Cổ Bé Trai Áo Thun Bé Trai Quần Áo Áo Thun Trẻ Em Voi Tay Ngắn Top Bé Tee Baju Bé Gái Quần Áo Thời Trang
+Áo áo thun trơn BASIC nam nữ CAO CẤP nhiều màu vải mịn không xù lông- GIÁ TẠI XƯỞNG QTORE
+[SIÊU PHẨM ] Áo Áo thun tay lỡ Maria Mikenco Chữ Vòng Cổ Siêu Hot AR45
+[SIÊU PHẨM ] Áo Áo thun tay lỡ Maria Mikenco Chữ Vòng Cổ Siêu Hot B5
+Guouqna Miếng Dán Tự Dính Cho Áo Xuống Quần Áo Áo Thun Sửa Chữa Quần Áo Miếng Dán Có Thể Giặt BASL
+Thú Cưng Mùa Xuân Và Mùa Hè Phim Hoạt Hình Dễ Thương Mèo Con Vịt Con In Phong Cách Quần áo Áo Thun Thuận Tiện Phần Mỏng Thoáng Mát Quần áo Vest Cho Mèo Và Chó
+Meihua 1 Bộ 20cm Quần Áo Búp Bê Phụ Kiện Mặc Thường Ngày Quần Áo Áo Thun Phù Hợp Với Áo Thun Quần Áo
+Camelli1 15cm Quần Áo Búp Bê Phụ Kiện Thường Ngày Mặc Quần 1 / 12 Búp Bê Quần Áo Áo Áo Thun Quần Áo
+Tast Tự Dính Miếng Dán Màu Đen Cho Xuống Áo Quần Áo Áo Thun Sửa Chữa Quần Áo Miếng Dán Có Thể Giặt Sửa Chữa Lỗ Không Có Dấu Vết E</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Giường ngủ &amp; Nhà tắm/Đồ dùng phòng ngủ - 285 triệu - 58.6%
-Đồ gia dụng nhỏ/Đồ gia dụng nhỏ - 166 triệu - 34.18%
-Đồ gia dụng nhỏ/Phụ kiện đồ gia dụng - 12 triệu - 2.55%
-Chăm sóc nhà cửa/Giặt ủi - 9 triệu - 1.79%
-Ôtô, Xe máy &amp; Thiết bị định vị/Ô tô - 7 triệu - 1.41%
-Dụng cụ sửa chữa nhà cửa/Dụng cụ điện - 6 triệu - 1.3%</t>
+          <t>Thời Trang Nam/Áo - 176 triệu - 41.95%
+Thời Trang Nữ/Áo - 102 triệu - 24.26%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 93 triệu - 22.12%
+Thời Trang Nữ/Bộ - 22 triệu - 5.23%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 11 triệu - 2.51%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 7 triệu - 1.6%
+Phụ Kiện Thời Trang/Phụ kiện thêm - 4 triệu - 1.01%</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Nhà Cửa - Đời Sống/Đồ dùng phòng ngủ - 719 triệu - 100.0%</t>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 344 triệu - 73.97%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 109 triệu - 23.35%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 11 triệu - 2.29%</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40544</v>
+        <v>497813</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>do-dien-gia-dung</t>
+          <t>nu-trang-nu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://metric.vn/do-dien-gia-dung</t>
+          <t>https://metric.vn/nu-trang-nu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>đồ điện gia dụng</t>
+          <t>nữ trang nữ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c641426678</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1__100010</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Thiết Bị Điện Gia Dụng</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3668</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12269710</v>
+        <v>119</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3918084,2</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>đồ điện gia dụng</t>
+          <t>nữ trang nữ</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -854,144 +859,164 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>640ac3723543678b3fc1dd2eff23e80d</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3129688294</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>39896</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>524</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>420</v>
+          <t>27295a82f593e8c1d584011eec02d818</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>5,775 tỷ</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>78 triệu</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>737 nghìn</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>51 nghìn</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Nồi Cơm Điện Mini CHIGO: có ổ chuyển đổi 2 chấu, Nấu Cơm, Cháo, Canh, Soup, Hầm, dung tích nấu 800ml Cooker Nấu Ăn đồgiadụng nộiđịatrungquốc
-OOKAS Nồi cơm điện đa năng gia dụng 6L dung tích lớn 220V Tích Chảo Chống Dính Tản Nhiệt Đồng Đều Nấu Nhanh Nấu Súp Và
-Bộ 4 pin sạc AA 3300mAh Doublepow công suất lớn chuyên karaoke gia đình là một sản phẩm vô cùng hữu ích và tiện dụng cho những đồ dùng điện tử gia đình như pin micro karaoke...(TrắngCam))
-QUẠT TRẦN MINI 5 CÁNH, 3 CÁNH, QUẠT TREO MÀN TIỆN DỤNG CỰC MÁT TIẾT KIỆM ĐIỆN DÂY ĐỒNG AN TOÀN[giadungminhduc]
-combo 10 Khay nhựa A6 ( dài 24 cm * rộng 15 cm * cao 12,5 cm ) đựng linh kiện kèm chân nối đựng bulong ốc tán , thuốc , đồ gia dụng , kim khí điện nước   ! Nhựa Điều chỉnh được
-Đèn ngủ phi hành gia cắm tường - Tích hợp pin lithium - Hiển thị đồng hồ LED và có hẹn giờ - Điều khiển qua ứng dụng điện thoại và điều khiển từ xa - Cường độ sáng có thể điều chỉnh được - 3 nhiệt độ màu -  Bảo hành 6 Tháng
-Đèn ngủ phi hành gia tích điện, điều khiển từ xa bằng app điện thoại hiển thị đồng hồ điện tử, rất dễ sử dụng - didooglt
-Khò ga 8803-1 đồng, có vòng điều chỉnh oxy, tự động đánh lửa, có hộp phụ kiện đi kèm, sử dụng trong các công việc gia đình và cơ khí điện lạnh.
-Hộp Đựng Đồ Gia Dụng Công Nghiệp Hộp Dụng Cụ Nhiều Tầng Bằng Thép Không Gỉ Bộ Cấp Đa Năng Kiểu Cầm Tay Lắp Trên Xe Ngũ Kim Điện
-Bộ tua vít đa năng 115 chi tiết với 98 đầu vít thích hợp sửa điện thoại, đồng hồ, máy tính, vật dụng gia đình
-Snkol, Màn Hình Màu, Máy Đo Nhiệt Độ Ẩm Điện Tử, Máy Đo Nhiệt Độ Gia Dụng, Máy Đo Nhiệt Độ Trong Nhà, Đồng Hồ Đo Nhiệt Độ Hiển Thị Số
-Miếng dán 3M 2 mặt dính, gắn giá đỡ điện thoại và camera hành trình trên ô tô, đồ gia dụng khác (giá 01 miếng)
-Cân Điện Tử Sức Khỏe Hình Chú Heo Xinh Xắn Dành Cho Gia Đình- Cân Tiểu Ly Điện Tử Nhỏ Gọn Mẫu Mã Đẹp- Đồ Gia Dụng- Đồ Dùng Nhà Bếp
-Máy Khoan 13Ly Makita Chính Hãng - Khoan Điện Makita Cầm Tay Gia Đình Thiết Kế Chắc Chắn Dễ Sử Dụng 100% Lõi Đồng Nguyên Chất Siêu Bền.BẢO HÀNH 12 THÁNG
-HCM [Gia Dụng] Kệ Đựng Gia Vị, Chai Lọ 3 Tầng INOX 304 Đặt Bàn Cao Cấp. Kệ đựng gia vị. Kệ để đồ thông minh 3 tầng đa năng tiết kiệm không gian.phun sơn tĩnh điện, kệ đựng gia vị inox 304 Cao Cấp
-GIÁ ÚP CỐC SƠN TĨNH ĐIỆN chống trơn trượt CÓ KHAY HỨNG NƯỚC HOME LUXURY DECOR | ÚP CỐC NÂU , đồ gia dụng thông minh, tiệ
-Có thể bán buôn Dụng Cụ Điện Tổ Chức Máy Khoan Treo Tường Hạng Nặng Không Dây Kệ Giá Để Đồ Cho Nhà Xe Trạm Sạc Virgina056 Hàng giao ngay
-cân điện tử alc, cân kaw ( kawasaki) 40kg, dụng cụ nhà bếp thông minh - Cân Điện Tử Tính Tiền CHO KẾT QUẢ CHÍNH XÁC TUYỆT ĐỐI, Mua đồ gia dụng chính hãng, uy tín, giá tốt
-Kệ đựng gia vị gia dụng kệ để đồ nhà bếp 3 tầng được thiết kế bằng thép sơn tĩnh điện  cao cấp chống hoen gỉ Inox
-Van chia gas chữ Y 1 bình gas dùng 2 bếp sử dụng 1 bình xám Y chia gas - Bằng Đồng Thau - Điện Gia Dụng Hưng Thịnh
-Tua vít mini 3in1 sửa mắt kính, đồng hồ, điện thoại, máy tính, đồ gia dụng kèm móc khóa, bộ tuốc nơ tô vít đa năng
-Tua vít mini 3in1 sửa mắt kính, đồng hồ, điện thoại, máy tính, đồ gia dụng kèm móc khóa
-Tua Vít 4 Cạnh, 2 Cạnh Mini, Dùng Để Vặn Các Loại Ốc Vít Nhỏ Trên Đồ Gia Dụng Nhỏ Hay Ốc Vít Trên Điện Thoại
-Set 6 nhíp sửa chữa đồ dùng gia dụng chống tĩnh điện bằng thép carbon siêu bền
-Smallbrainsjr Mũi khoan móng tay kim cương Máy làm sạch lớp biểu bì để khoan điện Làm móng chân Đánh bóng móng tay Dụng cụ nghệ thuật Salon Đồ dùng gia đình vn
-Cây Khuấy Cà Phê Đánh Trứng Tự Động Xài Pin, thiết bị điện gia dụng - đồ gia dụng nhà bếp - thiết bị xay, trộn, nghiền
-Máy Niêm Phong Cầm Tay Mini, Máy Niêm Phong Nhiệt Điện Gia Dụng, Máy Niêm Phong Túi Chân Không, Túi Đồ Ăn Nhẹ Và Túi Trái Cây Khô
-Set 4 Miếng Dán Tường Treo Dây Điện, Đồ Dụng Gọn Gàng - Tặng 1 móc chịu lực ( giao ngẫu nhiên )
-Kệ Gia Vị Cao Cấp Sơn Tĩnh Điện Không Han Gỉ, 2-3 Tầng, Kệ Đựng Đồ Nhà Bếp Tặng Kèm Khay Để Thớt, Cắm Dao Tiện Dụng
-Pin dự phòng pin sạc AA pin sạc AAA 1.2v dùng cho thiết bị điện tử gia dụng đồ chơi đa đạng chất lượng cao</t>
+          <t>shopee - 4,274 tỷ - 74.01%
+tiktok - 1,231 tỷ - 21.32%
+lazada - 258 tỷ - 4.47%
+tiki - 12 tỷ - 0.2%</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>shopee - 1 tỷ - 46.56%
-lazada - 893 triệu - 28.55%
-tiktok - 778 triệu - 24.87%
-tiki - 576 nghìn - 0.02%</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Thiết Bị Điện Gia Dụng/Đồ gia dụng nhà bếp - 466 triệu - 31.95%
-Thiết Bị Điện Gia Dụng/Thiết bị điện gia dụng lớn - 308 triệu - 21.11%
-Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 189 triệu - 12.99%
-Nhà cửa &amp; Đời sống/Dụng cụ &amp; Thiết bị tiện ích - 131 triệu - 8.97%
-Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 81 triệu - 5.53%
-Thiết Bị Điện Gia Dụng/Pin - 65 triệu - 4.48%
-Nhà cửa &amp; Đời sống/Đèn - 64 triệu - 4.41%
-Thiết Bị Điện Gia Dụng/Mạch điện &amp; Phụ tùng - 61 triệu - 4.16%</t>
-        </is>
-      </c>
+          <t>Khẩu Trang Chống Tia UV - Chống Nắng,Phù Hợp Cho Cả Nam Và Nữ
+[NEW][V6 SIREN HOLIDAY EDITION] Son Môi Kem Lì Trang Điểm Merzy The First Velvet Tint 4.5g Cosmetic Nữ Women Son Kem Mỹ Phẩm Lip Tint
+Áo Chống Nắng Toàn Thân Nữ Cotton Cao Cấp Quần Trang Phục Top
+Giày Thể Thao Đế Bằng Chống Trượt Thoải Mái Thời Trang Hàn Quốc Cho Nữ
+Sét bộ vạt bầu phối quần ống suông thời trang dễ thương Áo Nữ Thun
+Bộ thể thao vải gió tráng bạc thu đông nam nữ tay dài phối màu thời trang Happylivemall
+Giày thể thao đế bằng siêu nhẹ kiểu retro Đức thời trang xuân thu cho nữ
+Thời Trang Bigsize Áo Thun Vải Thun Tăm  50 - 100Kg Dễ Thương Top Nữ Cổ Tròn Women
+[MUA 1 TẶNG 1 - TẶNG 1 HỐC TINH ĐÁM THẠCH ANH LIVESTREAM 19.08] Vòng Tay Bạc 925 Nữ Đính 2 Viên Đá Liugems Phong Thuỷ Tự Nhiên Handmade Mix Charm Bi Mini Size Nhỏ Tinh Tế VB02 (Mua một, tặng một hộp đựng trang sức + một khăn lau bạc miễn phí)
+[NEW - DEW4 LIMITED EDITION] Son Tint Bóng Trang Điểm Dạng Thạch Merzy The Watery Dew Tint 4g Cosmetic Mỹ Phẩm Nữ Women Son Môi Lip Tint
+Túi xách nữ tote công sở cỡ lớn thời trang Yuumy YTX20
+Áo Khoác Bomber Pilot Oversized Chần Bông Thêu Chữ Thời Trang Nam Nữ Bycamcam Top Jacket
+Set váy tơ bèo xinh xỉu by Trang Mun B8 Áo Nữ
+LIAOYUE cao gót nữ Thời Trang Mới 2024 Cho Nữ Bền Đàn hồi Đa dụng Chống bám bụi B24G0EE 23120803
+Gọng kính mắt mèo nữ nhẹ nhàng thanh mảnh nhiều màu thời trang Nấm Eyewear 9286
+Túi xách nữ túi kẹp nách thời trang dáng cong da thêu khóa chữ M dây đeo phối xích Thegioituixachqc
+túi xách nữ HM dáng ngang cầm tay đeo chéo da gạo thời trang nữ 2024-ms765
+Dép sandal đế mềm chống trượt thời trang đi biển cho nữ
+Áo Tank Top Hở Cổ Đáy Cong Quyến Rũ Thời Trang Mùa Hè Cho Nữ hai dây 2 dây entyty pink store pinkstore29
+Áo len cardigan nữ dài tay kiểu trơn màu basic, Áo cadigan khoác ngoài thời trang hàn quốc màu xanh, hồng, nâu be
+áo phao nữ đại hàn dáng xuông dài rộng chất đẹp hợp thời trang hàng quảng châu cao cấp ✅sẵn hàng giao luôn ✅
+Nucelle Túi Xách Nữ Thời Trang Hàn Quốc Cỡ Lớn
+Áo len nữ tay dài kẻ đen trắng rách cổ tròn Deliz form rộng cá tính phong cách thời trang Ulzzang BUNNY
+Phụ kiện vòng tay nữ khắc Rồng Phượng, có điều chỉnh size tay, phụ kiện trang sức sang trọng Đèn
+AOFEIQIKE Quần tất lưới trong suốt gợi cảm hợp thời trang dành cho nữ
+Bộ make up 14 món gồm kem nền,phấn phủ,phấn mắt,eyeliner,kẻ mày,chuốt mi,son Trang Điểm Eyeshadow Nữ Son Kem Women Nhũ Mắt Bảng Phấn Mắt
+Kính gọng vuông cận thời trang nam nữ Braby Glasses chất liệu nhưạ cao cấp kiểu dáng sang trọng MK46
+ADORE Miếng Dán Phụ Kiện Thời Trang Cao Cấp, Silicone Mềm Mại, Chống Mồ Hôi Bra Nữ Women
+Túi xách nữ đeo chéo, đeo vai đi chơi, đi học VINICHY, da đẹp, thời trang cao cấp size 22cm HA235
+Túi Xách Nữ Đeo Chéo Đựng Điện Thoại Thời Trang Đi Học Đi Chơi - TDC51</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Electronics Accessories/Phụ kiện - 266 triệu - 29.75%
-Đồ gia dụng nhỏ/Đồ gia dụng nhà bếp - 166 triệu - 18.61%
-Dụng cụ sửa chữa nhà cửa/Tủ - 122 triệu - 13.65%
-Ôtô, Xe máy &amp; Thiết bị định vị/Ô tô - 66 triệu - 7.34%
-Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 52 triệu - 5.82%
-Làm đẹp/Chăm sóc cá nhân - 37 triệu - 4.1%
-Dụng cụ sửa chữa nhà cửa/Điện - 35 triệu - 3.93%
-Dụng cụ sửa chữa nhà cửa/Bảo vệ nhà cửa - 25 triệu - 2.79%
-Đồ gia dụng nhỏ/Đồ gia dụng nhỏ - 22 triệu - 2.44%
-Bếp &amp; Phòng ăn/Chứa đồ Nhà bếp &amp; phụ kiện - 16 triệu - 1.75%
-Dụng cụ sửa chữa nhà cửa/Đồ kim khí - 15 triệu - 1.68%</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Thời Trang Nữ/Áo - 453 tỷ - 10.59%
+Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 387 tỷ - 9.06%
+Giày Dép Nữ/Xăng-đan và dép - 313 tỷ - 7.32%
+Túi Ví Nữ/Ba lô - 215 tỷ - 5.03%
+Phụ Kiện Thời Trang/Kính mắt - 201 tỷ - 4.7%
+Giày Dép Nữ/Giày thể thao/ sneaker - 177 tỷ - 4.14%
+Thời Trang Nữ/Áo len - 163 tỷ - 3.82%
+Thời Trang Nữ/Áo khoác - 131 tỷ - 3.06%
+Thời Trang Nữ/Đầm - 131 tỷ - 3.05%
+Giày Dép Nữ/Giày cao gót - 127 tỷ - 2.97%
+Thời Trang Nữ/Bộ - 103 tỷ - 2.4%
+Phụ Kiện Thời Trang/Mũ - 100 tỷ - 2.34%
+Phụ Kiện Thời Trang/Phụ kiện tóc - 89 tỷ - 2.07%
+Thời Trang Nữ/Quần - 81 tỷ - 1.89%
+Giày Dép Nam/Xăng-đan &amp; Dép - 76 tỷ - 1.77%
+Giày Dép Nữ/Giày đế bằng - 74 tỷ - 1.72%
+Thời Trang Nữ/Váy - 71 tỷ - 1.67%
+Túi Ví Nữ/Túi quai xách - 70 tỷ - 1.63%
+Phụ Kiện Thời Trang/Vòng tay &amp; Lắc tay - 65 tỷ - 1.52%
+Thời Trang Nữ/Quần jeans - 64 tỷ - 1.49%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 63 tỷ - 1.47%
+Thời Trang Nữ/Đồ ngủ - 61 tỷ - 1.42%
+Thời Trang Nam/Áo - 58 tỷ - 1.35%
+Giày Dép Nữ/Bốt - 57 tỷ - 1.33%
+Phụ Kiện Thời Trang/Bông tai - 50 tỷ - 1.16%
+Giày Dép Nam/Giày thể thao/ Sneakers - 49 tỷ - 1.16%
+Phụ Kiện Thời Trang/Dây chuyền - 49 tỷ - 1.15%
+Túi Ví Nam/Ba lô - 47 tỷ - 1.1%
+Thời Trang Nữ/Vớ/ Tất - 45 tỷ - 1.05%</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 80 tỷ - 30.98%</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14657</v>
+        <v>545320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cham-soc-da</t>
+          <t>nam-cao-cap</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://metric.vn/cham-soc-da</t>
+          <t>https://metric.vn/nam-cao-cap</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>chăm sóc da</t>
+          <t>nam cao cấp</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c157614325</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1__100630</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sắc Đẹp</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>12578</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9552389</v>
+        <v>97</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3397573,2</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>chăm sóc da</t>
+          <t>nam cao cấp</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1025,144 +1050,160 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>e7e59d6eb6e07b77136a5efec1332ff4</t>
-        </is>
-      </c>
-      <c r="X4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>458027411012</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3955448</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19701</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8500</v>
+          <t>8e334ee96996e7b90195f53af2ecc3b8</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>5,530 tỷ</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>42 triệu</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>248 nghìn</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>40 nghìn</t>
+        </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>[Hàng Loại 1] Giường Tiêm Filler Luxury, Giường Tiêm Phun Xăm Thẩm Mỹ Chăm Sóc Da, Chỉnh Nâng Hạ Cao Thấp Tiện Lợi
-[X1BT120M] Xịt Kích Mọc Tóc Tinh Dầu Bưởi Da Xanh Mộc Ân Haircare 120ml, hỗ trợ mọc tóc, giảm gãy rụng, nuôi dài tóc Dưỡng Tóc Chăm Sóc Tóc
-FOCALSKIN Tinh chất Serum Bright Balance Niacinamide α-Arbutin VitaminC hỗ trợ dưỡng da tươi tắn phù hợp cho da nhạy cảm 15ml/30ml | Làm Đẹp Da Skincare Dưỡng Ẩm Da Cấp Ẩm Chăm Sóc Da
-[Combo Olay UK 37ml] Kem Dưỡng Olay Đêm 37ml và Kem Ngày SPF15  Làm Đẹp Da Dưỡng Ẩm Da Chăm Sóc Da Skincare
-A213_ SERUM CHỐNG NẮNG NÂNG TONE SPF 50+ PA++++ VE.LY VELY Tất cả các loại da Skincare Chăm Sóc Da
-Máy Chăm Sóc Da Đa Chức Năng 6in1 I Máy Aqua H2O2 Hàn Quốc Làm Sạch Da Chuyên Sâu Phù Hợp Trong Chăm Sóc Da Spa, TMV
-Máy Chăm Sóc Da H2O2, Aqua 6in1 Có 6 Chăm Sóc Da (Màu Xanh, Trắng)
-Dầu chăm sóc da giúp cải thiện rạn da, mờ sẹo và đều màu da  BIO-OIL SKINCARE OIL 125ML
-Gel chấm nốt ruồi ,mụn cóc , tàn nhan, mụn thịt, mụn ké Skincare Chăm Sóc Da
-Gel chấm mụn mờ thâm Cafuné 15ml Không chứa paraben Kiểm soát lỗ chân lông Acne Treatments Skincare Chăm Sóc Da
-Kem Face Gạo Plus [25gram]+  Kem Chống Nắng GẠO HA[Chai Lớn 60ml] - Skincare Chăm Sóc Da Làm Đẹp Da
-Serum khổ qua, mướp đắng handmade Lim farm - 100% nguyên chất - giảm mụn, sáng da, chăm sóc da mặt hiệu quả cho chị em
-C1 (19+23+32+33) - Bộ Sản Phẩm Chăm Sóc Da Doctor Magic Gồm: Sữa Rửa Mặt + Kem Hỗ Trợ Chống Nắng + Tẩy Trang + Tẩy Tế Bào Chết - Skincare
-Kem Dưỡng Da La Bonita Vita K Repair Cream 30ml  Chăm Sóc Da
-Kem ACNE Hỗ Trợ Chăm Sóc Da Mụn (25gr) - Tặng Sữa Rửa Mặt (40ml) Skincare Làm Đẹp Da
-Máy Aqua X 9in1, Máy Chăm Sóc Da 9 Chức Năng
-Kem dưỡng ATOPALM MLE Cream 65ml &amp; 100ml chăm sóc da
-TẶNG 3 HỘP KEM SÂM CÔ TIÊN THÁI LAN ( Dùng Cho Da Đen Thâm , Nám Tàn Nhang ) Skincare Chăm Sóc Da Women
-Máy sấy tóc Panasonic EH-ND37-K645/ EH-ND37-P645 - Chế độ chăm sóc da đầu - Công suất 1800W - Hàng Chính hãng
-Vitamin E Healthy Care 500IU Úc dưỡng ẩm chăm sóc da dưỡng trắng và mờ thâm sẹo, giúp da căng mịn tươi trẻ 200 viên
-Combo Full 2 Sản Phẩm : Trứng Cá Hồi : Serum 30ml / kem Dưỡng 30gr ( Combo hỗ trợ Chăm Sóc Dưỡng da  ) Tặng 1 Sữa rửa mặt Tảo Nâu 30ml
-Mặt Nạ Ngủ Điêu Khắc Khuôn Mặt, Hình Chữ V, Nâng Cằm Và Má, Mặt Nạ Định Hình Nâng Cơ, Chăm Sóc Da, Hàng Có Sẵn
-Kem nám sáng da Viian MP27 Nữ Skincare Chăm Sóc Da Làm Đẹp Da
-COMBO KEM FACE (FACE TRẮNG + FACE TÍM &amp; CAO BƯỞI LỚN 20G ) THƯƠNG HIỆU S O N COSMETIC - MỸ PHẨM NGUYỄN TIÊN Nữ Làm Đẹp Da Dưỡng Ẩm Da Chăm Sóc Da Skincare
-Mua Lẻ Kem Face Linh Chi 20gram - Làm Đẹp Da Chăm Sóc Da Skincare Nữ Women Dưỡng Ẩm Da
-KEM CHỐNG NẮNG NÂNG TÔNG 7 MÀNG LỌC PHỔ RỘNG TD DIAMOND (50ml) Sunscreen Skincare, Bảo Vệ, Nâng Tông, Chăm Sóc Da
-【Nhập Khẩu Từ Mỹ】Kem làm trắng da VK làm trắng nách cổ đầu gối cả người làm trắng dưỡng ẩm Làm mờ hắc tố chăm sóc cơ thể 20g
-Chai xịt chăm sóc và làm mới nội thất da, nhựa  taplo ô tô 3MTM 39040LT 400ml - Hàng Nhập khẩu 3M Thái Lan
-Nước cân bằng cho da mụn Eucerin Pro Acne Toner 200ml-Chăm Sóc Da
-Dầu gội, dầu xả, sữa tắm trẻ em Borome thành phần lành tính, chăm sóc tóc và da của bé luôn khỏe mạnh</t>
+          <t>shopee - 4,020 tỷ - 72.71%
+tiktok - 1,123 tỷ - 20.31%
+lazada - 327 tỷ - 5.92%
+tiki - 59 tỷ - 1.07%</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>tiktok - 261 tỷ - 57.01%
-shopee - 181 tỷ - 39.48%
-lazada - 16 tỷ - 3.44%
-tiki - 324 triệu - 0.07%</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Sắc Đẹp/Dụng cụ làm đẹp - 49 tỷ - 26.89%
-Sắc Đẹp/Chăm sóc da mặt - 43 tỷ - 23.82%
-Sắc Đẹp/Bộ sản phẩm làm đẹp - 19 tỷ - 10.28%
-Sắc Đẹp/Tắm &amp; chăm sóc cơ thể - 13 tỷ - 7.19%
-Sắc Đẹp/Chăm sóc tóc - 12 tỷ - 6.43%
-Nhà cửa &amp; Đời sống/Nội thất - 7 tỷ - 3.85%
-Sắc Đẹp/Trang điểm - 5 tỷ - 2.57%
-Sức Khỏe/Thực phẩm chức năng - 4 tỷ - 2.41%
-Sức Khỏe/Chăm sóc cá nhân - 3 tỷ - 1.44%
-Mẹ &amp; Bé/Chăm sóc sức khỏe mẹ - 2 tỷ - 1.33%
-Mẹ &amp; Bé/Đồ dùng phòng tắm &amp; Chăm sóc cơ thể bé - 2 tỷ - 1.3%
-Sắc Đẹp/Chăm sóc nam giới - 2 tỷ - 1.26%
-Sức Khỏe/Vật tư y tế - 2 tỷ - 1.2%</t>
-        </is>
-      </c>
+          <t>Áo polo nam cổ bẻ thêu chữ U sang trọng cao cấp nhất của nhà  UMA STORE - (  POLOUMAOR ) Menswear Top Áo Thun Có Cổ Đen Shirt hot new 2024
+Áo Khoác Phao Cao Cấp Dáng Lửng Boxy, Áo Pufer Jacket Basic Godmother 2023 Nam Menswear
+Áo thun polo nam vải cá sấu có cổ trơn basic cao cấp UMA 20 màu new 2024  Menswear Top Menswear Shirt ( POLOUMAOR ) Cam
+Bộ đôi sản phẩm Hanama túi du lịch kèm túi đeo chéo cao cấp Mic6zin1-so4 Bag Nam Đen chất da chống nước khóa Kem mạ đồng
+Áo nỉ hoodie boy phố sorry bea i only date boy phố gơn thời trang nam l66 cao cấp [A163]
+Áo Giữ Nhiệt Nam Co Giãn Cổ 3 Phân Dài Tay Cao Cấp
+Combo Bọt vệ sinh nam giới Oniiz, Dung dịch vệ sinh nam tạo bọt 100ml, quà tặng nước hoa cao cấp
+[WHY.NOT][Có Bigsize] Quần Jean Nam Ống Suông Rộng Màu Xanh Wash Phong Cách Retro Menswear PantsJBGWTG Phiên bản cao cấp Version 2
+KS209 - [TẶNG TÚI  ĐỰNG GIÀY] Vali nhựa dẻo ABC+PC cao cấp Size 20/24/28 Chống va đập chống bể vỡ , chịu lực tốt ,bánh xe xoay 360 độ - HÀNG LỖI ĐỔI MỚI MIẼN PHÍ  (BH PHỤ KIỆN 2 NĂM) Nam
+[MUA 1 TẶNG 2] Combo Tinh Tế Rhys Man - Sữa tắm gội hương nước hoa cao cấp 350ml &amp; Gel vệ sinh nam 100ml | Tặng : 1 Set Hộp &amp; Túi
+Áo hoodie an thuyên DC level nỉ bông nam nữ local brand fom rộng unisex cao cấp thời trang Chữ Vàng Great Love A199
+Áo sơ mi sọc nam tay dài LOGO H SEASON 2 vải Oxford cao cấp, sang trọng, thanh lịch - HUSSIO
+Quần jean nam baggy CẠP CHUN BẢN TO ống rộng ATRASTINO,Quần Bò Nam chun CẠP CAO phom Suông Chỉnh Eo Chất Bò cao cấp 2023
+Áo Khoác UNISEX Cao Cấp- Dày Dặn 520GSM- Họa Tiết Caro Phong Cách Menswear Nam Jacket Màu Đen
+Giày tây nam G2 Derby công sở độn đế tăng chiều cao 4cm bằng da bò nappa cao cấp chính hãng trẻ trung đi làm đi tiệc
+Giầy da nam 1706 - da PU cao cấp - đế cao su đúc và khâu đế sản phẩm của công ty cổ phần 26
+Giày Sneaker Thể Thao Nam G102 Cao Cấp Phong Cách Thời Trang Hàn Quốc. Giày Da Nam Đẹp Giá Rẻ A1
+Áo Khoác nam, Phao Nam GrayHomme Chần Bông Chống Nước Cao Cấp, Siêu Nhẹ, Siêu Ấm, fom Ôm Vừa Trẻ Trung (CF2001-CF3005)
+Áo NỈ Sweater NIke chính hãng, Áo khoác nỉ dài tay unisex  nam nữ form rộng chất nỉ bông cotton cao cấp 100%
+( MUA DE NHAN QUA) Quần jeans nam đen trơn chất bò cao cấp co dãn 4 chiều cực đẹp KÈM NHIỀU MẪU MỚI (có bigsize)
+Áo hoodie nỉ bông cao cấp dày dặn 2 lớp mũ bassic zip form rộng nam nữ unisex 918Ofus
+XẢ KHO- Bộ Thể Thao Nam Cao Cấp Dầy Dặn Cực Phẩm Độc Lạ Mẫu Mới Nhất 2024 8686
+Giày tây nam da cao cấp, tăng chiều cao 6-7cm, đế cao su nguyên tấm chống trơn
+Quần Short Nam Ralph Lauren Chính Hãng Chất Nỉ Chân Cua Cao Cấp - Quần Đùi Nam Ralph Lauren Thêu Ngựa Hottrend 2024
+[Hàng sẵn] Giày Thể Thao mlb Bigball Lite Kem Nâu Bản Cao Cấp Nam Nữ ảnh thật tự chụp+freeship
+Quần lót nam Boxer chất thun lạnh cao cấp, combo 5 quần sịp đùi nam chính hãng SENIM
+Áo Sơ Mi Dài Tay Cao Cấp Họa Tiết Kẻ Ngang Cánh Tay Sang Chảnh Hot Nhất, Áo sơ mi nam boy phố
+Bộ quần áo thể thao Pari họa tiết in lưới ful thân cao cấp- bộ hè cao cấp uni sẽ nam nữ new 2024
+Sữa tắm gội nam 4 in 1 hương nước hoa châu Âu SIRMEN Europe Gentlemen cao cấp 350g công nghệ EU-Nano Xuất Xứ Châu Âu
+Quần âu nam JBAGY - Smart Pants điều chỉnh cạp, vải Vitex co giãn cao cấp chống nhăn - JA030</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Làm đẹp/Chăm sóc cá nhân - 7 tỷ - 43.76%
-Làm đẹp/Chăm sóc da mặt - 4 tỷ - 23.7%
-Làm đẹp/Dụng cụ chăm sóc Sắc đẹp - 2 tỷ - 12.57%
-Làm đẹp/Trang điểm - 1 tỷ - 6.49%
-Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 500 triệu - 3.17%
-Bách hóa/Đồ uống - 337 triệu - 2.14%</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>Thời Trang Nam/Áo - 665 tỷ - 16.54%
+Giày Dép Nam/Giày thể thao/ Sneakers - 276 tỷ - 6.88%
+Thời Trang Nam/Áo khoác - 256 tỷ - 6.37%
+Thời Trang Nam/Quần jean - 192 tỷ - 4.78%
+Thời Trang Nam/Bộ - 186 tỷ - 4.64%
+Giày Dép Nam/Xăng-đan &amp; Dép - 182 tỷ - 4.52%
+Thời Trang Nam/Đồ lót - 154 tỷ - 3.82%
+Giày Dép Nữ/Giày thể thao/ sneaker - 135 tỷ - 3.35%
+Thời Trang Nam/Quần đùi - 128 tỷ - 3.17%
+Đồng Hồ/Đồng hồ nam - 127 tỷ - 3.17%
+Phụ Kiện Thời Trang/Thắt lưng - 126 tỷ - 3.14%
+Thời Trang Nam/Quần dài - 123 tỷ - 3.07%
+Thời Trang Nam/Com lê - 123 tỷ - 3.05%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 114 tỷ - 2.84%
+Túi Ví Nam/Bóp/ Ví - 112 tỷ - 2.8%
+Thời Trang Nữ/Áo - 89 tỷ - 2.21%
+Giày Dép Nam/Giày tây lười - 63 tỷ - 1.57%
+Thời Trang Nữ/Hoodie và Áo nỉ - 53 tỷ - 1.32%
+Túi Ví Nam/Túi đeo chéo - 52 tỷ - 1.28%
+Sắc Đẹp/Nước hoa - 51 tỷ - 1.27%
+Phụ Kiện Thời Trang/Kính mắt - 50 tỷ - 1.24%
+Sắc Đẹp/Chăm sóc nam giới - 48 tỷ - 1.18%
+Giày Dép Nam/Giày Oxfords &amp; Giày buộc dây - 43 tỷ - 1.07%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 42 tỷ - 1.04%
+Thời Trang Nữ/Áo khoác - 40 tỷ - 1.0%</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 141 tỷ - 43.07%</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76384</v>
+        <v>152240</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>quan-ao-thoi-trang-nam</t>
+          <t>ao-thun-thoi-trang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://metric.vn/quan-ao-thoi-trang-nam</t>
+          <t>https://metric.vn/ao-thun-thoi-trang</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>quần áo thời trang nam</t>
+          <t>áo thun thời trang</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1723</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8600996</v>
+        <v>744</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3195199,8</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>quần áo thời trang nam</t>
+          <t>áo thun thời trang</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1196,109 +1237,117 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ba8ee112ac7635cd1826e343600afb1d</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>53676661687</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>349030</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>4078</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1379</v>
+          <t>6fa80c652d422838672eb2b5286eaae5</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>711 tỷ</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>7 triệu</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>111 nghìn</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10 nghìn</t>
+        </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
-Bộ quần áo thể thao nam thêu thời trang tay ngắn thêu Có thể giặt bằng máy Menswear
-Bộ Quần Áo Paris Saint German Cách Điệu Họa Tiết Vân Áo In Chìm, Thời Trang Nam Nữ Phong Cách Thể Thao Mới Nhất Hè 2024
-Bộ Paris, Bộ Quần Áo Paris Nam Saint German Cách Điệu Họa Tiết Vân Áo In Chìm,Thời Trang Nam Nữ Phong Cách Thể Thao 2024
-Bộ thể thao  Kevin nam nữ  mùa hè   2024  Thời trang  quần áo hợp xu hướng menswear
-Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
-Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
-Bộ Unisex Nam Nữ, quần đùi, áo cộc tay, Xanh Menswear Chất Vải Cotton Phối Hình Gấu Phong Cách Thời Trang ROMANTIC Sport
-Bộ hè BBR cộc chất liệu cao cấp áo cotton quần gió trẻ trung năng động thời trang. bộ hè thể thao nam nữ new 2024
-[HCM ]áo mưa bộ người lớn thời trang cao cấp,áo mưa quần đi mưa nam nữ,Dày chống gió và chống mưa [hoả tốc]
-Bộ Áo Thun + Quần Dài Thể Thao In Họa Tiết Phong Cách Hip Hop Thời Trang Mùa Hè Cho Nam Cỡ M-5XL
-Bộ Quần Áo Nam AVIANO Cổ Tròn Tay Ngắn Kiểu Dáng Thời Trang, Bộ Thể Thao Nam Thoáng Khí, Thấm Hút Mồ Hôi
-Bộ quần áo nam, bộ thể thao nam áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Bộ Đồ Nam Mùa Hè Áo Thun Tay Lỡ Kèm Quần Short Thể Thao Họa Tiết Chữ Caro Thời Trang Mixxno.1 TOP 277 + SHORT 058
-Túi du lịch nam nữ cỡ lớn đa năng,túi trống du lịch đựng quần áo nhiều ngăn chống nước thời trang xách tay ulzzang
-áo đá bóng Bộ Quần Áo Bóng Rổ Dáng Rộng 190-200cm Chất Liệu Thoáng Khí Nhanh Khô Thời Trang Cho Nam Và Nữ 80-220catty
-Set thu đông thể thao cho nam nữ thêu chữ C chất liệu nỉ 2 dài tay dài thời trang new 2024 POLOUMAOR Tay dài Áo Menswear Quần Đen
-Bộ Quần Áo Nam Mùa Hè Vân chữ Nhung Mềm Mịn Thoáng Mát Thời Trang Hè Cho Nam hot 2024
-Set Bộ Quần Áo Thun Hè Nam Mẫu Mới In Họa Tiết Chữ LXSU Phối Màu Phong Cách Thời Trang MEN QA 129
-Bộ  quần áo Nam Nữ cộc BBR tay phối kẻ vàng mix quần in chữ chất cotton thời trang boy phố hottrend
-Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ hai lớp giữ nhiệt, siêu chống thấm nước,Áo mưa+quần mưa
-[bigsize] Set bộ quần áo thời trang bigsize nam vải nhung nổi cỡ đại 140kg
-Bộ Quần Áo Thun Nam Thời Trang Loang Hai Màu Cá Tính Năng Động Zenkocs3 MEN QA 086
-Bộ Quần Áo Thể Thao Thời Trang Jooc Đan Hoạ Tiết In Hình Logo Người Cầm Bóng Mẫu Siêu Nét- Bộ Quần Áo Thời Trang Nam
-Áo mưa bộ người lớn thời trang cao cấp- HÀNG CAO CẤP GIÁ RẺ, siêu chống thấm nước,bộ quần áo mưa nam nữ hai lớp giữ nhiệt,cao cấp nhiều màu để chọn
-Bộ bơi nam quần 2 lớp trẻ trung nam tính thời trang, đồ bơi đồ tập kín đáo chống lộ, chất thoáng khí nhanh khô | BN032
-Đồ bộ nam cao cấp chất umi hàn, bộ quần áo nam ngắn tay thêu logo đẹp trẻ trung năng động, thời trang MANKUDA
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Set Quần Áo Túi Ngực DiO Bộ đôi Siêu Xinh Thời Trang Nam nữ</t>
+          <t>shopee - 578 tỷ - 81.32%
+tiktok - 95 tỷ - 13.41%
+lazada - 37 tỷ - 5.14%
+tiki - 916 triệu - 0.13%</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>shopee - 45 tỷ - 83.35%
-tiktok - 8 tỷ - 14.68%
-lazada - 965 triệu - 1.8%
-tiki - 90 triệu - 0.17%</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Thời Trang Nam/Bộ - 33 tỷ - 73.7%
-Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 4 tỷ - 8.3%
-Thời Trang Nữ/Bộ - 1 tỷ - 2.73%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 1 tỷ - 2.63%
-Thời Trang Nữ/Quần - 757 triệu - 1.69%
-Thời Trang Nam/Áo - 679 triệu - 1.52%
-Thời Trang Nữ/Áo - 641 triệu - 1.43%
-Túi Ví Nam/Ba lô - 470 triệu - 1.05%</t>
-        </is>
-      </c>
+          <t>Sét bộ vạt bầu phối quần ống suông thời trang dễ thương Áo Nữ Thun
+Thời Trang Bigsize Áo Thun Vải Thun Tăm  50 - 100Kg Dễ Thương Top Nữ Cổ Tròn Women
+Áo thun polo nam phối màu trắng đen thời trang, chất vải cá sấu thoáng mát Menswear Có Cổ Ngắn Tay
+Thời Trang Bigsize Áo Thun Gân Tăm 50 - 100Kg Dễ Thương Top Nữ Cổ Tròn Women
+Áo baby tee thun nữ cotton tay ngắn thêu họa tiết màu sắc tương phản thời trang mùa hè Ma040
+BASANA áo thun cổ chữ v tay dài thời trang 2024 chất liệu co giãn cao cấp A221029LD
+Thời Trang Bigsize Áo Thun Polo Vải Thun Tăm 50 - 100Kg Dễ Thương Top Nữ Women
+Quần áo Thun - Bộ quần áo in 3 sọc kẻ thời trang hottrend đủ size từ 30kg-85kg
+Áo Thun Cổ Tròn Simon'c Soothing - Kem Cotton Nam Nữ Unisex Tay Lỡ Oversize Local Brand Thời Trang
+Áo Thun Cổ Tròn Simon'c Lovely - Kem Cotton Nam Nữ Unisex Tay Lỡ Oversize Local Brand Thời Trang
+Áo Thun Nam DSq Siêu Cấp In Họa Tiết Chữ Lệch Chất Liệu Cotton Thời Trang Nam
+AB HOUSE - Áo thun 300gsm REMEMBER form rộng hình thêu thời trang nam nữ Cổ Tròn Cotton Unisex Kem Đen Top
+Áo Thun Hai Lá Phong Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai màu Trắng Đen.
+[Giao hàng trong 2 ngày] Xiaozhainv Áo thun tay ngắn cổ tròn phong cách Hàn Quốc hợp thời trang 15 màu tùy chọn cho nữ
+Thời Trang Bigsize Áo Thun Vải Thun Tăm 50 - 100Kg Dễ Thương Top Nữ Cổ Tròn Sơ Mi Women Đen
+Áo Thun DSQ 154 Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Trắng Đen.
+Bộ Cộc Thun GC Monogram Logo Nổi Mạ Vàng, Bộ Thể Thao Cổ Tròn Bo Gấu Thời Trang Giới Trẻ Đễ Phối Đồ. Bộ Áo Hè
+Áo Thun Nam DSQ 065 Thời Trang Nam Màu Đen Trắng Chất Liệu Cotton Cổ Tròn Thấm Hút Mồ Hôi
+Áo thun nam trơn cổ tròn form basic thời trang Everest Nhiều Màu Menswear Top
+Áo Thun Nam Siêu Cấp DSQ Full Mẫu Chất Liệu Cotton Co Dãn Thấm Hút Mồ Hôi Tốt Thời Trang Nam Có Hình In
+[có size 30 kg___130 kg] M-8XL áo phông nam tay lỡ,Áo Thun Tay Ngắn Dáng Rộng In Họa Tiết Hoạt Hình Phong Cách Hồng Kông Thời Trang Chất Lượng Cao Cho Nam Và Nữ
+Áo Thun DSQ Con Chó Số 2 Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Trắng Đen
+Áo Thun Tay Dài Cổ Chữ v Phối Ren Dáng Ôm Thời Trang 67999
+Áo Thun Nam DSQ Siêu Cấp In Chữ Vitka Hai Màu Đen Trắng Thời Trang Nam
+Áo Thun Nam DSQ 179 In Icom Cây Dừa Màu Đen Trắng Cổ Tròn Thời Trang Nam Chất Liệu Cotton Thấm Hút Mồ Hôi
+Bộ Áo Thun In Chữ Hoạt Hình Phối Quần Dài Thời Trang Xuân Thu Cho Bé Trai michley bộ bé trai thu đông
+Áo thun thể thao MT thoáng mát thời trang cho nữ khi luyện tập gym và yoga chạy bộ đạp xe ofelias
+【100% cotton 】Áo baby tee Áo Thun ôm body Áo y2k tay ngắn hở vai dáng ôm thời trang mùa hè dành cho nữ
+Áo Thun Ngắn Tay Dáng Ôm Hở Vai In Họa Tiết Hoa Thời Trang Mùa Hè Cho Nữ
+[HÌNH THẬT] Áo thun tay ngắn cổ vuông trơn kèm dây buộc cổ dáng ôm thời trang dành cho nữ A9</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 758 triệu - 78.51%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 53 triệu - 5.52%
-Giày dép &amp; Quần áo nữ/Quần áo nữ - 47 triệu - 4.89%</t>
+          <t>Thời Trang Nữ/Áo - 275 tỷ - 47.56%
+Thời Trang Nam/Áo - 194 tỷ - 33.52%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 21 tỷ - 3.65%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 20 tỷ - 3.4%
+Thời Trang Nữ/Bộ - 17 tỷ - 2.95%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 13 tỷ - 2.33%
+Thời Trang Nam/Bộ - 13 tỷ - 2.33%</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Thời trang nam/Đồ ngủ, đồ mặc nhà nam - 84 triệu - 93.56%</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 19 tỷ - 52.94%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 15 tỷ - 40.13%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 1 tỷ - 2.86%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 407 triệu - 1.12%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 405 triệu - 1.11%</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo thun nam - 467 triệu - 50.98%</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26759</v>
+        <v>242961</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ao-cho-nam</t>
+          <t>ao-cao-cap</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-cho-nam</t>
+          <t>https://metric.vn/ao-cao-cap</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>áo cho nam</t>
+          <t>áo cao cấp</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1321,15 +1370,17 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>6137</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5133018</v>
+        <v>402</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2839341,5</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>áo cho nam</t>
+          <t>áo cao cấp</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1363,142 +1414,152 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>43188eedf20bbe31f5c280f94b58eccc</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>462319807976</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>4723822</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>63886</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10336</v>
+          <t>30a202315196142feb41da99863ef173</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>5,128 tỷ</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>37 triệu</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>245 nghìn</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>46 nghìn</t>
+        </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Áo thun cặp thêu chữ BABY LOVE cho nam nữ form rộng chất cotton mỏng nhẹ - Maylily Store
-Áo Thun T-Shirt Basic Cổ Tròn Cho Cả Nam Và Nữ - 95% cotton, 5% spandex - 250gsm Limited Menswear
-Áo mưa Choice Việt Nam AMO10 nửa trước trong suốt cho Mẹ và Bé, che phủ toàn thân, kèm kính chắn mưa
-[ Nhập mã CSLS14 - GIẢM 20% TỐI ĐA 50K CHO ĐƠN TỪ 100K ] Áo thun trơn 3158 nam nữ tay lỡ mẫu "Trơn" cotton khô.
-Combo 10 Móc quần áo người lớn Choice Việt Nam AMO08 bền đẹp chịu lực tốt
-Áo Sơ Mi Trơn Vải Lụa Tay Ngắn Cho Nam LADOS - 8069
-Áo Lót Bầu Và Sau Sinh Choice Việt Nam HTH43 Có Cúc Mở Ngang Thuận Tiện Cho Bé Ti Chất Siêu Mềm Mát Màu ngẫu nhiên
-[CÓ MẪU MỚI] Áo thể thao jersey top oversize Kill System Silly Love cho nam và nữ
-Móc treo tường inox Choice Việt Nam HT92 móc treo quần áo gắn tường, móc treo đồ inox 7 mấu la dẹp
-Lăn Nách Cho Nam Aquaselin Extreme For Men Khử Mùi, Giảm Mồ Hôi Hiệu Quả 72H, Không Ố Vàng Áo 50ml
-Bảng Vẽ Xếp Hình Nam Châm Thế Hệ Mới,  Đồ Chơi Giáo Dục Xếp Hình Nam Châm, Bảng Vẽ Bút Bi Nam Châm Từ Tính Cho Bé
-Áo choàng blouse trắng bác sĩ, blu bác sĩ nam, nữ BLOUSE MINH MINH
-Áo Thun Tay Ngắn In Hình Cô Gái Kẹo Mút Thời Trang Cho Nam Và Nữ hotrel unisex
-Áo sweater dáng rộng phối cổ khóa kéo phong cách Nhật Bản thường ngày mùa thu đông cho nam
-Áo Thun nam DSQ 154 Họa Tiết Hình In Nhiệt Cao Cấp Chất Liệu Cotton Co Dãn 2 Chiều Có 2 Mầu Đen Trắng Phù Hợp Cho Nam
-Áo Phông Paris Phối Tay Siêu Hót Form Rộng Unisex Dành Cho Nam Nữ
-Áo Khoác Jeans Màu Đen Chỉ Trắng Và Xanh Nhạt Có Miếng Dán Trên Nắp Túi Dành Cho Nữ và Nam JEAGOVN
-Áo Thun nam DSQ 159 Họa Tiết Hình In Nhiệt Cao Tầng Chất Liệu Cotton Mịn Co Dãn 2 Chiều Có 2 Mầu Phù Hợp Cho Nam
-Áo thun nữ croptop Choice Việt Nam AH03 cổ vuông tay cộc thời trang Hàn Quốc
-Áo Thun Nam Siêu Cấp DSQ 179 Cổ Tròn Tay Cộc Chất Liệu Cotton Cao Cấp Thoáng Mát Phù Hợp Cho Nam Giới
-Áo phông D2 icon hai cậu bé tín đồ đang siêu hot siêu cấp dành cho nam nữ 2024.
-Áo Thun Nam DSQ 111 Chất Liệu Cotton Hai Chiều Hình In Nhiệt Cao Cấp Phù Hợp Cho Cả Nam Và Nữ Hai Màu Trắng Đen
-Áo Thun Nữ, Áo Phông Unisex By PEABOO Mã TN Camping Trip Chất Cotton Thoáng Mát Form Rộng Tay Lỡ Cho Nam Nữ
-Áo bra nữ Choice Việt Nam BRS04 hai dây không gọng nâng ngực tôn dáng gợi cảm
-Live great Áo Choàng Cổ Lọ Giả Hai Lớp Thời Trang Thu Đông Đa Năng Cho Nam
-Áo Phông Cổ Tròn, Áo Thun Tay Lỡ bản in  Trước Sau Thời Trang Cho Nam Nữ,Mới nhất của NICE
-Áo khoác nam unisex cổ đứng vải dù nhật 2 lớp phong cách school hàn quốc họa tiết chữ At7 BẢO ĐĂNG( full size từ 30 đến 85kg )Top Jacket Menswear
-Áo gile bò nam phong cách cá tính form ôm cho mùa hè năng động N46
-Xoay Gấu Thú Cưng Chó Mèo Quần Áo Cho Nữ Và Nam Chó Con Shitzu Quần Áo Terno Mèo Vest Thoáng Khí Phần Mỏng
-Áo Polo bé trai ngắn tay KACADY thun sơ mi cộc nam cho trẻ từ 2-10 tuổi</t>
+          <t>shopee - 3,690 tỷ - 71.95%
+tiktok - 1,131 tỷ - 22.04%
+lazada - 265 tỷ - 5.17%
+tiki - 43 tỷ - 0.83%</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>shopee - 403 tỷ - 87.18%
-tiktok - 48 tỷ - 10.36%
-lazada - 8 tỷ - 1.74%
-tiki - 3 tỷ - 0.72%</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Thời Trang Nam/Áo - 172 tỷ - 42.74%
-Thời Trang Nữ/Áo - 60 tỷ - 14.94%
-Thời Trang Nam/Áo khoác - 34 tỷ - 8.48%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 10 tỷ - 2.6%
-Thời Trang Nữ/Bộ - 10 tỷ - 2.51%
-Thời Trang Nam/Bộ - 10 tỷ - 2.48%
-Thời Trang Nam/Hoodie &amp; Áo nỉ - 8 tỷ - 2.07%
-Thời Trang Nữ/Đồ lót - 8 tỷ - 2.03%
-Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 7 tỷ - 1.75%
-Thời Trang Nam/Áo len - 6 tỷ - 1.42%
-Thời Trang Nữ/Áo khoác - 5 tỷ - 1.22%</t>
-        </is>
-      </c>
+          <t>Áo Khoác Phao Da Lì Croptop Cao Cấp - Kiwikiuu Nữ Women Trơn
+Áo Lót Nữ Có Gọng, Đệm Mỏng, Siêu Mềm Cao Cấp Mã: AFM06_Hồng_Combo5
+Combo3 Áo Lót Nữ Có Gọng, Đệm Mỏng, Siêu Mềm Cao Cấp màu Cam Mã: AFM06
+Combo3 Áo Lót Nữ Có Gọng, Đệm Mỏng, Siêu Mềm Cao Cấp Mã: AFM06_Hồng_Combo3
+Set áo len Gemma 2 dây kèm áo khoác ngoài, áo khoác len nữ hàng QC cao cấp
+Áo len nữ Gemma form rộng, áo len nữ hàn quốc chất len ​​cao cấp hàng QC với phong cách tinh tế, hiện đại
+Áo polo nam cổ bẻ thêu chữ U sang trọng cao cấp nhất của nhà  UMA STORE - (  POLOUMAOR ) Menswear Top Áo Thun Có Cổ Đen Shirt hot new 2024
+Áo Khoác Phao Cao Cấp Dáng Lửng Boxy, Áo Pufer Jacket Basic Godmother 2023 Nam Menswear
+Áo khoác ROWAY dạ ép cao cấp | Dạ cúc bấm V2
+Áo thun polo nam vải cá sấu có cổ trơn basic cao cấp UMA 20 màu new 2024  Menswear Top Menswear Shirt ( POLOUMAOR ) Cam
+Áo khoác hoodie  in chữ JUM chất nỉ bông cao cấp fom rộng nam nữ unisex.
+Bộ Thể Thao Adidas Chính Hãng - Bộ Quần Áo Nam Nữ Cao Cấp Chất Umi Co Giãn 4 Chiều Dày Dặn Thoáng Mát
+Áo khoác ngoài Da Lộn Túi hộp nam nữ mùa thu đông form rộng ấm áp bigsize cao cấp chính hãng Avocado
+Áo Thun Cộc Tay Trơn ATINO chất liệu Cotton Cao Cấp Hàn Quốc form Regular AP10.2002
+Áo da nam lót lông cao cấp, da nguyên tấm thiết kế mới nhất 2023, BẢO HÀNH 2 NĂM chất lượng da
+Bộ hè BBR cộc chất liệu cao cấp áo cotton quần gió trẻ trung năng động thời trang. bộ hè thể thao nam nữ new 2024
+Bộ Quần Áo Nam Jor Dan In Chữ Paris Siêu Đẹp - Bộ Quần Áo Cộc Mùa Hè Nam Jor Dan Cao Cấp
+Máy sấy quần áo chăn ga cao cấp nóng lạnh 3 chiều riêng biệt, sấy khô, khử trùng tia cực tím, loại bỏ sạch bụi bẩn, bông dư thừa
+Áo khoác ngoài cadigan len nữ nam unisex thom mùa đông cao cấp quảng châu hàng loại 1 AK01 L66
+Áo khoác hoodie zip nam nữ Dsq2 nỉ bông in chữ ICON chất nỉ bông cao cấp
+Áo Polo Nam UMA STORE Thêu Chữ U, Chất Liệu Vải Poly Dệt Kim Cao Cấp Thấm Hút Mồ Hôi, Áo Thun Nam Có Cổ Phối Màu  SPA05A
+Áo hoodie boy phố tia sét kim tuyến nhũ ánh kim nỉ bông cotton nam nữ unisex form rộng cao cấp A203
+Tủ Quần Áo Trẻ Em Đa Năng - Tủ Đựng Đồ Bằng Gỗ MDF Tủ Nhỏ 5 Cánh Cao Cấp Tiện Lợi
+Áo Sơ Mi Nam Bbr Kẻ Xanh - Sơ Mi Nam Bbr Hoạ Tiết Thêu Chữ Ngực Cao Cấp
+Nệm Cao Su Vạn Thành Standard, Áo Bọc Gấm Cao Cấp - CHÍNH HÃNG, BẢO HÀNH 12 NĂM Maybedding
+Áo sơ mi .Y.S.L. nữ form rộng dài tay chất liệu cao cấp kiểu dáng trendy thời trang hàn quốc
+Áo Dài Chi Giao tơ thêu cao cấp 4 tà, quần lưng Thun  - Thời trang Nữ Women  Dress
+Áo chống nắng nam 2 mặt thông hơi, thun lạnh thoáng mát chống tia UV cao cấp NPV
+Áo Sweater giữ nhiệt Lót lông dày dặn, áo sweater Local Brand chất nỉ ngoại hàng xuất cao cấp trơn cổ 3cm dài tay
+Áo phao nữ thiết kế cao cấp DELIZ phao cổ cao không có mũ hàng quảng châu loại 1 GAB</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 4 tỷ - 45.89%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 854 triệu - 10.64%</t>
+          <t>Thời Trang Nam/Áo - 813 tỷ - 22.02%
+Thời Trang Nữ/Áo - 346 tỷ - 9.37%
+Thời Trang Nữ/Áo khoác - 335 tỷ - 9.08%
+Thời Trang Nam/Áo khoác - 325 tỷ - 8.8%
+Thời Trang Nữ/Đồ lót - 252 tỷ - 6.83%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 151 tỷ - 4.1%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 137 tỷ - 3.72%
+Thời Trang Nữ/Bộ - 137 tỷ - 3.7%
+Thời Trang Nữ/Đồ truyền thống - 117 tỷ - 3.16%
+Thời Trang Nữ/Áo len - 116 tỷ - 3.14%
+Thời Trang Nam/Bộ - 113 tỷ - 3.07%
+Thời Trang Nữ/Hoodie và Áo nỉ - 86 tỷ - 2.33%
+Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 67 tỷ - 1.81%
+Nhà cửa &amp; Đời sống/Nội thất - 55 tỷ - 1.48%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 39 tỷ - 1.06%</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Thời trang nam/Áo thun nam - 1 tỷ - 39.97%</t>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 74 tỷ - 27.8%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 55 tỷ - 20.87%
+Nội thất &amp; Sắp xếp/Đồ nội thất - 20 tỷ - 7.51%</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24851</v>
+        <v>4012</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ao-thoi-trang-nam</t>
+          <t>nuoc-hoa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-thoi-trang-nam</t>
+          <t>https://metric.vn/nuoc-hoa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>áo thời trang nam</t>
+          <t>nước hoa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c2091884612</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100630</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Sắc Đẹp</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>6738</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5019422</v>
+        <v>1116156</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2507254,5</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>áo thời trang nam</t>
+          <t>nước hoa</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1523,121 +1584,121 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Tìm thông minh</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>b50242ea84906a69e41a2a33b161041e</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>420709730434</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3453039</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>53297</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7128</v>
+          <t>266c7b84f2854369ed823b79d1cbac46</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>6,469 tỷ</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>38 triệu</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>223 nghìn</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>35 nghìn</t>
+        </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Áo thun polo nam phối màu trắng đen thời trang, chất vải cá sấu thoáng mát Menswear Có Cổ Ngắn Tay
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
-Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
-Áo mưa bộ người lớn trùm toàn thân thời trang người lớn gấp gọn nam măng tô nữ eva
-Bộ quần áo thể thao nam thêu thời trang tay ngắn thêu Có thể giặt bằng máy Menswear
-Bộ Quần Áo Paris Saint German Cách Điệu Họa Tiết Vân Áo In Chìm, Thời Trang Nam Nữ Phong Cách Thể Thao Mới Nhất Hè 2024
-Áo sơ mi nam dài tay chất vải lụa hàn thiết kế che cúc 12 màu thời trang nam HT Menswear Shirt Trắng [mua 2 áo tặng 1 sịp nam, mua 3 áo tặng túi đeo chéo]
-Áo sơ mi nam dài tay sọc vải oxford cao cấp  LADOS-8126 thời trang trẻ trung, có túi
-Áo Sơ Mi Cổ Tàu Nam 2 Túi Ngực CHIDORI Form Rộng Vải Đũi Dài Tay Thời Trang Hàn Quốc
-Áo croptop nữ cúc gài cánh tiên, áo nữ trễ vai kiểu vintage thời trang xứ An Nam
-[LOCAL BRAND] Áo thun tay lỡ, form rộng vải Cotton - Thời trang nam nữ Unisex Streetwear Badd.Rabbit
-Áo Thun DSQ 1964 Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Trắng Đen.
-Áo Thun Nam Siêu Cấp 1964 Chất Liệu Cotton Thời Trang Nam Thấm Hút Mồ Hôi Thoáng Mát In Thời Trang
-Áo Thun Nam Siêu Cấp DSQ 163 Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hình In Pet
-Áo sơ mi nam cổ tàu đũi dài tay Premium Oxford Shirt nữ local brand unisex trơn đen trắng rêu thời trang hànquốc
-Áo Thun Tay Ngắn In Hình Cô Gái Kẹo Mút Thời Trang Cho Nam Và Nữ hotrel unisex
-Áo Thun Nam Siêu Cấp DSQ 167 In Nhiệt Cây Dừa Trên Thân Chất Liệu Cotton Thời Trang Nam Thấm Hút Tốt
-Áo Thun Nam 164 Chất Liệu Cotton 2  Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Đen Trắng
-Áo Thun Nam 184 Chất Liệu Cotton 2  Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Đen Trắng
-Áo Polo Áo Thun Nam Tay Ngắn Thêu Logo Thời trang WIN Ms 66
-Áo Thun Nam DSQ 043 Thời Trang Nam Màu Đen Trắng Chất Liệu Cotton Cổ Tròn Thấm Hút Mồ Hôi
-Áo Thun Nam DSQ  146  Màu Đen Trắng Chất Liệu Cotton Cổ Tròn Thấm Hút Mồ Hôi Thời Trang Nam
-Bộ Quần Áo Nam Mùa Hè Thể Thao Form Rộng Trẻ Trung Thời Trang Họa Tiết Độc Lạ Vải Tổ Ong Co Giãn Mát Mẻ VESCA J22
-Áo khoác OutPro vải mỏng chống tia UV chống nắng nhanh khô thời trang dành cho cả nam và nữ
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex K98
-Áo Thun polo-warhorse Thêu logo Thời Trang Và Hợp Xu Hướng Với Cơ Thể Đẹp Hơn Phong Cách Cả Nam Và Nữ!
-Áo Chống Nắng Nam 2 Lớp Dệt Laroma| UPF50+ | Vải Thơm | Làm Mát | Thời Trang | Đa Dụng
-Áo thun nam BEEYANBUY Y0429 100% cotton wash thời trang unisex ulzzang
-Áo thun tay ngắn cổ tròn dáng rộng hình phong cách retro thời trang hè cho nam</t>
+          <t>shopee - 4,635 tỷ - 71.65%
+tiktok - 1,419 tỷ - 21.93%
+lazada - 410 tỷ - 6.33%
+tiki - 6 tỷ - 0.09%</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>shopee - 355 tỷ - 84.33%
-tiktok - 58 tỷ - 13.69%
-lazada - 7 tỷ - 1.72%
-tiki - 1 tỷ - 0.26%</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Thời Trang Nam/Áo - 191 tỷ - 53.75%
-Thời Trang Nam/Áo khoác - 50 tỷ - 14.17%
-Thời Trang Nam/Bộ - 34 tỷ - 9.69%
-Thời Trang Nữ/Áo - 28 tỷ - 7.99%
-Thời Trang Nam/Hoodie &amp; Áo nỉ - 8 tỷ - 2.16%
-Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 6 tỷ - 1.69%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 4 tỷ - 1.2%
-Thời Trang Nam/Áo len - 4 tỷ - 1.09%
-Thời Trang Nữ/Áo khoác - 4 tỷ - 1.02%</t>
-        </is>
-      </c>
+          <t>[Nhập COSDK4 giảm 20K đơn 199K] Nước hoa hồng Dear, Klairs Supple Preparation Unscented Toner 180ml
+[MUA 2 GIẢM 30% - MUA 3 GIẢM 50%] Body Mist Unisex Phù Hợp Hẹn Hò, Đi Chơi - Xịt Thơm Toàn Thân Nam &amp; Nước Hoa Nữ Thơm Lâu BODYMISS Perfume Cosmetic Có hoa Women 105ml (Chai)
+[MUA 2 FULLSIZE GIẢM 50%] Body mist Lưu Hương Lâu Chính Hãng Cho Nam Nữ Unisex, Bodymist Thơm Lâu Body Cho Học Sinh Sinh Viên Chai Lớn &amp; Nhỏ - BODYMISS Perfume Cosmetic Nước Hoa Xịt Thơm
+[MUA 1 TẶNG 2] Combo Nam Tính dành cho nam giới RHYS MAN - Sữa tắm gội nam 3 in 1 350ml &amp; Gel rửa mặt nam 100ml &amp; Dung dịch vệ sinh nam 120ml &amp; Nước hoa nam 10ml Tặng 1 set Hộp &amp; Túi
+[MUA 2 GIẢM 30% MUA 3 GIẢM 50%] Body Mist Unisex - Xịt Thơm Toàn Thân Nước Hoa Cho Nam &amp; Nữ Phù Hợp Đi Học, Đi Chơi Hẹn Hò BODYMISS Perfume Cosmetic Women Mỹ Phẩm 30ml - 105ml (Chai) hella bodymist
+Combo 3 Sữa tắm hương nước hoa Enchanteur Charming 650gr/Chai
+Combo 3 bước dưỡng Simple Nước tẩy trang 200ml + Sữa rửa mặt 150ml + Nước hoa hồng 200ml cho da nhạy cảm
+Combo Simple Tẩy trang Micellar 400ml hoặc 200ml/Sữa dưỡng ẩm 125ml + Sữa rửa mặt 150ml + Nước hoa hồng Toner 200ml cho da sạch khỏe đàn hồi [CHÍNH HÃNG ĐỘC QUYỀN]
+Nước Hoa Nữ BK LUXURY In Love 10ml
+Combo 2 Túi Nước Giặt Xả MaxKleen Hương Nước Hoa Huyền Diệu (3.8kg/túi)
+HERMES - Nước Hoa Hermes Parfums Set 4 Chai Mini x 7.5ml ( có xé lẻ )
+Nước hoa nữ Narciso Rodriguez Musc Noir Rose For Her EDP 100ml (hồng cam)-Chính hãng-Authentic
+Nước hoa nam mini chiết DIOR SAUVAGE 10ml chính hãng phóng khoáng, năng động, cá tính
+Nước hoa Nữ Light Blue cho nữ SUN/ZEST/FOREVER/ Pour Femme EDT 100ml
+[VOUCHER 250K KHI MUA 2 CHAI] 50% Tinh Dầu Nước Hoa Dạng Xịt - FANTIME ( Dành Cho Nam Và Nữ ) Thiết Kế Chai Mới 50ML -  Cosmetic Perfume Xịt Thơm
+🌟suri.🌟 NƯỚC HOA FULL BOX CHÍNH HÃNG FRANCK BOCLET COCAINE
+Nước hoa Discovery Set Eau De Parfum Lilith and Eve Perfume Nữ Xịt Thơm Cosmetic Women
+Sáp Vuốt tóc MENITEMS 50/100GR | Sáp dưỡng tạo kiểu tự nhiên, giữ nếp siêu cấp, hương nước hoa lôi cuốn
+| VENTISHOP.68 | Nước hoa nữ  212 Heroes EDP 100ml
+Combo ĐẸP TRAI CÓ GU - 2 chai Nước hoa perfume nam LADY KILLER (10ml) &amp; GUD OR BAD (10ml) - THOM VN Hàng chính hãng
+Nước Hoa Nam Versace Eros bản EDT dung tích 100ml - Dầu thơm nam tính lưu hương lâu hương thơm quyến rũ
+👑 Nước hoa full very sexy 2018 ❤️ Luka_Perfume ❤️
+🌈louis.perfume🌈Nước Hoa Nữ VICTORIA'S SECRET BOMBSHELL HOLIDAY EDP 100ml
+Nước hoa Lacoste Live Eau de Toilette 125ml
+Chai xịt thơm phòng khử mùi phòng ngủ cao cấp hương nước hoa Pháp MOND ACTIVE (220ML)
+[Amour Bad boy] Nước Hoa Nam Amour Nguyên Liệu Nhập Pháp Hương Thơm Quyến Rũ, Sang Trọng 30ml - Dạng Xịt
+nước hoa nam ultra male jean paul gaultier là lựa chọn hoàn hảo để thể hiện cái tôi độc đáo của bạn Dallas895
+Kem Ủ Tóc Nước Hoa HaMoo 250gram Giúp Phục Hồi Tóc Suôn Mượt Hương Thơm Đến 48h
+Nước Hoa Nữ Gucci Flora Gorgeous Jasmine EDP 100ml
+NƯỚC HOA THÁI LÀM ĂN - NỤ XÔNG ROMAY</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 5 tỷ - 69.02%
-Giày dép &amp; Quần áo nữ/Quần áo nữ - 2 tỷ - 21.61%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 238 triệu - 3.28%</t>
+          <t>Sắc Đẹp/Nước hoa - 3,511 tỷ - 75.74%
+Sắc Đẹp/Chăm sóc da mặt - 379 tỷ - 8.18%
+Sắc Đẹp/Tắm &amp; chăm sóc cơ thể - 192 tỷ - 4.14%
+Nhà cửa &amp; Đời sống/Dụng cụ chăm sóc nhà cửa - 104 tỷ - 2.24%
+Sắc Đẹp/Chăm sóc nam giới - 103 tỷ - 2.23%
+Sắc Đẹp/Chăm sóc tóc - 91 tỷ - 1.96%
+Ô tô/Phụ kiện nội thất ô tô - 49 tỷ - 1.05%</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Thời trang nam/Áo vest - Áo khoác nam - 298 triệu - 27.74%
-Thời trang nam/Áo thun nam - 288 triệu - 26.76%
-Thời trang nam/Áo sơ mi nam - 263 triệu - 24.5%</t>
+          <t>Làm đẹp/Nước hoa - 184 tỷ - 44.99%
+Làm đẹp/Chăm sóc da mặt - 66 tỷ - 16.11%
+Làm đẹp/Chăm sóc cá nhân - 62 tỷ - 15.18%
+Chăm sóc nhà cửa/Giặt ủi - 46 tỷ - 11.2%
+Làm đẹp/Chăm sóc cho Nam giới - 20 tỷ - 4.79%
+Ôtô, Xe máy &amp; Thiết bị định vị/Ô tô - 13 tỷ - 3.25%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Tắm &amp; Chăm sóc cơ thể - 5 tỷ - 1.21%
+Đèn &amp; Trang trí/Trang trí nhà cửa - 4 tỷ - 1.09%</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>565085</v>
+        <v>4232</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ao-thun-thun</t>
+          <t>ao-tay-dai</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-thun-thun</t>
+          <t>https://metric.vn/ao-tay-dai</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>áo thun thun</t>
+          <t>áo tay dài</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1660,15 +1721,17 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3903330</v>
+        <v>331944</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2421297,8</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>áo thun thun</t>
+          <t>áo tay dài</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1702,119 +1765,127 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>ae40154f3eb195117fb262bb02c33a02</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4589030856215</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>51243455</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>449855</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34981</v>
+          <t>645789a5cc943b0f3619dc1d26d626a3</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>4,338 tỷ</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>34 triệu</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>294 nghìn</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>36 nghìn</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Sét bộ vạt bầu phối quần ống suông thời trang dễ thương Áo Nữ Thun
-Áo thun trơn form ÔM babytee đủ màu basic ôm gọn nhiều chất vải
-Áo thun polo nam phối màu trắng đen thời trang, chất vải cá sấu thoáng mát Menswear Có Cổ Ngắn Tay
-Áo thun BASIC TRƠN ôm body nhiều màu gân tăm cotton Cotton
-Combo 5 Quần Đùi Nam Thun Giao Ngẫu Nhiên Mặc Nhà Tắm Biển Đi Dạo Menswear Cotton Áo Áo Thun Top
-Áo thun baby BASIC TRƠN ôm body chất tăm cotton
-SET BỘ Áo Quần Ủ KEM ỐNG ÔM THUN LẠNH DẺO (45-90KG)MÁT MỊN CO GIÃN Top Đồ Bộ Nữ
-Set nữ Jima S05 áo nhún eo ngắn tay cổ thuyền kèm quần suông - Chất thun tăm hàn
-Áo thun Lovito trơn xếp nếp phong cách thường ngày cho nữ LNE35228 (xám nhạt/xám đậm/trắng/đen)
-Áo Thun AM 1 In Nhiều Họa Tiết TỔNG HỢP Form Rộng
-Áo thun local brand By UniSpace tay lỡ form rộng unisex nam nữ Jersey Tee Sport Top
-Áo Thun Xoắn Eo Cổ Tròn MiSoul BigSize , Áo Cộc Tay BigSize Vạt Chéo 199
-Bộ quần áo bóng đá RIU MỚI NHẤT  thun lạnh cao cấp Top Sport
-Áo Thun TAY NGẮN Cổ Tròn Viền Ren, Form Babytee Maylily Store
-Áo Thun  Trunk Lovers in hình 2 mặt trước sau cực chất, áo phông cộc tay dễ mặc vải thoáng mát
-Áo thun thể thao nữ Running Tee tập gym yoga cổ tròn ngắn tay vải thoáng mát co giãn Today U Wear
-Áo Thun Áo DSQ2 In the jun gle hoa lá , áo phông cộc tay vải cotton thoáng mát
-Áo Thun NOCTURNAL Outliner Tee Cotton 100% Unisex Nam Nữ Local Brand
-[RẺ VÔ ĐỊCH] Áo thun Unisex BEARDLESS Áo phông nam nữ tay lỡ oversize form rộng chất liệu cotton dệt tổ ong
-Set ( Áo + quần ) áo thun cổ tròn dài tay vạt đuôi tôm + quần kẻ ống rộng cạp chun đen hồng trơn basic Mai Chi Store MC346 Nữ Top Women Nhung Ong
-Áo thun tay ngắn cổ tròn xẻ V nam nữ cotton interlock 250gsm LADOS-9141 chất dày dặn, thấm hút, phong cách trẻ trung
-Áo phông nam nữ unisex STUSSY, áo thun form rộng local brand teen cổ tròn oversize cotton cao cấp.
-Áo Thun Nam Nữ  Cổ Tròn Chất Liệu Pc Cotton Phối Mè GonzStudio
-Áo thun xược cổ tim cổ V nữ, tay ngắn , phom suông nhẹ basic ANHSTORE, thun giấy cổ tim nữ phong cách Hàn Quốc
-Áo Thun Nam DSQ 168 Chất Liệu Cotton Cổ Tròn Thời Trang Nam Hai Màu Đen Trắng
-[ KHÔNG TẶNG QUÀ ] ÁO THUN BODY JERSEY THỂ THAO YOUNG RECKLESS FFCLUB MIX
-Set Bộ Thun Lạnh vạt bầu Tay Dài Quần Ống Rộng 45-65kg Nữ Women Ong Cotton Voi Áo Đen Sen
-Áo Phông Burberry Logo Thêu Cực Nét Chất Liệu Cotton Co Giãn Hottrend 2024 - Áo Thun Nam Nữ Burberry Mẫu Mới Dẹp Nhất 20
-Áo Thun Thái Nữ Cotton 100%, Form Vừa 40~60kg, Nhiều Mẫu, Phong Cách, Cá Tính, Độc Đáo
-Áo thun trơn BASIC TRƠN Cổ V 250gsm cotton Thấm Hút mồ hồi ( Có bigsize)</t>
+          <t>shopee - 2,685 tỷ - 61.9%
+tiktok - 1,467 tỷ - 33.81%
+lazada - 174 tỷ - 4.0%
+tiki - 13 tỷ - 0.29%</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>shopee - 3,569 tỷ - 77.76%
-tiktok - 954 tỷ - 20.8%
-lazada - 57 tỷ - 1.24%
-tiki - 9 tỷ - 0.2%</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Thời Trang Nữ/Áo - 1,586 tỷ - 44.44%
-Thời Trang Nam/Áo - 1,217 tỷ - 34.11%
-Thời Trang Nữ/Bộ - 129 tỷ - 3.61%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 117 tỷ - 3.29%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 64 tỷ - 1.78%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 54 tỷ - 1.52%
-Thời Trang Nam/Bộ - 50 tỷ - 1.4%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 47 tỷ - 1.32%</t>
-        </is>
-      </c>
+          <t>Set TT áo phối túi Q Dài Tăm Xịn Tay dài
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo Giữ Nhiệt Nam Co Giãn Cổ 3 Phân Dài Tay Cao Cấp
+Áo sơ mi nam dài tay LADOS - 779 chất lụa mềm mịn lịch sự phong cách công sở
+Áo len croptop Gemma tay dài hàng Quảng châu, áo len tiêu cổ tròn siêu hot cực dễ phối đồ
+Áo phao Boxy DAVUBA tay dài cổ cao bông nhồi SM040
+Set tơ bèo hở vai Lisssadress, set áo quần tiểu thư tay dài dilyshop Trơn Trơn Nữ Top
+Áo sơ mi nữ dài tay form rộng ulzzang kiểu hàn basic 10 màu dễ phối đồ ( có bigsize) ( Có Sẵn- Giao Ngay)
+Áo sơ mi nam dài tay chất vải lụa hàn thiết kế che cúc 12 màu thời trang nam HT Menswear Shirt Trắng [mua 2 áo tặng 1 sịp nam, mua 3 áo tặng túi đeo chéo]
+Áo đôi sweater mùa đông cổ tròn nỉ bông dài tay nam nữ unisex fom rộng hàn quốc Trái Tim Ghép Love Studio SW122
+Áo Dài Cách Tân Nữ Tay Ngắn Xòe Hai Tà Đẹp
+Áo liền quần dài tay mùa đông, Jumpsuit nỉ bông xuất xịn cho bé sơ sinh - BD41
+Áo sơ mi nam cổ tàu chất đũi Hàn Quốc trơn local brand unisex nữ fom rộng dài tay L66 trắng 2 túi
+Áo Sơ Mi Burberry Cao Cấp , Áo Sơ Mi BBR Kẻ Caro Tay Dài, Tay Ngắn, Áo Sơ Mi Nam Nữ Unisex Hotrend 2024
+Áo sơ mi trắng nam form rộng dài tay đẹp lụa mát giấu cúc cổ bẻ hàn quốc MEMOTOP MM03
+(Inb chọn REN) Váy Ren Dài Tay Xuyên Thấu Trễ Ngực Sexy, Gợi Cảm, Quyến Rũ, Áo Ren Dài Tay Khoét Ngực, Váy ôm Body hotre
+Áo Imperfect - Áo Windbreaker Jacket Boxy, áo khoác gió dài tay vải ép dày dặn phong cách trẻ trung Menswear nam
+Áo sơ mi nam D2shop, áo sơ mi dài tay nam, vải xéo, túi mổ, màu xanh đậm [SM-2031]
+Áo Dài Truyền Thống Lụa Mỹ Tay Cánh Tiên Cổ Tròn Đính Đá Hàng May Sẵn
+Áo len Simon Jack Lane, Áo len dài tay form rộng nam nữ unisex, Local Brand Jack Lane
+Sét Áo Dài Cách Tân Đỏ Cổ Yếm Nhún Bèo Trước Ngực  Tay Cánh Tiên Trẻ Trung Dự Lễ Tết
+Áo Sơ Mi Trơn Tay Dài Form Rộng 4 Màu Nam Nữ Unisex
+Áo thun XINLANYASHE tay dài dáng ôm thiết kế bất đối xứng thời trang cho nữ
+Áo Khoác Gân Dày 3 Sọc Tay Nón To 6 Túi Dài Tay
+Áo thun nam dài tay Guzado Giữ Nhiệt Tốt,Vải Heattech Cao Cấp,Co Giãn 4 Chiều Thoải Mái GDT01
+Đồ Bộ Mặc Nhà Thiết Kế Cho Nữ, Áo Tay Ngắn Quần Dài, Hoạ Tiết Hoa Nhí Dễ Thương, Chất vải lụa Mango Co Giãn Nhẹ Mặc Mát Kem Cho Women
+Áo sơ mi nam TORANO dài tay trơn phom chuẩn lịch sự - FATB002
+Áo sơ mi dài tay Star nam nữ unisex, Áo sơ mi phối phụ kiên ,chất đũi sóng Menswear Có Cổ
+Áo Dài Cách Tân Tết Nữ, Bộ Áo Dài Tết Lụa Óng Tay Lỡ 4 Tà  Kèm Quần Ống Suông Thiết Kế Đi Chơi Đi Tiệc
+Áo thun nam tay dài BIT sang trọng Menswear To</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 21 tỷ - 37.42%
-Giày dép &amp; Quần áo nam/Quần áo nam - 21 tỷ - 37.29%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 6 tỷ - 10.44%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nữ - 2 tỷ - 3.37%
-Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 2 tỷ - 3.29%
-Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 2 tỷ - 2.75%</t>
+          <t>Thời Trang Nữ/Áo - 692 tỷ - 25.77%
+Thời Trang Nam/Áo - 422 tỷ - 15.71%
+Thời Trang Nữ/Áo len - 281 tỷ - 10.48%
+Thời Trang Nữ/Bộ - 207 tỷ - 7.7%
+Thời Trang Nữ/Áo khoác - 203 tỷ - 7.55%
+Thời Trang Nữ/Đồ truyền thống - 173 tỷ - 6.43%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 133 tỷ - 4.95%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 85 tỷ - 3.18%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 81 tỷ - 3.02%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 69 tỷ - 2.58%
+Thời Trang Nữ/Hoodie và Áo nỉ - 63 tỷ - 2.33%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 61 tỷ - 2.26%
+Thời Trang Nam/Áo len - 40 tỷ - 1.49%</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Thời trang nam/Áo thun nam - 6 tỷ - 68.39%</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 88 tỷ - 50.41%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 60 tỷ - 34.72%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 6 tỷ - 3.47%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 5 tỷ - 3.15%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 5 tỷ - 2.71%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé gái - 5 tỷ - 2.68%</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo sơ mi nam - 6 tỷ - 47.43%</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63669</v>
+        <v>22578</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ao-ao-khoac</t>
+          <t>phong-cach-han-quoc</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-ao-khoac</t>
+          <t>https://metric.vn/phong-cach-han-quoc</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>áo áo khoác</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c2103002918</t>
-        </is>
-      </c>
+          <t>phong cách hàn quốc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>1__100017</t>
@@ -1830,15 +1901,17 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2143</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3509231</v>
+        <v>7589</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2358514,2</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>áo áo khoác</t>
+          <t>phong cách hàn quốc</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1872,146 +1945,164 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>4e06e306d824335df48db8791c43175b</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1323192651054</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9214847</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>160386</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26848</v>
+          <t>a50d2ea91b7f53d1538c4a21915bb4b1</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>3,147 tỷ</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>52 triệu</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>365 nghìn</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>45 nghìn</t>
+        </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Áo khoác dây kéo Hoodie Zip Nowwear Local Brand Unisex chất Nỉ Bông form rộng oversize , bo vải , mũ 2 lớp Jacket Nam Menswear Đen Kem
-Áo Hoodie Zip EMPTI Tag Su 01 - Áo Khoác Nỉ Dây Kéo Nhiều Màu Form Rộng Unisex
-ÁO VEST 2 LỚP NỮ, 2 túi thật 2 bên, có lót mềm mịn, form suông rộng size SM Women Jacket Top Voi Áo Khoác
-Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
-Áo Khoác Jacket Hoodie Zip RATEL Nỉ Bông (Ảnh thật) Menswear Dài Tay Cotton
-[ CHÍNH HÃNG - BH 4 NĂM ] Máy giặt mini SAKURA Tự động 100%, giặt, vắt, sấy - Có thể giặt áo khoác lông mùa đông
-Váy Hai Dây Hoa dáng Ngắn Kèm Áo Khoác Cara, Đầm 2 dây đi biển Kèm Cardigan ( Có Bigsize)( Có Sẵn-Giao ngay)
-Áo Khoác Nỉ Fearirifar Phản Quang Form Rộng Unisex Nam Nữ_22Nastor
-Áo khoác nỉ croptop Daily Me local brand hoodie zip dáng ngắn form rộng mũ to khoác thu đông AHD01
-Áo khoác Gió Nam Đen Trơn DSQ Bo Gân - Áo Bomber Gió Hàng Đẹp Màu Đen Thời Trang Nam Chất Liệu Gió - Pandt34
-K78 Áo Khoác Chống Nắng Mùa Hè Thương Shyn Boutique  Hoa Văn Thêu Chữ B, Chất Liệu Nhung Gân cho Nam và Nữ, Lót Trong Kẻ Sọc, Đi Nắng, Mát, Hút Mồ Hôi Thời Trang Nữ
-Áo Khoác Gió Signature Windbreaker Teelab Local Brand Unisex Form Oversize AK042
-Bộ Đồ Thể Thao Nữ N.Y Áo Khoác Dài Tay Phối Mix Quần Dài Mẫu mới 2023
-Áo khoác jacket jean đen wash KPis Clothes
-Áo Khoác Gió 2 Lớp Unisex Thêu Tên Shop HOSBER Cực Tốt Chuẩn Đẹp Nam
-[Bigsize 45-85kg] Áo khoác nữ áo khoác gân áo khoác chống nắng form rộng nón to Women
-Áo khoác Jens Nam thun cotton  Menswear Có  6 Túi  Jacket Có Túi
-[CÓ SẴN] Áo Khoác Jean Ngắn Tay Dài (Jean Xanh / Jean Đen).
-Áo khoác da croptop basic, áo khoác da nữ phong cách cá tính trẻ trung năng động mặc đi chơi đi học đi làm
-Áo Khoác Dù Gió Nhẹ NOCTURNAL Curves Jacket Form Rộng Oversize Local Brand Nam Nữ Unisex
-Áo Khoác Thun Lạnh Thể Thao Nam Nữ N. I K E Màu Trắng Sọc Đen Chất Poly 2 Da Cao Cấp Mềm Mịn KhôngNhăn Áo Khoác Thu Đông
-HOODIE ROGUE OLDSCHOOL áo khoác hoodie
-Áo khoác chống nắng Suntop cooling Format phối hoạ tiết
-Áo khoác nỉ bông cao cấp in chữ PECOY  fom rộng nam nữ unisex.
-[ Rẻ Vô Địch ] Áo Khoác Nỉ Nam Nữ Form Rộng Tay Lỡ Unisex chữ
-Áo Khoác Thun Lạnh Poly 2 Da Cao Cấp,Mềm Mịn Không Nhăn Chống Nắng 3 Sọc Thêu Chắc Chắn Màu Trắng - Áo Khoác Thu Đông
-Áo khoác nỉ craptop nỉ nón to Nữ Hoodie Women Đen Nhung Voi
-Áo Khoác Dù 2 Lớp Viền Phản Quang WZS Sym.Bolic TODAYDUMB 2023 Nam Nữ Form Rộng Nhiều Mẫu, Áo Gió Chống Nắng Kiểu Bomber
-ÁO KHOÁC (cotton 2d )Xịn raglan | Bee_ form lửng Nữ Jacket Women Top
-Áo Khoác Hoodie Nỉ (1) In Chữ Mature Form Rộng Unisex cả nam và nữ mặc đều đẹp Menswear Dài Tay Tay Dài Đen</t>
+          <t>shopee - 2,599 tỷ - 82.58%
+tiktok - 429 tỷ - 13.62%
+lazada - 114 tỷ - 3.61%
+tiki - 6 tỷ - 0.19%</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>shopee - 945 tỷ - 71.4%
-tiktok - 352 tỷ - 26.6%
-lazada - 24 tỷ - 1.81%
-tiki - 3 tỷ - 0.2%</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Thời Trang Nữ/Áo khoác - 290 tỷ - 30.72%
-Thời Trang Nam/Áo khoác - 216 tỷ - 22.86%
-Thời Trang Nữ/Hoodie và Áo nỉ - 99 tỷ - 10.48%
-Thời Trang Nữ/Áo len - 51 tỷ - 5.39%
-Thời Trang Nam/Hoodie &amp; Áo nỉ - 41 tỷ - 4.34%
-Thời Trang Nữ/Bộ - 30 tỷ - 3.15%
-Thời Trang Nữ/Áo - 29 tỷ - 3.1%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 25 tỷ - 2.61%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 13 tỷ - 1.43%
-Thời Trang Nữ/Đầm - 12 tỷ - 1.3%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 11 tỷ - 1.21%
-Thời Trang Nam/Áo - 11 tỷ - 1.18%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 11 tỷ - 1.11%</t>
-        </is>
-      </c>
+          <t>Áo len nữ Gemma form rộng, áo len nữ hàn quốc chất len ​​cao cấp hàng QC với phong cách tinh tế, hiện đại
+Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
+Quần Âu Sidetab Điều Chỉnh Độ Rộng Vòng Eo, Form Dáng Baggy Phong Cách Hàn Quốc
+NALLCHEER đựng mỹ PVC trong suốt chống thấm nước phong cách Hàn Quốc Nữ công
+Giường Sofa Gấp Gọn Đa Năng - Sofa Giường Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
+Áo cardigan len nữ kiểu dáng tay dài, chất liệu dệt kim len hàng quảng châu, phong cách Ulzzang Hàn Quốc
+Balo Thời Trang Phong Cách Hàn Quốc Unisex KAKAPO BL041 Backpack Đeo Vai
+Áo sơ mi nam tay dài JBAGY Pastel sơ mi trắng form rộng, vải lụa tăm cao cấp phong cách Hàn Quốc
+Áo Khoác Dạ Tweed Nữ Phối Kẻ Caro Sang Chảnh Cá Tính Phong Cách Hàn Quốc SELYY MALL A009
+【89K VOUCHER】FOCALLURE Son Tint Bóng Hỗ Trợ Môi Căng Bóng Mọng Nước Phong Cách Hàn Quốc Trong Veo Đầy Đặn Sắc Tố Cao Hỗ Trợ Dưỡng Ẩm Môi
+Túi xách nữ đeo vai phong cách hàn quốc hàng quảng châu da mềm T161 Bag Women
+Bộ Đồ Nữ Thể Thao, Chất Liệu Cotton Co Giãn 4 Chiều, Thoải Mái Khi Vận Động Phong Cách Hàn Quốc
+Quần Short KaKi Cạp Cao BigSize Gập Gấu MiSoul, Quần Đùi Sắn Gấu Phong Cách Hàn Quốc 263
+Giày Thể Thao Nữ Phong Cách Hàn Quốc, Phối Màu Siêu Đẹp, Chất Liệu Vải Dệt Cao Cấp Hot Trend
+Giày Nữ G93 Thể Thao Sneaker Hàng Hiệu Cao Cấp Màu Trắng Đẹp Phong Cách Hàn Quốc Đẹp Giá Rẻ A1
+Áo Khoác Len Kiểu Dệt Kim Cổ Bẻ Tiểu Thư Tay Dài Dáng Ngắn Phối Họa Tiết Full Áo Hàng Qccc Phong Cách Hàn Quốc Nanganhch
+Vòng tay bạc 925 Tyche Sun kiểu dáng Hàn Quốc phong cách trẻ trung phù hợp đeo đi học, đi chơi,đi làm TYCHE JEWELRY
+ngocanh6959 CV1018 Chân Váy ren dáng dài 85 cm xoè lưới 3 lớp Quảng Châu phong cách tiểu thư Hàn Quốc
+Áo Blazer Nam Dài, Áo khoác Blazer Form Rộng phong cách Hàn Quốc Menswear Jacket Menswear Jacket
+Dép Đi Trong Nhà Đế Dày Mềm Mại Thoải Mái Chống Trượt Chống Thấm Nước Phong Cách Hàn Quốc Thời Trang Cho Nam
+Bộ quần áo short cộc tay cho bé phong cách hàn quốc siêu đẹp, chuẩn form, lịch lãm - Size từ 10-35kg
+Áo Phông, Áo Thun Retro Phong Cách Hàn Quốc Form Rộng Cho Nam Nữ
+Áo len gile nữ màu trơn basic DELIZ, áo gile nữ phong cách Hàn Quốc
+Hong Kong Premium shoes❥(^_-)  Sandal nữ cao gót mule đế dày thời trang phong cách Hàn Quốc
+Mũ bucket tua rua trơn vải kaki mềm mịn , nón tai bèo vành rộng cá tính dành cho nữ phong cách thời trang hàn quốc
+Áo Len trễ vai bản to dáng rộng phong cách hàn quốc hàng loại 1 chuẩn quảng châu
+Áo khoác form rộng Áo dạ blazer unisex phong cách Hàn Quốc nam nữ đều mặc, đi chơi đi học
+Infinite Áo Dệt Kim Dài Tay Phong Cách Hàn Quốc Hợp Thời Trang Cho Nam Sinh
+Tất/Vớ Basic Hàn Quốc Trắng Đen Cao Cổ Phong Cách Y2K Nam Nữ Menswear
+Bộ nỉ bé trai WAPYPY dài tay cho bé họa tiết phong cách hàn quốc mẫu mới thu đông 202</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 10 tỷ - 43.34%
-Giày dép &amp; Quần áo nam/Quần áo nam - 9 tỷ - 39.64%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 963 triệu - 4.03%
-Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nữ - 674 triệu - 2.82%</t>
+          <t>Thời Trang Nữ/Áo - 265 tỷ - 10.2%
+Thời Trang Nữ/Áo len - 176 tỷ - 6.79%
+Thời Trang Nữ/Áo khoác - 166 tỷ - 6.37%
+Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 122 tỷ - 4.69%
+Phụ Kiện Thời Trang/Phụ kiện tóc - 99 tỷ - 3.79%
+Thời Trang Nữ/Váy - 95 tỷ - 3.67%
+Thời Trang Nữ/Quần jeans - 91 tỷ - 3.52%
+Thời Trang Nam/Áo - 78 tỷ - 2.99%
+Thời Trang Nữ/Quần - 59 tỷ - 2.26%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 58 tỷ - 2.25%
+Thời Trang Nữ/Bộ - 58 tỷ - 2.24%
+Phụ Kiện Thời Trang/Mũ - 58 tỷ - 2.22%
+Túi Ví Nữ/Ba lô - 57 tỷ - 2.19%
+Thời Trang Nữ/Đầm - 55 tỷ - 2.13%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 47 tỷ - 1.83%
+Thời Trang Nam/Áo khoác - 47 tỷ - 1.83%
+Nhà cửa &amp; Đời sống/Nội thất - 46 tỷ - 1.78%
+Giày Dép Nữ/Xăng-đan và dép - 46 tỷ - 1.77%
+Thời Trang Nam/Com lê - 44 tỷ - 1.69%
+Giày Dép Nữ/Giày thể thao/ sneaker - 44 tỷ - 1.68%
+Thời Trang Nữ/Vớ/ Tất - 44 tỷ - 1.68%
+Thời Trang Nữ/Quần đùi - 40 tỷ - 1.55%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 39 tỷ - 1.49%
+Thời trang trẻ em &amp; trẻ sơ sinh/Phụ kiện trẻ em &amp; trẻ sơ sinh - 39 tỷ - 1.49%
+Thời Trang Nữ/Hoodie và Áo nỉ - 38 tỷ - 1.47%
+Phụ Kiện Thời Trang/Kính mắt - 37 tỷ - 1.41%
+Thời Trang Nam/Quần dài - 35 tỷ - 1.34%
+Thời trang trẻ em &amp; trẻ sơ sinh/Giày bé gái - 30 tỷ - 1.16%
+Giày Dép Nam/Giày thể thao/ Sneakers - 28 tỷ - 1.09%</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Thời trang nam/Áo vest - Áo khoác nam - 2 tỷ - 64.86%</t>
+          <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 34 tỷ - 29.85%</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27334</v>
+        <v>4523</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ao-nam-nu</t>
+          <t>chan-ga-goi-dem</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://metric.vn/ao-nam-nu</t>
+          <t>https://metric.vn/chan-ga-goi-dem</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>áo nam nữ</t>
+          <t>chăn ga gối đệm</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c1556485950</t>
+          <t>c1323859803</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1__100011</t>
+          <t>1__100636</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Thời Trang Nam</t>
+          <t>Nhà cửa &amp; Đời sống</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>5985</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2838558</v>
+        <v>181265</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2342185,2</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>áo nam nữ</t>
+          <t>chăn ga gối đệm</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2045,140 +2136,143 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>687fd7366b8ba27304693808fc753659</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2354707561227</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>22530594</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>140341</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17118</v>
+          <t>577167d26ef30be26c6c7fe33a669983</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>58 tỷ</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>163 nghìn</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2 nghìn</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Bộ quần áo nam nữ JULIDO, chất vải xốp hình kẻ sọc mua hè logo thêu Tay ngắn Menswear đen l thường
-Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
-Áo Len Balenciaga Nam Nữ Dày Dặn, Áo Len Balen Hàng Quảng Châu 1:1 chất len chuẩn đan không xù- Được Kiểm Hàng
-1Áo phông nam nữ unisex chất liệu cotton cực xinh
-Áo chống nắng nam nữ với thiết kế 2 lớp chống nắng,chống tia UV cực kỳ tốt và hiệu quả Fish
-Áo HOODIE ZIP in chữ kí AMADUS Nỉ Bông Nam Nữ Unisex Kéo Khóa Local Brand- AD11
-Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
-Áo Bomber Jacket Tay Nhún Nam nữ
-Áo sơ mi cộc tay Original ODIN CLUB, Áo sơ mi nam nữ unisex chất liệu vải thô Hàn Menswear Shirt
-Set nữ BIGSIZE Banamo Fashion bộ áo vạt nhọn cộc tay kèm quần sooc xoè thun tăm 1910
-NQ30 - Áo Hoodie Thêu NQ30 AM Form Rộng Nam Nữ Unisex Menswear Cotton
-Áo Khoác Lông LV_Mũ Vân Nổi Bản Hot Thu Đông Có Mũ Nam Nữ Chất Lượng Dày Co Giãn 2 Lớp, Áo Khoác Lông
-Bộ adi das3 in ful lưng sắc nét bản mới nhất- bộ quần áo nam nữ cổ tròn new 2024
-Túi xách du lịch cỡ lớn 2 tầng đa năng nam nữ đựng quần áo mỹ phẩm tiện dụng DL03
-[zT] Áo Phông Nam Nữ DG Họa Tiết Logo Chữ Never Hot Chất Liệu Vải Cotton Thoáng Mát Form Dáng Boy Phố Hottrend #Hot#2024
-Áo khoác dù áo gió nam nữ có mũ cao cấp 2 lớp MAYBEOND chất liệu gió dù mềm chống nước chống nắng form rộng kiểu dáng unisex Menswear Jacket
-Áo Len Sọc Vằn Nam Nữ Dệt Kim Thiết Kế Form Rộng - Áo Len Uzzang Hotrend, Áo Len Sọc Vằn Chất Len Dày Dặn Loại 1, Hàn
-Bộ Quần Áo Cộc Tay Nam Nữ Mùa Hè Phối Layer Chất Vải Tổ Ong
-Bộ quần áo Das 3 sọc tay thêu bo cổ chun dày dặn chắn chắn trẻ trung-Bộ đồ hè cotton nam nữ cao cấp
-Set nữ BIGSIZE Banamo Fashion bộ áo tay hến nhún eo đính nơ kèm quần sooc xòe thun tăm 1908
-Áo sơ mi BURBERRY Kẻ Caro Nam Nữ Cao Cấp Chất Vải Cotton Mềm Mại Thoải Mái
-Áo Hoodie PRINT SENTINIALS Form Rộng Nam Nữ Unisex
-Bộ quần áo A.Di.Das chất liệu cotton cao cáp thóang mát co dãn cao cấp - đồ bộ thể thao nam nữ new 2025
-[T] Áo Phông Nam Nữ DSQ2 Chữ To Hàng Cao Cấp - Áo Thun Nam DSQ Siêu Đẹp Hottrend #Hot #2024
-Áo Cardigan nam nữ len tăm cotton 2 lớp Menswear Áo Len Kem Shirt
-Áo sơ mi dài tay Star nam nữ unisex, Áo sơ mi phối phụ kiên ,chất đũi sóng Menswear Có Cổ
-Áo Hoodie Nam nữ , Áo Hoodie Stussy Nón Thêu Form Rộng Nam Nữ Unisex chất Nỉ Cotton Cao Cấp Mẫu Hot 2024
-Áo Thun Thêu  Icon Tee Cotton Cao Cấp Local Brand Unisex Nam Nữ Oversize Sgenz.studio
-Áo Hoodie Nam Nữ , Áo hooodie not rabbit in hình form rộng unisex nam nữ phong cách cá tính, năng động hot 2024
-Áo croptop ba lỗ Choice Việt Nam HT05 màu trơn mềm mịn và mát cho nữ</t>
+          <t>shopee - 25 tỷ - 43.33%
+tiki - 23 tỷ - 40.67%
+tiktok - 5 tỷ - 9.3%
+lazada - 4 tỷ - 6.7%</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>shopee - 1,971 tỷ - 83.72%
-tiktok - 363 tỷ - 15.41%
-lazada - 17 tỷ - 0.72%
-tiki - 4 tỷ - 0.15%</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Thời Trang Nam/Áo - 688 tỷ - 34.89%
-Thời Trang Nữ/Áo - 488 tỷ - 24.75%
-Thời Trang Nam/Bộ - 136 tỷ - 6.91%
-Thời Trang Nam/Áo khoác - 104 tỷ - 5.26%
-Thời Trang Nữ/Hoodie và Áo nỉ - 90 tỷ - 4.57%
-Thời Trang Nam/Hoodie &amp; Áo nỉ - 63 tỷ - 3.21%
-Thời Trang Nữ/Bộ - 63 tỷ - 3.21%
-Thời Trang Nữ/Áo khoác - 62 tỷ - 3.12%
-Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 27 tỷ - 1.38%</t>
-        </is>
-      </c>
+          <t>Bộ Chăn Ga Gối Đệm 5 Món Phi Lụa Tencel Dream City Cao Cấp Chuẩn Khách Sạn 5 Sao Bộ Drap Ra Ga Nệm Trải Giường ( Xin gửi shop chiều cao nệm )
+Bộ Chăn Ga Gối Nệm Đệm 5 Món Phi Lụa Chữ H Luxury Cao Cấp Bo Chun Drap Giường Chăn Chần Bông
+Bộ Chăn Ga Gối Đệm Phi Lụa Charming Drap Giường Phi Lụa Cao Cấp Bo Chun Drap
+Bộ 4 món vỏ chăn vỏ gối ga trải đệm cotton tici Otama Bedding ra nệm bo chun hoặc may phủ đủ size màu pastel Hàn Quốc
+Chăn Ga Gối Đệm 5 Món SERENA MATTRESS Cao Cấp Set Chăn Ga Ra Drap Gối Nệm Đệm 5 Món Trải Giường Lụa Thái Cao Cấp
+[TẶNG CHĂN HÈ] Bộ chăn ga gối đệm 5 món 100% Cotton cao cấp YOUNGRICE chăn drap gối nệm trải giường drap cotton
+Bộ chăn ga gối nệm 5 món Lụa Modal cao cấp YOUNGRICE bộ chăn ra drap grap gối đệm nệm trải giường Quà cưới Quà tân gia
+[Chăn to hơn đệm] Bộ Chăn gối gấp gọn 5 trong 1 cho bé đi học mầm non tiểu học Mangata Bedding nhiều hoạ tiết mềm mịn
+Bộ Chăn Ga Gối Cotton Tici ADU79 Bedding Grap Nệm thun Hàn Quốc Drap Giường Đệm Đủ Size Full Set CÓ VỎ CHĂN - KO VỎ ÔM
+Bộ 4 món chăn ga gối đệm poly cotton ga giường họa tiết hoa nhí vintage, bộ ga gối drap giường bo chun - Otama Bedding
+bộ chăn ga gối đệm 4 món cotton DREAM CITY mềm mại thoáng mát thấm hút mồ hôi,miễn phí bo chun.
+Sét ga gối kèm vỏ chăn EverDream 335 Hàng Nhập Khẩu, 100% cotton Living Cao Cấp, Đủ mọi kích thước kể cả đệm dày
+Bộ chăn ga gối hè gấu chữ chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+[HÀNG XUẤT NHẬT - ĐÃ CHẦN BÔNG] BỘ CHĂN GA GỐI ĐỆM DRAP GIƯỜNG COTTON TICI SỌC MẪU MỚI NHẤT (CHAT CHỌN MẪU)
+Vỏ Chăn Ga Gối Đệm 5 Món Lụa Thái SERENA MATTRESS Chính Hãng Bộ Ra Drap Grap Trải Bọc Gas Giường Trần Bông Combo Cao Cấp
+Bộ chăn ga gối phao gấu xo mới chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối nệm đệm set 4 món cotton tici DR.W cao cấp mang phong cách hàn quốc trẻ trung mềm mại - Thê Giới Chăn Ga
+Bộ chăn ga gối phao mặt lợn hồng chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối phao bơ xanh hello chất liệu cotton poly đầy đủ kích cỡ m2/m6/m8/2m2 đệm cao dưới 12p
+Bộ chăn ga gối 5 món Cotton Poly Bedding drap giường miễn phí bo chun ga giường bọc đệm nhiều mẫu mới
+Bộ giường nhà 3 cái dày chải Phong cách đơn giản thoáng khí thân thiện với da chăn ga gối đệm cotton BerryHome~
+Bộ Chăn Ga Gối Đệm Phi Lụa MaLass Nhập Khẩu Drap Giường Cao Cấp Bo Chun Drap - Anna Nguyen Bedding
+[Mã SKAMA8 giảm 8% đơn 300K] Bộ Chăn Ga Gối Đệm 4 Món - Grap Giường Ga Giường Cotton Cao Cấp Xinh Lung Linh
+[QUÀ TẶNG KÈM] Máy hút bụi giường nệm diệt khuẩn UV hút sạch bụi chăn, ga, gối, đệm
+Bộ chăn ga gối nệm đệm set 5 món cotton DR.W cao cấp 1m2 1m4 1m6 1m8 2m bo chun drap giường có thể decor cho phòng ngủ - Thế Giới Chăn Ga
+Bộ chăn ga gối nệm đệm set 5 món cotton tici mang phong cách hàn quốc DR.W cao cấp bo chun drap giường - Thế Giới Chăn G
+Sét ga gối kèm vỏ chăn EverDream 343 Hàng Nhập Khẩu, 100% cotton Living Cao Cấp, Đủ mọi kích thước kể cả đệm dày
+Sét ga gối kèm vỏ chăn EverDream 350 Hàng Nhập Khẩu, 100% cotton Living Cao Cấp, Đủ mọi kích thước kể cả đệm dày
+Bộ Chăn Ga Gối 5 món Cotton Polly 3D ,Chăn Hè Chần Bông 3 Lớp, ga bo chun bọc đệm
+Máy hút bụi diệt khuẩn UV chăn ga gối đệm giường Deerma CM800 - Bảo hành 6 tháng (Tặng lõi lọc</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 8 tỷ - 49.08%
-Giày dép &amp; Quần áo nữ/Quần áo nữ - 6 tỷ - 32.99%</t>
+          <t>Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 24 tỷ - 95.28%
+Nhà cửa &amp; Đời sống/Dụng cụ chăm sóc nhà cửa - 397 triệu - 1.59%
+Thiết Bị Điện Gia Dụng/Thiết bị điện gia dụng nhỏ - 301 triệu - 1.2%
+Nhà cửa &amp; Đời sống/Chất khử mùi, làm thơm nhà - 280 triệu - 1.12%</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Thời trang nam/Áo thun nam - 2 tỷ - 44.9%</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+          <t>Giường ngủ &amp; Nhà tắm/Đồ dùng phòng ngủ - 3 tỷ - 70.66%
+Đồ gia dụng nhỏ/Đồ gia dụng nhỏ - 818 triệu - 21.17%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ điện - 260 triệu - 6.72%</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Nhà Cửa - Đời Sống/Đồ dùng phòng ngủ - 23 tỷ - 100.0%</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5137</v>
+        <v>40544</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dien-thoai-iphone</t>
+          <t>do-dien-gia-dung</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://metric.vn/dien-thoai-iphone</t>
+          <t>https://metric.vn/do-dien-gia-dung</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>điện thoại iphone</t>
+          <t>đồ điện gia dụng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>c2079129999</t>
+          <t>c641426678</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1__100013</t>
+          <t>1__100010</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Điện Thoại &amp; Phụ Kiện</t>
+          <t>Thiết Bị Điện Gia Dụng</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>99884</v>
+        <v>3668</v>
       </c>
       <c r="K11" t="n">
-        <v>2621667</v>
+        <v>12269710</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>điện thoại iphone</t>
+          <t>đồ điện gia dụng</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2212,132 +2306,157 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>4b5926aee4dd5bd41b4d28b7112b3374</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>358646279511</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9656895</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>154351</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5312</v>
+          <t>640ac3723543678b3fc1dd2eff23e80d</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7 tỷ</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>70 nghìn</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Điện thoại Apple iPhone 14 128GB
-Điện thoại iPhone 15 Plus 128GB - 256GB - 512GB
-Điện Thoại iPhone 15 Pro 128GB - Hàng Chính Hãng
-Điện thoại  iPhone 15 Pro Max 256GB - Hàng Chính Hãng
-Điện thoại iPhone 13 128GB
-Điện thoại Apple iPhone 15 128GB
-Điện Thoại Apple iPhone 13 128Gb
-Điện thoại Apple iPhone 15 Pro Max 512GB
-Điện thoại Apple iPhone 15 256GB
-[CLICKBUY] Điện thoại iPhone 15 128GB chính hãng VNA | Giá đã bao gồm bảo hành 1 đổi 1 12 tháng + bảo hành rơi vỡ, vào nước 12 tháng
-Cáp sạc nhanh IPhone 20W Baseus Dây bọc dù cao cấp đầu inox C to IP cho 14 Promax 13 12 11 Xs Max Sạc Điện Thoại Kem Phụ Kiện Usb Type C
-UGREEN 65W Charger Củ sạc máy tính điện thoại sạc nhanh  Nexode  Cốc sạc nhanh RobotGaN Mini Công nghệ GaN  3 cổng Sạc Nhanh iPhone 15 14 13 12 Pro Max Samsung Galaxy S24 S23 S22 Ultra
-Điện thoại Apple iPhone 11 64GB Chính hãng VN/A [Viettel Store]
-Ốp Điện Thoại Họa Tiết Spider-Man Cho IPhone 11 15 7Plus XR 13 14 12 Pro Max X XS Max 6 7 8 15 6S Plus SE 2020
-Ốp Điện Thoại Cứng Mặt Nhám Chống Sốc Từ Tính Cho compatible with iPhone 15 14 Pro Max 12 13 Pro Max ip13
-Quicksand lấp lánh khung mạ kim cương Vỏ điện thoại iphone15 Pro MAX 14 13 12 11 XR XS MAX cho vỏ iPhone Vỏ mềm silicon TPU Bảo hiểm toàn diện có nắp camera chống sốc
-Vỏ iPhone sáng tạo mới, hoa văn, vỏ vuốt mèo dòng, phù hợp với các mẫu iPhone : 11/12/13/ 14 ProMax / iPhone15 / iPhone15ProMax / ốp điện thoạichống rơi
-【VẬN CHUYỂN NHANH】ốp Lưng Điện Thoại Chất Lượng Cao Với Sạc Không Dây Từ Tính Bảo Vệ Toàn Ống Kính Cho iPhone 11 12 13 14 15 Pro Max 14 15 Plus
-Điện Thoại iPhone 15 Pro 128GB - Chính hãng VN/A
-Ốp Điện Thoại Mềm Chống Rơi Họa Tiết Mặt Cười Cho apple Iphone 14promax 15Promax 13 12 11
-Ốp điện thoại đen in chữ màu hồng đơn giản thích hợp cho iPhone 13 Pro max 12 Pro Max 11 xr xs max 7Plus 14 Pro Max
-Phù Hợp Ốp Điện Thoại Cứng Nhám Màu Trơn Trong Suốt Cho iphone 15 14 13 12 11 pro max 14plus
-Ốp iphone 14 pro max 13 pro max 12 pro max 11 pro max X xr Xs Max 7 plus 8 - ốp lưng Điện Thoại viền vuông Bảo vệ camera
-Mềm Ốp Điện Thoại tpu Dẻo Có Nút Kim Loại Chống Sốc Cho iphone 15 14 13 12 11 pro max xs x xr 8 + 7 plus
-Điện thoại iPhone 15 256GB Chính hãng VN/A [Viettel Store]
-Iphone Ốp Điện Thoại Dẻo Họa Tiết Hoa Kèm Giá Đỡ Và Dây Đeo Cho Iphonex 15 14 13 12 11 pro max x xr xs max 7 8 plus se2020
-Phù Hợp Ốp Điện Thoại Họa Tiết Cậu Bé Bút Chì Cho iphone 11 12 pro max x xr xs max se 7 plus 8 plus 13 pro max 14 pro max
-Essager 54W sạc USB trên ôtô 5A Sạc nhanh 3.0 QC PD 3.0 SCP AFC 30W Loại USB C nhanh chóng sạc điện thoại Iphone Huawei Samsung Xiaomi
-lambskin Phù Hợp Ốp Điện Thoại Mềm Họa Tiết Châu Âu Cho iphone12 / 13 / 14 promax 11 xr / xsmax 8p 15promax
-Chân đế mạ từ tính, ốp điện thoại long lanh gradient cho iPhone 15 14 plus 13 12 11 Pro max, vỏ mềm chống sốc, nắp lưng Phụ Kiện Case</t>
+          <t>lazada - 4 tỷ - 50.41%
+shopee - 2 tỷ - 29.33%
+tiktok - 2 tỷ - 20.17%
+tiki - 7 triệu - 0.09%</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>shopee - 264 tỷ - 73.63%
-tiktok - 84 tỷ - 23.51%
-lazada - 10 tỷ - 2.75%
-tiki - 373 triệu - 0.1%</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Điện Thoại &amp; Phụ Kiện/Phụ kiện - 198 tỷ - 74.92%
-Điện Thoại &amp; Phụ Kiện/Điện thoại - 52 tỷ - 19.61%</t>
-        </is>
-      </c>
+          <t>Nồi Cơm Điện Mini CHIGO: có ổ chuyển đổi 2 chấu, Nấu Cơm, Cháo, Canh, Soup, Hầm, dung tích nấu 800ml Cooker Nấu Ăn đồgiadụng nộiđịatrungquốc
+Hộp Đựng Đồ Gia Dụng Công Nghiệp Hộp Dụng Cụ Nhiều Tầng Bằng Thép Không Gỉ Bộ Cấp Đa Năng Kiểu Cầm Tay Lắp Trên Xe Ngũ Kim Điện
+💖công suất siêu cao 6000W💖bộ kích điện 12v lên 220v-ERYUAN Inverter sin chuẩn Bộ kích nguồn điện-khẩn cấp cho xe hơi cao cấp dụng cho chiếu sáng đèn,quạt,nguồn dự phòng,đồ dùng điện giađình Độ ổn định điện áp cao-Không gây ô nhiễm môi trường
+Bộ 4 pin sạc AA 3300mAh Doublepow công suất lớn chuyên karaoke gia đình là một sản phẩm vô cùng hữu ích và tiện dụng cho những đồ dùng điện tử gia đình như pin micro karaoke...(TrắngCam))
+Kệ Thép Cao Cấp Sơn Tĩnh Điện Hadochi - Kệ Lò Vi Sóng- Giá Đồ Gia Dụng Nhà Bếp Thông Minh 3-4-5 Tầng
+OOKAS Nồi cơm điện đa năng gia dụng 6L dung tích lớn 220V Tích Chảo Chống Dính Tản Nhiệt Đồng Đều Nấu Nhanh Nấu Súp Và
+JIASHI Nồi Cơm Điện EL Gia Dụng Nhỏ Gọn Thiết Bị Nhà Bếp Nhỏ 1-2 Người Nồi Nấu Ăn Nồi Cơm Điện nồi siêu nhỏ chống dính Người Quy mô lót 0.8L Tặng đồ múc cơm + lồng hấp
+Xe Đạp Tập Tại Nhà, Xe Đạp Tập Gia Đình, Xe Đạp Tập Đa Năng, Xe Đạp Thể Thao, Tập Thể Dục Goodfit GF001PA - Dễ Sử Dụng Phù Hợp Với Mọi Lứa Tuổi, Đồng Hồ Điện Tử Đo Lường Được Mọi Chuyển Động.
+combo 10 Khay nhựa A6 ( dài 24 cm * rộng 15 cm * cao 12,5 cm ) đựng linh kiện kèm chân nối đựng bulong ốc tán , thuốc , đồ gia dụng , kim khí điện nước   ! Nhựa Điều chỉnh được
+Khò ga 8803-1 đồng, có vòng điều chỉnh oxy, tự động đánh lửa, có hộp phụ kiện đi kèm, sử dụng trong các công việc gia đình và cơ khí điện lạnh.
+60 Miếng Băng Dính - Taky Trong Suốt 2 Mặt Tiện Dụng Giữ Cố Định Dây Điện, Đồ Trang Trí, Tiện Lợi Cho Gia Đình. 6006
+Bộ Đồ Nấu Trà Ấm Đun Trà Thủy Tinh Bếp Đun Trà Tự Động Phổ Nhĩ Trà Đen Ấm Đun Trà Bếp Gốm Điện Loại Nhỏ Gia Dụng
+Lọ Hoa Hình Tròn Cắm Hoa Gốm Sứ Mạ Điện Bắc Âu Lọ Cắm Hoa Chậu Hoa Đồ Trưng Bày Phòng Cưới Gia Dụng Lọ Hoa Màu Vàng Mạ Điện
+⚡Hàng HOT⚡Lilishop Thiết bị hâm nóng đồ uống cho xe hơi mini 12v / 24v tiện dụng cắm trại Sục điện  dây trở nấu nước sôi trên ô tô siêu tiết kiệm thời gian Dây Điện Trở Đun Sôi Nước Lò Xo Trên Ô TÔ
+Đầu đốt bếp gas Electrolux , Mâm chia lửa bếp gas Electrolux , Sen đồng thau thay thế bếp Electrolux ETG728GKR-ETG729GKTR-ETG7286GKR-ETG7266GKR - Điện Gia Dụng Hưng Thịnh
+[ GIA DỤNG NEW 2023 ] Kệ Đựng Gia Vị - Kệ Đựng Gia Vị Xoay 2 màu 360 Độ SIV 2/3 Tầng-Kệ Để Đồ Nhà Bếp Thông Minh-Kệ hũ gia vị ,Kệ Gia Vị Nhà Bếp Inox ,Kệ sơn tĩnh điện Đa Năng Tiện Gọn Chất Liệu Cao Cấp.Bảo hành 12th
+ốc đầu dù 4 ly ren chuẩn 0.7. bắt đồ gia dụng điện cái loại bọc 50 con bao gồm tán
+Kkmoon 12 V tuốc nơ vít Lithium mô-men xoắn có thể điều chỉnh 2 chế độ điều khiển tốc độ đa chức năng công cụ sửa chữa Bộ cọ vặn vít điện động cơ cho mobilephones máy tính đồ gia dụng
+Kệ đựng đồ tam giác dán tường, kệ góc nhà tắm dán tường kim loại sơn tĩnh điện tiện lợi, đồ gia dụng giá rẻ (KGS05)
+Keo T9000 Dán Đồ Chơi Nhựa, Đồ Gia Dụng, Điện Thoại, Độ Dính Tốt, Không Làm Cháy Nhựa Sieuthidochoitritue
+Miếng dán tường treo ổ điện KUNBE, miếng dán treo điều khiển điều hoà, cục phát wifi, treo đồ gia dụng không cần khoan, đục tường
+Bộ tua vít sửa chữa đa năng 32 chi tiết, sửa chữa điện thoại, máy tính, đồ gia dụng tiện lợi
+Lin play house đồ chơi lò vi sóng đèn điện trẻ em mô phỏng thiết bị gia dụng
+1 Kg gói hút ẩm đủ loại `1,2,3,5gram ...sử dụng đa dụng chống ẩm thực phẩm chống ẩm quần áo chống ẩm giày dép chống ẩm đồ ăn vặt chống ẩm điện tử và đồ gia dụng, tủ quần áo chống ẩm phòng
+ღ Hộp Đựng Đồ Gắn Tường 2in1 Giá Sạc Điện Thoại Di Động Giá Đỡ Điều Khiển Từ Xa Hai Mắt Cáo Hộp Đựng Bút Không Cần Đục Lỗ Dụng Cụ Sắp Xếp Đồ Lặt Vặt Để Bàn Gia Đình
+Giá úp xoong nồi kệ úp vung nồi đồ gia dụng sơn tĩnh điện có thể điều chinh chiều dài
+OFTBT 110V 220V Dành cho thiết bị gia dụng Đồng hồ đo AC Ổ cắm Điện Áp Tester Đồng hồ đo điện áp phẳng gắn tường Vôn kế phích cắm Kỹ thuật số Đồng Hồ Đo Điện
+Móc Dán Tường Gài Phích Điện, Móc Treo Đồ Đa Năng, Tiện Dụng Cho Gia Đình, Móc Nhựa, Có Nhiều Màu Sắc. TakyHome 2235
+Bếp nướng điện không khói, bếp nướng không khói, bếp nướng điện - Lò nướng điện đa năng, bếp nướng điện đa năng, vỉ nướng điện, máy nướng thịt, đồ gia dụng trong nhà
+Cán Dao Mổ Số 3 Số 4 Dùng Trong Phẫu Thuật, Y Tế, Điện Thoại, Sửa Chữa Đồ Điện Tử Gia Dụn</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 8 tỷ - 76.41%
-Điện thoại &amp; Máy tính bảng/Smartphones  - 1 tỷ - 10.43%
-Âm thanh/Thiết bị Audio chuyên nghiệp - 578 triệu - 5.86%
-Âm thanh/Các loại tai nghe - 227 triệu - 2.3%
-Electronics Accessories/Phụ kiện Máy tính - 169 triệu - 1.72%</t>
+          <t>Thiết Bị Điện Gia Dụng/Đồ gia dụng nhà bếp - 668 triệu - 30.44%
+Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 536 triệu - 24.44%
+Thiết Bị Điện Gia Dụng/Thiết bị điện gia dụng lớn - 243 triệu - 11.07%
+Nhà cửa &amp; Đời sống/Dụng cụ &amp; Thiết bị tiện ích - 218 triệu - 9.95%
+Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 123 triệu - 5.61%
+Thiết Bị Điện Gia Dụng/Mạch điện &amp; Phụ tùng - 114 triệu - 5.2%
+Thiết Bị Điện Gia Dụng/Pin - 103 triệu - 4.69%
+Nhà cửa &amp; Đời sống/Đèn - 64 triệu - 2.92%
+Điện Thoại &amp; Phụ Kiện/Phụ kiện - 25 triệu - 1.15%
+Mẹ &amp; Bé/Đồ chơi - 25 triệu - 1.15%</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 345 triệu - 92.35%</t>
+          <t>Đồ gia dụng nhỏ/Đồ gia dụng nhà bếp - 875 triệu - 23.21%
+Dụng cụ sửa chữa nhà cửa/Tủ - 616 triệu - 16.34%
+Ôtô, Xe máy &amp; Thiết bị định vị/Ô tô - 558 triệu - 14.79%
+Electronics Accessories/Phụ kiện - 522 triệu - 13.85%
+Thể thao &amp; Hoạt động ngoài trời/Thiết bị thể thao &amp; thể hình - 189 triệu - 5.0%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ điện - 160 triệu - 4.23%
+Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 104 triệu - 2.76%
+Làm đẹp/Chăm sóc cá nhân - 86 triệu - 2.29%
+Bếp &amp; Phòng ăn/Chứa đồ Nhà bếp &amp; phụ kiện - 86 triệu - 2.27%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ cầm tay - 67 triệu - 1.78%
+Bếp &amp; Phòng ăn/Đồ dùng uống trà &amp; cà phê - 60 triệu - 1.6%
+Giường ngủ &amp; Nhà tắm/Đồ dùng phòng tắm - 58 triệu - 1.54%
+Bếp &amp; Phòng ăn/Dụng Cụ nấu ăn - 57 triệu - 1.51%
+Dụng cụ sửa chữa nhà cửa/Điện - 55 triệu - 1.46%
+Đồ gia dụng nhỏ/Đồ gia dụng nhỏ - 53 triệu - 1.41%</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>238588</v>
+        <v>14657</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>phong-cach-han</t>
+          <t>cham-soc-da</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://metric.vn/phong-cach-han</t>
+          <t>https://metric.vn/cham-soc-da</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>phong cách hàn</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>chăm sóc da</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c157614325</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1__100017</t>
+          <t>1__100630</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Thời Trang Nữ</t>
+          <t>Sắc Đẹp</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>412</v>
+        <v>12578</v>
       </c>
       <c r="K12" t="n">
-        <v>2443162</v>
+        <v>9552389</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>phong cách hàn</t>
+          <t>chăm sóc da</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2371,150 +2490,151 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>19f0c8489aa8ae99abe3a92d9b642c80</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1458307063358</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>26438455</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>286075</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>37400</v>
+          <t>e7e59d6eb6e07b77136a5efec1332ff4</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>992 tỷ</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>8 triệu</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>26 nghìn</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11 nghìn</t>
+        </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>【89K VOUCHER】FOCALLURE Son Tint Bóng Hỗ Trợ Môi Căng Bóng Mọng Nước Phong Cách Hàn Quốc Trong Veo Đầy Đặn Sắc Tố Cao Hỗ Trợ Dưỡng Ẩm Môi
-Quần Short Denim Chauzi Lưng Cao Phối Túi Trước Cho Nữ Cao Cấp Phong Cách Thời Trang Hàn Quốc
-Quần âu nam, Quần tây nam phong cách Hàn Quốc, From Slimfit chuẩn đẹp cùng chất vải Tuyết mưa
-Áo sơ mi nam tay dài JBAGY Pastel sơ mi trắng form rộng, vải lụa tăm cao cấp phong cách Hàn Quốc
-NALLCHEER đựng mỹ PVC trong suốt chống thấm nước phong cách Hàn Quốc Nữ công
-Balo Thời Trang Phong Cách Hàn Quốc Unisex KAKAPO BL041 Backpack Đeo Vai
-Quần Âu Sidetab Điều Chỉnh Độ Rộng Vòng Eo, Form Dáng Baggy Phong Cách Hàn Quốc
-Sét bộ Pyjama Kẻ Phong Cách Hàn Quốc Siêu Hot - ảnh thật trải sàn
-Set Bộ Đồ Nữ Cộc Tay Mặc Hằng Ngày Hình In Nổi SANDER Phong Cách Hàn Quốc Thoải Mái B003
-Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
-Mũ lưỡi trai LA Unisex chất liệu vải Kaki, mũ LA nam nữ phong cách Hàn Quốc
-Áo kiểu thời trang nữ phong cách Hàn Quốc tinh tế WCS230010U 42Z231016
-Áo sơ mi nữ THOM BROWNE tay kẻ sọc vải co giãn form rộng phong cách Hàn Quốc hot trend local brand MAOTRIEU
-Mũ Thêu Chữ NY Hàng Xuất Dư Cao Cấp - Mũ MLB Phong Cách Hàn Quốc Full Tem Tag Bao Bì
-Áo Sơ Mi Kẻ Ngắn Tay Vải Oxford Ver 2 Phối Cổ Trắng Dáng Rộng Phong Cách Hàn Quốc Logo Thêu SM048
-🔥 dày thể thao nữ🔥  đế dày phong cách Hàn Quốc thời trang dành cho nữ
-Túi Đeo Vai Da Pu Cho Nữ, Túi Đeo Chéo Da Mềm, Phong Cách Hàn Quốc, Thời Trang, Sling
-Quần ống loe nữ chất jean bò trơn cạp cao ôm eo siêu tôn dáng deliz phong cách basic hàn quốc đi chơi đi làm
-[SET15] [SẴN HÀNG] Set áo hai dây tơ nhăn kèm chân váy dài phong cách vintage Hàn Quốc
-Quần ống đứng , Quần jeans ống đứng màu xanh siêu xinh phong cách hàn quốc MS 04
-CHIC JOY Túi Xách canvas Cỡ Lớn Có Khóa Kéo Phong Cách Nhật Hàn Đơn Giản Cho Nữ
-Bé gái Nhật Bản và Hàn Quốc đẹp trai dành cho sinh viên đại học phong cách đơn giản
-Quần âu nam, Quần tây nam phong cách Hàn Quốc, From Slimfit chuẩn đẹp, Co giãn nhẹ cùng chất vải Vinteck với 4 màu
-【Doris diary】Dép Đi Trong Nhà Đế Dày Mềm Mại Thoải Mái Chống Trượt Phong Cách Hàn Quốc Cho Nữ
-Áo Sơ Mi nam Kẻ sọc Xám ,sọc xanh Dài Tay Vải Cotton Lụa Cao Cấp, sơmi Thom kẻ sọc phong cách Hàn Quốc
-Áo khoác len nữ , áo khoác nữ cardigan dệt kim mỏng DÁNG DÀI phong cách Hàn quốc BIGSIZE màu đen be hồng  - RUBY - 8816
-Guangluo Ba Lô Đi Học Sức Chứa Lớn y2k Hình Ngôi Sao Dễ Thương Phong Cách Hàn Quốc Cho Nữ
-Giày cao gót 4-7cm đính ngọc trai kiểu dáng sang trọng đế dày phong cách Hàn Quốc xinh xắn cho nữ
-308 - Quần tây ống rộng INVENNUS, Cạp điều chỉnh - Smart Pants - Sidetab, quần âu ống suông phong cách hàn Menswear Nam Đen Nhung
-Bộ Chăn Ga Gối Cotton Đũi Sọc Dúm Mẫu Mới, Chăn Ga Gối Đũi Mềm Mịn Thoáng Mát Phong Cách Hàn Quốc</t>
+          <t>tiktok - 623 tỷ - 62.81%
+shopee - 323 tỷ - 32.54%
+lazada - 45 tỷ - 4.53%
+tiki - 1 tỷ - 0.13%</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>shopee - 1,253 tỷ - 85.92%
-tiktok - 175 tỷ - 12.0%
-lazada - 26 tỷ - 1.8%
-tiki - 4 tỷ - 0.28%</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>Thời Trang Nữ/Áo - 166 tỷ - 13.24%
-Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 53 tỷ - 4.19%
-Thời Trang Nữ/Quần jeans - 51 tỷ - 4.08%
-Phụ Kiện Thời Trang/Phụ kiện tóc - 50 tỷ - 3.98%
-Thời Trang Nam/Áo - 50 tỷ - 3.97%
-Thời Trang Nữ/Váy - 42 tỷ - 3.39%
-Thời Trang Nữ/Đầm - 36 tỷ - 2.87%
-Thời Trang Nữ/Quần - 33 tỷ - 2.66%
-Thời Trang Nữ/Bộ - 33 tỷ - 2.62%
-Túi Ví Nữ/Ba lô - 31 tỷ - 2.51%
-Thời Trang Nữ/Quần đùi - 31 tỷ - 2.51%
-Thời Trang Nữ/Áo khoác - 28 tỷ - 2.25%
-Phụ Kiện Thời Trang/Mũ - 28 tỷ - 2.22%
-Giày Dép Nữ/Xăng-đan và dép - 26 tỷ - 2.07%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 24 tỷ - 1.94%
-Nhà cửa &amp; Đời sống/Nội thất - 24 tỷ - 1.93%
-Thời Trang Nữ/Áo len - 23 tỷ - 1.84%
-Thời Trang Nam/Quần đùi - 22 tỷ - 1.78%
-Phụ Kiện Thời Trang/Kính mắt - 22 tỷ - 1.72%
-Thời Trang Nữ/Vớ/ Tất - 20 tỷ - 1.58%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 18 tỷ - 1.47%
-Thời Trang Nam/Com lê - 18 tỷ - 1.43%
-Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 17 tỷ - 1.36%
-Giày Dép Nữ/Giày thể thao/ sneaker - 17 tỷ - 1.34%
-Thời trang trẻ em &amp; trẻ sơ sinh/Phụ kiện trẻ em &amp; trẻ sơ sinh - 16 tỷ - 1.29%
-Thời Trang Nam/Quần dài - 16 tỷ - 1.26%
-Thời Trang Nữ/Đồ ngủ - 14 tỷ - 1.12%
-Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 13 tỷ - 1.04%</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+          <t>Kem Rau Má Hỗ Trợ Da Mụn | Thanh Tô Cosmetic Skincare Chăm Sóc Da Làm Đẹp Da
+Kem Face Jiuhe Wippting Tone Up | Thanh Tô Cosmetic - Làm Đẹp Da, Skincare Nữ  Chăm Sóc Da
+Gel chấm mụn mờ thâm Cafuné 15ml Không chứa paraben Kiểm soát lỗ chân lông Acne Treatments Skincare Chăm Sóc Da
+[X1BT120M] Xịt Kích Mọc Tóc Tinh Dầu Bưởi Da Xanh Mộc Ân Haircare 120ml, hỗ trợ mọc tóc, giảm gãy rụng, nuôi dài tóc Dưỡng Tóc Chăm Sóc Tóc
+Kem Face Hanako X3 Hỗ Trợ Chăm Sóc Da 12g/hộp
+KEM CHỐNG NẮNG PHỔ RỘNG "SUNSCREEN HIGH-STRENGTH" SPF 50+/PA++++ - Dung tích: 32g - Thương Hiệu: Beskin Việt Nam Skincare Sun Cream Chăm Sóc Da
+[Torriden Chính hãng] Set serum chăm sóc da căng bóng mịn số 1 DIVE IN Hyaluronic Acid, dưỡng ẩm sâu bên trong da, không bết dính, 50ml+50ml, 1 set
+E96_VIÊN UỐNG ELASTIN 66.000MG HỖ TRỢ ĐẸP DA HỘP 60 VIÊN ( MẪU MỚI NHẤT)_ Sản phẩm chăm sóc da
+[SKINCARE] Mặt Nạ Đất Sét Trắng HOBE BAR Hỗ Trợ Làm Sạch Da - Mask Chăm Sóc Da Dành Cho Nam Và Nữ (55ml)
+A02G Combo hỗ trợ chăm sóc da gồm  1 hộp-TPBVSK Sâm Ngọc Nữ BEAUTY QUEEN SPA và 1 hộp -TPBVSK Beauty Skin Love ,1 hộp Vitamin C-hỗ trợ chăm sóc sắc đẹp  -hộp 60 viên
+Kem phục hồi vitamin K 30ml Làm Đẹp Da Chăm Sóc Da Dưỡng Ẩm Da
+Kem cá hồi trắng Cream Tone-up Premium Skincare Làm Đẹp Da Chăm Sóc Da
+Dầu gội, dầu xả, sữa tắm trẻ em Borome thành phần lành tính, chăm sóc tóc và da của bé luôn khỏe mạnh
+KEM NGHỆ TUƠI WONMOM - HỮU CƠ - Sản Phẩm Dùng Được Cả Cho Mẹ Bầu Và Mẹ Bỉm Làm Đẹp Da, Chăm Sóc Da, Dưỡng Ẩm Da Skincare Nữ  Women
+BỘ SERUM + BỘT RỬA MẶT LÀM SẠCH VÀ CHĂM SÓC DA , HỔ TRỢ DA MỤN NÁM
+Máy đẩy tinh chất nâng cơ mặt SACE LADY công nghệ ion chăm sóc da trẻ hóa tái tạo da massage mặt giảm nếp nhăn
+Tẩy Tế Bào Chết Than Tre | Thanh Tô Cosmetic I Skincare Chăm Sóc Da Women
+Combo 2 Sản Phẩm: Cao Khổ Qua + Sửa Rửa Mặt Khổ Qua : Hỗ Trợ Làm Sạch Da Và Hỗ Trợ Giảm Mụn Skincare Nữ Chăm Sóc Da Làm Đẹp Da Dưỡng Ẩm Da
+SN0659- Nước Hoa Hồng Real Hyaluronic Toner 100 Wellage 200ML Skincare Chăm Sóc Da
+[Torriden Chính hãng] Toner tăng cường dạng sữa DIVE IN Hyaluronic, chăm sóc da đồng thời, với tinh chất tăng cường săn chắc da, 200ml
+Kem dưỡng ẩm da mặt Cafuné Witch Hazel Moisture Cream The Cafuné 40g Skincare Chăm Sóc Da
+Combo Meea Size Mini 10gr ( Face V2 Cá Hồi 10gr+ Tinh Chất Bakuchiol 10ml ) Combo Hỗ trợ Chăm Sóc da , Cấp ẩm Skincare Serum Kem Face Collagen
+Combo Full 2 Sản Phẩm : Trứng Cá Hồi : Serum 30ml / kem Dưỡng 30gr ( Combo hỗ trợ Chăm Sóc Dưỡng da  ) Tặng 1 Sữa rửa mặt Tảo Nâu 30ml
+[Torriden Chính hãng] Set Toner Pad hàng ngày BALANCEFUL Cica, Serum chăm sóc bã nhờn và tế bào da chết, làm dịu và tẩy da chết, 60 miếng, 50ml, 1 set
+[Hàng mới về] Toner/ Sữa rửa mặt ISNTREE trà xanh tươi chăm sóc da
+Bộ dầu gội xả nuôi dưỡng tóc chăm sóc da đầu EASYCOS Nourishing &amp; Smoothing Shampo/ Conditioner 800ml
+VÊN UỐNG ĐẸP DA COLLAGEN EOBICO MAX WHITE UV 5 IN 1 PLUS + HỘP 60 VIÊN Sản phẩm chăm sóc da
+[SUM SPACE] Kem Dưỡng La Roche Posay Cicaplast Baume B5+ Chăm Sóc Da, Dưỡng Ẩm Da - 40ml / 100ml
+COMBO CAO + CỐT+ ( SỬa RỬa MẶT ) - MEEA - dành cho da mun - dung tích 10ml Skincare Chăm Sóc Da
+Kem Dưỡng Sáng OBAGI Nu-Derm Clear Fx 57g Skincare Chăm Sóc Da Làm Đẹp D</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Sắc Đẹp/Dụng cụ làm đẹp - 96 tỷ - 29.74%
+Sắc Đẹp/Chăm sóc da mặt - 86 tỷ - 26.52%
+Sắc Đẹp/Bộ sản phẩm làm đẹp - 39 tỷ - 12.04%
+Sắc Đẹp/Tắm &amp; chăm sóc cơ thể - 27 tỷ - 8.27%
+Sắc Đẹp/Chăm sóc tóc - 16 tỷ - 4.91%
+Sức Khỏe/Thực phẩm chức năng - 10 tỷ - 3.06%
+Sắc Đẹp/Trang điểm - 7 tỷ - 2.09%
+Nhà cửa &amp; Đời sống/Nội thất - 7 tỷ - 2.03%
+Sức Khỏe/Chăm sóc cá nhân - 4 tỷ - 1.28%
+Sắc Đẹp/Chăm sóc nam giới - 4 tỷ - 1.27%
+Mẹ &amp; Bé/Chăm sóc sức khỏe mẹ - 4 tỷ - 1.24%
+Mẹ &amp; Bé/Chăm sóc sức khỏe bé - 4 tỷ - 1.15%
+Sức Khỏe/Vật tư y tế - 3 tỷ - 1.02%</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Làm đẹp/Chăm sóc cá nhân - 15 tỷ - 33.75%
+Làm đẹp/Chăm sóc da mặt - 11 tỷ - 23.67%
+Làm đẹp/Dụng cụ chăm sóc Sắc đẹp - 8 tỷ - 18.88%
+Đồ gia dụng nhỏ/Đồ gia dụng chăm sóc cá nhân - 3 tỷ - 7.77%
+Làm đẹp/Trang điểm - 2 tỷ - 5.52%
+Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 871 triệu - 1.94%</t>
+        </is>
+      </c>
       <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4226</v>
+        <v>76384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>do-choi-cho-be</t>
+          <t>quan-ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://metric.vn/do-choi-cho-be</t>
+          <t>https://metric.vn/quan-ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>đồ chơi cho bé</t>
+          <t>quần áo thời trang nam</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>c894437317</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1__100632</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Mẹ &amp; Bé</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>334702</v>
+        <v>1723</v>
       </c>
       <c r="K13" t="n">
-        <v>2400638</v>
+        <v>8600996</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>đồ chơi cho bé</t>
+          <t>quần áo thời trang nam</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2548,144 +2668,149 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>ab5983d024b4f7ccb4ce7662b8c2bd19</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>454381767379</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6810331</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>86059</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13938</v>
+          <t>ba8ee112ac7635cd1826e343600afb1d</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>92 tỷ</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>654 nghìn</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>6 nghìn</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2 nghìn</t>
+        </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>COMBO 10 MÓN ĐỒ CHƠI XẾP GỖ THÔNG MINH CHO BÉ
-(Kèm 2 quà ) combo 100 Bỉm quần hoặc bỉm dán Hipgig kèm gấu bông và đồ chơi cho bé
-Bể bơi cho bé loại Dày Dặn +1 bơm điện có đáy chống trượt an toàn Đồ Chơi
-Xe chòi lắc hình khủng long có nhạc đền cho bé yêu Voi Đồ Chơi
-Tủ đựng đồ cho bé HOLLA cao cấp. Kệ đựng đồ chơi cho bé tiết kiệm không gian- Kiwi baby shop
-Xe chòi chân cho bé 1- 3 tuổi có đèn nhạc hình thỏ 255 Đồ Chơi
-Xe Đạp Số 6 Nữ Cho Bé Từ 2 Đến 6 Tuổi Đồ Chơi
-Xe ô tô có điều khiển từ xa cho bé MDX918 Toy Đồ Chơi Pin
-Cầu trượt hình khủng long cho bé yêu Đồ Chơi
-Ghế rung nhún kèm cho bé yêu có đồ chơi Voi Kem
-Xịt diệt khuẩn, khử mùi cho đồ chơi, bình sữa, núm ti giả Baby Fresh an toàn cho bé - JOONA BABY VN
-Thảm Nhạc Cho Bé 9BABY Có Bàn Piano - Piano Cho Bé, Xúc Xắc, Đồ Chơi Treo Nôi, Gặm Nướu, Cho Trẻ Sơ Sinh
-COMBO MÔ HÌNH LẮP RÁP MINI 3D HOẠT HÌNH ĐÁNG YÊU CHO BÉ - ĐỒ CHƠI XÉP HÌNH CHO BÉ 23
-[Loại To] Bộ Động Vật 58 Chi Tiết Cho Bé Đồ Chơi Mô Hình Động Vật, thú rừng
-[Có loại 2 ghế] Bàn lắp ráp đồ chơi xếp hình đa chức năng TABY Toys 110 chi tiết, có ngăn đựng đồ, kèm ghế cho bé lắp ráp - vừa chơi vừa học Kem
-Đồ chơi Gấu Bông Jellycat nhồi bông Hình Chú Heo Hoạt Hình Dễ Thương Cho Bé Động Vật Dễ Thương
-Bộ đồ chơi ghép hình 280 chi tiết cho bé từ 2-7 tuổi lắp ghép thông minh Toy Story
-Xe cần cẩu 1388, xe đồ chơi cần cẩu kiêm xe chòi chân có nhạc cho bé yêu
-[ĐÃ KIỂM NGHIỆM] [TẶNG HỘP] Đồ Chơi Gặm Nướu Silicon Organic Mềm, An Toàn Cho Bé LiLcare
-Tủ đựng đồ đa năng có bánh xe, Kệ để đồ cho bé, Tủ đựng quần áo cho bé, Kệ để đồ chơi
-Xe đạp cho bé - Xe thăng bằng Smart Kids Vietnam Đồ Chơi
-Đồ chơi đèn pin chiếu hình 24 - 80 hình đã gồm đèn - hình chiếu - sẵn pin - đèn pin đáng yêu cho bé khám phá
-Đồ chơi PopIt điện tử, bộ trò chơi luyện phản xạ cho bé Skids
-Bộ xếp hình nam châm 72 và 64 chi tiết , Đồ chơi Montessori xếp hình từ tính thông minh an toàn cho bé BOBO Store
-Kệ đựng đồ chơi cho bé, Kệ đựng đồ cho bé có bánh xe, Giá đựng đồ chơi 3,4,5 tầng đa năng.
-[HÀNG LOẠI 1] Tặng Pin Đồ chơi cho bé bao gồm thỏ bông, mèo bông, chó bông biết đi kêu vầy đuôi
-Xe đạp trẻ em cho bé thể thao 12-14-16inch tặng kèm mũ + cờ ( 2 đến 8 tuổi) Đồ Chơi
-Bộ đũi bé trai Batala Kids, Set đi biển cho bé đồ bộ bé trai đi chơi du lịch đũi tơ hoạ tiết HOA ĐEN TRẮNG thoáng mát
-Biệt Thự Lâu Đài Búp Bê Công Chúa 4 Tầng Lắp Ráp Cho Bé Tự Do Sáng Tạo Đồ Chơi Toy Nhà Búp Bê A64
-Đồ chơi xúc cát nhiều chi tiết kèm xô, đồ chơi đi biển cho bé trai, bé gái</t>
+          <t>shopee - 65 tỷ - 70.38%
+tiktok - 17 tỷ - 18.05%
+lazada - 10 tỷ - 11.14%
+tiki - 396 triệu - 0.43%</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>shopee - 302 tỷ - 66.54%
-tiktok - 135 tỷ - 29.69%
-lazada - 16 tỷ - 3.58%
-tiki - 858 triệu - 0.19%</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Mẹ &amp; Bé/Đồ chơi - 242 tỷ - 79.92%
-Mẹ &amp; Bé/Đồ dùng phòng ngủ cho bé - 23 tỷ - 7.53%
-Sở thích &amp; Sưu tầm/Đồ chơi - Giải trí - 8 tỷ - 2.59%
-Nhà cửa &amp; Đời sống/Nội thất - 4 tỷ - 1.38%</t>
-        </is>
-      </c>
+          <t>Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
+Bộ quần áo thể thao nam thêu thời trang tay ngắn thêu Có thể giặt bằng máy Menswear
+Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
+Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
+Bộ Quần Áo Paris Saint German Cách Điệu Họa Tiết Vân Áo In Chìm, Thời Trang Nam Nữ Phong Cách Thể Thao Mới Nhất Hè 2024
+Bộ hè BBR cộc chất liệu cao cấp áo cotton quần gió trẻ trung năng động thời trang. bộ hè thể thao nam nữ new 2024
+Bộ Thể Thao Nam TSIMPLE quần áo tập gym vải thun lạnh thoáng mát co giãn năng động thời trang MSSBHP1
+Bộ Paris, Bộ Quần Áo Paris Nam Saint German Cách Điệu Họa Tiết Vân Áo In Chìm,Thời Trang Nam Nữ Phong Cách Thể Thao 2024
+Bộ Unisex Nam Nữ, quần đùi, áo cộc tay, Xanh Menswear Chất Vải Cotton Phối Hình Gấu Phong Cách Thời Trang ROMANTIC Sport
+Bộ thể thao  Kevin nam nữ  mùa hè   2024  Thời trang  quần áo hợp xu hướng menswear
+Bộ Quần Áo Thun Nam In Họa Tiết Chữ UMKLSU Tinh Tế Thời Trang Bemine MEN QA 129
+SUPEEON丨áo hoodie nam New Polo Áo dài tay T-Shirts Cho Nam Giới Và Phụ Nữ Dây Kéo Áo mùa xuân và mùa thu Áo Hợp Thời Trang Giản Dị Quần Áo Người Đàn Ông Của Áo
+Bộ Quần Áo Nam Áo Thun Dài Tay FUTUPE Quần Jogger Bo Gấu Phong Cách Thể Thao Thời Trang Zenkonam MEN QA 141
+Set đồ nam, bộ quần áo nam mùa hè, áo có cổ phối sọc vai họa tiết răng, quần bố thô thời trang hot trend
+Bộ Hè Nam Nữ Jordan 278 Chất Liệu Áo Cotton 2 Chiều, Quần Gió Dày Dặn, Họa Tiết In Năng Động, Thể Thao, Thời Trang Mù278
+Quần áo Thun Nam In LoGo THIEN - bộ quan ao Unisex sọc kẻ thời trang mùa hè Chất Thun Mè 3 Màu Ba Size L, XL, XXL
+Bộ Hè Nam Nữ Paris Bò Sữa Áo Chất Liệu Cotton Mềm Mịn Quần Nỉ Da Cá Dày Dặn Thời Trang Mùa Hè
+Quần áo thu đông nam big size 115kg | Quần áo nam mùa đông cao cấp phong cách thể thao |Thời trang nam Fox
+Bộ thể thao nam cộc tay , bộ quần áo nam chất liệu vải thun cao cấp thời trang thêu logo OK
+[bigsize] Set bộ quần áo cotton bigsize nam in hình thời trang bigsize nam &lt; 140kg
+Bộ Thể Thao Nam KIM CƯƠNG IN 3D chữ THIEN ,quần áo tập gym vải thun lạnh thoáng mát co giãn năng động thời trang dt_shop
+Quần jean ống đứng Cao Cấp denim Quần áo nam unisex quần thời trang nam thời trang oversize street style hiphop quần bò ống đứng denim
+Set áo thun ngắn tay + quần short màu đen/ trắng size lớn thời trang cho nam
+Balo du lịch đựng laptop 17 inch balo nam đựng quần áo thời trang hình hộp cỡ lớn đi học đi phượt
+EERSHENSHI Cổ tròn kẻ sọc áo đan nam mùa thu và mùa đông áo len thời trang quần áo nam
+MOLAN Áo khoác mùa xuân và mùa thu Quần áo bóng chày hợp thời trang cho nam thể thao mới đi chơi
+Đồ bộ nam bộ quần áo thời trang nam chất vải thun lạnh mới nhất mùa hè này NB24
+Áo phông nam nữ unisex tay lỡ thun form rộng FRIENDSHIP local brand teen oversize cotton tee pull freesize polo màu đen trắng xanh lá cổ tròn trơn phong cách thời trang Hàn Quốc phối quần siêu đẹp Dominion Clothing
+LIVE GREAT Quần Áo thể thao nam-quần áo cotton áo khoác da PU phong cách đẹp trai kiểu Mỹ Quần Áo nam cổ đứng đơn giản đường phố cao quần áo độn xu hướng thời trang cho mùa thu/Áo khoác mùa đông
+Đồ bơi nam cao cấp, quần bơi nam 2 lớp chống xấu hổ, áo bơi thoáng khí AVANZO Quần đi biển, bộ thể thao thời trang KP11</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Đồ chơi/Đồ chơi cho trẻ sơ sinh &amp; trẻ nhỏ - 3 tỷ - 16.98%
-Đồ chơi/Đồ chơi điện tử &amp; Điều khiển từ xa - 2 tỷ - 14.98%
-Đồ chơi/Đồ chơi thể thao &amp; ngoài trời - 2 tỷ - 11.22%
-Đồ chơi/Lắp ráp tòa nhà - 2 tỷ - 9.5%
-Đồ chơi/Đồ chơi giáo dục - 2 tỷ - 9.49%
-Đồ chơi/Trò chơi truyền thống - 1 tỷ - 8.36%
-Đồ chơi/Nhập vai Phục trang &amp; Dạ tiệc - 1 tỷ - 7.1%
-Đồ chơi/Nghệ thuật &amp; Thủ công - 1 tỷ - 6.39%
-Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 494 triệu - 3.04%
-Trẻ sơ sinh &amp; Trẻ nhỏ/Chăm sóc sức khỏe cho trẻ - 466 triệu - 2.87%
-Trẻ sơ sinh &amp; Trẻ nhỏ/Xe &amp; Ghế - 320 triệu - 1.97%</t>
+          <t>Thời Trang Nam/Bộ - 44 tỷ - 68.23%
+Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 8 tỷ - 12.2%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 2 tỷ - 3.32%
+Thời Trang Nữ/Bộ - 2 tỷ - 2.44%
+Túi Ví Nam/Ba lô - 1 tỷ - 1.99%
+Thời Trang Nam/Áo - 893 triệu - 1.37%
+Thời Trang Nữ/Quần - 832 triệu - 1.28%
+Thời Trang Nam/Com lê - 747 triệu - 1.15%
+Du lịch &amp; Hành lý/Túi du lịch - 684 triệu - 1.05%
+Thời Trang Nữ/Áo - 665 triệu - 1.02%</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Đồ Chơi - Mẹ &amp; Bé/Đồ chơi - 666 triệu - 77.61%</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr"/>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 9 tỷ - 90.81%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 255 triệu - 2.48%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 255 triệu - 2.47%</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Đồ ngủ, đồ mặc nhà nam - 383 triệu - 96.76%</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5438</v>
+        <v>26759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>van-phong-pham</t>
+          <t>ao-cho-nam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://metric.vn/van-phong-pham</t>
+          <t>https://metric.vn/ao-cho-nam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>văn phòng phẩm</t>
+          <t>áo cho nam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>c2091778261</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1__100638</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Văn Phòng Phẩm</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>82007</v>
+        <v>6137</v>
       </c>
       <c r="K14" t="n">
-        <v>2285603</v>
+        <v>5133018</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>văn phòng phẩm</t>
+          <t>áo cho nam</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2719,143 +2844,152 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>4470091514d7b3cfccececb8aaa61814</t>
-        </is>
-      </c>
-      <c r="X14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>38538497974</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3034954</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22990</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4267</v>
+          <t>43188eedf20bbe31f5c280f94b58eccc</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>952 tỷ</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>8 triệu</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>103 nghìn</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>14 nghìn</t>
+        </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Chăn Gối Văn Phòng Trái Cây Tròn (Hình, Video Thật Sản Phẩm)
-Hộp cơm inox giữ nhiệt văn phòng Elmich EL-8030 2.2 lít, Sản phẩm gồm ba hộp đựng, kèm bộ muỗng dĩa - JoyMall
-[XUẤT NHẬT] Hộp cơm giữ nhiệt, thực phẩm văn phòng lúa mạch NATAHI FS1 2 tầng Inox, chống gỉ, sang trọng
-File lá đựng tài liệu a4 30 60 túi đựng tài liệu -bìa kẹp đựng tài liệu văn phòng phẩm - sổ lưu hình siêu âm - MIYABI
-UUMIR Hộp đựng bút chì Bút in hoạt hình đa chức năng Dễ thương Công suất lớn Văn phòng phẩm Đồ dùng học tập văn phòng
-Túi đựng cơm giữ nhiệt văn phòng Black NATAHI MQ01 vải Oxford, đựng đồ ăn, thực phẩm, chống thấm, làm quà tặng
-Máy Tính Để Bàn Đa Năng Hộp Bảo Quản Nhựa Người Tổ Chức Ngăn Kéo Trang Trí Tóc Mỹ Phẩm Trang Sức Văn Phòng Phẩm
-Văn Phòng Phẩm Hộp Bảo Quản Để Bàn Trong Suốt Đồ Lặt Vặt Ngăn Kéo-Loại Đựng Bút Tủ Đựng Mỹ Phẩm Băng Phụ Kiện Tóc Trẻ Em
-Bàn làm việc để bàn hộp bảo quản sinh viên Ins phong cách văn phòng phẩm túi xách mỹ phẩm tủ bàn ký túc xá ngăn kéo bảo
-Bút gel đen xanh đỏ ngòi 0.5mm mực đều nét chữ đẹp - Bút mực gel viết trơn văn phòng phẩm Hikoma
-Bút bi nước HAKI mực gel bút bi bấm văn phòng Deli mực đen ngòi 0.5mm A575 đồ dùng học tập văn phòng phẩm B52
-Kẹp Giấy Tài Liệu Deli 12 Chiếc Kẹp Bướm Văn Phòng Phẩm Học Sinh Văn Phòng Nhiều Kích Thước Nhỏ Gọn Tiện Lợi Giá Rẻ
-Tủ kệ đựng bút, văn phòng phẩm cao cấp nhựa trong suốt mẫu mới BG85
-Letit | INS Hộp đựng bút chì màu Macaron Túi mỹ phẩm Văn phòng phẩm phong cách Hàn Quốc
-Bảng Kê Cutting Mat Khổ A3, A4, A5 Dùng Kê Cắt, Dán, Rạch Washi Tape Làm Đồ Handmade DIY - Văn Phòng Phẩm Sáng Tạo
-Bút brush metalic DecorMe bút viết calligraphy ngòi soft brush sign pen bộ 10 12 bút phụ kiện văn phòng phẩm
-Văn phòng phẩm M &amp; G Bút đánh dấu 6 màu Bút vẽ tay Bút đánh dấu một đầu dễ thương Bút đánh dấu bắt mắt Miffy Series Bút vẽ tay cầm tay di động 6 Cái / túi
-Dụng Cụ Lau Bảng Trắng Có Tay, Bông Lau Mịn Sạch  - Văn Phòng Phẩm Thành Phát- bông lau bảng
-Túi giữ nhiệt đựng hộp cơm trưa văn phòng, hộp thực phẩm đa năng chất liệu vải Oxford hình chữ nhật cỡ lớn dành cho nữ
-Hộp Ngăn Kéo Để Bàn Đựng Văn Phòng Phẩm, Mỹ Phẩm, Decor Bàn Học Có Thể Xếp Chồng Nhiều Tầng  Phong Cách Hàn Quốc P015
-Túi đựng bút dung lượng cao Ba lớp màu trơn Hộp đựng bút chì Vải đa chức năng Túi đựng văn phòng phẩm
-Bút Chì, Hộp Bút Chống Thấm Nước EVA, Phim Hoạt Hình Kuromi / Cinnamoroll / Pochacco Dung Tích Lớn Di Động Văn Phòng Phẩm Tổ Chức Quà Tặng
-2024 Kế hoạch hàng tuần / hàng tháng 60 tờ Danh sách việc cần làm Memo Pad Quản lý thời gian Sổ tay Người lập kế hoạch Trường học Đồ dùng văn phòng Văn phòng phẩm
-Văn phòng phẩm M &amp; G 100 Giấy ghi chú đầy màu sắc Giấy dán ghi chú Nhãn dán tin nhắn 76 * 51mm Giấy ghi chú Post-it Sổ ghi chú Gói đơn Màu ngẫu nhiên YS-09 Văn phòng phẩm Back-to-School M và G
-Túi đựng bút Kapibara 2 lớp  ( Có sẵn ) nắp gập nhiều ngăn, văn phòng phẩm dễ thương đa năng
-Kệ đựng tài liệu văn phòng phẩm 3 tầng để bàn  TCT-235 dùng trong văn phòng - dễ dàng sử dụng
-Dép đi trong nhà tắm văn phòng phẩm nam nữ chống trơn trượt (mẫu karô)
-UUMIR Bút Chì, Túi Đựng Bút Dung Tích Lớn Sang Trọng, Cửa Sổ Mềm Có Thể Xem Đa Năng Văn Phòng Phẩm Túi Bảo Quản Đồ Dùng Học Tập Văn Phòng
-Bút Dual brush pen DecorMe bút viết tiêu đề phụ kiện văn phòng phẩm
-Bút bi nước mực gel ngòi 0.5mm khô nhanh viết chữ đẹp B16 LENG KENG VĂN PHÒNG PHẨM</t>
+          <t>shopee - 723 tỷ - 75.86%
+tiktok - 134 tỷ - 14.04%
+lazada - 83 tỷ - 8.7%
+tiki - 13 tỷ - 1.4%</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>shopee - 35 tỷ - 91.15%
-lazada - 2 tỷ - 5.63%
-tiktok - 1 tỷ - 2.98%
-tiki - 94 triệu - 0.25%</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>Văn Phòng Phẩm/Thiết Bị Trường Học - 12 tỷ - 35.46%
-Văn Phòng Phẩm/Bút Các Loại - 7 tỷ - 20.78%
-Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 4 tỷ - 12.02%
-Văn Phòng Phẩm/Sổ &amp; Giấy Các Loại - 3 tỷ - 7.54%
-Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 3 tỷ - 7.39%
-Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 1 tỷ - 3.46%
-Nhà cửa &amp; Đời sống/Nội thất - 840 triệu - 2.39%
-Sắc Đẹp/Dụng cụ làm đẹp - 378 triệu - 1.08%</t>
-        </is>
-      </c>
+          <t>Áo Sơ Mi Trơn Vải Lụa Tay Ngắn Cho Nam LADOS - 8069
+Áo khoác hoodie zip kéo khóa nỉ bông có mũ form rộng unisex mặc cho cặp đôi nam nữ kiểu hàn ulzzang Deliz ChouChou
+ÁO THUN FORM RỘNG NAM Nữ TRẮNG TAY ĐEN OLDSCHOOL Top Cổ Tròn
+Áo Len Cổ Tròn Hình Chữ Trước Chữ Sau Áo Phom  Cho Nam Và Nữ, Chất Liệu Len Dệt Kim, Free Size, A15 Menswear Shirt
+Áo Thun T-Shirt Basic Cổ Tròn Cho Cả Nam Và Nữ - 95% cotton, 5% spandex - 250gsm Limited Menswear
+Áo cardigan len dành cho cặp đôi nam nữ tặng người yêu deliz họa tiết phối màu Bunny
+Áo sweater nỉ bông MELLOW form rộng dài tay unisex  swt mặc đôi nam nữ mùa đông ulzzang ChouChou Deliz
+Lăn Nách Cho Nam Aquaselin Extreme For Men Khử Mùi, Giảm Mồ Hôi Hiệu Quả 72H, Không Ố Vàng Áo 50ml
+[CÓ MẪU MỚI] Áo thể thao jersey top oversize Kill System Silly Love cho nam và nữ
+Áo thun cặp thêu chữ BABY LOVE cho nam nữ form rộng chất cotton mỏng nhẹ - Maylily Store
+Áo khoác lông Nữ và Nam cổ cao trần bông bên trong hàng Qc cho các bạn nữ cao dưới 1m65 - nam dưới 1m70shop Ngắm Top Jacket Menswear
+Áo Thun nam DSQ 164 hình in chú cún vải cotton cao cấp co dãn 2 chiều có 2 mầu trắng và đen phù hợp cho nam
+Kyushuad Áo Khoác cardigan Dáng Rộng Cổ Chữ v Phong Cách hip hop Đường Phố Mỹ Dành Cho Nam
+Áo Khoác Jeans Xanh Đen Trơn Dành Cho Nam Nữ JEAGOVN
+Sơ mi nam tay lỡ Áo sơ mi phối màu độc đáo phù hợp cho các chàng đi chơi, tiệc tùng H62
+Áo Thun nam DSQ 210 Họa tiết hình in nhiệt vải cotton cao cấp phù hợp cho nam có 2 mầu đen trắng
+Áo Thun nam DSQ 201 hình in nhiệt cao cấp vải cotton co dãn 2 chiều thời trang mới nhất phù hợp cho nam
+Áo Khoác Gió DSQ 339 Họa Tiết Bo Gân Hình In Sau Lưng Chất Liệu Gió Cao Cấp Thời Trang Nam Phù Hợp Cho Nam Và Nữ
+Áo Thun nam DSQ hình in nhiệt cao cấp vải cotton co dãn 2 chiều có 2 mầu trắng đen  phù hợp cho nam
+Áo thun phối màu basic dễ mặc dành cho nam nữ phong cách unisex năng động chât liệu cotton Minstore
+Bộ Quần Áo Thể Thao BOSTON Phối Chữ Ngang Ngực Cho Nam Nữ
+Áo Thun Nữ, Áo Phông Unisex By PEABOO Mã TN Girl Chất Cotton Thoáng Mát Form Rộng Tay Lỡ Cho Nam Nữ
+Áo thun local brand in Sài Gòn form rộng chất vải cotton dành cho nam nữ nhiều size AT279 Miucho in graphic
+Áo Thun Nữ, Áo Phông Unisex By PEABOO Mã TN Hoa Tulip Đỏ Chất Cotton Thoáng Mát Form Rộng Tay Lỡ Cho Nam Nữ
+Áo Thun Tay Ngắn Cổ Tròn In Số Bóng Rổ Phong Cách Đường Phố Mỹ Thời Trang Mùa Hè Cho Nam
+Set nữ đi biển Banamo Fashion bộ 3 món áo 2 dây quần kèm khăn choàng quyến rũ sang chảnh 1929
+Áo Thun nam DSQ 198 hình in nhiệt cao cấp vải cotton co dãn 2 chiều phù hợp cho nam có 2 mầu đen và trắng
+Áo gió nam chống nước NPV, chất gió dù dày dặn cao cấp nhất, bên trong lót lưới thoáng khí dành cho cả nam và nữ
+Áo Thun nam DSQ 193 Họa Tiết Hình In Nhiệt Cao Cấp Chất Liệu Cotton Co Dãn 2 Chiều Có 2 Mầu Đen Trắng Phù Hợp Cho Nam
+Áo tweed kiểu cardigan Unisex - kiểu dáng Hàn Quốc thời trang cho cả nam và nữ áo - cardigan phong cách form rộn</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Văn phòng phẩm và nghề thủ công/Phụ kiện cho trường học và văn phòng - 540 triệu - 24.89%
-Văn phòng phẩm và nghề thủ công/Dụng cụ viết lách - 387 triệu - 17.84%
-Làm đẹp/Trang điểm - 259 triệu - 11.95%
-Đồ chơi/Nghệ thuật &amp; Thủ công - 216 triệu - 9.96%
-Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 114 triệu - 5.25%
-Văn phòng phẩm và nghề thủ công/Sản phẩm từ giấy - 113 triệu - 5.2%
-Bếp &amp; Phòng ăn/Chứa đồ Nhà bếp &amp; phụ kiện - 93 triệu - 4.27%
-Đèn &amp; Trang trí/Trang trí nhà cửa - 76 triệu - 3.51%
-Văn phòng phẩm và nghề thủ công/quà tặng &amp; Gói quà - 59 triệu - 2.71%
-Đồ gia dụng nhỏ/Đồ gia dụng nhà bếp - 57 triệu - 2.61%</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
+          <t>Thời Trang Nam/Áo - 277 tỷ - 38.32%
+Thời Trang Nữ/Áo - 91 tỷ - 12.65%
+Thời Trang Nam/Áo khoác - 83 tỷ - 11.54%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 42 tỷ - 5.87%
+Thời Trang Nam/Áo len - 33 tỷ - 4.61%
+Thời Trang Nữ/Hoodie và Áo nỉ - 23 tỷ - 3.13%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 19 tỷ - 2.65%
+Thời Trang Nam/Bộ - 17 tỷ - 2.29%
+Thời Trang Nữ/Bộ - 12 tỷ - 1.65%
+Thời Trang Nữ/Áo khoác - 12 tỷ - 1.6%
+Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 10 tỷ - 1.33%
+Thời Trang Nữ/Áo len - 8 tỷ - 1.08%</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 63 tỷ - 75.54%
+Nội thất &amp; Sắp xếp/Đồ nội thất - 4 tỷ - 4.34%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 4 tỷ - 4.24%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 3 tỷ - 3.63%</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo thun nam - 6 tỷ - 45.94%</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>156638</v>
+        <v>24851</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dien-thoai-apple</t>
+          <t>ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://metric.vn/dien-thoai-apple</t>
+          <t>https://metric.vn/ao-thoi-trang-nam</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>điện thoại apple</t>
+          <t>áo thời trang nam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>c2079129999</t>
+          <t>c1556485950</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1__100013</t>
+          <t>1__100011</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Điện Thoại &amp; Phụ Kiện</t>
+          <t>Thời Trang Nam</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>719</v>
+        <v>6738</v>
       </c>
       <c r="K15" t="n">
-        <v>2201870</v>
+        <v>5019422</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>điện thoại apple</t>
+          <t>áo thời trang nam</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2889,151 +3023,168 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>5195d4cd386d0d86acb60b2f8b790e3f</t>
-        </is>
-      </c>
-      <c r="X15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>58442116571</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>512810</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>9185</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>919</v>
+          <t>b50242ea84906a69e41a2a33b161041e</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>912 tỷ</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>7 triệu</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>86 nghìn</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>10 nghìn</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Điện thoại Apple iPhone 14 128GB
-Điện thoại Apple iPhone 15 128GB
-Điện Thoại Apple iPhone 13 128Gb
-Điện thoại Apple iPhone 15 Pro Max 512GB
-Điện thoại Apple iPhone 15 256GB
-Điện thoại Apple iPhone 15 Plus 128GB
-Điện thoại Apple iPhone 15 Pro Max 256GB
-Điện Thoại Apple iPhone 15 Pro Max - Hàng Chính Hãng (VN/A) Mobile 15promax 256gb titan tựnhiên
-Điện thoại Apple iPhone 11 128GB
-Điện thoại Apple iPhone 15 Plus 256GB
-Ins Style Chấm Bi Cho Apple 15promax Vỏ Điện Thoại Iphone14 Mới 13 / 12 Internet Người Nổi Tiếng 11 Nữ 15pro Chống Rơi 14pro Vỏ Bảo Vệ
-Ốp điện thoại iPhone 15 hình gấu bông 3D dễ thương Thích hợp cho Apple 14 / 13 Promax Hộp đựng thẻ, Hộp đựng thẻ, Hộp đựng thẻ 12 Vỏ mềm 11 Dây treo dây cầm tay, Pin trái tim bé gái
-Vỏ điện thoại lucky rainbow phù hợp với apple 14promax new 13pro glass 12 11 network red ins phổ biến 7 8plus
-Đầu sạc Transformers TF-K02, dòng điện an toàn sạc nhanh, phù hợp với nhiều mẫu điện thoại di động và máy tính bảng Apple Android , mới
-Essager Điện Thoại Di Động 0.3Mm Mặt Trăng Nhẫn Từ Đĩa Đen 2 Pcs Apple điện thoại di động hệ điều hành Android Phổ
-Trả Lời Không Cần Mở Nắp, Thích Hợp Dùng Cho Ốp Điện Thoại Apple 15promax, Vỏ Da Thật 14, Ốp Bảo Vệ 7Plus Mở Nắp 13, Ốp Lưng 11 Mềm 8 Bọc Toàn Bộ 12Pro, Ốp Lưng Se3, Chống Sốc, 15PM, Nam Nữ, XR, Thương Vụ 14PR
-Thương Hiệu Thời Trang Thích Hợp Cho Apple 14 / 15Promax Advanced Iphone13 Vỏ Điện Thoại 12Promax Bao Gồm Tất Cả Chống Rơi 11 / Xsmax Vỏ Bảo Vệ 8P
-Graffiti Ngôi Sao Nhiều Màu Sắc Thỏ Trắng Phong Cách Mới Khung Kim Loại Apple 13 Ốp Điện Thoại 14ProMax13 Phim Hoạt Hình 12promax Bao Gồm Tất Cả 11 Chống Sốc xr / xsmax 34U2
-Hoạt Hình 3D Cho AirPods 1 2 3 Pro 2 Vỏ Tai Nghe Apple Sáng Tạo Kitty Điện Thoại Bluetooth Tai Nghe Sạc Trọn Gói Silicon Mềm Vỏ Vòng Chống Sốc
-Màu Sắc Ốp Điện Thoại Mặt Nhám Chống Sốc Màu Bạc Hình Mặt Cười Cho apple 14 / 13 / 12 xsmax15 niche hello yzw9
-Bàn phím và chuột Bluetooth cho Apple iPad Máy tính bảng điện thoại Xiaomi Samsung Huawei Bàn phím không dây cho Android IOS Windows (giao hàng 24 giờ)
-Vỏ tản nhiệt rỗng Điện thoại di động mui xe động cơ chống sốc chống rơi Vỏ bảo vệ Apple, iPhone 15 14 13 12 11 8 7x xs pro plus max pro max
-Ốp Điện Thoại tpu silicone Họa Tiết Da Chống Rơi Cho apple iphone 11 12 13 14 15 pro max plus
-Phong Cách Mới 7P Hug Cat 8 Cô Gái Rỗng Và Mèo Trắng xs Thích Hợp Cho Apple 15promax Vỏ Điện Thoại IMD Sợi Lông Vũ xr Hoạt Hình 13 Dễ Thương 11 Niche iPhone14 12 Vỏ Bảo Vệ Chống Sốc
-Ốp Điện Thoại Dạng Ví Có Khóa Kéo Lật Bằng Da, Thiết Kế Sang Trọng, Tương Thích Với Apple iPhone 6, 6S, 7, 8 Plus, X, XR, XS, 11, 12, 13, 14, 15 Pro Max, Có Chân Đế Và Khe Cắm Thẻ, Ốp Lưng
-A Ốp Điện Thoại Hình Cá Mập Đại Dương Phấn Má Hồng Cho iphone11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15pro
-Thích hợp cho Ốp Điện Thoại Apple 15 15promax 15plus 15pro xr iphone14promax Nữ Mới 15pro Premium 13 Trong Suốt 12 Silicon Mềm 11 Bộ x Cặp Đôi Nam xs Đơn Giản Cầu Vồng Mặt Cười xr Bao Gồm Tất Cả Chống Sốc 8plus ytk
-[ SIÊU SALE - GIÁ SIÊU RẺ ] Tai Nghe Bluetooth Không Dây Nhét Tai M10Phiên Bản Mới, Nút Cảm Ứng Tự Động Kết Nối Dùng Cho điện thoại Sony, Samsung, iphone, Apple, Oppo...
-Tx01-02-03 Bluetooth Tracker, Định Vị, Công Cụ Tìm Điện Thoại, Chống Thấm Nước, Tương Thích Với Thiết Bị Bluetooth Apple
-Cốc Sạc pd Kép type-c 65w Cho Điện Thoại apple 15 huawei 5v2a eu / us</t>
+          <t>shopee - 688 tỷ - 75.46%
+tiktok - 140 tỷ - 15.33%
+lazada - 80 tỷ - 8.73%
+tiki - 4 tỷ - 0.48%</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>shopee - 45 tỷ - 77.73%
-tiktok - 11 tỷ - 19.34%
-lazada - 2 tỷ - 2.93%
-tiki - 4 triệu - 0.01%</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>Điện Thoại &amp; Phụ Kiện/Điện thoại - 38 tỷ - 83.05%
-Điện Thoại &amp; Phụ Kiện/Phụ kiện - 7 tỷ - 15.71%</t>
-        </is>
-      </c>
+          <t>Áo nỉ hoodie boy phố sorry bea i only date boy phố gơn thời trang nam l66 cao cấp [A163]
+Áo thun polo nam phối màu trắng đen thời trang, chất vải cá sấu thoáng mát Menswear Có Cổ Ngắn Tay
+Áo sơ mi nam dài tay chất vải lụa hàn thiết kế che cúc 12 màu thời trang nam HT Menswear Shirt Trắng [mua 2 áo tặng 1 sịp nam, mua 3 áo tặng túi đeo chéo]
+Áo mưa bộ người lớn thời trang cao cấp, bộ quần áo mưa nam nữ 2 lớp giữ nhiệt, siêu chống thấm nước - Tình Ngọc Store
+Bộ quần áo thể thao nam thêu thời trang tay ngắn thêu Có thể giặt bằng máy Menswear
+Áo khoác jean vải bò denim kaki form rộng nữ mùa đông unisex nam mặc dài tay hàn quốc L66 AK24 thời trang cá tính N
+Bộ thể thao nam nữ JULIDO áo tay ngắn quần short dáng rộng thời trang Phối Dây Rút bản to Thời Trang Unisex
+Bộ Đồ Nam AVIANO Cộc Tay Có Cổ, Bộ Quần Áo Polo Chi Tiết Kẻ Sọc Thời Trang, Chất Poly Coolmax Co Giãn, Thoáng Khí
+Áo sơ mi nam dài tay sọc vải oxford cao cấp  LADOS-8126 thời trang trẻ trung, có túi
+Áo cardigan len nam nữ mặc đôi mùa đông Deliz dày dặn ấp áp form unisex thời trang Hàn Quốc Bunny
+Áo croptop Choice Việt Nam HT13 vải thun gân phong cách thời trang
+Áo Thun Raglan 1969STUDIO Basic Form Rộng Tay Lỡ Unisex Phối Tay Thời Trang Nam Nữ Top Cổ Tròn
+Áo sơ mi dài tay Bean Jack Lane, Áo sơ mi thời trang nam nữ unisex, Local Brand JACK LANE
+Áo Thun Nam DSQ 147 Siêu Cấp Hai Màu Đen Trắng Chất Liệu Cotton Thoáng Mát, Dệt Kim Thời Trang Hè 2024
+Áo Thun Nam DSQ 193 Siêu Cấp Chất Liệu Cotton Thời Trang Nam In Họa Tiết Mặt Trước
+Áo sơ mi TOPGU tay ngắn cổ đức màu trắng / đen, áo sơ mi nam vải Conton cao cấp phối họa tiết chữ rách thời trang
+[CB190] Áo polo cotton thời trang họa tiết thêu siêu hot vải cotton co dãn 4 chiều mịn mát Menswear Nam
+Áo hoodie form rộng WIND Temper Clothing Unisex thời trang nam nữ oversize Menswear Dài Tay Tay Dài
+Áo Thun 091 Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Đen Trắng
+Áo Thun Nam Siêu Cấp DSQ Ghép 1995 Chất Liệu Cotton Cao Cấp Co Giãn 2 Chiều Thời Trang Nam Thấm Hút Mồ Hôi
+Áo Thun DSQ 074 Nam Siêu Cấp Chất Liệu Cotton Thời Trang Nam Thấm Hút Mồ Hôi Hai Màu Đen Trắng
+Áo Thun Nam DSQ 062 Hai Màu Đen Trắng Chất liệu Cotton, Thời Trang Nam
+Áo Thun TEEDY Cotton Full Size Nam Nữ Thời Trang, Áo Phông Đính Gấu Phong Thái Hàn Quốc Trẻ Trung (TẶNG KÈM GẤU)
+Áo sơ mi nam mẫu mới 2 màu chất vải lụa thái cao cấp thời trang trẻ trung from chuẩn giá rẻ Menswear Có Cổ Shirt
+Áo Thun Nam 160 Chất Liệu Cotton 2 Chiều Thấm Hút Mồ Hôi Thời Trang Nam Hai Màu Đen Trắng
+Áo thun CAPYBARA unisex form rộng cổ tròn CAPYBARA Nam Nữ Hot Trend Thời Trang Mùa Hè 2024 Thoitrang.Joliestore
+Áo Thun LIFEWORK CHÍNH HÃNG Radog Thời Trang Nam Nữ Cao Cấp, Chất Vải Mềm Mịn HÀN QUỐC
+Áo khoác len SINRANSINYA phối màu tương phản phong cách hip hop đường phố Mỹ thời trang cao cấp cho nam
+Áo Thun Nam Hình In pet DSQ 069 Hai Màu Đen Trắng Chất Liệu Cotton Cổ Tròn Co Dãn Thoáng Mát Thời Trang Nam
+Áo Thun Nam DSQ 157 Màu Đen Chất Liệu Cotton Thấm Hút Mồ Hôi Thời Trang Nam Cổ Trò</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Điện thoại &amp; Máy tính bảng/Smartphones  - 1 tỷ - 60.1%
-Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 440 triệu - 25.72%
-TV &amp; Video/Video - 113 triệu - 6.63%
-Âm thanh/Các loại tai nghe - 62 triệu - 3.63%
-Thiết bị thông minh/Thiết bị số - 49 triệu - 2.83%</t>
+          <t>Thời Trang Nam/Áo - 291 tỷ - 42.33%
+Thời Trang Nam/Áo khoác - 116 tỷ - 16.82%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 70 tỷ - 10.22%
+Thời Trang Nam/Bộ - 46 tỷ - 6.72%
+Thời Trang Nữ/Áo - 40 tỷ - 5.84%
+Thời Trang Nam/Áo len - 33 tỷ - 4.72%
+Thời Trang Nữ/Áo khoác - 18 tỷ - 2.65%
+Thể Thao &amp; Dã Ngoại/Phụ Kiện Thể Thao &amp; Dã Ngoại - 11 tỷ - 1.64%
+Thời Trang Nữ/Hoodie và Áo nỉ - 11 tỷ - 1.56%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 9 tỷ - 1.36%
+Thời Trang Nam/Com lê - 8 tỷ - 1.16%</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 4 triệu - 96.42%</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr"/>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 68 tỷ - 85.64%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 8 tỷ - 10.25%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 1 tỷ - 1.42%</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo vest - Áo khoác nam - 1 tỷ - 31.1%
+Thời trang nam/Áo sơ mi nam - 905 triệu - 20.63%
+Thời trang nam/Áo thun nam - 736 triệu - 16.76%
+Nhà Cửa - Đời Sống/Ngoài trời &amp; sân vườn - 643 triệu - 14.65%</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>156638</v>
+        <v>565085</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dien-thoai-apple</t>
+          <t>ao-thun-thun</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://metric.vn/dien-thoai-apple</t>
+          <t>https://metric.vn/ao-thun-thun</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>điện thoại apple</t>
+          <t>áo thun thun</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>c2079129999</t>
+          <t>c639748914</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1__100013</t>
+          <t>1__100017</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Điện Thoại &amp; Phụ Kiện</t>
+          <t>Thời Trang Nữ</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>719</v>
+        <v>90</v>
       </c>
       <c r="K16" t="n">
-        <v>2201870</v>
+        <v>3903330</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>máy laser</t>
+          <t>áo thun thun</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Chưa phân loại</t>
+          <t>Tất cả</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Chưa phân loại</t>
+          <t>Tất cả</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Chưa phân loại</t>
+          <t>Tất cả</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3052,68 +3203,1351 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>e6bdc809b16e0eec27cb6378bc9c9181</t>
-        </is>
-      </c>
-      <c r="X16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>27948930473</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17460</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>388</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>238</v>
+          <t>ae40154f3eb195117fb262bb02c33a02</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>8,654 tỷ</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>93 triệu</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>642 nghìn</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>48 nghìn</t>
+        </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Máy Triệt Lông FQ Beauty 808 Bắc Kinh Hàng Chính Hãng | Máy Triệt Lạnh Diode Laser 808 Bắc Kinh
-[ Diode 808 ] Máy Triệt Lông Diode Laser Drusilla | Máy Triệt Lông Drusilla Cao Cấp 18 Thanh Kép| Máy Triệt Lông Lạnh
-Máy Laser Co2 Fractional Op Tech | Bóng Laser RF Hợp Kim | Xóa Sẹo Trẻ Hoá Da Chuyên Dùng Trong Spa TMV
-Máy Laser CO2 Fractional System | Laser Fractional Xoá Sẹo, Tái Tạo Trẻ Hoá Da Chuyên Dùng Trong Spa TMV
-Máy Laser CO2 Fractional Fotuna ❤️ shopspa.hn999❤️
-Máy Laser Pico sure mini, máy Laser Xóa Xăm Picosure, Xóa Nám, Tàn Nhang Pico sure
-Máy Laser Xóa Xăm Laser K4 | Máy Lazer Xóa Nám Tàn Nhang Dùng Trong Spa Và TMV
-Máy Laser Mini SE Tặng Kèm Kệ, Máy Bắn Lông Mày Băn N.ám , Tàn Nhang [ Bảo Hành 18 Tháng]
-MÁY LASER SE MINI XÓA XĂM | MÁY XÓA XĂM LASER SE MINI DÙNG TRONG SPA
-Đèn LED Pha Bi Cầu T10 BMA - Tản Nhiệt Ống Đồng, Trợ Pha Laser, 75W 12.24V/DC - Chân H4 Lắp Zin Xe Máy, Ô TÔ
-(Miễn phí vận chuyển) Máy bắn cốt, Máy căn mực, Đèn laser(laze)chiếu đường thẳng sử dụng trong xây dựng - Bảo hành 1 năm
-Sndway Máy đo khoảng cách Laser xanh 80m 120m 150m Máy đo khoảng cách Băng đo khoảng cách Đo công cụ băng kỹ thuật số
-Máy đo khoảng cách Laser TAMAKO, Dụng cụ đo chuyên nghiệp Máy đo khoảng cách hồng ngoại, Độ chính xác cao 40m 50m 70m 100m 120m Thước kỹ thuật số
-Máy cân bằng laser Sfunpro SF6605 CG Có độ chính xác cao và dễ dàng sử dụng trong nhiều điều kiện khác nhau.
-( Tặng Vòng 3D - Giá 1 Đèn ) Đèn Bi Gầm 3.0 P80 , Ánh Sáng 5500K Pha Laser Lắp ÔTô, Xe Máy Phụ Tùng Đèn Pha
-Giấy Decal Kraft Media A4/A5/A6 80gsm 100 Tờ, Giấy Nhãn Dán Da Bò Giấy Xi Măng Dùng Cho Máy In Laser
-Máy cân mặt bằng Laser 3D 12 tia DEKTON DK-LS1201 chính hãng tia siêu đẹp thái bảo
-Máy bắn cốt máy cân bằng laser MAKITA 12 tia xanh laze có điều khiển, sạc, chân đế máy, hộp nhựa
-máy cân bằng laser, máy bắn cos yamasu s500 bóng led siêu sáng pin 4400mah, gồm 2 pin theo máy, sản phẩm chưa bao gồm chân 1m2
-Máy Cân Bằng Laser 12 Tia Dekton DK-LS01201 (Không Kèm Chân Máy)
-Honda HRC Xe Máy Miếng Dán Phản Quang / Laser Xe Máy Thân Decal Chống Thấm Nước Chống Nắng Phụ Kiện Xe Máy Cho Xe Honda wave click v3 pcx160 Dẫn 125 vario
-Hccc Trung Quốc Retro Đồng Chân Máy Lư Hương Laser Khắc Rồng Chinoiserie Thủ Công Trang Trí Phù Thủy Hy Sinh Đạo Cụ Trang Trí Bàn Làm Việc MỚI
-30 Cái / bộ Sanrio Kuromi Cinnamoroll Hoạt Hình Ba Chiều Laser Dán Xe Tay Ga Hành Lý Máy Tính Bảng Trang Trí Graffiti Đề Can Miếng Dán Trẻ Em Quà Tặng
-Đề can ô tô gương chiếu hậu - Hello Gorgeous Car Sticker - Đề can máy tính xách tay tích cực - Phụ kiện nội thất ô tô - Nhãn dán tạo kiểu chữ Laser - Dành cho ô tô, xe máy, mũ bảo hiểm
-Eshylala Trung Quốc Retro Đồng Chân Máy Lư Hương Laser Khắc Rồng Chinoiserie Thủ Công Trang Trí Phù Thủy Hy Sinh Đạo Cụ Trang Trí Bàn Làm Việc Eshylala
-Mowin - Ốp Điện Thoại tương thích với iPhone 14 Pro Max, vỏ laser gợn nước, TPU mềm, chống sốc, bảo vệ máy ảnh, Trái tim màu đen đơn giản, Tương thích với iPhone 13 12 11 XR XS 7
-Mowin - vỏ Ốp Điện Thoại tương thích với iPhone 14 Pro Max, laser, gợn nước, phim mềm, TPU, chống sốc, bảo vệ máy ảnh, gradient, màu tím đậm, Tương thích với iPhone 13 12 11
-Laser Xe Miếng Dán Xe Máy GP Nhà Tài Trợ Xe Tay Ga Dải Bên Miếng Dán Bê Kết Hợp Miếng Dán Decal
-Galicici Chiikawa Laser Nhỏ Giọt Miếng Dán / Hachiware Usagi 3D Vật Liệu Trang Trí Miếng Dán Cho Điện Thoại Di Động Và Trang Trí Máy Tính Bảng
-Pin AG13 Xài Cho Đèn Pin Laser - Đồ Chơi Trẻ Em - Điều Khiển - Máy Tính - 1 Viên</t>
+          <t>shopee - 5,744 tỷ - 66.38%
+tiktok - 2,581 tỷ - 29.82%
+lazada - 290 tỷ - 3.35%
+tiki - 38 tỷ - 0.44%</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>shopee - 22 tỷ - 77.19%
-tiktok - 6 tỷ - 22.81%</t>
+          <t>Áo polo nam cổ bẻ thêu chữ U sang trọng cao cấp nhất của nhà  UMA STORE - (  POLOUMAOR ) Menswear Top Áo Thun Có Cổ Đen Shirt hot new 2024
+Áo thun trơn form ÔM babytee đủ màu basic ôm gọn nhiều chất vải
+Áo thun polo nam vải cá sấu phối sọc viền tay viền cổ Everest 15 màu Menswear Top Có Cổ Shirt Cộc Tay màu mới hot trend 2024
+Áo Thun Trơn Cotton 250gsm Premium Full Color Godmother Cổ Tròn Nam Nữ
+Áo thun polo nam vải cá sấu có cổ trơn basic cao cấp UMA 20 màu new 2024  Menswear Top Menswear Shirt ( POLOUMAOR ) Cam
+ÁO THUN/T-SHIRT UNISEX FORM ÂU RAGE OF THE SEA (ROTS STUDIO) "BEHIND THE LOGO"
+Áo thun baby thêu " BLACK PEARL " ver1
+Calem Club - Áo thun thể thao EMBROIDER SEVEN Jersey form unisex Sport Top
+Set suông thun lạnh áo vạt bầu có túi Bigsize(45-85Kg)Top bán chạy đồ bộ nữ
+Áo thun nữ Banamo Fashion áo thun trơn cổ tròn nhúm eo vạt chéo có bigsize 3112 Top Sơ Mi Women Màu Nâu Sò
+Áo thun BABY TEE thêu " BLACK PEARL " ver2
+[Form Nhỏ - Tăng size] [36-70 kg] Áo Khoác Nữ Tập Gym, Yoga. Áo Khoác Ko Nón Thun Lạnh [TT21-Ko Nón]. Vải Mỏng, Nhẹ, Mát, Ôm Sát Body [Đồng Sport Chạy Bộ]
+Áo thun nam trơn tay ngắn cổ tròn CAPMAN CLUB, áo phông basic chuẩn form regular fit
+Áo thun nam POLO trơn vải cá sấu cotton cao cấp ngắn tay cực sang trọng
+Áo thun Local Brand Unisex 20Promise "SAIGON IN HEART"
+Áo len tắm cổ tròn ngắn tay mùa thu đông quảng châu cao cấp thun phông baby tee ôm body lông cừu siêu mềm MS161 Nas
+Áo Thun Baby Tee Basic BLACK/WHITE/GREY Mẫu Mới 2023 Bycamcam
+Áo Sát Nách Thể Thao,Chất Thun Thông Hơi Co Giãn Mềm Thoáng Nhẹ Vận Động Thoải Mái Nam
+Set đồ nữ BIGSIZE Banamo Fashion Bộ 3 món gồm áo khoác thô tay lỡ quần short và áo thun thoáng mát 182
+Áo thun nam, áo phông nam tay ngắn cổ tròn chất cotton thun lạnh co giãn 4 chiều hình 528 alex cool
+Áo Thun Outerity Pesca / Unisex Localbrand 2024
+[ SFS07 ] ÁO THUN NỮ, ÁO THUN COTTON BASIC
+[FREE IN TÊN] Áo Thun Thi Đấu T1 LCK 2024-MSI 2024-CKTG 2023- Mẫu 4 Sao Nâng Cúp CKTG-MSI 2023-LCK 2023-CKTG 2022
+Áo Thun Nam Ngắn Tay H90 T Shirt Áo Phông Nam Cotton Cao Cấp Thoáng Mát Thấm Hút Co Giãn TST01
+Áo Thun Nam Nữ Chữ In Nhiệt Cực Nét Chất Liệu Cotton Cao Cấp Form Dáng Boy Phố Cực Hottrend 2024
+Áo thun thể thao nam Active V1 thoáng khí mát mẻ  Coolmate
+Áo Giữ Nhiệt Lót Nỉ Lông BigSize Trơn Cổ 3 Phân Dài Tay MiSoul , Áo Giữ Nhiệt Dài Tay MiSoul BigSize 237 Nữ Thun Voi Chun Đen
+Áo Thun Form Fit Chữ B. Áo Baby Tee Chất Cotton Co Giãn
+Áo Thun Nam Minimalist Color Range, Chất Vải Cotton 2 Chiều Thoải Mái, AT0102, SOMEHOW Top Menswear Cổ Tròn Đen
+Pijama Tiểu thư tay dài nút ngọc quần dài, chất liệu lụa latin kết hợp ren siêu xinh Nữ Women Quần Ngủ Áo Ngủ [ FREESIZE 40-58KG V1&lt;88CM] Thu</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ/Áo - 2,635 tỷ - 45.87%
+Thời Trang Nam/Áo - 2,007 tỷ - 34.93%
+Thời Trang Nữ/Bộ - 215 tỷ - 3.74%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 178 tỷ - 3.09%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 126 tỷ - 2.2%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 103 tỷ - 1.79%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 99 tỷ - 1.72%
+Thời Trang Nam/Bộ - 70 tỷ - 1.21%</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 131 tỷ - 45.0%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 98 tỷ - 33.64%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 25 tỷ - 8.69%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 9 tỷ - 3.06%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Quần áo &amp; Phụ kiện - 8 tỷ - 2.88%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nữ - 7 tỷ - 2.53%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé gái - 5 tỷ - 1.68%
+Giường ngủ &amp; Nhà tắm/Đồ dùng phòng ngủ - 5 tỷ - 1.61%</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo thun nam - 23 tỷ - 59.43%</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63669</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ao-ao-khoac</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://metric.vn/ao-ao-khoac</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>áo áo khoác</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c2103002918</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1__100017</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2143</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3509231</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>áo áo khoác</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>4e06e306d824335df48db8791c43175b</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>5,551 tỷ</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>31 triệu</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>282 nghìn</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>38 nghìn</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>shopee - 3,558 tỷ - 64.1%
+tiktok - 1,714 tỷ - 30.87%
+lazada - 264 tỷ - 4.76%
+tiki - 15 tỷ - 0.27%</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Áo Khoác Phao Da Lì Croptop Cao Cấp - Kiwikiuu Nữ Women Trơn
+Set áo len Gemma 2 dây kèm áo khoác ngoài, áo khoác len nữ hàng QC cao cấp
+Áo Khoác Phao Cao Cấp Dáng Lửng Boxy, Áo Pufer Jacket Basic Godmother 2023 Nam Menswear
+Áo khoác ROWAY dạ ép cao cấp | Dạ cúc bấm V2
+Áo cardigan khoác ngoài GEMMA chất liệu len mềm hàng quảng châu dáng rộng freesize basic
+Áo Hoodie Zip EMPTI Tag Su 01 - Áo Khoác Nỉ Dây Kéo Nhiều Màu Form Rộng Unisex
+Áo khoác nỉ croptop Hàn dáng rộng siêu xinh Miho house
+ÁO KHOÁC NHUNG GÂN TÚI ĐẮP
+Áo khoác jean có mũ nón chất vải bò denim khoác ngoài nam nỉ unisex xanh đen kaki ấm áp mùa đông From Rộng L66 AK26
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo khoác Phao Nữ có mũ đại Hàn Siêu Ấm , áo Phao dáng rộng ( Có bigsize) CÓ SẴN-GIAO NGAY
+Áo Khoác Blazer Dáng Rộng Thời Trang Xuân Hè Cho Nữ
+Áo Khoác Dạ Tweed cổ vest dáng blazer ngắn croptop kẻ sọc 2 lớp cao cấp sang trọng thu đông hàng loại 1 AK17
+[SẴN HÀNG] ÁO KHOÁC PHAO NAM NỮ ĐẠI HÀN - LOGO CN HÀNG QC LOẠI 1
+Áo Khoác Phao Dáng Lửng Boxy, Áo Phao Godmother 2023
+ÁO KHOÁC DÙ PHỐI 2 LỚP LOCAL BRAND OTIS CLUB - ZIP JACKET PHỐI SS02 Kem Nam
+Áo khoác dạ hai lớp kem đen xinh 4 túi kiểu dáng Hàn Quốc kozoda AK39
+Áo khoác phao nam nữ hàng Quảng Châu
+[DUY NHẤT 17-24.8 VOUCHER GIẢM 50k] Áo khoác gió dù Paradox - Jolly Jacket
+Áo khoác nhẹ Nam nữ unisex fom rộng cổ đứng vải dù  2 lớp phối viền tay 2 màu phong cách school hàn quốc (BELIEFALWAY) Top Jacket Women Màu Đen
+Áo Imperfect - Áo Gile phao trần bông nam nữ, áo khoác phao form rộng túi hộp 2 màu đen be, Menswear nam
+[Ảnh Thật]  Áo Phao Cao Cấp Siêu Nhẹ Nữ, Áo Khoác Nữ Trung Niên Có Mũ Dáng Ngắn Hàng VNXK, Mã: C5
+YODY Áo Khoác Nam Gia Đình 3C Pro 2 Lớp Có Mũ Cản Nước Cản Bụi 2023 AKM6017
+Áo Khoác Nam Mùa Đông Tommy Helfiger, Tránh Gió, Chống Mưa, Chống nước, Lót Bông Siêu Ấm Hàng Cao Cấp Có BIG SIZE
+Áo khoác lót lông nam trung niên Mùa đông
+Áo khoác nỉ hoodie zip nam nữ local brand unisex bigsize bông dầy dặn dây kéo có mũ to mặc cặp đôi Pandax Polime Race
+Set cardigan nữ khoác ngoài len tăm mềm mịn cổ tròn dài tay hai chi tiết kèm áo hai dây tiểu thư hottrend DELIZ
+Áo hoodie zip nỉ nam nữ SuMiMi áo khoác hoodie zip loại nỉ bông, form rộng vải dày dặn bền bỉ màu đen xám
+(CÓ SẴN) ÁO KHOÁC PHAO DA TRƠN DÁNG NGẮN NAM NỮ CAO CẤP LOẠI 1
+Áo Khoác Gió Nam Nữ Viền Tay Có Túi Trong in Chữ Áo Dù 2 Lớp Chống Nước Chống Nắng -PROTEX UNISE</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ/Áo khoác - 1,257 tỷ - 35.32%
+Thời Trang Nam/Áo khoác - 848 tỷ - 23.85%
+Thời Trang Nữ/Áo len - 347 tỷ - 9.75%
+Thời Trang Nữ/Hoodie và Áo nỉ - 341 tỷ - 9.59%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 173 tỷ - 4.87%
+Thời Trang Nữ/Bộ - 117 tỷ - 3.28%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 71 tỷ - 1.98%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 63 tỷ - 1.78%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 54 tỷ - 1.52%
+Thời Trang Nữ/Áo - 53 tỷ - 1.48%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 48 tỷ - 1.36%</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 160 tỷ - 60.66%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 67 tỷ - 25.56%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 13 tỷ - 4.81%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé gái - 6 tỷ - 2.24%
+Quần Áo và Giày Dép Trẻ Em /Quần áo bé trai - 6 tỷ - 2.08%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nữ - 3 tỷ - 1.25%</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo vest - Áo khoác nam - 9 tỷ - 62.99%
+Thời trang nữ/Áo khoác nữ - 3 tỷ - 20.68%</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27334</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ao-nam-nu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://metric.vn/ao-nam-nu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>áo nam nữ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c1556485950</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1__100011</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5985</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2838558</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>áo nam nữ</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>687fd7366b8ba27304693808fc753659</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>4,982 tỷ</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>43 triệu</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>212 nghìn</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>24 nghìn</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>shopee - 3,656 tỷ - 73.39%
+tiktok - 1,196 tỷ - 24.0%
+lazada - 115 tỷ - 2.31%
+tiki - 15 tỷ - 0.3%</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Bộ quần áo xốp nam nữ ngắn tay thêu hình Tay ngắn dây rút bản to  Menswear đen l thường
+Áo Thun Trơn Cotton 250gsm Premium Full Color Godmother Cổ Tròn Nam Nữ
+Áo Khoác nỉ bông dây kéo Tay Dài Form Boxy Dessuu Túi Ngược Nhiều Màu_Tay Phồng Hoodie zip Nam Nữ
+Áo Sweater INS Tay Phồng Form Boxy Chất Nỉ Bông Dầy Dặn Thêu Đắp Vải Form Rộng Nam Nữ Nhiều Màu_SSSTore
+Áo chống nắng 2 lớp RICO chống tia UV nam nữ khoá kéo cổ cao M08
+Áo thun nữ Banamo Fashion áo thun trơn cổ tròn nhúm eo vạt chéo có bigsize 3112 Top Sơ Mi Women Màu Nâu Sò
+Áo chống nắng nam nữ 2 lớp phối màu độc đáo, hiệu quả gấp 2 lần
+Set nữ BIGSIZE Banamo Fashion bộ áo thun tăm cổ vuông kèm quần culottes 191 Top Kem Women Jacket
+Áo khoác gió JULIDO nam nữ (FORM RỘNG) cao cấp hai khóa tráng bạc Mùa đông Menswear Jacket
+Áo Khoác Hoodie Dây Kéo Nocturnal Nỉ Thêu Local Brand Unisex Nam Nữ
+Áo Sweater, Áo Len Lông Cao Cấp Họa Tiết Vằn Luxury Nam Nữ Mặc Đều Đẹp - Áo Len Hổ Vằn Chất Liệu Đẹp Fỏm Dáng Trung Quốc
+Áo Phao Cao Cấp Nam Nữ MOUNTAINN  Mix Mũ Hot Trend 2024 Cực Ấm
+Áo Thun NOCTURNAL Crewman Tee Cotton 100% Nam Nữ Unisex Form Rộng Tay Lỡ Oversize Local Brand
+Áo thun nam cổ bẻ phối màu, áo polo nam nữ sọc vai chất liệu thoáng mát co giãn 4 chiều thấm hút mồi hôi POLO10
+[T] Bộ Đồ Adidas Phối 3 Màu Logo Thêu Dáng Unisex Phong Cách Trẻ - Bộ Áo Thun Nam Nữ Adidas Hót Trend Chất Cotton #Hot
+Áo ba lỗ Cổ tròn nam nữ sát nách form rộng vải thun trơn Áo tanktop Oversize Unisex Menswear
+Áo hoodie nam nữ nỉ bông mùa đông sweater cặp đôi mặc cùng người yêu oversize hàn quốc Freedom xanh HD152 Lamour
+Áo sơ mi nhung tăm nữ nam unisex dáng rộng tay dài phồng , áo khoác nhung tăm nam nữ unisex ok
+Bộ Quần Áo Nam A Đì Đát Bản Scap Áo Cổ Bẻ Phối Viền Vai Dệt Hoàn Thiện_Bộ Quần Đùi Thể Thao Nam Nữ Chất Vải Tàu Siêu Nét
+Áo Thun Unisex Nam Nữ Cổ Tròn Bad Rabbit RABBIT SPECIAL TEE 100% Cotton - Local Brand Chính Hãng
+Áo croptop nữ Choice Việt Nam ATC01 tay ngắn thời trang
+Áo Polo Hình Thêu Gấu, Áo tay ngắn nam nữ đơn giản basic dễ phối đồ chất liệu vải cotton 100% mềm mịn thoáng mát BuFaLo
+🔥Hot🔥 Áo Sơ Mi Nam Nữ THOM 4 Vạch Tay Cao Cấp Áo sơ mi kẻ sọc đủ size Nam/Nữ hàng cao cấp chuẩn loại 1 (CÓ SẴN)
+Áo mưa choàng vải nhựa PVC nhập khẩu chính hãng Sơn Thủy freesize nhiều màu cho nam nữ
+Áo thun Baby Tee DISNEY unisex phông Nam Nữ Local Brand Chính Hãng Local Brand Midori M Studio
+Áo khoác lông cừu nam nữ 2023 Menswear Dài Tay Jacket
+Áo thun OFF-WHITE form rộng tay lỡ vải 100% cotton cực đẹp, Áo Phông Unisex Nam nữ - LemonStore99
+Áo Thun Nam Nữ Unisex Cotton 100% Retro Hàn Quốc Godmother
+Áo Thun NOCTURNAL Basic Baby Tee Cotton 100% Nam Nữ Unisex Local Brand
+Áo Thun D.R.E.W Mặt Cười, Áo Phông Form Rộng Unisex Vải Cotton Nam N</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Thời Trang Nam/Áo - 1,042 tỷ - 28.49%
+Thời Trang Nữ/Áo - 738 tỷ - 20.19%
+Thời Trang Nữ/Hoodie và Áo nỉ - 392 tỷ - 10.71%
+Thời Trang Nam/Hoodie &amp; Áo nỉ - 369 tỷ - 10.09%
+Thời Trang Nam/Áo khoác - 361 tỷ - 9.87%
+Thời Trang Nữ/Áo khoác - 212 tỷ - 5.81%
+Thời Trang Nam/Bộ - 146 tỷ - 3.99%
+Thời Trang Nữ/Bộ - 120 tỷ - 3.28%
+Thời Trang Nam/Áo len - 47 tỷ - 1.29%
+Thể Thao &amp; Dã Ngoại/Thời Trang Thể Thao &amp; Dã Ngoại - 41 tỷ - 1.12%</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nam/Quần áo nam - 71 tỷ - 61.75%
+Giày dép &amp; Quần áo nữ/Quần áo nữ - 31 tỷ - 26.94%
+Trang Phục &amp; Giày Dép Thể Thao/Trang Phục Thể Thao Nam - 3 tỷ - 2.76%</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Thời trang nam/Áo thun nam - 7 tỷ - 47.91%</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5137</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dien-thoai-iphone</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://metric.vn/dien-thoai-iphone</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>điện thoại iphone</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c2079129999</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1__100013</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>99884</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2621667</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>điện thoại iphone</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>4b5926aee4dd5bd41b4d28b7112b3374</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2,639 tỷ</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>20 triệu</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>201 nghìn</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>7 nghìn</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>shopee - 2,236 tỷ - 84.7%
+tiktok - 374 tỷ - 14.16%
+lazada - 28 tỷ - 1.06%
+tiki - 2 tỷ - 0.08%</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Điện thoại Apple iPhone 15 Pro Max 256GB
+Điện thoại Apple iPhone 14 Pro Max 128GB
+Điện thoại Apple iPhone 14 Pro Max 256GB
+Điện thoại Apple iPhone 15 Pro 128GB
+Điện thoại Apple iPhone 15 128GB
+Điện thoại Apple iPhone 13 128GB
+Điện thoại Apple iPhone 14 Pro 128GB
+Điện thoại  iPhone 15 Pro Max 256GB - Hàng Chính Hãng
+Điện thoại Apple iPhone 15 Plus 128GB
+Điện thoại iPhone 15 Pro Max 256GB - 512GB - 1TB
+Bao Da Điện Thoại Dạng Ví Lật, Dành Cho Apple iPhone 6, 6S, 7, 8 Plus, X, XR, XS, 11, 12, 13, 14, 15, Pro Max Và 14, 15 Plus, Có Ngăn Đựng Thẻ, Ốp Điện Thoại
+Sạc nhanh iPhone FENGZHI LIFE PD 20W cao cấp gồm cục và dây cáp sạc điện thoại chính hãng củ sạc iphone
+Ốp Điện Thoại Mềm Hình Gấu Trúc Mắt Thiên Thần Cho iphone 14 13 11 7plus 15 12 pro max 8 6 xr 7 6s plus x xs max se 2020
+Ốp Điện Thoại Silicon Chống Rơi Hình Heo Hồng Cho iphone 7 7 plus 8 8plus xs xr 11 12 13 14 pro plus promax
+Bộ Vít Sửa Điện Thoại Đa Năng 25 Trong 1 Sửa Điện Thoại Iphone, Samsung, Laptop, Mắt Kính, Đồng Hồ Bộ Vít Từ Tính Nam Châm
+Giá đỡ gấp vô hình sang trọng, Ốp Điện Thoại h cho iPhone 15 12 13 14 Pro Max 11, vỏ có vòng Màng Bảo Vệ Ống Kính, giá đỡ kim loại, cẵn mềm, nắp lưng cứng trong suốt cases
+Ốp điện thoại OATSBASF khung kim loại chống sốc thích hợp cho iphone 15 / 15 pro / 15 pro max
+Điện thoại  iPhone 15 Pro Max 512GB - Hàng Chính Hãng
+Ốp Điện Thoại Mặt Nhám Chống Sốc Cho iphone 15 pro max 14 13 12 11 pro max 14 15 plus ix xsmax xr
+Phù Hợp Ốp Điện Thoại Họa Tiết Người Nhện Dễ Thương Cho iphone 11 12 pro max x xr xs max se 7 plus 8 plus 13 pro max 14 pro max
+Chất Lượng Cao Silicon Mềm Trong Suốt Hình Tai Mèo Dễ Thương Ốp Lưng Điện Thoại iPhone 15 14 13 12 11 Pro Max 14 15 Plus Chống Sốc Chống Va Đập Dễ Thương Cô Gái Đẹp
+Ốp Điện Thoại Mềm Trong Suốt Chất Lượng Cao Cho iphone 14 pro max 13 12 11 pro iphone7 / 8 plus xs xsmax xr
+Ốp Điện Thoại Acrylic Chống Sốc Họa Tiết Trái Tim Cho iPhone 15 Pro Max 15 Pro 15 14 13 12 11 Pro Max
+Phong Cách Mới Chất Lượng Cao!!!! 360 ° Ốp Điện Thoại Họa Tiết Sợi Carbon Màu Gradient Thời Trang Chống Rơi Cho iPhone 14 13 12 Pro Max 0.3
+COVET ốp lưng iphone Ốp Điện Thoại Silicon Mềm Trong Suốt Mạ Điện Bảo Vệ Ống Kính Máy Ảnh Cho ốp cho iPhone 11 12 13 14 Pro Max X XS XR 7 8 Plus
+Iphone Ốp Điện Thoại Hình Gấu Uống Cà Phê 3d Cho Iphonex xs xr xs max 7 8 plus se2020 14 13 12 11 pro max x xs max
+Điện thoại iPhone 14 256GB
+Ốp Điện Thoại Sang Trọng Có Dây Đeo Chéo Cho IPhone 14 Pro Max 12 13 11 IPhone XR 14Plus
+Ốp Điện Thoại Trong Suốt Mạ Từ Tính Cho IPhone 11 12 13 14 Pro Max XR X XS Max 7 8 14 Plus ProMax Sạc Không Dây Mềm Chống Sốc Vỏ Điện Thoại
+Ôp Điện Thoại Silicon Dẻo Màu Trơn Thời Trang Chống Sốc Cho iphone 15 pro max 14 13 12 11 pro max Ố</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện/Điện thoại - 1,798 tỷ - 80.44%
+Điện Thoại &amp; Phụ Kiện/Phụ kiện - 429 tỷ - 19.18%</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 22 tỷ - 78.02%
+Âm thanh/Thiết bị Audio chuyên nghiệp - 2 tỷ - 7.85%
+Điện thoại &amp; Máy tính bảng/Smartphones  - 1 tỷ - 5.15%
+Electronics Accessories/Phụ kiện Máy tính - 730 triệu - 2.6%
+Dụng cụ sửa chữa nhà cửa/Dụng cụ cầm tay - 545 triệu - 1.94%
+Âm thanh/Các loại tai nghe - 459 triệu - 1.64%</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 2 tỷ - 86.81%
+Hàng Quốc Tế/Thiết Bị Số - Phụ Kiện Số - 182 triệu - 8.54%
+Thiết Bị Số - Phụ Kiện Số/Phụ kiện máy tính và Laptop - 46 triệu - 2.14%</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>238588</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>phong-cach-han</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://metric.vn/phong-cach-han</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>phong cách hàn</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1__100017</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>412</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2443162</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>phong cách hàn</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>19f0c8489aa8ae99abe3a92d9b642c80</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>3,622 tỷ</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>58 triệu</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>412 nghìn</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>51 nghìn</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>shopee - 2,941 tỷ - 81.2%
+tiktok - 523 tỷ - 14.43%
+lazada - 145 tỷ - 4.0%
+tiki - 14 tỷ - 0.37%</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Áo len nữ Gemma form rộng, áo len nữ hàn quốc chất len ​​cao cấp hàng QC với phong cách tinh tế, hiện đại
+Sofa Giường Cao Cấp Thông Minh Đa Năng - Giường Sofa Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
+Quần tây nam ống rộng vải tuyết hàn, Quần âu công sở, phong cách trẻ trung 2023 Menswear Pants Jean Màu Đen
+Quần Âu Sidetab Điều Chỉnh Độ Rộng Vòng Eo, Form Dáng Baggy Phong Cách Hàn Quốc
+NALLCHEER đựng mỹ PVC trong suốt chống thấm nước phong cách Hàn Quốc Nữ công
+Giường Sofa Gấp Gọn Đa Năng - Sofa Giường Gấp Kiêm Ghế Phong Cách Hàn Quốc - Bảo Hành 3 Năm
+Tất vớ nam nữ chất liệu vải Hàn co giãn bốn chiều, kiểu dáng trơn phong cách hiện đại - Cherry Shop
+Balo Thời Trang Phong Cách Hàn Quốc Unisex KAKAPO BL041 Backpack Đeo Vai
+Áo cardigan len nữ kiểu dáng tay dài, chất liệu dệt kim len hàng quảng châu, phong cách Ulzzang Hàn Quốc
+Áo sơ mi nam tay dài JBAGY Pastel sơ mi trắng form rộng, vải lụa tăm cao cấp phong cách Hàn Quốc
+Áo len nữ dệt kim vặn thừng siêu dày nhiều màu form rộng phong cách mùa đông hàn quốc ulzzang DELIZ
+XẢ KHO NGHỈ BÁN Áo khoác cardigan nữ len dệt kim form vừa họa tiết con thoi phong cách hàn quốc DAHIXI AL49
+Dép ulzzang Nam Nữ phong cách Hàn Quốc - Dép Quai Ngang Blue And White
+Yếm váy jean nữ dáng dài xẻ trước phối túi lớn trước ngực dịu dàng nữ tính phong cách Hàn Quốc KoKo Y01
+Áo Phông Tommy Chữ Thêu Ngực Sắc Nét Chất Cotton Cao Cấp Hottrend 2024 - Áo Thun Tommy Chữ Thêu Phong Cách Hàn Quốc
+Áo Len Mềm Mịn Phối Thân Thừng Xoắn Nhiều Màu Pastel Tay dài Dáng Rộng Cổ Tim Phong Cách Hàn Quốc Vui Vẻ
+Áo Khoác Phao Nam Mũ Lông Hàng 3 Lớp Dày Dặn Phong Cách Hàn
+Tủ Để Đồ Cho Bé Hình Ôto Bus Phong Cách Hàn Quốc , Tủ Đựng Đồ Chơi, Quần Áo Cho Mẹ Và Bé Chính Hãng
+Áo Khoác dạ nam dáng dài - Áo khoác măng tô phong cách hàn quốc 2 lớp siêu dày dặn và ấm
+Quần Yếm Jean ,Quần Yếm Kaki Đùi Dáng Rộng Phong Cách Hàn Quốc Nữ Jumpsuit
+DUOHANZI Áo Thun Nữ Dài Tay Phong Cách Hàn Quốc Mới
+Set bộ quần áo Polo cho bé phối màu đen trắng phong cách hàn quốc siêu đẹp mã P05 - Size từ 10-35kg
+Giày đế đốc nữ chất da mềm êm chât phong cách hàn quốc quynh vy shop maz 1042
+Quần Thể Thao Nam ROUGH Performance Form Basic Phong Cách Hàn Quốc
+JIVIVIL Ba Lô Kỳ Lân Hoạt Hình Dễ Thương Đa Năng Sức Chứa Lớn Phong Cách Hàn Quốc Cho Bé
+Balo đi học nhiều ngăn phong cách hàn quốc BAYORE  - fom rộng ngang 31cm x chiều cao 44cm x chiều rộng 24cm
+Áo Len Phong Cách Hàn Quốc, Cổ Lọ Nửa, Ngọt Ngào, Đầu Thu, Thời Trang, Giảm Béo, Dệt Kim, Màu Trơn, Dài Tay Nữ Women Top
+Túi Xách Đeo Chéo Đeo Vai Unisex Cho Cả Nam Và Nữ Đeo Vai Phong Cách Hàn Quốc Vải Canvas Phù Hợp Đi Học Đi Chơi Đi Làm | Canvas Bag Tote JPG01
+Ba lô đi học PRETTYZYS chống thấm nước phong cách Hàn Quốc 2021 thời trang dành cho cả nam và nữ
+Túi xách nữ cầm tay GIRRYA M22 - Túi xách đeo chéo nhỏ nhắn thiết kế kiểu dáng yên ngựa mang phong cách Hàn Quốc mẫu Ho</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Thời Trang Nữ/Áo - 289 tỷ - 9.81%
+Thời Trang Nữ/Áo len - 190 tỷ - 6.46%
+Thời Trang Nữ/Áo khoác - 179 tỷ - 6.07%
+Túi Ví Nữ/Túi đeo chéo &amp; Túi đeo vai - 129 tỷ - 4.39%
+Thời Trang Nữ/Váy - 106 tỷ - 3.59%
+Phụ Kiện Thời Trang/Phụ kiện tóc - 104 tỷ - 3.53%
+Thời Trang Nữ/Quần jeans - 97 tỷ - 3.31%
+Thời Trang Nam/Áo - 89 tỷ - 3.04%
+Nhà cửa &amp; Đời sống/Nội thất - 73 tỷ - 2.49%
+Thời Trang Nữ/Đầm - 72 tỷ - 2.44%
+Thời Trang Nữ/Bộ - 70 tỷ - 2.36%
+Thời Trang Nữ/Quần - 67 tỷ - 2.27%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé gái - 64 tỷ - 2.17%
+Túi Ví Nữ/Ba lô - 63 tỷ - 2.15%
+Phụ Kiện Thời Trang/Mũ - 63 tỷ - 2.15%
+Thời Trang Nữ/Vớ/ Tất - 57 tỷ - 1.94%
+Giày Dép Nữ/Xăng-đan và dép - 53 tỷ - 1.82%
+Thời Trang Nam/Áo khoác - 53 tỷ - 1.81%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo bé trai - 52 tỷ - 1.75%
+Thời Trang Nam/Com lê - 47 tỷ - 1.59%
+Giày Dép Nữ/Giày thể thao/ sneaker - 46 tỷ - 1.58%
+Thời trang trẻ em &amp; trẻ sơ sinh/Quần áo trẻ em - 41 tỷ - 1.41%
+Thời Trang Nữ/Quần đùi - 41 tỷ - 1.4%
+Thời Trang Nữ/Hoodie và Áo nỉ - 41 tỷ - 1.38%
+Thời Trang Nam/Quần dài - 40 tỷ - 1.37%
+Thời trang trẻ em &amp; trẻ sơ sinh/Phụ kiện trẻ em &amp; trẻ sơ sinh - 40 tỷ - 1.36%
+Phụ Kiện Thời Trang/Kính mắt - 38 tỷ - 1.28%
+Thời trang trẻ em &amp; trẻ sơ sinh/Giày bé gái - 31 tỷ - 1.06%
+Giày Dép Nam/Giày thể thao/ Sneakers - 31 tỷ - 1.06%</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Giày dép &amp; Quần áo nữ/Quần áo nữ - 37 tỷ - 25.62%</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4226</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>do-choi-cho-be</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://metric.vn/do-choi-cho-be</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>đồ chơi cho bé</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c894437317</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1__100632</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mẹ &amp; Bé</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>334702</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2400638</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>đồ chơi cho bé</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>ab5983d024b4f7ccb4ce7662b8c2bd19</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>864 tỷ</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13 triệu</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>119 nghìn</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>19 nghìn</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>shopee - 555 tỷ - 64.24%
+tiktok - 251 tỷ - 29.08%
+lazada - 54 tỷ - 6.29%
+tiki - 3 tỷ - 0.39%</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Quây bóng Vuông có ném bóng rổ, tặng 10 bóng , khung inox (kt 1m28x1m28) to rộng thoải mái cho 4 bé chơi cùng) Đồ Chơi
+COMBO 10 MÓN ĐỒ CHƠI XẾP GỖ THÔNG MINH CHO BÉ
+thùng 50 ôtô kèm 2 xe địa hình to 1 thùng đựng xinh xắn cute chơi chạy đà cót kéo lùi chất liệu hợp kim cao cấp cho bé nhỏ nhắn xinh xắn tổng hợp nhiều loại  Đồ Chơi Toy
+Đàn cho bé tự học tại nhà,Đàn piano mini,Đồ chơi đàn piano cho bé kèm ghế ngồi,Piano mini có Pedal và bảng điều khiển
+Combo Tập Tô Vẽ Thông Minh Xóa Được 64 Trang Tặng 6 Bút, Học Liệu Montessori Đồ Chơi Giáo Dục Cho Bé 2 3 4 5 Tuổi
+Combo 100 bỉm quần hoặc dán hi.p a kèm đồ chơi hoặc gấu bông cho bé Kem
+Xe chòi lắc hình khủng long có nhạc đền cho bé yêu Voi Đồ Chơi
+Combo 5 Món Đồ Chơi Gồm Đèn Chiếu, Cua Nhạc, Tặng Lật Đật, Tranh Nước, Tuỳ Chọn Gà Hoặc Rùa Vặn Cót Cho Bé Vừa Chơi Vừa Tìm Hiểu Về Thế Giới Xung Quanh
+Xe đạp 3 bánh 511 có nhạc đèn cho bé yêu 1-3 tuổi Đồ Chơi
+Gấu bông heo lim dim siêu to khổng lồ size 1M2, búp bê, đồ chơi cho bé
+Bộ thẻ GẤP KÍCH THÍCH THỊ GIÁC Cho Bé Sơ Sinh Lalala baby 12 Mặt (Mẫu Mới) - Giúp Bé Phát Triển Toàn Diện Đồ Chơi
+Xe đạp xich lô 3 bánh 2 chỗ ngồi cho bé có yên bọc da 6688 Đồ Chơi
+Đồ chơi đường hầm khủng long đường đua cho bé kèm xe
+Đồ Chơi Montessori BEYEUSHOP , Ngôi Nhà Bận Rộn Kích Thích Phát Triển Tư Duy Cho Bé Từ 8 Tháng Tuổi
+Bộ 6 Xe Đồ Chơi Size To Cho Bé, Xe Ô Tô Cho Bé, Xe Công Trình, Cứu Hoả, Cảnh Sát, Quân Sự, Cứu Hộ, Xây Dựng
+Set 6 đồ chơi ngậm mọc răng JOLLYBABY chất liệu an toàn không độc hại làm quà tặng Giáng sinh nhật năm mới cho em bé
+Thảm Nhạc Cho Bé 9BABY Có Bàn Piano - Piano Cho Bé, Xúc Xắc, Đồ Chơi Treo Nôi, Gặm Nướu, Cho Trẻ Sơ Sinh
+[NHIỀU MẪU-LOẠI 1] Đồ chơi ông già Noel leo dây, lộn nhào, leo thang, chui ống khói - Quà tặng cho bé
+xe chòi chân cân bằng cừu có đèn nhạc cho bé yêu ,Trẻ mới tập đi Đồ Chơi
+Đồ chơi cắt bánh sinh nhật loại lớn 85 chi tiết kèm nhạc và đèn - Bộ đồ chơi cắt bánh sinh nhật cho bé có đèn và nhạc
+Bộ đồ đi chơi Noel cho bé trai bé gái quần caro dây bell Giáng Sinh áo đỏ kèm hinh cây thông 2023 - Dilli Bebe
+[HỎA TỐC HCM] Đồ chơi nhà tắm vặn cót cho bé thả bồn tắm hồ bơi nhựa nguyên sinh an toàn - Đồ chơi trẻ Em HT KIDS
+Đồ chơi lắp ráp ốc vít trẻ em, hộp dụng cụ sửa chữa kĩ sư di động gồm máy khoan điện, búa, cưa, tô vít cho bé
+Súng Nước Áp Lực Nhiều Chế Độ Bắn, Súng Nước Mini, Súng Nước 2 Nòng Đồ Chơi Mùa Hè Cho Bé Mới Nhất Dung Tích Lớn 1200ml
+Đồ chơi nhà tắm cho bé NEMO STORE rùa bơi trong nước thả bồn tắm, bể bơi cho bé vịt, cá, heo, cua, thỏ bơi...
+C20- Đồ chơi máy bay trực thăng chạy pin size lớn 35cm cho bé, xoay 360 độ, có nhạc và âm thanh. A1
+Tủ quần áo trẻ em gấp gọn có bánh xe, tủ đựng đồ cho bé, có thể đựng đồ chơi, sữa, tã lót, chất liệu PP cao cấp
+Đĩa bay rút dây silicon gặm nướu luyện ngón tay đồ chơi cầm tay cho trẻ sơ sinh nhỏ bé trai bé gái 5 6 9 1 12 tháng tuổi
+Xe Ô Tô Đồ Chơi Cho Bé Trai Khủng Long Nuốt Ô Tô Con Gồm 6 Xe Khủng Long Ôm Xe Đồ Chơi Cho Bé Trai - BỐ KHỦNG LONG
+Thỏ Bông Miffi Siêu Mềm Cho Bé, Thú Nhồi Bông Đồ Chơ</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Mẹ &amp; Bé/Đồ chơi - 453 tỷ - 81.72%
+Mẹ &amp; Bé/Đồ dùng phòng ngủ cho bé - 38 tỷ - 6.77%
+Sở thích &amp; Sưu tầm/Đồ chơi - Giải trí - 13 tỷ - 2.37%
+Nhà cửa &amp; Đời sống/Nội thất - 9 tỷ - 1.59%</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Đồ chơi/Đồ chơi điện tử &amp; Điều khiển từ xa - 9 tỷ - 15.98%
+Đồ chơi/Đồ chơi cho trẻ sơ sinh &amp; trẻ nhỏ - 8 tỷ - 14.97%
+Đồ chơi/Đồ chơi giáo dục - 6 tỷ - 11.45%
+Đồ chơi/Trò chơi truyền thống - 5 tỷ - 9.25%
+Đồ chơi/Lắp ráp tòa nhà - 5 tỷ - 8.39%
+Đồ chơi/Đồ chơi thể thao &amp; ngoài trời - 5 tỷ - 8.31%
+Đồ chơi/Nhập vai Phục trang &amp; Dạ tiệc - 4 tỷ - 8.23%
+Đồ chơi/Nghệ thuật &amp; Thủ công - 2 tỷ - 4.01%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Chăm sóc sức khỏe cho trẻ - 2 tỷ - 3.92%
+Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 1 tỷ - 2.6%
+Trẻ sơ sinh &amp; Trẻ nhỏ/Xe &amp; Ghế - 1 tỷ - 2.37%
+Đồ chơi/Đồ chơi &amp; Bộ sưu tập nhân vật - 1 tỷ - 1.85%
+Đồ chơi/Đồ chơi nhồi bông - 849 triệu - 1.56%</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Đồ Chơi - Mẹ &amp; Bé/Đồ chơi - 2 tỷ - 72.05%</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5438</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>van-phong-pham</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://metric.vn/van-phong-pham</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>văn phòng phẩm</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c2091778261</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1__100638</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Văn Phòng Phẩm</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82007</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2285603</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>văn phòng phẩm</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4470091514d7b3cfccececb8aaa61814</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>72 tỷ</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>6 triệu</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>26 nghìn</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>5 nghìn</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>shopee - 60 tỷ - 83.04%
+lazada - 10 tỷ - 13.53%
+tiktok - 2 tỷ - 2.79%
+tiki - 463 triệu - 0.64%</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Chăn Gối Văn Phòng Trái Cây Tròn (Hình, Video Thật Sản Phẩm)
+[XUẤT NHẬT] Hộp cơm giữ nhiệt, thực phẩm văn phòng lúa mạch NATAHI FS1 2 tầng Inox, chống gỉ, sang trọng
+File lá đựng tài liệu a4 30 60 túi đựng tài liệu -bìa kẹp đựng tài liệu văn phòng phẩm - sổ lưu hình siêu âm - MIYABI
+Bàn làm việc để bàn hộp bảo quản sinh viên Ins phong cách văn phòng phẩm túi xách mỹ phẩm tủ bàn ký túc xá ngăn kéo bảo
+Văn Phòng Phẩm Hộp Bảo Quản Để Bàn Trong Suốt Đồ Lặt Vặt Ngăn Kéo-Loại Đựng Bút Tủ Đựng Mỹ Phẩm Băng Phụ Kiện Tóc Trẻ Em
+Hộp cơm inox giữ nhiệt văn phòng Elmich EL-8030 2.2 lít, Sản phẩm gồm ba hộp đựng, kèm bộ muỗng dĩa - JoyMall
+Kawaii Công Suất Lớn Đựng Hộp Túi Đựng Văn Phòng Phẩm Người Tổ Chức Cho Bé Gái Học Vật Dụng Văn Phòng Văn Phòng Phẩm
+[Quà tặng khồng bán] Túi đựng mỹ phẩm/ Văn phòng phẩm trong suốt kèm sticker dán Garnier (màu sắc giao ngẫu nhiên)
+Dung tích lớn Hộp bút chì vải có thể giặt được, túi bút học sinh, hộp bút văn phòng phẩm,bóp viết,hộp bút chì có thể thu vào
+Hộp lưu trữ trong suốt để bàn acrylic có nắp đậy văn phòng phẩm hoàn thiện hộp mỹ phẩm giá lưu trữ hộp nhỏ
+Manga Bút Chì Kim Kawaii Nghệ Thuật Vẽ Tay Móc Dòng Phác Thảo Bút Bộ Văn Phòng Phẩm Đồ Dùng Học Tập
+Hộp vải đựng quần áo có khung cứng (1 hộp) HL023 - Thùng giỏ đựng đồ chơi mĩ phẩm đa năng bằng vải cứng cắp có nắp đậy thích hợp sử dụng tại nhà văn phòng lớp học
+Hộp Tủ Mini Chia Ô Arcrylic Trong Suốt Đựng Bút Trang Sức Văn Phòng Phẩm Mĩ Phẩm Decor Trang Trí Bàn Học
+Tượng 12 con giáp gỗ tuyết tùng, Yamaba Tay Cầm Bằng Gỗ Chạm Khắc Hình Cung Hoàng Đạo / Rồng / Động Vật / Động Vật / Cừu / Khỉ / Voi /, văn phòng phẩm trang trí bàn làm việc
+File đựng tài liệu văn phòng phẩm LENG KENG kẹp nhiều ngăn khổ A4 F01
+Bút Lông Viết Bảng Thiên Long WB-03, Bút Dạ, Bút Viết Bảng Trắng  - Văn Phòng Phẩm Thành Phát
+Bộ 6 Bút gel Decorme bút Muji bút gel bấm mực đen xanh đỏ viết đều cực thích mực Muji văn phòng phẩm 0.5mm
+Học Sinh Có Thể Gập Lại Máy Tính Để Bàn Sách Hộp Lưu Trữ Phân Loại Văn Phòng Phẩm Kích Thước A4 Cho Các Chức Năng Văn Phòng, Chất Liệu Nhựa
+Hộp bút DecorMe túi bút trong suốt bản to hộp đựng bút bóp viết in hình dễ thương đựng bút văn phòng phẩm, mỹ phẩm
+Dao Rọc Giấy, Cắt Giấy, dao rọc bìa, rọc dây cáp điện Tiện Dụng Size Lớn, sản phẩm quen thuộc của học sinh, văn phòng
+200 Chiếc Kawaii Dán Laser Không Lặp Lại Dễ Thương DIY Chất Liệu Sổ Tay Cắt Kéo Học Sinh Trang Trí Trẻ Em Trường Cung Cấp Văn Phòng Phẩm
+TOYO Bút Đánh Dấu Vĩnh Viễn Bút Đánh Dấu Lốp Xe Dầu Đồ Dùng Vẽ Văn Phòng Phẩm Trường Học
+Bộ 10 con dấu lời khen thưởng tiếng anh bằng nhựa, đồ dùng giáo cụ dạy học trong học tập văn phòng phẩm GC32
+Kệ đựng bút đồ dùng học tập hộp lưu trữ văn phòng phẩm để bàn học sinh dễ thương 3 ngăn kéo và 1 ngăn cắm đồ tai thỏ
+Hộp nhựa đựng đồ để bàn JYoohome để văn phòng phẩm dụng cụ học tập, Tủ nhựa 9 ngăn mini để bàn
+Túi đựng bút vải Ngựa Pony, túi đựng bút cute dễ thương giá rẻ, đồ dùng học tập văn phòng phẩm TB03
+Sticker cute dán nhãn dùng để trang trí sổ tay bình nước dụng cụ văn phòng phẩm
+Hộp nhựa để bàn đựng văn phòng phẩm, mỹ phẩm nhỏ gọn dễ thương chất liệu nhựa PP - HOP01
+LUCKY BOX đồ văn phòng phẩm bút, sổ tay, sổ từ vựng, thước, tkb, flash card thời khoá biểu,
+Set Quà Tặng Học Sinh Noel,Giáng Sinh Miyabi Đồ Dùng Học Tập Văn Phòng Phẩm - Set 5 Món - Bộ Dụng Cụ Học Tậ</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Văn Phòng Phẩm/Thiết Bị Trường Học - 19 tỷ - 31.74%
+Văn Phòng Phẩm/Bút Các Loại - 13 tỷ - 22.14%
+Nhà cửa &amp; Đời sống/Sắp xếp nhà cửa - 9 tỷ - 14.72%
+Văn Phòng Phẩm/Sổ &amp; Giấy Các Loại - 5 tỷ - 7.66%
+Nhà cửa &amp; Đời sống/Dụng cụ nhà bếp - 4 tỷ - 6.97%
+Nhà cửa &amp; Đời sống/Chăn ga gối nệm - 2 tỷ - 3.67%
+Nhà cửa &amp; Đời sống/Nội thất - 2 tỷ - 3.49%
+Sắc Đẹp/Dụng cụ làm đẹp - 1 tỷ - 2.09%</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Văn phòng phẩm và nghề thủ công/Phụ kiện cho trường học và văn phòng - 3 tỷ - 32.78%
+Văn phòng phẩm và nghề thủ công/Dụng cụ viết lách - 2 tỷ - 20.46%
+Bách hóa/Sô cô la, Snack &amp; Kẹo - 785 triệu - 8.01%
+Văn phòng phẩm và nghề thủ công/Sản phẩm từ giấy - 527 triệu - 5.38%
+Nội thất &amp; Sắp xếp/Tủ chứa &amp; Sắp xếp đồ - 507 triệu - 5.17%
+Bếp &amp; Phòng ăn/Chứa đồ Nhà bếp &amp; phụ kiện - 461 triệu - 4.7%
+Đồ chơi/Nghệ thuật &amp; Thủ công - 390 triệu - 3.98%
+Đèn &amp; Trang trí/Trang trí nhà cửa - 310 triệu - 3.16%
+Làm đẹp/Trang điểm - 267 triệu - 2.72%
+Nội thất &amp; Sắp xếp/Đồ nội thất - 212 triệu - 2.16%
+Văn phòng phẩm và nghề thủ công/quà tặng &amp; Gói quà - 173 triệu - 1.77%
+Máy vi tính &amp; Laptop/Máy tính để bàn - 173 triệu - 1.76%</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Laptop - Máy Vi Tính - Linh kiện/PC - Máy Tính Bộ - 229 triệu - 49.45%</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>156638</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dien-thoai-apple</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://metric.vn/dien-thoai-apple</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>điện thoại apple</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c2079129999</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1__100013</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>719</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2201870</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>điện thoại apple</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Tìm thông minh</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5195d4cd386d0d86acb60b2f8b790e3f</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1,777 tỷ</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>830 nghìn</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>11 nghìn</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>1 nghìn</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>shopee - 1,721 tỷ - 96.89%
+tiktok - 52 tỷ - 2.94%
+lazada - 3 tỷ - 0.17%
+tiki - 21 triệu - 0.0%</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Điện thoại Apple iPhone 15 Pro Max 256GB
+Điện thoại Apple iPhone 14 Pro Max 128GB
+Điện thoại Apple iPhone 14 Pro Max 256GB
+Điện thoại Apple iPhone 15 Pro 128GB
+Điện thoại Apple iPhone 15 128GB
+Điện thoại Apple iPhone 13 128GB
+Điện thoại Apple iPhone 14 Pro 128GB
+Điện thoại Apple iPhone 15 Plus 128GB
+Điện thoại Apple iPhone 14 Pro Max 128GB - Chính hãng VN/A
+Điện thoại Apple iPhone 15 Pro Max 512GB
+Trường hợp điện thoại mới cho trường hợp iPhone 14/15plus,Tương thích với Apple 12/13promax Zero Wallet điện thoại di động bảo vệ,Trường hợp điện thoại XSMAX/XR
+Hộp đựng thẻ máy ảnh phong cách ins sáng tạo, ốp điện thoại di động Apple 14, iPhone13promax, ốp điện thoại di động 12, vỏ mềm xs / xr, ngăn đựng thẻ màu xám trong suốt cho thẻ xe buýt 7P / 8plus, ốp điện thoại di động, hộp đựng thẻ Polaroid
+Phù Hợp Ốp Điện Thoại Nhám Chống Sốc Cho apple Iphone 14pro 12 / 13promax 11 xr 15promax dzm8
+Huiwanju Chính Hãng Dây Xích Điện Thoại apple Mặt Hình Cô Gái Ngọt Ngào Và Cá Tính Phong Cách Âu Mỹ Để Ngăn Chặn Nó.
+[COD] Đối với iPhone 11/12/13/14/15promax trường hợp bảo vệ điện thoại, rhinestone, tương thích với Apple XSMAX/XR, Cartoon Swan, 7/8plus, phụ kiện trường hợp điện thoại nữ/phụ nữ
+[IN TÊN MIỄN PHÍ] Bút cảm ứng CWT pencil S hỗ trợ các dòng điện thoại, máy tính bảng hệ điều hành IOS/Android Phụ Kiện bút apple
+Ốp Điện Thoại Mềm Trong Suốt Họa Tiết Hoạt Hình Cho apple 14 iphone13promax12 11 / 8 7plus xs15 4khs
+Bộ sạc không dây từ tính cho điện thoại Apple,Baseus đơn giản, Mini3, 15W, đen, 6,1mm, siêu mỏng
+Apple Ốp Điện Thoại Mềm Hình Chú Vịt 3d Dễ Thương Cho  iphone xs xr xs max x 11 12 13 14 15 pro max 8 7 6s 6 14 plus
+GOOJODOQ Phổ Cho iPad Bút Chì Stylus Pen Cho Apple Pencil 1 2 Cảm Ứng Pen Cho IOS Android Surface Cho Android iPad Xiaomi Huawei Samsung Điện Thoại
+Ốp điện thoại màu tương phản cho Apple iPhone 15promax 14promax 11 / 12 / 13Promax 7 / 7plus Xsmax bìa mềm
+Dễ Thương Ốp Điện Thoại Họa Tiết Hoạt Hình Buzz lightyear Cho iphone 11 1213 pro max x xr xs max se apple 7 plus 8 plus iphone 14 15pro
+Ốp điện thoại Apple hình chú ếch ba chiều tương tự của Zhao Silu phù hợp cho iPhone 7 8 Plus X XR XS MAX 11 12 13 14 15 Pro Promax Plus Ốp bảo vệ điện thoại di động bằng silicon
+Lướt sóng mùa hè Điện thoại di động mui xe động cơ chống sốc chống nước chống rơi trong suốt Vỏ bảo vệ Apple, iPhone 15 14 13 12 11 8 7x xs pro plus max pro max
+Ốp Điện Thoại Màu Bạc Nhám Hình Mặt Cười Chống Sốc 12 Mẫu qthg Cho apple xsmax14 / niche 1315
+Màu Sắc Ốp Điện Thoại Da Dạng Túi Đựng Thẻ Chống Rơi Cho apple Iphone 15promax 14 13 / 12 11 15pro 14pro
+Ốp Điện Thoại Mặt Kính In Chữ Tiếng Anh Đơn Giản Cho apple 15 14 13promax 12 premium 11 7 8plus xr xsmax
+Ốp lưng hợp thời trang Girls Look Beautiful, Thời trang và dễ thương Vỏ điện thoại Mặt dây chuyền Thích hợp cho IPhone 11 1213 Pro MAX X XR XS MAX Apple 7 8 Plus 14 15 Pro Niche Ống kính phổ biến Bao gồm tất cả
+Dễ Thương Ốp Điện Thoại Hình Mặt Cười Nhiều Màu Có Dây Đeo Cho iphone 14pro 13promax 12pm 15 Vỏ điện thoại Apple 15peomax với mặt dây chuyền ngựa gỗ
+Ốp Điện Thoại Thiết Kế Đồ Chơi Cử Chỉ Sáng Tạo Thân Thiện Với Môi Trường Cho Apple iphon</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Điện Thoại &amp; Phụ Kiện/Điện thoại - 1,710 tỷ - 99.34%</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Điện thoại &amp; Máy tính bảng/Smartphones  - 1 tỷ - 48.14%
+Electronics Accessories/Phụ kiện điện thoại &amp; máy tính bảng - 1 tỷ - 39.65%
+Âm thanh/Các loại tai nghe - 144 triệu - 4.79%
+TV &amp; Video/Video - 84 triệu - 2.81%
+Thiết bị thông minh/Thiết bị số - 49 triệu - 1.61%</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Thiết Bị Số - Phụ Kiện Số/Phụ Kiện Điện Thoại và Máy Tính Bảng - 11 triệu - 52.36%
+Hàng Quốc Tế/Thiết Bị Số - Phụ Kiện Số - 7 triệu - 35.74%</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
